--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="449">
   <si>
     <t>Doi</t>
   </si>
@@ -1842,6 +1842,260 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,  Hui%Ren%NULL%1,  Ruilin%Cao%NULL%1,  Yueyang%Hu%NULL%1,  Zeying%Qin%NULL%1,  Chuanen%Li%NULL%1,  Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
+ Little is known about its exact impact on medical care workers and related factors in China.
+ This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
+Methods
+id="Par2"&gt;From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
+ Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
+ Multivariate regression was used to examine the determinants of adverse psychological outcomes.
+Results
+id="Par3"&gt;Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
+ The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
+ Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
+ Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
+Conclusions
+id="Par4"&gt;Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
+ Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,   Xiao-You%Su%suxiaoyou@hotmail.com%1,   Yu%Jiang%jiangyu@pumc.edu.cn%2,   Yu%Jiang%jiangyu@pumc.edu.cn%0,   Wen-Jun%Wang%wwjun1973@163.com%1,   Xiao-Fen%Gu%357539328@qq.com%1,   Li%Ma%mali_lele@sina.com%1,   Jing%Li%lijingwcph@scu.edu.cn%0,   Shao-Kai%Zhang%shaokaizhang@126.com%1,   Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,   Ran%Ren%renran99@163.com%1,   Yuan-Li%Liu%liuyuanli_pumc@163.com%1,   You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To assess the psychological effects of the novel coronavirus disease (COVID-19) on medical staff and the general public.
+ During the outbreak of COVID-19, an internet-based questionnaire included The Self-rating Depression Scale (SDS), Perceived Stress Scale (PSS-10), and Impact of Event Scale-Revised (IES-R) was used to assess the impact of the pandemic situation on the mental health of medical staff and general population in Wuhan and its surrounding areas.
+ Among the 1493 questionnaires completed, 827 (55.39%) of these were men, and 422 (28.27%) of these were medical personnel.
+ The results suggest that the outbreak of COVID-19 has affected individuals significantly, the degree of which is related to age, sex, occupation and mental illness.
+ There was a significant difference in PSS-10 and IES-R scores between the medical staff and the general population.
+ The medical staff showed higher PSS-10 scores (16.813 ± 4.87) and IES-R scores (22.40 ± 12.12) compared to members of the general population PSS-10 (14.80 ± 5.60) and IES-R scores (17.89 ± 13.08).
+ However, there was no statistically significant difference between the SDS scores of medical staff (44.52 ± 12.36) and the general public (43.08 ± 11.42).
+ In terms of the need for psychological assistance, 50.97% of interviewees responded that they needed psychological counseling, of which medical staff accounted for 65.87% and non-medical staff accounted for 45.10%.
+ During the ongoing COVID-19 outbreak, great attention should be paid to the mental health of the population, especially medical staff, and measures such as psychological intervention should be actively carried out for reducing the psychosocial effects.
+</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,   Qing-xian%Li%NULL%1,   Heng%Zhang%NULL%1,   Jia-yong%Zhu%NULL%1,   Xu%Yang%NULL%1,   Yu-hang%Wu%NULL%1,   Jie%Xiong%NULL%1,   Fu%Li%NULL%1,   Hua%Wang%whzkwlh@126.com%0,   Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is rapidly spreading worldwide, with a staggering number of cases and deaths.
+ However, available data on the psychological impacts of COVID-19 on pregnant women are limited.
+ The purposes of this study were to assess the prevalence of psychiatric symptoms among pregnant women, and to compare them with non-pregnant women.
+ From February 28 to March 12, 2020, a cross-sectional study of pregnant and non-pregnant women was performed in China.
+ The online questionnaire was used to collect information of participants.
+ The mental health status was assessed by patient health questionnaire, generalized anxiety disorder scale, insomnia severity index, somatization subscale of the symptom checklist 90, and post-traumatic stress disorder (PTSD) checklist-5. Totally, 859 respondents were enrolled, including 544 pregnant women and 315 non-pregnant women.
+ In this study, 5.3%, 6.8%, 2.4%, 2.6%, and 0.9% of pregnant women were identified to have symptoms of depression, anxiety, physical discomfort, insomnia, and PTSD, respectively.
+ However, the corresponding prevalence rates among non-pregnant women were 17.5%, 17.5%, 2.5%, 5.4%, 5.7%, respectively.
+ After adjusting for other covariates, we observed that pregnancy was associated a reduced risk of symptoms of depression (OR = 0.23; 95% CI: 0.12–0.45), anxiety (OR = 0.26; 95% CI: 0.16–0.42), insomnia (OR = 0.19; 95% CI: 0.06–0.58), and PTSD (OR = 0.15; 95% CI: 0.04–0.53) during the COVID-19 epidemic.
+ Our results indicate that during the COVID-19 epidemic in China, pregnant women have an advantage of facing mental problems caused by COVID-19, showing fewer depression, anxiety, insomnia, and PTSD symptoms than non-pregnant women.
+</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,   Hui%Shi%NULL%1,   Zhengkui%Liu%NULL%1,   Songxu%Peng%gwxypsx@163.com%2,   Songxu%Peng%gwxypsx@163.com%0,   Ruoxi%Wang%NULL%2,   Ruoxi%Wang%NULL%0,   Ling%Qi%NULL%1,   Zezhi%Li%NULL%1,   Jiezhi%Yang%NULL%1,   Yali%Ren%NULL%1,   Xiuli%Song%NULL%1,   Lingyun%Zeng%NULL%1,   Wei%Qian%NULL%1,   Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 poses the greatest challenge for the entire world since the Second World War.
+ Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
+ The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
+Methods
+id="Par2"&gt;From 25 March to 3 April 2020, an anonymous online survey was conducted.
+ Target group included all members of the Austrian population older than 16 years.
+ The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
+ The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
+ Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
+Results
+id="Par3"&gt;43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
+ 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
+ Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
+ Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
+Conclusion
+id="Par4"&gt;This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
+ 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
+ The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
+</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,   Rene%Stefitz%NULL%1,   Kerstin%Gaisbachgrabner%NULL%1,   Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The psychological impact of outbreaks on individuals includes an intense and wide range of psychiatric morbidities.
+ People are likely to experience feelings as; worry about being infected or getting sick, increased self-blame, and helplessness.
+ This study aimed to assess the impact of COVID-19 on mental health and social support among Egyptian adults during the period of the pandemic.
+ This is a cross-sectional observational study using an anonymous online questionnaire.
+ The survey was conducted through a link shared on social networking sites.
+ It was conducted from 2 May 2020 to 9 May 2020. The general populations of the Egyptian adults were included by using convenience and snowball sampling technique (510 adults).
+ Impact Event scale mean 34.3 ± 15. About 211 (41.4%) suffered a severe impact.
+ There was an increase in stress from work in 174 (34.1%), financial stress in 284 (55.7%), and stress from home in 320 (62.7%).
+ Half of them felt horrified and helpless in 275 (53.9%), and 265 (52%) respectively, while 338 (66.3%) felt apprehensive.
+ only 24.2% reported increased support from friends, while increased support from family members in 207 (40.6%).
+ 46.5% shared their feelings with family members, while 176 (34.5%) shared with others.
+ Caring for family members’ feelings increased in 330 (64.7%).
+ Age and rural residency were negative predictors for the impact of event score, while female gender or presence of chronic condition was a positive predictor for the impact of event score.
+ Covid-19 pandemic has a great psychological impact on adult Egyptians and affected social support.
+</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,   Enayat M.%Soltan%enayatsoltan@gmail.com%2,   Enayat M.%Soltan%enayatsoltan@gmail.com%0,   Hend M.%Salama%hind_mikhail@yahoo.com%2,   Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purposes of this study was to assess the youth mental health after the coronavirus disease 19 (COVID-19) occurred in China two weeks later, and to investigate factors of mental health among youth groups.
+ A cross-sectional study was conducted two weeks after the occurrence of COVID-19 in China.
+ A total of 584 youth enrolled in this study and completed the question about cognitive status of COVID-19, the General Health Questionnaire(GHQ-12), the PTSD Checklist-Civilian Version (PCL-C) and the Negative coping styles scale.
+ Univariate analysis and univariate logistic regression were used to evaluate the effect of COVID-19 on youth mental health.
+ The results of this cross-sectional study suggest that nearly 40.4% the sampled youth were found to be prone to psychological problems and 14.4% the sampled youth with Post-traumatic stress disorder (PTSD) symptoms.
+ Univariate logistic regression revealed that youth mental health was significantly related to being less educated (OR = 8.71, 95%CI:1.97–38.43), being the enterprise employee (OR = 2.36, 95%CI:1.09–5.09), suffering from the PTSD symptom (OR = 1.05, 95%CI:1.03–1.07) and using negative coping styles (OR = 1.03, 95%CI:1.00–1.07).
+ Results of this study suggest that nearly 40.4% of the youth group had a tendency to have psychological problems.
+ Thus, this was a remarkable evidence that infectious diseases, such as COVID-19, may have an immense influence on youth mental health.
+ Therefor, local governments should develop effective psychological interventions for youth groups, moreover, it is important to consider the educational level and occupation of the youth during the interventions.
+</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,   Hui%Ren%NULL%1,   Ruilin%Cao%NULL%1,   Yueyang%Hu%NULL%1,   Zeying%Qin%NULL%1,   Chuanen%Li%NULL%1,   Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
+ Little is known about its exact impact on medical care workers and related factors in China.
+ This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
+Methods
+From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
+ Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
+ Multivariate regression was used to examine the determinants of adverse psychological outcomes.
+Results
+id="Par3"&gt;Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
+ The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
+ Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
+ Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
+Conclusions
+id="Par4"&gt;Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
+ Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,    Xiao-You%Su%suxiaoyou@hotmail.com%1,    Yu%Jiang%jiangyu@pumc.edu.cn%2,    Yu%Jiang%jiangyu@pumc.edu.cn%0,    Wen-Jun%Wang%wwjun1973@163.com%1,    Xiao-Fen%Gu%357539328@qq.com%1,    Li%Ma%mali_lele@sina.com%1,    Jing%Li%lijingwcph@scu.edu.cn%1,    Shao-Kai%Zhang%shaokaizhang@126.com%1,    Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,    Ran%Ren%renran99@163.com%1,    Yuan-Li%Liu%liuyuanli_pumc@163.com%1,    You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 poses the greatest challenge for the entire world since the Second World War.
+ Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
+ The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
+Methods
+From 25 March to 3 April 2020, an anonymous online survey was conducted.
+ Target group included all members of the Austrian population older than 16 years.
+ The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
+ The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
+ Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
+Results
+id="Par3"&gt;43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
+ 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
+ Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
+ Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
+Conclusion
+id="Par4"&gt;This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
+ 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
+ The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
+</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,    Rene%Stefitz%NULL%1,    Kerstin%Gaisbachgrabner%NULL%1,    Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
+ Little is known about its exact impact on medical care workers and related factors in China.
+ This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
+Methods
+From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
+ Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
+ Multivariate regression was used to examine the determinants of adverse psychological outcomes.
+Results
+Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
+ The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
+ Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
+ Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
+Conclusions
+id="Par4"&gt;Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
+ Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,     Xiao-You%Su%suxiaoyou@hotmail.com%1,     Yu%Jiang%jiangyu@pumc.edu.cn%2,     Yu%Jiang%jiangyu@pumc.edu.cn%0,     Wen-Jun%Wang%wwjun1973@163.com%1,     Xiao-Fen%Gu%357539328@qq.com%1,     Li%Ma%mali_lele@sina.com%1,     Jing%Li%lijingwcph@scu.edu.cn%1,     Shao-Kai%Zhang%shaokaizhang@126.com%1,     Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,     Ran%Ren%renran99@163.com%1,     Yuan-Li%Liu%liuyuanli_pumc@163.com%1,     You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 poses the greatest challenge for the entire world since the Second World War.
+ Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
+ The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
+Methods
+From 25 March to 3 April 2020, an anonymous online survey was conducted.
+ Target group included all members of the Austrian population older than 16 years.
+ The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
+ The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
+ Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
+Results
+43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
+ 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
+ Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
+ Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
+Conclusion
+id="Par4"&gt;This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
+ 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
+ The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
+</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,     Rene%Stefitz%NULL%1,     Kerstin%Gaisbachgrabner%NULL%1,     Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
+ Little is known about its exact impact on medical care workers and related factors in China.
+ This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
+Methods
+From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
+ Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
+ Multivariate regression was used to examine the determinants of adverse psychological outcomes.
+Results
+Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
+ The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
+ Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
+ Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
+Conclusions
+Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
+ Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,      Xiao-You%Su%suxiaoyou@hotmail.com%1,      Yu%Jiang%jiangyu@pumc.edu.cn%2,      Yu%Jiang%jiangyu@pumc.edu.cn%0,      Wen-Jun%Wang%wwjun1973@163.com%1,      Xiao-Fen%Gu%357539328@qq.com%1,      Li%Ma%mali_lele@sina.com%1,      Jing%Li%lijingwcph@scu.edu.cn%1,      Shao-Kai%Zhang%shaokaizhang@126.com%1,      Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,      Ran%Ren%renran99@163.com%1,      Yuan-Li%Liu%liuyuanli_pumc@163.com%1,      You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 poses the greatest challenge for the entire world since the Second World War.
+ Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
+ The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
+Methods
+From 25 March to 3 April 2020, an anonymous online survey was conducted.
+ Target group included all members of the Austrian population older than 16 years.
+ The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
+ The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
+ Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
+Results
+43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
+ 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
+ Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
+ Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
+Conclusion
+This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
+ 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
+ The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
+</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,      Rene%Stefitz%NULL%1,      Kerstin%Gaisbachgrabner%NULL%1,      Andreas%Schwerdtfeger%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2332,10 +2586,10 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
@@ -2488,10 +2742,10 @@
         <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>427</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="F13" t="s">
         <v>137</v>
@@ -2592,10 +2846,10 @@
         <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>429</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
         <v>154</v>
@@ -2774,10 +3028,10 @@
         <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>447</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="F24" t="s">
         <v>183</v>
@@ -3554,10 +3808,10 @@
         <v>310</v>
       </c>
       <c r="D54" t="s">
-        <v>311</v>
+        <v>433</v>
       </c>
       <c r="E54" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="F54" t="s">
         <v>313</v>
@@ -3866,10 +4120,10 @@
         <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="E66" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F66" t="s">
         <v>358</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="425">
   <si>
     <t>Doi</t>
   </si>
@@ -1842,260 +1842,6 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,  Hui%Ren%NULL%1,  Ruilin%Cao%NULL%1,  Yueyang%Hu%NULL%1,  Zeying%Qin%NULL%1,  Chuanen%Li%NULL%1,  Songli%Mei%meisongli@sina.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
- Little is known about its exact impact on medical care workers and related factors in China.
- This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
-Methods
-id="Par2"&gt;From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
- Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
- Multivariate regression was used to examine the determinants of adverse psychological outcomes.
-Results
-id="Par3"&gt;Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
- The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
- Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
- Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
-Conclusions
-id="Par4"&gt;Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
- Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1,   Xiao-You%Su%suxiaoyou@hotmail.com%1,   Yu%Jiang%jiangyu@pumc.edu.cn%2,   Yu%Jiang%jiangyu@pumc.edu.cn%0,   Wen-Jun%Wang%wwjun1973@163.com%1,   Xiao-Fen%Gu%357539328@qq.com%1,   Li%Ma%mali_lele@sina.com%1,   Jing%Li%lijingwcph@scu.edu.cn%0,   Shao-Kai%Zhang%shaokaizhang@126.com%1,   Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,   Ran%Ren%renran99@163.com%1,   Yuan-Li%Liu%liuyuanli_pumc@163.com%1,   You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To assess the psychological effects of the novel coronavirus disease (COVID-19) on medical staff and the general public.
- During the outbreak of COVID-19, an internet-based questionnaire included The Self-rating Depression Scale (SDS), Perceived Stress Scale (PSS-10), and Impact of Event Scale-Revised (IES-R) was used to assess the impact of the pandemic situation on the mental health of medical staff and general population in Wuhan and its surrounding areas.
- Among the 1493 questionnaires completed, 827 (55.39%) of these were men, and 422 (28.27%) of these were medical personnel.
- The results suggest that the outbreak of COVID-19 has affected individuals significantly, the degree of which is related to age, sex, occupation and mental illness.
- There was a significant difference in PSS-10 and IES-R scores between the medical staff and the general population.
- The medical staff showed higher PSS-10 scores (16.813 ± 4.87) and IES-R scores (22.40 ± 12.12) compared to members of the general population PSS-10 (14.80 ± 5.60) and IES-R scores (17.89 ± 13.08).
- However, there was no statistically significant difference between the SDS scores of medical staff (44.52 ± 12.36) and the general public (43.08 ± 11.42).
- In terms of the need for psychological assistance, 50.97% of interviewees responded that they needed psychological counseling, of which medical staff accounted for 65.87% and non-medical staff accounted for 45.10%.
- During the ongoing COVID-19 outbreak, great attention should be paid to the mental health of the population, especially medical staff, and measures such as psychological intervention should be actively carried out for reducing the psychosocial effects.
-</t>
-  </si>
-  <si>
-    <t>[Biao%Chen%NULL%1,   Qing-xian%Li%NULL%1,   Heng%Zhang%NULL%1,   Jia-yong%Zhu%NULL%1,   Xu%Yang%NULL%1,   Yu-hang%Wu%NULL%1,   Jie%Xiong%NULL%1,   Fu%Li%NULL%1,   Hua%Wang%whzkwlh@126.com%0,   Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is rapidly spreading worldwide, with a staggering number of cases and deaths.
- However, available data on the psychological impacts of COVID-19 on pregnant women are limited.
- The purposes of this study were to assess the prevalence of psychiatric symptoms among pregnant women, and to compare them with non-pregnant women.
- From February 28 to March 12, 2020, a cross-sectional study of pregnant and non-pregnant women was performed in China.
- The online questionnaire was used to collect information of participants.
- The mental health status was assessed by patient health questionnaire, generalized anxiety disorder scale, insomnia severity index, somatization subscale of the symptom checklist 90, and post-traumatic stress disorder (PTSD) checklist-5. Totally, 859 respondents were enrolled, including 544 pregnant women and 315 non-pregnant women.
- In this study, 5.3%, 6.8%, 2.4%, 2.6%, and 0.9% of pregnant women were identified to have symptoms of depression, anxiety, physical discomfort, insomnia, and PTSD, respectively.
- However, the corresponding prevalence rates among non-pregnant women were 17.5%, 17.5%, 2.5%, 5.4%, 5.7%, respectively.
- After adjusting for other covariates, we observed that pregnancy was associated a reduced risk of symptoms of depression (OR = 0.23; 95% CI: 0.12–0.45), anxiety (OR = 0.26; 95% CI: 0.16–0.42), insomnia (OR = 0.19; 95% CI: 0.06–0.58), and PTSD (OR = 0.15; 95% CI: 0.04–0.53) during the COVID-19 epidemic.
- Our results indicate that during the COVID-19 epidemic in China, pregnant women have an advantage of facing mental problems caused by COVID-19, showing fewer depression, anxiety, insomnia, and PTSD symptoms than non-pregnant women.
-</t>
-  </si>
-  <si>
-    <t>[Yongjie%Zhou%NULL%1,   Hui%Shi%NULL%1,   Zhengkui%Liu%NULL%1,   Songxu%Peng%gwxypsx@163.com%2,   Songxu%Peng%gwxypsx@163.com%0,   Ruoxi%Wang%NULL%2,   Ruoxi%Wang%NULL%0,   Ling%Qi%NULL%1,   Zezhi%Li%NULL%1,   Jiezhi%Yang%NULL%1,   Yali%Ren%NULL%1,   Xiuli%Song%NULL%1,   Lingyun%Zeng%NULL%1,   Wei%Qian%NULL%1,   Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 poses the greatest challenge for the entire world since the Second World War.
- Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
- The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
-Methods
-id="Par2"&gt;From 25 March to 3 April 2020, an anonymous online survey was conducted.
- Target group included all members of the Austrian population older than 16 years.
- The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
- The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
- Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
-Results
-id="Par3"&gt;43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
- 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
- Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
- Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
-Conclusion
-id="Par4"&gt;This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
- 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
- The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
-</t>
-  </si>
-  <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,   Rene%Stefitz%NULL%1,   Kerstin%Gaisbachgrabner%NULL%1,   Andreas%Schwerdtfeger%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The psychological impact of outbreaks on individuals includes an intense and wide range of psychiatric morbidities.
- People are likely to experience feelings as; worry about being infected or getting sick, increased self-blame, and helplessness.
- This study aimed to assess the impact of COVID-19 on mental health and social support among Egyptian adults during the period of the pandemic.
- This is a cross-sectional observational study using an anonymous online questionnaire.
- The survey was conducted through a link shared on social networking sites.
- It was conducted from 2 May 2020 to 9 May 2020. The general populations of the Egyptian adults were included by using convenience and snowball sampling technique (510 adults).
- Impact Event scale mean 34.3 ± 15. About 211 (41.4%) suffered a severe impact.
- There was an increase in stress from work in 174 (34.1%), financial stress in 284 (55.7%), and stress from home in 320 (62.7%).
- Half of them felt horrified and helpless in 275 (53.9%), and 265 (52%) respectively, while 338 (66.3%) felt apprehensive.
- only 24.2% reported increased support from friends, while increased support from family members in 207 (40.6%).
- 46.5% shared their feelings with family members, while 176 (34.5%) shared with others.
- Caring for family members’ feelings increased in 330 (64.7%).
- Age and rural residency were negative predictors for the impact of event score, while female gender or presence of chronic condition was a positive predictor for the impact of event score.
- Covid-19 pandemic has a great psychological impact on adult Egyptians and affected social support.
-</t>
-  </si>
-  <si>
-    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,   Enayat M.%Soltan%enayatsoltan@gmail.com%2,   Enayat M.%Soltan%enayatsoltan@gmail.com%0,   Hend M.%Salama%hind_mikhail@yahoo.com%2,   Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The purposes of this study was to assess the youth mental health after the coronavirus disease 19 (COVID-19) occurred in China two weeks later, and to investigate factors of mental health among youth groups.
- A cross-sectional study was conducted two weeks after the occurrence of COVID-19 in China.
- A total of 584 youth enrolled in this study and completed the question about cognitive status of COVID-19, the General Health Questionnaire(GHQ-12), the PTSD Checklist-Civilian Version (PCL-C) and the Negative coping styles scale.
- Univariate analysis and univariate logistic regression were used to evaluate the effect of COVID-19 on youth mental health.
- The results of this cross-sectional study suggest that nearly 40.4% the sampled youth were found to be prone to psychological problems and 14.4% the sampled youth with Post-traumatic stress disorder (PTSD) symptoms.
- Univariate logistic regression revealed that youth mental health was significantly related to being less educated (OR = 8.71, 95%CI:1.97–38.43), being the enterprise employee (OR = 2.36, 95%CI:1.09–5.09), suffering from the PTSD symptom (OR = 1.05, 95%CI:1.03–1.07) and using negative coping styles (OR = 1.03, 95%CI:1.00–1.07).
- Results of this study suggest that nearly 40.4% of the youth group had a tendency to have psychological problems.
- Thus, this was a remarkable evidence that infectious diseases, such as COVID-19, may have an immense influence on youth mental health.
- Therefor, local governments should develop effective psychological interventions for youth groups, moreover, it is important to consider the educational level and occupation of the youth during the interventions.
-</t>
-  </si>
-  <si>
-    <t>[Leilei%Liang%NULL%1,   Hui%Ren%NULL%1,   Ruilin%Cao%NULL%1,   Yueyang%Hu%NULL%1,   Zeying%Qin%NULL%1,   Chuanen%Li%NULL%1,   Songli%Mei%meisongli@sina.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
- Little is known about its exact impact on medical care workers and related factors in China.
- This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
-Methods
-From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
- Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
- Multivariate regression was used to examine the determinants of adverse psychological outcomes.
-Results
-id="Par3"&gt;Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
- The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
- Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
- Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
-Conclusions
-id="Par4"&gt;Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
- Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1,    Xiao-You%Su%suxiaoyou@hotmail.com%1,    Yu%Jiang%jiangyu@pumc.edu.cn%2,    Yu%Jiang%jiangyu@pumc.edu.cn%0,    Wen-Jun%Wang%wwjun1973@163.com%1,    Xiao-Fen%Gu%357539328@qq.com%1,    Li%Ma%mali_lele@sina.com%1,    Jing%Li%lijingwcph@scu.edu.cn%1,    Shao-Kai%Zhang%shaokaizhang@126.com%1,    Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,    Ran%Ren%renran99@163.com%1,    Yuan-Li%Liu%liuyuanli_pumc@163.com%1,    You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 poses the greatest challenge for the entire world since the Second World War.
- Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
- The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
-Methods
-From 25 March to 3 April 2020, an anonymous online survey was conducted.
- Target group included all members of the Austrian population older than 16 years.
- The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
- The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
- Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
-Results
-id="Par3"&gt;43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
- 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
- Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
- Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
-Conclusion
-id="Par4"&gt;This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
- 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
- The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
-</t>
-  </si>
-  <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,    Rene%Stefitz%NULL%1,    Kerstin%Gaisbachgrabner%NULL%1,    Andreas%Schwerdtfeger%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
- Little is known about its exact impact on medical care workers and related factors in China.
- This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
-Methods
-From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
- Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
- Multivariate regression was used to examine the determinants of adverse psychological outcomes.
-Results
-Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
- The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
- Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
- Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
-Conclusions
-id="Par4"&gt;Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
- Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1,     Xiao-You%Su%suxiaoyou@hotmail.com%1,     Yu%Jiang%jiangyu@pumc.edu.cn%2,     Yu%Jiang%jiangyu@pumc.edu.cn%0,     Wen-Jun%Wang%wwjun1973@163.com%1,     Xiao-Fen%Gu%357539328@qq.com%1,     Li%Ma%mali_lele@sina.com%1,     Jing%Li%lijingwcph@scu.edu.cn%1,     Shao-Kai%Zhang%shaokaizhang@126.com%1,     Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,     Ran%Ren%renran99@163.com%1,     Yuan-Li%Liu%liuyuanli_pumc@163.com%1,     You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 poses the greatest challenge for the entire world since the Second World War.
- Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
- The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
-Methods
-From 25 March to 3 April 2020, an anonymous online survey was conducted.
- Target group included all members of the Austrian population older than 16 years.
- The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
- The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
- Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
-Results
-43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
- 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
- Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
- Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
-Conclusion
-id="Par4"&gt;This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
- 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
- The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
-</t>
-  </si>
-  <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,     Rene%Stefitz%NULL%1,     Kerstin%Gaisbachgrabner%NULL%1,     Andreas%Schwerdtfeger%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
- Little is known about its exact impact on medical care workers and related factors in China.
- This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
-Methods
-From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
- Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
- Multivariate regression was used to examine the determinants of adverse psychological outcomes.
-Results
-Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
- The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
- Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
- Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
-Conclusions
-Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
- Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
-</t>
-  </si>
-  <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1,      Xiao-You%Su%suxiaoyou@hotmail.com%1,      Yu%Jiang%jiangyu@pumc.edu.cn%2,      Yu%Jiang%jiangyu@pumc.edu.cn%0,      Wen-Jun%Wang%wwjun1973@163.com%1,      Xiao-Fen%Gu%357539328@qq.com%1,      Li%Ma%mali_lele@sina.com%1,      Jing%Li%lijingwcph@scu.edu.cn%1,      Shao-Kai%Zhang%shaokaizhang@126.com%1,      Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,      Ran%Ren%renran99@163.com%1,      Yuan-Li%Liu%liuyuanli_pumc@163.com%1,      You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 poses the greatest challenge for the entire world since the Second World War.
- Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
- The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
-Methods
-From 25 March to 3 April 2020, an anonymous online survey was conducted.
- Target group included all members of the Austrian population older than 16 years.
- The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
- The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
- Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
-Results
-43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
- 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
- Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
- Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
-Conclusion
-This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
- 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
- The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
-</t>
-  </si>
-  <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,      Rene%Stefitz%NULL%1,      Kerstin%Gaisbachgrabner%NULL%1,      Andreas%Schwerdtfeger%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2586,10 +2332,10 @@
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>445</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
@@ -2742,10 +2488,10 @@
         <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="F13" t="s">
         <v>137</v>
@@ -2846,10 +2592,10 @@
         <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>429</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="F17" t="s">
         <v>154</v>
@@ -3028,10 +2774,10 @@
         <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>447</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="F24" t="s">
         <v>183</v>
@@ -3808,10 +3554,10 @@
         <v>310</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>311</v>
       </c>
       <c r="E54" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F54" t="s">
         <v>313</v>
@@ -4120,10 +3866,10 @@
         <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="F66" t="s">
         <v>358</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="489">
   <si>
     <t>Doi</t>
   </si>
@@ -1842,6 +1842,198 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,  Hui%Ren%NULL%1,  Ruilin%Cao%NULL%1,  Yueyang%Hu%NULL%1,  Zeying%Qin%NULL%1,  Chuanen%Li%NULL%1,  Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,   Roy F.%Baumeister%NULL%1,   Jennifer C.%Veilleux%NULL%1,   Caixia%Chen%NULL%1,   Wenjun%Liu%NULL%1,   Yongjie%Yue%NULL%1,   Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,   Xiaopeng%Hu%NULL%1,   Ivo Otte%Ekumi%NULL%1,   Jianchun%Wang%NULL%1,   Yawen%An%NULL%1,   Zhiwen%Li%NULL%1,   Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,   Wen%Li%NULL%0,   Yuan%Yang%NULL%0,   Yuan%Yang%NULL%0,   Yu%Wang%NULL%0,   Qinge%Zhang%NULL%0,   Teris%Cheung%NULL%0,   Xinjuan%Wu%NULL%0,   Yu-Tao%Xiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,   Cherica A.%Tee%NULL%1,   Joseph P.%Anlacan%NULL%1,   Katrina Joy G.%Aligam%NULL%1,   Patrick Wincy C.%Reyes%NULL%1,   Vipat%Kuruchittham%NULL%1,   Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,   Xiao-You%Su%suxiaoyou@hotmail.com%1,   Yu%Jiang%jiangyu@pumc.edu.cn%2,   Yu%Jiang%jiangyu@pumc.edu.cn%0,   Wen-Jun%Wang%wwjun1973@163.com%1,   Xiao-Fen%Gu%357539328@qq.com%1,   Li%Ma%mali_lele@sina.com%1,   Jing%Li%lijingwcph@scu.edu.cn%1,   Shao-Kai%Zhang%shaokaizhang@126.com%1,   Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,   Ran%Ren%renran99@163.com%1,   Yuan-Li%Liu%liuyuanli_pumc@163.com%1,   You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,   Helena%Garrido-Hernansaiz%NULL%1,   Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,   Xiangfen%Su%suxiangfengfy@163.com%1,   Shuzeng%Zhang%NULL%2,   Shuzeng%Zhang%NULL%0,   Wenjie%Guan%NULL%1,   Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,   Rong-Ning%Chen%NULL%1,   Li-Li%Liu%NULL%1,   Xue-Guo%Li%NULL%1,   Jian-Bin%Chen%NULL%1,   Si-Yao%Tang%NULL%1,   Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,   Elisa%Pedroli%NULL%2,   Guido E.%D'Aniello%NULL%2,   Chiara%Stramba Badiale%NULL%2,   Giada%Pietrabissa%NULL%2,   Chiara%Manna%NULL%2,   Marco%Stramba Badiale%NULL%2,   Giuseppe%Riva%NULL%2,   Gianluca%Castelnuovo%NULL%2,   Enrico%Molinari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,   Qing-xian%Li%NULL%1,   Heng%Zhang%NULL%0,   Jia-yong%Zhu%NULL%1,   Xu%Yang%NULL%1,   Yu-hang%Wu%NULL%1,   Jie%Xiong%NULL%1,   Fu%Li%NULL%1,   Hua%Wang%whzkwlh@126.com%1,   Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,   Charlotte%Coste%NULL%1,   Rocio%Sanchez%NULL%1,   Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,   Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,   Saleh A.%Alrashed%NULL%1,   Ali A.%Alzunaydi%NULL%1,   Ahmed S.%Almohimeed%NULL%1,   Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,   Hui%Shi%NULL%1,   Zhengkui%Liu%NULL%1,   Songxu%Peng%gwxypsx@163.com%2,   Songxu%Peng%gwxypsx@163.com%0,   Ruoxi%Wang%NULL%2,   Ruoxi%Wang%NULL%0,   Ling%Qi%NULL%1,   Zezhi%Li%NULL%1,   Jiezhi%Yang%NULL%1,   Yali%Ren%NULL%1,   Xiuli%Song%NULL%1,   Lingyun%Zeng%NULL%1,   Wei%Qian%NULL%1,   Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,  Khazaie%H.%coreGivesNoEmail%1,  Li%J.%coreGivesNoEmail%1,  Xiaohui%Li%coreGivesNoEmail%1,  Xing%Tan%coreGivesNoEmail%1,  Yuanyuan%An%coreGivesNoEmail%1,  Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,   Zheng Feei%Ma%NULL%0,   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,   Zhuoer%Sun%NULL%0,   Zhuoer%Sun%NULL%0,   Tuanjie%Liu%NULL%1,   Xiong%Ni%NULL%1,   Xuanfeng%Deng%NULL%1,   Yanpu%Jia%NULL%0,   Zhilei%Shang%NULL%0,   Yaoguang%Zhou%NULL%0,   Weizhi%Liu%13024141970@163.com%0,   Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,   N.%Hadjamu%NULL%2,   N.%Hadjamu%NULL%0,   G.%Willmund%NULL%1,   S.%Dolff%NULL%1,   N.%Vonderlin%NULL%1,   R.%Wakili%NULL%1,   J.%Vogel%NULL%1,   T.%Rassaf%NULL%1,   J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,   Riyu%Pan%NULL%0,   Xiaoyang%Wan%NULL%0,   Yilin%Tan%NULL%0,   Linkang%Xu%NULL%0,   Roger S.%McIntyre%NULL%4,   Faith N.%Choo%NULL%2,   Bach%Tran%NULL%4,   Roger%Ho%NULL%4,   Vijay K.%Sharma%NULL%0,   Cyrus%Ho%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,   Jithin Thomas%Parel%NULL%2,   Jithin Thomas%Parel%NULL%0,   Neeraj%Raizada%NULL%2,   Neeraj%Raizada%NULL%0,   Shiv Kumar%Sarin%NULL%1,   Abdallah M.%Samy%NULL%2,   Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,   Rene%Stefitz%NULL%1,   Kerstin%Gaisbachgrabner%NULL%1,   Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,   Tao%Hu%NULL%1,   Baodi%Hu%NULL%1,   Chunhan%Jin%NULL%1,   Gang%Wang%NULL%1,   Chao%Xie%NULL%1,   Sen%Chen%NULL%1,   Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,   Fengyi%Hao%NULL%1,   Roger S.%McIntyre%NULL%0,   Li%Jiang%NULL%2,   Xiaojiang%Jiang%NULL%2,   Ling%Zhang%NULL%2,   Xinling%Zhao%NULL%2,   Yiran%Zou%NULL%2,   Yirong%Hu%NULL%2,   Xi%Luo%NULL%2,   Zhisong%Zhang%NULL%2,   Andre%Lai%NULL%1,   Roger%Ho%NULL%0,   Bach%Tran%NULL%0,   Cyrus%Ho%NULL%0,   Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,   Wenning%Fu%NULL%2,   Xiaoran%Liu%NULL%2,   Zhiqian%Luo%NULL%2,   Rixing%Wang%NULL%2,   Ning%Zhou%NULL%3,   Shijiao%Yan%NULL%2,   Chuanzhu%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,   Mark L%Williams%NULL%1,   Benjamin C%Amick%NULL%1,   Teresa J.%Hudson%NULL%1,   Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,   Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,   Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,   Necdet%Sut%necdetsut@yahoo.com%2,   Necdet%Sut%necdetsut@yahoo.com%0,   Selma%Akdogan%drslma.akdogan@gmail.com%2,   Selma%Akdogan%drslma.akdogan@gmail.com%0,   Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,   Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,   Valentina%Socci%NULL%2,   Dalila%Talevi%NULL%1,   Sonia%Mensi%NULL%1,   Cinzia%Niolu%NULL%1,   Francesca%Pacitti%NULL%2,   Antinisca%Di Marco%NULL%2,   Alessandro%Rossi%NULL%2,   Alberto%Siracusano%NULL%2,   Giorgio%Di Lorenzo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,   Valentina%Socci%NULL%0,   Francesca%Pacitti%NULL%0,   Giorgio%Di Lorenzo%NULL%0,   Antinisca%Di Marco%NULL%0,   Alberto%Siracusano%NULL%0,   Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,   Marianna%Purgato%NULL%1,   Chiara%Bove%NULL%1,   David%MacTaggart%NULL%1,   Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,   Wei%Chen%NULL%0,   Saiduo%Liu%NULL%1,   Paul M.%Thompson%NULL%1,   Long Jiang%Zhang%NULL%1,   Fei%Xia%NULL%1,   Fang%Cheng%NULL%1,   Ailing%Hong%NULL%1,   Wesley%Surento%NULL%1,   Song%Luo%NULL%1,   Zhi Yuan%Sun%NULL%1,   Chang Sheng%Zhou%NULL%1,   Lingjiang%Li%NULL%0,   Xiangao%Jiang%NULL%1,   Guang Ming%Lu%NULL%1,    R.%Qi%null%1,    W.% Chen%null%1,    S.% Liu%null%1,    P. M.% Thompson%null%1,    L. J.% Zhang%null%1,    F.% Xia%null%1,    F.% Cheng%null%1,    A.% Hong%null%1,    W.% Surento%null%1,    S.% Luo%null%1,    Z. Y.% Sun%null%1,    C. S.% Zhou%null%1,    L.% Li%null%1,    X.% Jiang%null%1,    G. M. % Lu%null%1,  R.%Qi%null%1,  W.% Chen%null%1,  S.% Liu%null%1,  P. M.% Thompson%null%1,  L. J.% Zhang%null%1,  F.% Xia%null%1,  F.% Cheng%null%1,  A.% Hong%null%1,  W.% Surento%null%1,  S.% Luo%null%1,  Z. Y.% Sun%null%1,  C. S.% Zhou%null%1,  L.% Li%null%1,  X.% Jiang%null%1,  G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,   Yutong%Zhang%NULL%2,   Yutong%Zhang%NULL%0,   Xiaoqin%Luo%NULL%1,   Xinli%Li%NULL%1,   Yeshan%Li%NULL%0,   Shuchang%Liu%NULL%1,   Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,   Beatriz%Talavera-Velasco%NULL%2,   Beatriz%Talavera-Velasco%NULL%0,   Yolanda%García-Albuerne%NULL%1,   Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,   Fan%Zhang%NULL%0,   Cun%Wei%NULL%0,   Yanpu%Jia%NULL%0,   Zhilei%Shang%NULL%0,   Luna%Sun%NULL%0,   Lili%Wu%NULL%0,   Zhuoer%Sun%NULL%0,   Yaoguang%Zhou%NULL%0,   Yan%Wang%NULL%0,   Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,   Emily%Zhang%NULL%1,   Ga Tin Fifi%Wong%NULL%1,   Sunah%Hyun%NULL%1,   Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,   Yue%Wang%NULL%0,   Jingwen%Jiang%NULL%1,   Unnur A.%Valdimarsdóttir%NULL%1,   Katja%Fall%NULL%2,   Katja%Fall%NULL%0,   Fang%Fang%NULL%3,   Fang%Fang%NULL%0,   Huan%Song%NULL%1,   Donghao%Lu%NULL%1,   Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,  Chiang%E. S.%coreGivesNoEmail%1,  Fernandez%R.%coreGivesNoEmail%1,  Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,  Ibrahim%H.%coreGivesNoEmail%1,  Lee%B.%coreGivesNoEmail%1,  Shi%L.%coreGivesNoEmail%1,  Sun%N.%coreGivesNoEmail%1,  Tsay%S.\u2010F.%coreGivesNoEmail%1,  World%Health Organisation%coreGivesNoEmail%2,  World%Health Organisation%coreGivesNoEmail%0,  Xiaoyue%Xu%coreGivesNoEmail%1,  Xiuchuan%Li%coreGivesNoEmail%1,  Ying%Zhou%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,   Peixin%Lu%NULL%1,   Lianting%Hu%NULL%1,   Tianhui%Huang%NULL%1,   Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,  Holly%Wei%coreGivesNoEmail%1,  Hong%Xu%coreGivesNoEmail%1,  Lili%Wei%coreGivesNoEmail%1,  Lu%H%coreGivesNoEmail%1,  Min%Leng%coreGivesNoEmail%1,  Shi%Ti JC%coreGivesNoEmail%1,  Shuyun%Xing%coreGivesNoEmail%1,  Weathers%F%coreGivesNoEmail%1,  Wenwen%Zhang%coreGivesNoEmail%1,  Xiaohui%Shi%coreGivesNoEmail%1,  Xiaoying%Zhang%coreGivesNoEmail%1,  Yang%T%coreGivesNoEmail%1,  Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,   Anh Kim%Dang%NULL%1,   Jayson%Toweh%NULL%1,   Quang Nhat%Nguyen%NULL%1,   Huong Thi%Le%NULL%1,   Toan Thi Thanh%Do%NULL%1,   Hanh Bich Thi%Phan%NULL%1,   Thao Thanh%Nguyen%NULL%1,   Quan Thi%Pham%NULL%1,   Nhung Kim Thi%Ta%NULL%1,   Quynh Thi%Nguyen%NULL%1,   Anh Ngoc%Nguyen%NULL%1,   Quan%Van Duong%NULL%1,   Men Thi%Hoang%NULL%1,   Hai Quang%Pham%NULL%1,   Linh Gia%Vu%NULL%1,   Bach Xuan%Tran%NULL%1,   Carl A.%Latkin%NULL%1,   Cyrus S. H.%Ho%NULL%1,   Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,   S.%Joo%NULL%1,   P.-A.%Couette%NULL%1,   S.%de Jaegher%NULL%1,   F.%Joly%NULL%1,   X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,   Simeng%Ma%NULL%0,   Ying%Wang%NULL%0,   Zhongxiang%Cai%NULL%0,   Jianbo%Hu%NULL%0,   Ning%Wei%NULL%0,   Jiang%Wu%NULL%0,   Hui%Du%NULL%0,   Tingting%Chen%NULL%0,   Ruiting%Li%NULL%0,   Huawei%Tan%NULL%0,   Lijun%Kang%NULL%0,   Lihua%Yao%NULL%0,   Manli%Huang%NULL%0,   Huafen%Wang%NULL%0,   Gaohua%Wang%NULL%0,   Zhongchun%Liu%NULL%0,   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,   Mark%Shevlin%NULL%1,   Jamie%Murphy%NULL%1,   Orla%McBride%NULL%1,   Menachem%Ben‐Ezra%NULL%2,   Menachem%Ben‐Ezra%NULL%0,   Richard P.%Bentall%NULL%1,   Frédérique%Vallières%NULL%1,   Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,   Stephanie%Manasse%NULL%2,   Stephanie%Manasse%NULL%0,   Rebecca A.%Krukowski%NULL%2,   Rebecca A.%Krukowski%NULL%0,   Kathryn%Ross%NULL%2,   Kathryn%Ross%NULL%0,   Rebecca%Shakour%NULL%2,   Rebecca%Shakour%NULL%0,   Darci R.%Miller%NULL%1,   Dominick J.%Lemas%NULL%1,   Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,   Xing Lin%Feng%NULL%1,   Xiao Hua%Wang%NULL%2,   Xiao Hua%Wang%NULL%0,   Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,   Berta%Ausín%NULL%2,   Miguel Ángel%Castellanos%NULL%2,   Jesús%Saiz%NULL%2,   Aída%López-Gómez%NULL%2,   Carolina%Ugidos%NULL%2,   Manuel%Muñoz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,   Reyna Jazmín%Martínez Arriaga%NULL%2,   Reyna Jazmín%Martínez Arriaga%NULL%0,   Martha Alicia%Hernández-Gonzalez%NULL%2,   Martha Alicia%Hernández-Gonzalez%NULL%0,   José María%De la Roca-Chiapas%NULL%2,   José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,   Francesca%Favieri%NULL%2,   Francesca%Favieri%NULL%0,   Renata%Tambelli%NULL%2,   Renata%Tambelli%NULL%0,   Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,   Farah%Ghrissi%NULL%1,   Bouthaina%Abbassi%NULL%1,   Wissal%Cherif%NULL%1,   Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,   Enayat M.%Soltan%enayatsoltan@gmail.com%2,   Enayat M.%Soltan%enayatsoltan@gmail.com%0,   Hend M.%Salama%hind_mikhail@yahoo.com%2,   Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,   Charles B%Malpas%NULL%2,   Charles B%Malpas%NULL%0,   Aidan JC%Burrell%NULL%1,   Caroline%Gurvich%NULL%1,   Leo%Chen%NULL%1,   Jayashri%Kulkarni%NULL%1,   Toby%Winton-Brown%NULL%2,   Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,   Regino%Piñeiro-Lamas%NULL%1,   César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,   Yasmeen%Byrnes%NULL%2,   Yasmeen%Byrnes%NULL%0,   Changgee%Chang%NULL%2,   Aman%Prasad%NULL%1,   Kevin%Chorath%NULL%2,   Kevin%Chorath%NULL%0,   Seerat K.%Poonia%NULL%1,   Carolyn M.%Jenks%NULL%1,   Andrés M.%Bur%NULL%1,   Punam%Thakkar%NULL%2,   Punam%Thakkar%NULL%0,   Evan M.%Graboyes%NULL%2,   Evan M.%Graboyes%NULL%0,   Rahul%Seth%NULL%2,   Rahul%Seth%NULL%0,   Samuel%Trosman%NULL%1,   Anni%Wong%NULL%2,   Anni%Wong%NULL%0,   Benjamin M.%Laitman%NULL%1,   Brianna N.%Harris%NULL%1,   Janki%Shah%NULL%2,   Janki%Shah%NULL%0,   Vanessa%Stubbs%NULL%1,   Garret%Choby%NULL%1,   Qi%Long%NULL%2,   Christopher H.%Rassekh%NULL%1,   Erica%Thaler%NULL%1,   Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,   Antonio%Bertelli%NULL%1,   Antonio%Gonçalves%NULL%1,   Emily%Getzen%NULL%1,   Changgee%Chang%NULL%0,   Qi%Long%NULL%0,   Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,   Benjamin%Becker%NULL%1,   Qian%Yu%NULL%1,   Peter%Willeit%NULL%1,   Can%Jiao%NULL%1,   Liuyue%Huang%NULL%1,   M. Mahhub%Hossain%NULL%1,   Igor%Grabovac%NULL%1,   Albert%Yeung%NULL%1,   Jingyuan%Lin%NULL%1,   Nicola%Veronese%NULL%1,   Jian%Wang%NULL%1,   Xinqi%Zhou%NULL%1,   Scott R.%Doig%NULL%1,   Xiaofeng%Liu%NULL%1,   Andre F.%Carvalho%NULL%1,   Lin%Yang%NULL%0,   Tao%Xiao%NULL%1,   Liye%Zou%NULL%1,   Paolo%Fusar-Poli%NULL%1,   Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,   Jinghao Nicholas%Ngiam%NULL%1,   Benjamin Yong-Qiang%Tan%NULL%2,   Benjamin Yong-Qiang%Tan%NULL%0,   Sai-Meng%Tham%NULL%1,   Celine Yan-Shan%Tan%NULL%1,   Mingxue%Jing%NULL%0,   Renarebecca%Sagayanathan%NULL%0,   Jin Tao%Chen%NULL%0,   Lily Y. H.%Wong%NULL%1,   Aftab%Ahmad%NULL%0,   Faheem Ahmed%Khan%NULL%0,   Maznah%Marmin%NULL%1,   Fadhlina Binte%Hassan%NULL%1,   Tai Mei-Ling%Sharon%NULL%1,   Chin Han%Lim%NULL%1,   Mohamad Iqbal Bin%Mohaini%NULL%1,   Rivan%Danuaji%NULL%1,   Thang H.%Nguyen%NULL%1,   Georgios%Tsivgoulis%NULL%2,   Sotirios%Tsiodras%NULL%1,   Paraskevi C.%Fragkou%NULL%1,   Dimitra%Dimopoulou%NULL%2,   Dimitra%Dimopoulou%NULL%0,   Arvind K.%Sharma%NULL%2,   Kenam%Shah%NULL%2,   Bhargesh%Patel%NULL%2,   Suktara%Sharma%NULL%1,   R. N.%Komalkumar%NULL%1,   R. V.%Meenakshi%NULL%1,   Shikha%Talati%NULL%1,   Hock Luen%Teoh%NULL%0,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,   Qin%Cui%NULL%1,   Zhongchun%Liu%NULL%0,   Juanjuan%Li%NULL%1,   Xuan%Gong%NULL%1,   Jingfang%Liu%NULL%1,   Zhiying%Wan%NULL%1,   Xiaoping%Yuan%NULL%1,   Xiaofen%Li%NULL%0,   Chuang%Chen%NULL%1,   Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,  Apostolos%Blekas%coreGivesNoEmail%1,  Eleni%Parlapani%coreGivesNoEmail%1,  Ioannis%Diakogiannis%coreGivesNoEmail%1,  Maria%Athanasiadou%coreGivesNoEmail%1,  Marina%Skoupra%coreGivesNoEmail%1,  Markos%Syngelakis%coreGivesNoEmail%1,  Panteleimon%Voitsidis%coreGivesNoEmail%1,  Vasiliki%Holeva%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,   Wanqiu%Tan%NULL%1,   Li%Jiang%NULL%0,   Ling%Zhang%NULL%0,   Xinling%Zhao%NULL%0,   Yiran%Zou%NULL%0,   Yirong%Hu%NULL%0,   Xi%Luo%NULL%0,   Xiaojiang%Jiang%NULL%0,   Roger S.%McIntyre%NULL%0,   Bach%Tran%NULL%0,   Jiaqian%Sun%NULL%1,   Zhisong%Zhang%NULL%0,   Roger%Ho%NULL%0,   Cyrus%Ho%NULL%0,   Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,   Hui%Ren%NULL%1,   Ruilin%Cao%NULL%1,   Yueyang%Hu%NULL%1,   Zeying%Qin%NULL%1,   Chuanen%Li%NULL%1,   Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2190,6 +2382,9 @@
       <c r="H1" t="s">
         <v>81</v>
       </c>
+      <c r="I1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2205,7 +2400,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
@@ -2215,6 +2410,9 @@
       </c>
       <c r="H2" t="s">
         <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="3">
@@ -2242,6 +2440,9 @@
       <c r="H3" t="s">
         <v>92</v>
       </c>
+      <c r="I3" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -2257,7 +2458,7 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
@@ -2267,6 +2468,9 @@
       </c>
       <c r="H4" t="s">
         <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5">
@@ -2283,7 +2487,7 @@
         <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="F5" t="s">
         <v>101</v>
@@ -2293,6 +2497,9 @@
       </c>
       <c r="H5" t="s">
         <v>102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="6">
@@ -2309,7 +2516,7 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="F6" t="s">
         <v>106</v>
@@ -2319,6 +2526,9 @@
       </c>
       <c r="H6" t="s">
         <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="7">
@@ -2335,7 +2545,7 @@
         <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
@@ -2345,6 +2555,9 @@
       </c>
       <c r="H7" t="s">
         <v>112</v>
+      </c>
+      <c r="I7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8">
@@ -2361,7 +2574,7 @@
         <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
         <v>116</v>
@@ -2371,6 +2584,9 @@
       </c>
       <c r="H8" t="s">
         <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="9">
@@ -2387,7 +2603,7 @@
         <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
         <v>121</v>
@@ -2397,6 +2613,9 @@
       </c>
       <c r="H9" t="s">
         <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="10">
@@ -2413,7 +2632,7 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
@@ -2423,6 +2642,9 @@
       </c>
       <c r="H10" t="s">
         <v>127</v>
+      </c>
+      <c r="I10" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="11">
@@ -2450,6 +2672,9 @@
       <c r="H11" t="s">
         <v>128</v>
       </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -2465,7 +2690,7 @@
         <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
       <c r="F12" t="s">
         <v>132</v>
@@ -2475,6 +2700,9 @@
       </c>
       <c r="H12" t="s">
         <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="13">
@@ -2491,7 +2719,7 @@
         <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="F13" t="s">
         <v>137</v>
@@ -2501,6 +2729,9 @@
       </c>
       <c r="H13" t="s">
         <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="14">
@@ -2517,7 +2748,7 @@
         <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="F14" t="s">
         <v>142</v>
@@ -2527,6 +2758,9 @@
       </c>
       <c r="H14" t="s">
         <v>128</v>
+      </c>
+      <c r="I14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15">
@@ -2543,7 +2777,7 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -2553,6 +2787,9 @@
       </c>
       <c r="H15" t="s">
         <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16">
@@ -2569,7 +2806,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -2579,6 +2816,9 @@
       </c>
       <c r="H16" t="s">
         <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="17">
@@ -2595,7 +2835,7 @@
         <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
         <v>154</v>
@@ -2605,6 +2845,9 @@
       </c>
       <c r="H17" t="s">
         <v>155</v>
+      </c>
+      <c r="I17" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="18">
@@ -2621,16 +2864,19 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s">
         <v>128</v>
+      </c>
+      <c r="I18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -2647,7 +2893,7 @@
         <v>157</v>
       </c>
       <c r="E19" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="F19" t="s">
         <v>159</v>
@@ -2657,6 +2903,9 @@
       </c>
       <c r="H19" t="s">
         <v>160</v>
+      </c>
+      <c r="I19" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="20">
@@ -2673,7 +2922,7 @@
         <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="F20" t="s">
         <v>164</v>
@@ -2683,6 +2932,9 @@
       </c>
       <c r="H20" t="s">
         <v>165</v>
+      </c>
+      <c r="I20" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="21">
@@ -2699,7 +2951,7 @@
         <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>378</v>
+        <v>446</v>
       </c>
       <c r="F21" t="s">
         <v>168</v>
@@ -2709,6 +2961,9 @@
       </c>
       <c r="H21" t="s">
         <v>169</v>
+      </c>
+      <c r="I21" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="22">
@@ -2725,7 +2980,7 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="F22" t="s">
         <v>173</v>
@@ -2735,6 +2990,9 @@
       </c>
       <c r="H22" t="s">
         <v>174</v>
+      </c>
+      <c r="I22" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="23">
@@ -2751,7 +3009,7 @@
         <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="F23" t="s">
         <v>178</v>
@@ -2761,6 +3019,9 @@
       </c>
       <c r="H23" t="s">
         <v>179</v>
+      </c>
+      <c r="I23" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="24">
@@ -2777,7 +3038,7 @@
         <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="F24" t="s">
         <v>183</v>
@@ -2787,6 +3048,9 @@
       </c>
       <c r="H24" t="s">
         <v>184</v>
+      </c>
+      <c r="I24" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="25">
@@ -2803,7 +3067,7 @@
         <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="F25" t="s">
         <v>188</v>
@@ -2813,6 +3077,9 @@
       </c>
       <c r="H25" t="s">
         <v>189</v>
+      </c>
+      <c r="I25" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="26">
@@ -2829,7 +3096,7 @@
         <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="F26" t="s">
         <v>193</v>
@@ -2839,6 +3106,9 @@
       </c>
       <c r="H26" t="s">
         <v>194</v>
+      </c>
+      <c r="I26" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="27">
@@ -2855,7 +3125,7 @@
         <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="F27" t="s">
         <v>198</v>
@@ -2865,6 +3135,9 @@
       </c>
       <c r="H27" t="s">
         <v>199</v>
+      </c>
+      <c r="I27" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="28">
@@ -2881,7 +3154,7 @@
         <v>201</v>
       </c>
       <c r="E28" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="F28" t="s">
         <v>203</v>
@@ -2891,6 +3164,9 @@
       </c>
       <c r="H28" t="s">
         <v>204</v>
+      </c>
+      <c r="I28" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="29">
@@ -2907,7 +3183,7 @@
         <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="F29" t="s">
         <v>208</v>
@@ -2917,6 +3193,9 @@
       </c>
       <c r="H29" t="s">
         <v>209</v>
+      </c>
+      <c r="I29" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="30">
@@ -2933,7 +3212,7 @@
         <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="F30" t="s">
         <v>213</v>
@@ -2943,6 +3222,9 @@
       </c>
       <c r="H30" t="s">
         <v>214</v>
+      </c>
+      <c r="I30" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +3241,7 @@
         <v>216</v>
       </c>
       <c r="E31" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="F31" t="s">
         <v>218</v>
@@ -2969,6 +3251,9 @@
       </c>
       <c r="H31" t="s">
         <v>219</v>
+      </c>
+      <c r="I31" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="32">
@@ -2985,7 +3270,7 @@
         <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="F32" t="s">
         <v>223</v>
@@ -2995,6 +3280,9 @@
       </c>
       <c r="H32" t="s">
         <v>224</v>
+      </c>
+      <c r="I32" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="33">
@@ -3011,16 +3299,19 @@
         <v>226</v>
       </c>
       <c r="E33" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>228</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
         <v>229</v>
+      </c>
+      <c r="I33" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="34">
@@ -3037,7 +3328,7 @@
         <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="F34" t="s">
         <v>233</v>
@@ -3047,6 +3338,9 @@
       </c>
       <c r="H34" t="s">
         <v>128</v>
+      </c>
+      <c r="I34" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="35">
@@ -3063,7 +3357,7 @@
         <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="F35" t="s">
         <v>237</v>
@@ -3073,6 +3367,9 @@
       </c>
       <c r="H35" t="s">
         <v>238</v>
+      </c>
+      <c r="I35" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="36">
@@ -3089,7 +3386,7 @@
         <v>240</v>
       </c>
       <c r="E36" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="F36" t="s">
         <v>242</v>
@@ -3099,6 +3396,9 @@
       </c>
       <c r="H36" t="s">
         <v>243</v>
+      </c>
+      <c r="I36" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="37">
@@ -3115,7 +3415,7 @@
         <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="F37" t="s">
         <v>247</v>
@@ -3125,6 +3425,9 @@
       </c>
       <c r="H37" t="s">
         <v>248</v>
+      </c>
+      <c r="I37" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="38">
@@ -3141,7 +3444,7 @@
         <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="F38" t="s">
         <v>252</v>
@@ -3151,6 +3454,9 @@
       </c>
       <c r="H38" t="s">
         <v>253</v>
+      </c>
+      <c r="I38" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="39">
@@ -3170,13 +3476,16 @@
         <v>397</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
         <v>128</v>
+      </c>
+      <c r="I39" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -3193,16 +3502,19 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
         <v>128</v>
+      </c>
+      <c r="I40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -3219,7 +3531,7 @@
         <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="F41" t="s">
         <v>257</v>
@@ -3229,6 +3541,9 @@
       </c>
       <c r="H41" t="s">
         <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="42">
@@ -3256,6 +3571,9 @@
       <c r="H42" t="s">
         <v>262</v>
       </c>
+      <c r="I42" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
@@ -3271,16 +3589,19 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s">
         <v>128</v>
+      </c>
+      <c r="I43" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -3297,7 +3618,7 @@
         <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="F44" t="s">
         <v>266</v>
@@ -3307,6 +3628,9 @@
       </c>
       <c r="H44" t="s">
         <v>267</v>
+      </c>
+      <c r="I44" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="45">
@@ -3323,7 +3647,7 @@
         <v>269</v>
       </c>
       <c r="E45" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="F45" t="s">
         <v>271</v>
@@ -3333,6 +3657,9 @@
       </c>
       <c r="H45" t="s">
         <v>272</v>
+      </c>
+      <c r="I45" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="46">
@@ -3349,7 +3676,7 @@
         <v>274</v>
       </c>
       <c r="E46" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="F46" t="s">
         <v>276</v>
@@ -3359,6 +3686,9 @@
       </c>
       <c r="H46" t="s">
         <v>277</v>
+      </c>
+      <c r="I46" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="47">
@@ -3375,7 +3705,7 @@
         <v>279</v>
       </c>
       <c r="E47" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="F47" t="s">
         <v>281</v>
@@ -3385,6 +3715,9 @@
       </c>
       <c r="H47" t="s">
         <v>282</v>
+      </c>
+      <c r="I47" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="48">
@@ -3401,7 +3734,7 @@
         <v>284</v>
       </c>
       <c r="E48" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="F48" t="s">
         <v>286</v>
@@ -3411,6 +3744,9 @@
       </c>
       <c r="H48" t="s">
         <v>287</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="49">
@@ -3427,7 +3763,7 @@
         <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="F49" t="s">
         <v>291</v>
@@ -3437,6 +3773,9 @@
       </c>
       <c r="H49" t="s">
         <v>292</v>
+      </c>
+      <c r="I49" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="50">
@@ -3453,7 +3792,7 @@
         <v>294</v>
       </c>
       <c r="E50" t="s">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="F50" t="s">
         <v>296</v>
@@ -3463,6 +3802,9 @@
       </c>
       <c r="H50" t="s">
         <v>297</v>
+      </c>
+      <c r="I50" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="51">
@@ -3479,7 +3821,7 @@
         <v>299</v>
       </c>
       <c r="E51" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="F51" t="s">
         <v>301</v>
@@ -3489,6 +3831,9 @@
       </c>
       <c r="H51" t="s">
         <v>287</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="52">
@@ -3505,7 +3850,7 @@
         <v>303</v>
       </c>
       <c r="E52" t="s">
-        <v>411</v>
+        <v>476</v>
       </c>
       <c r="F52" t="s">
         <v>305</v>
@@ -3515,6 +3860,9 @@
       </c>
       <c r="H52" t="s">
         <v>282</v>
+      </c>
+      <c r="I52" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="53">
@@ -3531,7 +3879,7 @@
         <v>99</v>
       </c>
       <c r="E53" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="F53" t="s">
         <v>308</v>
@@ -3541,6 +3889,9 @@
       </c>
       <c r="H53" t="s">
         <v>309</v>
+      </c>
+      <c r="I53" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="54">
@@ -3557,7 +3908,7 @@
         <v>311</v>
       </c>
       <c r="E54" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="F54" t="s">
         <v>313</v>
@@ -3567,6 +3918,9 @@
       </c>
       <c r="H54" t="s">
         <v>128</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="55">
@@ -3583,7 +3937,7 @@
         <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="F55" t="s">
         <v>317</v>
@@ -3593,6 +3947,9 @@
       </c>
       <c r="H55" t="s">
         <v>128</v>
+      </c>
+      <c r="I55" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="56">
@@ -3620,6 +3977,9 @@
       <c r="H56" t="s">
         <v>128</v>
       </c>
+      <c r="I56" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
@@ -3635,7 +3995,7 @@
         <v>319</v>
       </c>
       <c r="E57" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="F57" t="s">
         <v>321</v>
@@ -3645,6 +4005,9 @@
       </c>
       <c r="H57" t="s">
         <v>322</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="58">
@@ -3661,7 +4024,7 @@
         <v>324</v>
       </c>
       <c r="E58" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="F58" t="s">
         <v>326</v>
@@ -3671,6 +4034,9 @@
       </c>
       <c r="H58" t="s">
         <v>297</v>
+      </c>
+      <c r="I58" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="59">
@@ -3687,7 +4053,7 @@
         <v>328</v>
       </c>
       <c r="E59" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="F59" t="s">
         <v>330</v>
@@ -3697,6 +4063,9 @@
       </c>
       <c r="H59" t="s">
         <v>128</v>
+      </c>
+      <c r="I59" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="60">
@@ -3713,7 +4082,7 @@
         <v>332</v>
       </c>
       <c r="E60" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
         <v>334</v>
@@ -3723,6 +4092,9 @@
       </c>
       <c r="H60" t="s">
         <v>335</v>
+      </c>
+      <c r="I60" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="61">
@@ -3739,7 +4111,7 @@
         <v>337</v>
       </c>
       <c r="E61" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="F61" t="s">
         <v>339</v>
@@ -3749,6 +4121,9 @@
       </c>
       <c r="H61" t="s">
         <v>340</v>
+      </c>
+      <c r="I61" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="62">
@@ -3765,7 +4140,7 @@
         <v>342</v>
       </c>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="F62" t="s">
         <v>344</v>
@@ -3775,6 +4150,9 @@
       </c>
       <c r="H62" t="s">
         <v>345</v>
+      </c>
+      <c r="I62" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="63">
@@ -3791,16 +4169,19 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s">
         <v>128</v>
+      </c>
+      <c r="I63" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="64">
@@ -3817,7 +4198,7 @@
         <v>347</v>
       </c>
       <c r="E64" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="F64" t="s">
         <v>349</v>
@@ -3827,6 +4208,9 @@
       </c>
       <c r="H64" t="s">
         <v>128</v>
+      </c>
+      <c r="I64" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="65">
@@ -3843,7 +4227,7 @@
         <v>351</v>
       </c>
       <c r="E65" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="F65" t="s">
         <v>353</v>
@@ -3853,6 +4237,9 @@
       </c>
       <c r="H65" t="s">
         <v>354</v>
+      </c>
+      <c r="I65" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="66">
@@ -3869,7 +4256,7 @@
         <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="F66" t="s">
         <v>358</v>
@@ -3879,6 +4266,9 @@
       </c>
       <c r="H66" t="s">
         <v>128</v>
+      </c>
+      <c r="I66" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9AC596-206F-42B5-A8DF-81BA0CD825E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="614">
   <si>
     <t>Doi</t>
   </si>
@@ -270,9 +277,6 @@
 </t>
   </si>
   <si>
-    <t>[Dong%Liu%NULL%1, Roy F.%Baumeister%NULL%1, Jennifer C.%Veilleux%NULL%1, Caixia%Chen%NULL%1, Wenjun%Liu%NULL%1, Yongjie%Yue%NULL%1, Shi%Zhang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7355324</t>
   </si>
   <si>
@@ -308,9 +312,6 @@
 </t>
   </si>
   <si>
-    <t>[Xin%Cai%NULL%1, Xiaopeng%Hu%NULL%1, Ivo Otte%Ekumi%NULL%1, Jianchun%Wang%NULL%1, Yawen%An%NULL%1, Zhiwen%Li%NULL%1, Bo%Yuan%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7347493</t>
   </si>
   <si>
@@ -321,9 +322,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[Hai-Xin%Bo%NULL%0, Wen%Li%NULL%1, Yuan%Yang%NULL%2, Yuan%Yang%NULL%0, Yu%Wang%NULL%1, Qinge%Zhang%NULL%1, Teris%Cheung%NULL%1, Xinjuan%Wu%NULL%1, Yu-Tao%Xiang%NULL%1]</t>
   </si>
   <si>
     <t>PMC7200846</t>
@@ -339,9 +337,6 @@
               •
               Students report moderate-to-severe psychological impact of the COVID-19 pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Michael L.%Tee%NULL%1, Cherica A.%Tee%NULL%1, Joseph P.%Anlacan%NULL%1, Katrina Joy G.%Aligam%NULL%1, Patrick Wincy C.%Reyes%NULL%1, Vipat%Kuruchittham%NULL%1, Roger C.%Ho%NULL%2]</t>
   </si>
   <si>
     <t>PMC7444468</t>
@@ -372,9 +367,6 @@
 </t>
   </si>
   <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1, Xiao-You%Su%suxiaoyou@hotmail.com%1, Yu%Jiang%jiangyu@pumc.edu.cn%2, Yu%Jiang%jiangyu@pumc.edu.cn%0, Wen-Jun%Wang%wwjun1973@163.com%1, Xiao-Fen%Gu%357539328@qq.com%1, Li%Ma%mali_lele@sina.com%1, Jing%Li%lijingwcph@scu.edu.cn%1, Shao-Kai%Zhang%shaokaizhang@126.com%1, Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1, Ran%Ren%renran99@163.com%1, Yuan-Li%Liu%liuyuanli_pumc@163.com%1, You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7422468</t>
   </si>
   <si>
@@ -398,9 +390,6 @@
  We found factors associated with better mental health, such as being satisfied with the information received about the health crisis, conducting leisure activities, and the perception of being in good health.
  These findings can be used to design psychological interventions to help coping with COVID-19 pandemic, both in Spain and other countries.
 </t>
-  </si>
-  <si>
-    <t>[Rocío%Rodríguez-Rey%NULL%1, Helena%Garrido-Hernansaiz%NULL%1, Silvia%Collado%NULL%1]</t>
   </si>
   <si>
     <t>PMC7325630</t>
@@ -437,9 +426,6 @@
 </t>
   </si>
   <si>
-    <t>[Anliu%Nie%NULL%1, Xiangfen%Su%suxiangfengfy@163.com%1, Shuzeng%Zhang%NULL%2, Shuzeng%Zhang%NULL%0, Wenjie%Guan%NULL%1, Jianfeng%Li%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7436701</t>
   </si>
   <si>
@@ -468,9 +454,6 @@
 </t>
   </si>
   <si>
-    <t>[Shun-Wei%Liang%NULL%1, Rong-Ning%Chen%NULL%1, Li-Li%Liu%NULL%1, Xue-Guo%Li%NULL%1, Jian-Bin%Chen%NULL%1, Si-Yao%Tang%NULL%1, Jing-Bo%Zhao%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7499802</t>
   </si>
   <si>
@@ -486,9 +469,6 @@
     <t xml:space="preserve">Background: The COVID-19 pandemic had a massive impact on health care systems, increasing the risks of psychological distress in health professionals.
  This study aims at assessing the prevalence of burnout and psychopathological conditions in health professionals working in a health institution in the Northern Italy, and to identify socio-demographic, work-related and psychological predictors of burnout.
 </t>
-  </si>
-  <si>
-    <t>[Emanuele Maria%Giusti%NULL%1, Elisa%Pedroli%NULL%1, Guido E.%D'Aniello%NULL%1, Chiara%Stramba Badiale%NULL%1, Giada%Pietrabissa%NULL%1, Chiara%Manna%NULL%1, Marco%Stramba Badiale%NULL%1, Giuseppe%Riva%NULL%1, Gianluca%Castelnuovo%NULL%1, Enrico%Molinari%NULL%1]</t>
   </si>
   <si>
     <t>PMC7366071</t>
@@ -510,9 +490,6 @@
  In terms of the need for psychological assistance, 50.97% of interviewees responded that they needed psychological counseling, of which medical staff accounted for 65.87% and non-medical staff accounted for 45.10%.
  During the ongoing COVID-19 outbreak, great attention should be paid to the mental health of the population, especially medical staff, and measures such as psychological intervention should be actively carried out for reducing the psychosocial effects.
 </t>
-  </si>
-  <si>
-    <t>[Biao%Chen%NULL%1, Qing-xian%Li%NULL%1, Heng%Zhang%NULL%1, Jia-yong%Zhu%NULL%1, Xu%Yang%NULL%1, Yu-hang%Wu%NULL%1, Jie%Xiong%NULL%1, Fu%Li%NULL%1, Hua%Wang%whzkwlh@126.com%1, Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
   </si>
   <si>
     <t>PMC7539749</t>
@@ -542,16 +519,10 @@
 </t>
   </si>
   <si>
-    <t>[Anaëlle%Caillet%NULL%1, Charlotte%Coste%NULL%1, Rocio%Sanchez%NULL%1, Bernard%Allaouchiche%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7522700</t>
   </si>
   <si>
     <t>&lt;italic&gt;Far from the eyes, close to the heart&lt;/italic&gt;: Psychological Impact of COVID-19 in a Sample of Italian foreign workers</t>
-  </si>
-  <si>
-    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1, Justin%Thomas%NULL%1]</t>
   </si>
   <si>
     <t>PMC7236750</t>
@@ -591,9 +562,6 @@
 </t>
   </si>
   <si>
-    <t>[Abdulmajeed A.%Alkhamees%NULL%1, Saleh A.%Alrashed%NULL%1, Ali A.%Alzunaydi%NULL%1, Ahmed S.%Almohimeed%NULL%1, Moath S.%Aljohani%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7354380</t>
   </si>
   <si>
@@ -613,9 +581,6 @@
 </t>
   </si>
   <si>
-    <t>[Yongjie%Zhou%NULL%1, Hui%Shi%NULL%1, Zhengkui%Liu%NULL%1, Songxu%Peng%gwxypsx@163.com%2, Songxu%Peng%gwxypsx@163.com%0, Ruoxi%Wang%NULL%2, Ruoxi%Wang%NULL%0, Ling%Qi%NULL%1, Zezhi%Li%NULL%1, Jiezhi%Yang%NULL%1, Yali%Ren%NULL%1, Xiuli%Song%NULL%1, Lingyun%Zeng%NULL%1, Wei%Qian%NULL%1, Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7501755</t>
   </si>
   <si>
@@ -636,9 +601,6 @@
  In conclusion, the COVID-19 pandemic was associated with mild stressful impact in our sample, even though the COVID-19 pandemic is still ongoing.
  These findings would need to be verified in larger population studies.
 </t>
-  </si>
-  <si>
-    <t>[Yingfei%Zhang%NULL%0, Zheng Feei%Ma%NULL%5, Zheng Feei%Ma%NULL%0]</t>
   </si>
   <si>
     <t>PMC7177660</t>
@@ -666,9 +628,6 @@
 </t>
   </si>
   <si>
-    <t>[Qianlan%Yin%NULL%1, Zhuoer%Sun%NULL%3, Zhuoer%Sun%NULL%0, Tuanjie%Liu%NULL%1, Xiong%Ni%NULL%1, Xuanfeng%Deng%NULL%1, Yanpu%Jia%NULL%2, Zhilei%Shang%NULL%2, Yaoguang%Zhou%NULL%2, Weizhi%Liu%13024141970@163.com%3, Weizhi%Liu%13024141970@163.com%0]</t>
-  </si>
-  <si>
     <t>PMC7276761</t>
   </si>
   <si>
@@ -676,9 +635,6 @@
   </si>
   <si>
     <t>Influence of COVID-19 on general stress and posttraumatic stress symptoms among hospitalized high-risk patients</t>
-  </si>
-  <si>
-    <t>[U.%Wesemann%NULL%1, N.%Hadjamu%NULL%2, N.%Hadjamu%NULL%0, G.%Willmund%NULL%1, S.%Dolff%NULL%1, N.%Vonderlin%NULL%1, R.%Wakili%NULL%1, J.%Vogel%NULL%1, T.%Rassaf%NULL%1, J.%Siebermair%NULL%1]</t>
   </si>
   <si>
     <t>PMC7453354</t>
@@ -694,9 +650,6 @@
               •
               A significant reduction in psychological impact 4 weeks after COVID outbreak.
 </t>
-  </si>
-  <si>
-    <t>[Cuiyan%Wang%NULL%0, Riyu%Pan%NULL%1, Xiaoyang%Wan%NULL%1, Yilin%Tan%NULL%1, Linkang%Xu%NULL%1, Roger S.%McIntyre%NULL%3, Faith N.%Choo%NULL%1, Bach%Tran%NULL%3, Roger%Ho%NULL%3, Vijay K.%Sharma%NULL%2, Cyrus%Ho%NULL%3]</t>
   </si>
   <si>
     <t>PMC7153528</t>
@@ -726,9 +679,6 @@
 During the initial stages of COVID-19 in India, almost one-third respondents had a significant psychological impact.
  This indicates a need for more systematic and longitudinal assessment of psychological needs of the population, which can help the government in formulating holistic interventions for affected individuals.
 </t>
-  </si>
-  <si>
-    <t>[Mohit%Varshney%NULL%1, Jithin Thomas%Parel%NULL%2, Jithin Thomas%Parel%NULL%0, Neeraj%Raizada%NULL%2, Neeraj%Raizada%NULL%0, Shiv Kumar%Sarin%NULL%1, Abdallah M.%Samy%NULL%2, Abdallah M.%Samy%NULL%0]</t>
   </si>
   <si>
     <t>PMC7259495</t>
@@ -762,9 +712,6 @@
 </t>
   </si>
   <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1, Rene%Stefitz%NULL%1, Kerstin%Gaisbachgrabner%NULL%1, Andreas%Schwerdtfeger%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7487438</t>
   </si>
   <si>
@@ -789,9 +736,6 @@
 </t>
   </si>
   <si>
-    <t>[Wanjie%Tang%NULL%1, Tao%Hu%NULL%1, Baodi%Hu%NULL%1, Chunhan%Jin%NULL%1, Gang%Wang%NULL%1, Chao%Xie%NULL%1, Sen%Chen%NULL%1, Jiuping%Xu%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7217769</t>
   </si>
   <si>
@@ -807,9 +751,6 @@
 </t>
   </si>
   <si>
-    <t>[Wanqiu%Tan%NULL%2, Fengyi%Hao%NULL%2, Roger S.%McIntyre%NULL%0, Li%Jiang%NULL%2, Xiaojiang%Jiang%NULL%2, Ling%Zhang%NULL%2, Xinling%Zhao%NULL%2, Yiran%Zou%NULL%2, Yirong%Hu%NULL%2, Xi%Luo%NULL%2, Zhisong%Zhang%NULL%2, Andre%Lai%NULL%1, Roger%Ho%NULL%0, Bach%Tran%NULL%0, Cyrus%Ho%NULL%0, Wilson%Tam%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7179503</t>
   </si>
   <si>
@@ -823,9 +764,6 @@
               •
               A considerable number of medical staff suffered from depressive symptoms and PTSD.
 </t>
-  </si>
-  <si>
-    <t>[Xingyue%Song%NULL%1, Wenning%Fu%NULL%1, Xiaoran%Liu%NULL%1, Zhiqian%Luo%NULL%1, Rixing%Wang%NULL%1, Ning%Zhou%NULL%1, Shijiao%Yan%NULL%1, Chuanzhu%Lv%NULL%1]</t>
   </si>
   <si>
     <t>PMC7273140</t>
@@ -847,9 +785,6 @@
 </t>
   </si>
   <si>
-    <t>[Allen C.%Sherman%NULL%1, Mark L%Williams%NULL%1, Benjamin C%Amick%NULL%1, Teresa J.%Hudson%NULL%1, Erick L%Messias%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7513769</t>
   </si>
   <si>
@@ -862,9 +797,6 @@
     <t xml:space="preserve">Electronic supplementary material
 The online version of this article (10.1007/s00296-020-04626-0) contains supplementary material, which is available to authorized users.
 </t>
-  </si>
-  <si>
-    <t>[Emire%Seyahi%eseyahi@yahoo.com%1, Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2, Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0, Necdet%Sut%necdetsut@yahoo.com%2, Necdet%Sut%necdetsut@yahoo.com%0, Selma%Akdogan%drslma.akdogan@gmail.com%2, Selma%Akdogan%drslma.akdogan@gmail.com%0, Vedat%Hamuryudan%vhamuryudan@yahoo.com%2, Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
   </si>
   <si>
     <t>PMC7306572</t>
@@ -896,9 +828,6 @@
 </t>
   </si>
   <si>
-    <t>[Rodolfo%Rossi%NULL%2, Valentina%Socci%NULL%2, Dalila%Talevi%NULL%1, Sonia%Mensi%NULL%1, Cinzia%Niolu%NULL%1, Francesca%Pacitti%NULL%2, Antinisca%Di Marco%NULL%2, Alessandro%Rossi%NULL%2, Alberto%Siracusano%NULL%2, Giorgio%Di Lorenzo%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7426501</t>
   </si>
   <si>
@@ -910,9 +839,6 @@
   <si>
     <t xml:space="preserve">This cross-sectional study reports on symptoms of posttraumatic stress disorder, depression, anxiety, and insomnia among health care workers in Italy during the coronavirus disease 2019 (COVID-19) pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Rodolfo%Rossi%NULL%0, Valentina%Socci%NULL%0, Francesca%Pacitti%NULL%0, Giorgio%Di Lorenzo%NULL%0, Antinisca%Di Marco%NULL%0, Alberto%Siracusano%NULL%0, Alessandro%Rossi%NULL%0]</t>
   </si>
   <si>
     <t>PMC7256664</t>
@@ -943,9 +869,6 @@
 </t>
   </si>
   <si>
-    <t>[Marianna%Riello%NULL%1, Marianna%Purgato%NULL%1, Chiara%Bove%NULL%1, David%MacTaggart%NULL%1, Elena%Rusconi%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7540798</t>
   </si>
   <si>
@@ -959,12 +882,6 @@
 MethodsAmidst the disease outbreak, 41 out of 105 COVID-19 patients in a local designated hospital in China were successfully assessed using a constellation of psychometric questionnaires to determine their psychological morbidities and fatigue. Several potential biopsychosocial risk factors (including pre-existing disabilities, CT severity score of pneumonia, social support, coping strategies) were assessed through multivariable logistic regression analyses to clarify their association with mental health in patients.
 Results43.9% of 41 patients presented with impaired general mental health, 12.2% had post-traumatic stress disorder (PTSD) symptoms, 26.8% had anxiety and/or depression symptoms, and 53.6% had fatigue. We did not find any association between pneumonia severity and psychological morbidities or fatigue in COVID-19 patients. However, high perceived stigmatization was associated with an increased risk of impaired general mental health and high perceived social support was associated with decreased risk. Besides, negative coping inclination was associated with an increased risk of PTSD symptoms; high perceived social support was associated with a decreased risk of anxiety and/or depression symptoms.
 ConclusionsPsychological morbidities and chronic fatigue are common among COVID-19 patients. Negative coping inclination and being stigmatized are primary risk factors while perceived social support is the main protective factor. </t>
-  </si>
-  <si>
-    <t>[Rongfeng%Qi%NULL%1, Wei%Chen%NULL%1, Saiduo%Liu%NULL%1, Paul M.%Thompson%NULL%1, Long Jiang%Zhang%NULL%1, Fei%Xia%NULL%1, Fang%Cheng%NULL%1, Ailing%Hong%NULL%1, Wesley%Surento%NULL%1, Song%Luo%NULL%1, Zhi Yuan%Sun%NULL%1, Chang Sheng%Zhou%NULL%1, Lingjiang%Li%NULL%1, Xiangao%Jiang%NULL%1, Guang Ming%Lu%NULL%1,  R.%Qi%null%1,  W.% Chen%null%1,  S.% Liu%null%1,  P. M.% Thompson%null%1,  L. J.% Zhang%null%1,  F.% Xia%null%1,  F.% Cheng%null%1,  A.% Hong%null%1,  W.% Surento%null%1,  S.% Luo%null%1,  Z. Y.% Sun%null%1,  C. S.% Zhou%null%1,  L.% Li%null%1,  X.% Jiang%null%1,  G. M. % Lu%null%1]</t>
-  </si>
-  <si>
-    <t>medrxiv doi</t>
   </si>
   <si>
     <t>2020-05-11</t>
@@ -991,9 +908,6 @@
 </t>
   </si>
   <si>
-    <t>[Zheng Feei%Ma%NULL%0, Yutong%Zhang%NULL%2, Yutong%Zhang%NULL%0, Xiaoqin%Luo%NULL%1, Xinli%Li%NULL%1, Yeshan%Li%NULL%1, Shuchang%Liu%NULL%1, Yingfei%Zhang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7443962</t>
   </si>
   <si>
@@ -1012,9 +926,6 @@
 </t>
   </si>
   <si>
-    <t>[Lourdes%Luceño-Moreno%NULL%1, Beatriz%Talavera-Velasco%NULL%2, Beatriz%Talavera-Velasco%NULL%0, Yolanda%García-Albuerne%NULL%1, Jesús%Martín-García%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7432016</t>
   </si>
   <si>
@@ -1030,9 +941,6 @@
 </t>
   </si>
   <si>
-    <t>[Nianqi%Liu%NULL%0, Fan%Zhang%NULL%1, Cun%Wei%NULL%1, Yanpu%Jia%NULL%0, Zhilei%Shang%NULL%0, Luna%Sun%NULL%1, Lili%Wu%NULL%1, Zhuoer%Sun%NULL%0, Yaoguang%Zhou%NULL%0, Yan%Wang%NULL%1, Weizhi%Liu%13024141970@163.com%0]</t>
-  </si>
-  <si>
     <t>PMC7102622</t>
   </si>
   <si>
@@ -1046,9 +954,6 @@
               •
               Young adults showed high rates of loneliness during the COVID-19 pandemic.
 </t>
-  </si>
-  <si>
-    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1, Emily%Zhang%NULL%1, Ga Tin Fifi%Wong%NULL%1, Sunah%Hyun%NULL%1, Hyeouk “Chris”%Hahm%NULL%1]</t>
   </si>
   <si>
     <t>PMC7263263</t>
@@ -1079,9 +984,6 @@
 </t>
   </si>
   <si>
-    <t>[Yuchen%Li%NULL%1, Yue%Wang%NULL%1, Jingwen%Jiang%NULL%1, Unnur A.%Valdimarsdóttir%NULL%1, Katja%Fall%NULL%2, Katja%Fall%NULL%0, Fang%Fang%NULL%3, Fang%Fang%NULL%0, Huan%Song%NULL%1, Donghao%Lu%NULL%1, Wei%Zhang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7225209</t>
   </si>
   <si>
@@ -1095,9 +997,6 @@
  This was a cross-sectional study conducted using an online survey and face-to-face interviews to assess mental health problems and the associated factors among Chinese citizens with income losses exposed to COVID-19. The degrees of the depression, anxiety, insomnia, and distress symptoms of our participants were assessed using the Chinese versions of the Patient Health Questionnaire-9 (PHQ-9), the Generalized Anxiety Disorder-7 (GAD-7), the Insomnia Severity Index-7 (ISI-7), and the revised 7-item Impact of Event Scale (IES-7) scales, respectively, which found that the prevalence rates of depression, anxiety, insomnia, and distress caused by COVID-19 were 45.5%, 49.5%, 30.9%, and 68.1%, respectively.
  Multivariable logistic regression analysis was performed to identify factors associated with mental health outcomes among workers with income losses during COVID-19. Participants working in Hubei province with heavy income losses, especially pregnant women, were found to have a high risk of developing unfavorable mental health symptoms and may need psychological support or interventions.
 </t>
-  </si>
-  <si>
-    <t>[Xin%Li%NULL%1, Peixin%Lu%NULL%1, Lianting%Hu%NULL%1, Tianhui%Huang%NULL%1, Long%Lu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7432610</t>
@@ -1148,9 +1047,6 @@
 </t>
   </si>
   <si>
-    <t>[Xuan Thi Thanh%Le%NULL%1, Anh Kim%Dang%NULL%1, Jayson%Toweh%NULL%1, Quang Nhat%Nguyen%NULL%1, Huong Thi%Le%NULL%1, Toan Thi Thanh%Do%NULL%1, Hanh Bich Thi%Phan%NULL%1, Thao Thanh%Nguyen%NULL%1, Quan Thi%Pham%NULL%1, Nhung Kim Thi%Ta%NULL%1, Quynh Thi%Nguyen%NULL%1, Anh Ngoc%Nguyen%NULL%1, Quan%Van Duong%NULL%1, Men Thi%Hoang%NULL%1, Hai Quang%Pham%NULL%1, Linh Gia%Vu%NULL%1, Bach Xuan%Tran%NULL%1, Carl A.%Latkin%NULL%1, Cyrus S. H.%Ho%NULL%1, Roger C. M.%Ho%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7492529</t>
   </si>
   <si>
@@ -1164,9 +1060,6 @@
               •
               This study showed the psychological impact of COVID-19 in community pharmacists.
 </t>
-  </si>
-  <si>
-    <t>[M.%Lange%NULL%1, S.%Joo%NULL%1, P.-A.%Couette%NULL%1, S.%de Jaegher%NULL%1, F.%Joly%NULL%1, X.%Humbert%NULL%1]</t>
   </si>
   <si>
     <t>PMC7539790</t>
@@ -1185,9 +1078,6 @@
 Meaning
 These findings suggest that, among Chinese health care workers exposed to COVID-19, women, nurses, those in Wuhan, and front-line health care workers have a high risk of developing unfavorable mental health outcomes and may need psychological support or interventions.
 </t>
-  </si>
-  <si>
-    <t>[Jianbo%Lai%NULL%0, Simeng%Ma%NULL%1, Ying%Wang%NULL%1, Zhongxiang%Cai%NULL%2, Jianbo%Hu%NULL%1, Ning%Wei%NULL%1, Jiang%Wu%NULL%2, Hui%Du%NULL%1, Tingting%Chen%NULL%1, Ruiting%Li%NULL%1, Huawei%Tan%NULL%1, Lijun%Kang%NULL%0, Lihua%Yao%NULL%1, Manli%Huang%NULL%1, Huafen%Wang%NULL%1, Gaohua%Wang%NULL%2, Zhongchun%Liu%NULL%2, Shaohua%Hu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7090843</t>
@@ -1207,9 +1097,6 @@
  Posttraumatic stress symptoms related to the COVID‐19 pandemic are common in the general population.
  Our results show that health professionals responsible for responding to the COVID‐19 pandemic should expect to routinely encounter symptoms and concerns related to posttraumatic stress.
 </t>
-  </si>
-  <si>
-    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1, Mark%Shevlin%NULL%1, Jamie%Murphy%NULL%1, Orla%McBride%NULL%1, Menachem%Ben‐Ezra%NULL%2, Menachem%Ben‐Ezra%NULL%0, Richard P.%Bentall%NULL%1, Frédérique%Vallières%NULL%1, Philip%Hyland%NULL%1]</t>
   </si>
   <si>
     <t>PMC7405473</t>
@@ -1234,9 +1121,6 @@
 Conclusions
 These data suggest that participants engaged in health‐related research perceive COVID‐19 as a significant threat, affecting mental health, desire to participate in research, and ability to adhere to intervention recommendations.
 </t>
-  </si>
-  <si>
-    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1, Stephanie%Manasse%NULL%2, Stephanie%Manasse%NULL%0, Rebecca A.%Krukowski%NULL%2, Rebecca A.%Krukowski%NULL%0, Kathryn%Ross%NULL%2, Kathryn%Ross%NULL%0, Rebecca%Shakour%NULL%2, Rebecca%Shakour%NULL%0, Darci R.%Miller%NULL%1, Dominick J.%Lemas%NULL%1, Young‐Rock%Hong%NULL%1]</t>
   </si>
   <si>
     <t>PMC7461293</t>
@@ -1264,9 +1148,6 @@
 </t>
   </si>
   <si>
-    <t>[Jing%Guo%NULL%1, Xing Lin%Feng%NULL%1, Xiao Hua%Wang%NULL%2, Xiao Hua%Wang%NULL%0, Marinus H.%van IJzendoorn%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7312167</t>
   </si>
   <si>
@@ -1280,9 +1161,6 @@
               •
               The 18.7% of the sample revealed depressive symptomatology, the 21.6% anxiety and the 15.8% PSTD.
 </t>
-  </si>
-  <si>
-    <t>[Clara%González-Sanguino%NULL%1, Berta%Ausín%NULL%1, Miguel Ángel%Castellanos%NULL%1, Jesús%Saiz%NULL%1, Aída%López-Gómez%NULL%1, Carolina%Ugidos%NULL%1, Manuel%Muñoz%NULL%1]</t>
   </si>
   <si>
     <t>PMC7219372</t>
@@ -1306,9 +1184,6 @@
 During phase 2 of the COVID-19 outbreak in Mexico, we observed the presence of psychological distress and post-traumatic stress symptoms in over a quarter of the population.
  This investigation may guide mental health interventions and policies towards the groups that are most vulnerable to the impacts of the social and lifestyle changes taking place in Mexico due to COVID-19.
 </t>
-  </si>
-  <si>
-    <t>[Leivy Patricia%González Ramírez%NULL%1, Reyna Jazmín%Martínez Arriaga%NULL%2, Reyna Jazmín%Martínez Arriaga%NULL%0, Martha Alicia%Hernández-Gonzalez%NULL%2, Martha Alicia%Hernández-Gonzalez%NULL%0, José María%De la Roca-Chiapas%NULL%2, José María%De la Roca-Chiapas%NULL%0]</t>
   </si>
   <si>
     <t>PMC7398879</t>
@@ -1332,16 +1207,10 @@
 </t>
   </si>
   <si>
-    <t>[Giuseppe%Forte%NULL%1, Francesca%Favieri%NULL%2, Francesca%Favieri%NULL%0, Renata%Tambelli%NULL%2, Renata%Tambelli%NULL%0, Maria%Casagrande%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7356935</t>
   </si>
   <si>
     <t>Prevalence and predictors of PTSD during the COVID-19 pandemic: Findings from a Tunisian community sample</t>
-  </si>
-  <si>
-    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1, Farah%Ghrissi%NULL%1, Bouthaina%Abbassi%NULL%1, Wissal%Cherif%NULL%1, Majda%Cheour%NULL%1]</t>
   </si>
   <si>
     <t>PMC7255192</t>
@@ -1368,9 +1237,6 @@
  Age and rural residency were negative predictors for the impact of event score, while female gender or presence of chronic condition was a positive predictor for the impact of event score.
  Covid-19 pandemic has a great psychological impact on adult Egyptians and affected social support.
 </t>
-  </si>
-  <si>
-    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1, Enayat M.%Soltan%enayatsoltan@gmail.com%2, Enayat M.%Soltan%enayatsoltan@gmail.com%0, Hend M.%Salama%hind_mikhail@yahoo.com%2, Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
   </si>
   <si>
     <t>PMC7255077</t>
@@ -1398,9 +1264,6 @@
 </t>
   </si>
   <si>
-    <t>[Hannah%Dobson%NULL%1, Charles B%Malpas%NULL%2, Charles B%Malpas%NULL%0, Aidan JC%Burrell%NULL%1, Caroline%Gurvich%NULL%1, Leo%Chen%NULL%1, Jayashri%Kulkarni%NULL%1, Toby%Winton-Brown%NULL%2, Toby%Winton-Brown%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7554409</t>
   </si>
   <si>
@@ -1419,9 +1282,6 @@
 Conclusions:
 COVID-19 outbreak results in considerable psychological effects among the Mexican sample.
 </t>
-  </si>
-  <si>
-    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1, Regino%Piñeiro-Lamas%NULL%1, César Rubén%Vuelvas-Olmos%NULL%1]</t>
   </si>
   <si>
     <t>PMC7385317</t>
@@ -1455,9 +1315,6 @@
 </t>
   </si>
   <si>
-    <t>[Alyssa M.%Civantos%NULL%2, Yasmeen%Byrnes%NULL%2, Yasmeen%Byrnes%NULL%0, Changgee%Chang%NULL%2, Aman%Prasad%NULL%1, Kevin%Chorath%NULL%2, Kevin%Chorath%NULL%0, Seerat K.%Poonia%NULL%1, Carolyn M.%Jenks%NULL%1, Andrés M.%Bur%NULL%1, Punam%Thakkar%NULL%2, Punam%Thakkar%NULL%0, Evan M.%Graboyes%NULL%2, Evan M.%Graboyes%NULL%0, Rahul%Seth%NULL%2, Rahul%Seth%NULL%0, Samuel%Trosman%NULL%1, Anni%Wong%NULL%2, Anni%Wong%NULL%0, Benjamin M.%Laitman%NULL%1, Brianna N.%Harris%NULL%1, Janki%Shah%NULL%2, Janki%Shah%NULL%0, Vanessa%Stubbs%NULL%1, Garret%Choby%NULL%1, Qi%Long%NULL%2, Christopher H.%Rassekh%NULL%1, Erica%Thaler%NULL%1, Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
-  </si>
-  <si>
     <t>PMC7300862</t>
   </si>
   <si>
@@ -1482,9 +1339,6 @@
 </t>
   </si>
   <si>
-    <t>[Alyssa M.%Civantos%NULL%0, Antonio%Bertelli%NULL%1, Antonio%Gonçalves%NULL%1, Emily%Getzen%NULL%1, Changgee%Chang%NULL%0, Qi%Long%NULL%0, Karthik%Rajasekaran%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7442010</t>
   </si>
   <si>
@@ -1504,9 +1358,6 @@
 A significant proportion of young adults exhibit clinically relevant posttraumatic stress disorder (PTSD), anxious or depressive symptoms, but a larger portion of individuals showed to effectively cope with COVID-19 pandemic.
  Interventions promoting resilience should be provided, even remotely, to those subjects with specific risk factors to develop poor mental health during COVID-19 or other pandemics with social isolation.
 </t>
-  </si>
-  <si>
-    <t>[Xinli%Chi%NULL%1, Benjamin%Becker%NULL%1, Qian%Yu%NULL%1, Peter%Willeit%NULL%1, Can%Jiao%NULL%1, Liuyue%Huang%NULL%1, M. Mahhub%Hossain%NULL%1, Igor%Grabovac%NULL%1, Albert%Yeung%NULL%1, Jingyuan%Lin%NULL%1, Nicola%Veronese%NULL%0, Jian%Wang%NULL%1, Xinqi%Zhou%NULL%1, Scott R.%Doig%NULL%1, Xiaofeng%Liu%NULL%1, Andre F.%Carvalho%NULL%1, Lin%Yang%NULL%1, Tao%Xiao%NULL%1, Liye%Zou%NULL%1, Paolo%Fusar-Poli%NULL%1, Marco%Solmi%NULL%1]</t>
   </si>
   <si>
     <t>PMC7427603</t>
@@ -1535,9 +1386,6 @@
 This study highlights that the varied prevalence of psychological adversity among healthcare workers is independent of the burden of COVID-19 cases within each country.
  Early psychological interventions may be beneficial for the vulnerable groups of healthcare workers with presence of physical symptoms, prior medical conditions and those who are not medically trained.
 </t>
-  </si>
-  <si>
-    <t>[Nicholas W. S.%Chew%NULL%1, Jinghao Nicholas%Ngiam%NULL%1, Benjamin Yong-Qiang%Tan%NULL%2, Benjamin Yong-Qiang%Tan%NULL%0, Sai-Meng%Tham%NULL%1, Celine Yan-Shan%Tan%NULL%1, Mingxue%Jing%NULL%1, Renarebecca%Sagayanathan%NULL%1, Jin Tao%Chen%NULL%1, Lily Y. H.%Wong%NULL%1, Aftab%Ahmad%NULL%1, Faheem Ahmed%Khan%NULL%1, Maznah%Marmin%NULL%1, Fadhlina Binte%Hassan%NULL%1, Tai Mei-Ling%Sharon%NULL%1, Chin Han%Lim%NULL%1, Mohamad Iqbal Bin%Mohaini%NULL%1, Rivan%Danuaji%NULL%1, Thang H.%Nguyen%NULL%1, Georgios%Tsivgoulis%NULL%1, Sotirios%Tsiodras%NULL%1, Paraskevi C.%Fragkou%NULL%1, Dimitra%Dimopoulou%NULL%2, Dimitra%Dimopoulou%NULL%0, Arvind K.%Sharma%NULL%1, Kenam%Shah%NULL%1, Bhargesh%Patel%NULL%1, Suktara%Sharma%NULL%1, R. N.%Komalkumar%NULL%1, R. V.%Meenakshi%NULL%1, Shikha%Talati%NULL%1, Hock Luen%Teoh%NULL%1, Cyrus S.%Ho%NULL%1, Roger C.%Ho%NULL%0, Vijay K.%Sharma%NULL%0]</t>
   </si>
   <si>
     <t>PMC7542327</t>
@@ -1571,9 +1419,6 @@
 </t>
   </si>
   <si>
-    <t>[Zhongxiang%Cai%NULL%0, Qin%Cui%NULL%1, Zhongchun%Liu%NULL%0, Juanjuan%Li%NULL%1, Xuan%Gong%NULL%1, Jingfang%Liu%NULL%1, Zhiying%Wan%NULL%1, Xiaoping%Yuan%NULL%1, Xiaofen%Li%NULL%1, Chuang%Chen%NULL%1, Gaohua%Wang%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7489269</t>
   </si>
   <si>
@@ -1601,9 +1446,6 @@
 </t>
   </si>
   <si>
-    <t>[Yingfei%Zhang%NULL%0, Zheng Feei%Ma%NULL%0, Zheng Feei%Ma%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC8191160</t>
   </si>
   <si>
@@ -1614,9 +1456,6 @@
               •
               Levels of anxiety, depression, stress and insomnia were higher in psychiatric patients.
 </t>
-  </si>
-  <si>
-    <t>[Fengyi%Hao%NULL%0, Wanqiu%Tan%NULL%0, Li%Jiang%NULL%0, Ling%Zhang%NULL%0, Xinling%Zhao%NULL%0, Yiran%Zou%NULL%0, Yirong%Hu%NULL%0, Xi%Luo%NULL%0, Xiaojiang%Jiang%NULL%0, Roger S.%McIntyre%NULL%0, Bach%Tran%NULL%0, Jiaqian%Sun%NULL%1, Zhisong%Zhang%NULL%0, Roger%Ho%NULL%0, Cyrus%Ho%NULL%0, Wilson%Tam%NULL%0]</t>
   </si>
   <si>
     <t>PMC7184991</t>
@@ -1640,442 +1479,989 @@
 </t>
   </si>
   <si>
-    <t>[Leilei%Liang%NULL%1, Hui%Ren%NULL%1, Ruilin%Cao%NULL%1, Yueyang%Hu%NULL%1, Zeying%Qin%NULL%1, Chuanen%Li%NULL%1, Songli%Mei%meisongli@sina.com%1]</t>
-  </si>
-  <si>
     <t>PMC7173777</t>
   </si>
   <si>
-    <t>[Dong%Liu%NULL%1,  Roy F.%Baumeister%NULL%1,  Jennifer C.%Veilleux%NULL%1,  Caixia%Chen%NULL%1,  Wenjun%Liu%NULL%1,  Yongjie%Yue%NULL%1,  Shi%Zhang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xin%Cai%NULL%1,  Xiaopeng%Hu%NULL%1,  Ivo Otte%Ekumi%NULL%1,  Jianchun%Wang%NULL%1,  Yawen%An%NULL%1,  Zhiwen%Li%NULL%1,  Bo%Yuan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Hai-Xin%Bo%NULL%0,  Wen%Li%NULL%0,  Yuan%Yang%NULL%0,  Yuan%Yang%NULL%0,  Yu%Wang%NULL%0,  Qinge%Zhang%NULL%0,  Teris%Cheung%NULL%0,  Xinjuan%Wu%NULL%0,  Yu-Tao%Xiang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Michael L.%Tee%NULL%1,  Cherica A.%Tee%NULL%1,  Joseph P.%Anlacan%NULL%1,  Katrina Joy G.%Aligam%NULL%1,  Patrick Wincy C.%Reyes%NULL%1,  Vipat%Kuruchittham%NULL%1,  Roger C.%Ho%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1,  Xiao-You%Su%suxiaoyou@hotmail.com%1,  Yu%Jiang%jiangyu@pumc.edu.cn%2,  Yu%Jiang%jiangyu@pumc.edu.cn%0,  Wen-Jun%Wang%wwjun1973@163.com%1,  Xiao-Fen%Gu%357539328@qq.com%1,  Li%Ma%mali_lele@sina.com%1,  Jing%Li%lijingwcph@scu.edu.cn%0,  Shao-Kai%Zhang%shaokaizhang@126.com%1,  Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,  Ran%Ren%renran99@163.com%1,  Yuan-Li%Liu%liuyuanli_pumc@163.com%1,  You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Rocío%Rodríguez-Rey%NULL%1,  Helena%Garrido-Hernansaiz%NULL%1,  Silvia%Collado%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anliu%Nie%NULL%1,  Xiangfen%Su%suxiangfengfy@163.com%1,  Shuzeng%Zhang%NULL%2,  Shuzeng%Zhang%NULL%0,  Wenjie%Guan%NULL%1,  Jianfeng%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shun-Wei%Liang%NULL%1,  Rong-Ning%Chen%NULL%1,  Li-Li%Liu%NULL%1,  Xue-Guo%Li%NULL%1,  Jian-Bin%Chen%NULL%1,  Si-Yao%Tang%NULL%1,  Jing-Bo%Zhao%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Emanuele Maria%Giusti%NULL%2,  Elisa%Pedroli%NULL%2,  Guido E.%D'Aniello%NULL%2,  Chiara%Stramba Badiale%NULL%2,  Giada%Pietrabissa%NULL%2,  Chiara%Manna%NULL%2,  Marco%Stramba Badiale%NULL%2,  Giuseppe%Riva%NULL%2,  Gianluca%Castelnuovo%NULL%2,  Enrico%Molinari%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Biao%Chen%NULL%1,  Qing-xian%Li%NULL%1,  Heng%Zhang%NULL%0,  Jia-yong%Zhu%NULL%1,  Xu%Yang%NULL%1,  Yu-hang%Wu%NULL%1,  Jie%Xiong%NULL%2,  Fu%Li%NULL%1,  Hua%Wang%whzkwlh@126.com%0,  Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Anaëlle%Caillet%NULL%1,  Charlotte%Coste%NULL%1,  Rocio%Sanchez%NULL%1,  Bernard%Allaouchiche%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,  Justin%Thomas%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Abdulmajeed A.%Alkhamees%NULL%1,  Saleh A.%Alrashed%NULL%1,  Ali A.%Alzunaydi%NULL%1,  Ahmed S.%Almohimeed%NULL%1,  Moath S.%Aljohani%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yongjie%Zhou%NULL%1,  Hui%Shi%NULL%1,  Zhengkui%Liu%NULL%1,  Songxu%Peng%gwxypsx@163.com%2,  Songxu%Peng%gwxypsx@163.com%0,  Ruoxi%Wang%NULL%2,  Ruoxi%Wang%NULL%0,  Ling%Qi%NULL%1,  Zezhi%Li%NULL%1,  Jiezhi%Yang%NULL%1,  Yali%Ren%NULL%1,  Xiuli%Song%NULL%1,  Lingyun%Zeng%NULL%1,  Wei%Qian%NULL%1,  Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
-  </si>
-  <si>
     <t>Mental Health and Its Influencing Factors among Self-Isolating Ordinary Citizens during the Beginning Epidemic of COVID-19</t>
   </si>
   <si>
-    <t>[Chang%J.%coreGivesNoEmail%1, Khazaie%H.%coreGivesNoEmail%1, Li%J.%coreGivesNoEmail%1, Xiaohui%Li%coreGivesNoEmail%1, Xing%Tan%coreGivesNoEmail%1, Yuanyuan%An%coreGivesNoEmail%1, Yuqing%Zhao%coreGivesNoEmail%1]</t>
+    <t>Insomnia and psychological reactions during the COVID-19 outbreak in China</t>
+  </si>
+  <si>
+    <t>[The%Novel Coronavirus Pneumonia Emergency Response Epidemiology Team Chinese Center for Disease Control and Prevention%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Factors associated with the psychological well\u2010being among front\u2010line nurses exposed to COVID\u20102019 in China: A predictive study</t>
+  </si>
+  <si>
+    <t>Mental distress and influencing factors in nurses caring for patients with\n                    COVID</t>
+  </si>
+  <si>
+    <t>COVID-19: PTSD symptoms in Greek health care professionals.</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,    Roy F.%Baumeister%NULL%1,    Jennifer C.%Veilleux%NULL%1,    Caixia%Chen%NULL%1,    Wenjun%Liu%NULL%1,    Yongjie%Yue%NULL%1,    Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,    Xiaopeng%Hu%NULL%1,    Ivo Otte%Ekumi%NULL%1,    Jianchun%Wang%NULL%1,    Yawen%An%NULL%1,    Zhiwen%Li%NULL%1,    Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,    Wen%Li%NULL%1,    Yuan%Yang%NULL%4,    Yuan%Yang%NULL%0,    Yu%Wang%NULL%0,    Qinge%Zhang%NULL%1,    Teris%Cheung%NULL%1,    Xinjuan%Wu%NULL%1,    Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,    Cherica A.%Tee%NULL%1,    Joseph P.%Anlacan%NULL%1,    Katrina Joy G.%Aligam%NULL%1,    Patrick Wincy C.%Reyes%NULL%1,    Vipat%Kuruchittham%NULL%1,    Roger C.%Ho%NULL%6]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,    Xiao-You%Su%suxiaoyou@hotmail.com%1,    Yu%Jiang%jiangyu@pumc.edu.cn%2,    Yu%Jiang%jiangyu@pumc.edu.cn%0,    Wen-Jun%Wang%wwjun1973@163.com%1,    Xiao-Fen%Gu%357539328@qq.com%1,    Li%Ma%mali_lele@sina.com%1,    Jing%Li%lijingwcph@scu.edu.cn%0,    Shao-Kai%Zhang%shaokaizhang@126.com%1,    Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,    Ran%Ren%renran99@163.com%1,    Yuan-Li%Liu%liuyuanli_pumc@163.com%1,    You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,    Helena%Garrido-Hernansaiz%NULL%1,    Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,    Xiangfen%Su%suxiangfengfy@163.com%1,    Shuzeng%Zhang%NULL%2,    Shuzeng%Zhang%NULL%0,    Wenjie%Guan%NULL%1,    Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,    Rong-Ning%Chen%NULL%1,    Li-Li%Liu%NULL%1,    Xue-Guo%Li%NULL%1,    Jian-Bin%Chen%NULL%1,    Si-Yao%Tang%NULL%1,    Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,    Elisa%Pedroli%NULL%2,    Guido E.%D'Aniello%NULL%2,    Chiara%Stramba Badiale%NULL%2,    Giada%Pietrabissa%NULL%2,    Chiara%Manna%NULL%2,    Marco%Stramba Badiale%NULL%2,    Giuseppe%Riva%NULL%2,    Gianluca%Castelnuovo%NULL%2,    Enrico%Molinari%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,    Qing-xian%Li%NULL%1,    Heng%Zhang%NULL%1,    Jia-yong%Zhu%NULL%1,    Xu%Yang%NULL%1,    Yu-hang%Wu%NULL%1,    Jie%Xiong%NULL%1,    Fu%Li%NULL%1,    Hua%Wang%whzkwlh@126.com%0,    Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,    Charlotte%Coste%NULL%1,    Rocio%Sanchez%NULL%1,    Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,    Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,    Saleh A.%Alrashed%NULL%1,    Ali A.%Alzunaydi%NULL%1,    Ahmed S.%Almohimeed%NULL%1,    Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,    Hui%Shi%NULL%1,    Zhengkui%Liu%NULL%1,    Songxu%Peng%gwxypsx@163.com%2,    Songxu%Peng%gwxypsx@163.com%0,    Ruoxi%Wang%NULL%2,    Ruoxi%Wang%NULL%0,    Ling%Qi%NULL%1,    Zezhi%Li%NULL%1,    Jiezhi%Yang%NULL%1,    Yali%Ren%NULL%1,    Xiuli%Song%NULL%1,    Lingyun%Zeng%NULL%1,    Wei%Qian%NULL%1,    Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,   Khazaie%H.%coreGivesNoEmail%1,   Li%J.%coreGivesNoEmail%1,   Xiaohui%Li%coreGivesNoEmail%1,   Xing%Tan%coreGivesNoEmail%1,   Yuanyuan%An%coreGivesNoEmail%1,   Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,    Zheng Feei%Ma%NULL%6,    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,    Zhuoer%Sun%NULL%3,    Zhuoer%Sun%NULL%0,    Tuanjie%Liu%NULL%1,    Xiong%Ni%NULL%1,    Xuanfeng%Deng%NULL%1,    Yanpu%Jia%NULL%2,    Zhilei%Shang%NULL%2,    Yaoguang%Zhou%NULL%2,    Weizhi%Liu%13024141970@163.com%3,    Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,    N.%Hadjamu%NULL%2,    N.%Hadjamu%NULL%0,    G.%Willmund%NULL%1,    S.%Dolff%NULL%1,    N.%Vonderlin%NULL%1,    R.%Wakili%NULL%1,    J.%Vogel%NULL%1,    T.%Rassaf%NULL%1,    J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,    Riyu%Pan%NULL%4,    Xiaoyang%Wan%NULL%3,    Yilin%Tan%NULL%3,    Linkang%Xu%NULL%3,    Roger S.%McIntyre%NULL%4,    Faith N.%Choo%NULL%2,    Bach%Tran%NULL%4,    Roger%Ho%NULL%4,    Vijay K.%Sharma%NULL%5,    Cyrus%Ho%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,    Jithin Thomas%Parel%NULL%2,    Jithin Thomas%Parel%NULL%0,    Neeraj%Raizada%NULL%2,    Neeraj%Raizada%NULL%0,    Shiv Kumar%Sarin%NULL%1,    Abdallah M.%Samy%NULL%2,    Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,    Rene%Stefitz%NULL%1,    Kerstin%Gaisbachgrabner%NULL%1,    Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,    Tao%Hu%NULL%1,    Baodi%Hu%NULL%1,    Chunhan%Jin%NULL%1,    Gang%Wang%NULL%1,    Chao%Xie%NULL%1,    Sen%Chen%NULL%1,    Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,    Fengyi%Hao%NULL%1,    Roger S.%McIntyre%NULL%0,    Li%Jiang%NULL%2,    Xiaojiang%Jiang%NULL%2,    Ling%Zhang%NULL%0,    Xinling%Zhao%NULL%2,    Yiran%Zou%NULL%2,    Yirong%Hu%NULL%2,    Xi%Luo%NULL%2,    Zhisong%Zhang%NULL%2,    Andre%Lai%NULL%1,    Roger%Ho%NULL%0,    Bach%Tran%NULL%0,    Cyrus%Ho%NULL%0,    Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,    Wenning%Fu%NULL%2,    Xiaoran%Liu%NULL%2,    Zhiqian%Luo%NULL%2,    Rixing%Wang%NULL%2,    Ning%Zhou%NULL%0,    Shijiao%Yan%NULL%2,    Chuanzhu%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,    Mark L%Williams%NULL%1,    Benjamin C%Amick%NULL%1,    Teresa J.%Hudson%NULL%1,    Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,    Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,    Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,    Necdet%Sut%necdetsut@yahoo.com%2,    Necdet%Sut%necdetsut@yahoo.com%0,    Selma%Akdogan%drslma.akdogan@gmail.com%2,    Selma%Akdogan%drslma.akdogan@gmail.com%0,    Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,    Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,    Valentina%Socci%NULL%2,    Dalila%Talevi%NULL%1,    Sonia%Mensi%NULL%1,    Cinzia%Niolu%NULL%1,    Francesca%Pacitti%NULL%2,    Antinisca%Di Marco%NULL%2,    Alessandro%Rossi%NULL%2,    Alberto%Siracusano%NULL%2,    Giorgio%Di Lorenzo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,    Valentina%Socci%NULL%0,    Francesca%Pacitti%NULL%0,    Giorgio%Di Lorenzo%NULL%0,    Antinisca%Di Marco%NULL%0,    Alberto%Siracusano%NULL%0,    Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,    Marianna%Purgato%NULL%1,    Chiara%Bove%NULL%1,    David%MacTaggart%NULL%1,    Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,    Wei%Chen%NULL%1,    Saiduo%Liu%NULL%1,    Paul M.%Thompson%NULL%1,    Long Jiang%Zhang%NULL%1,    Fei%Xia%NULL%1,    Fang%Cheng%NULL%1,    Ailing%Hong%NULL%1,    Wesley%Surento%NULL%1,    Song%Luo%NULL%1,    Zhi Yuan%Sun%NULL%1,    Chang Sheng%Zhou%NULL%1,    Lingjiang%Li%NULL%0,    Xiangao%Jiang%NULL%1,    Guang Ming%Lu%NULL%1,     R.%Qi%null%1,     W.% Chen%null%1,     S.% Liu%null%1,     P. M.% Thompson%null%1,     L. J.% Zhang%null%1,     F.% Xia%null%1,     F.% Cheng%null%1,     A.% Hong%null%1,     W.% Surento%null%1,     S.% Luo%null%1,     Z. Y.% Sun%null%1,     C. S.% Zhou%null%1,     L.% Li%null%1,     X.% Jiang%null%1,     G. M. % Lu%null%1,   R.%Qi%null%2,   W.% Chen%null%2,   S.% Liu%null%2,   P. M.% Thompson%null%2,   L. J.% Zhang%null%2,   F.% Xia%null%2,   F.% Cheng%null%2,   A.% Hong%null%2,   W.% Surento%null%2,   S.% Luo%null%2,   Z. Y.% Sun%null%2,   C. S.% Zhou%null%2,   L.% Li%null%2,   X.% Jiang%null%2,   G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,    Yutong%Zhang%NULL%2,    Yutong%Zhang%NULL%0,    Xiaoqin%Luo%NULL%1,    Xinli%Li%NULL%1,    Yeshan%Li%NULL%2,    Shuchang%Liu%NULL%1,    Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,    Beatriz%Talavera-Velasco%NULL%2,    Beatriz%Talavera-Velasco%NULL%0,    Yolanda%García-Albuerne%NULL%1,    Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,    Fan%Zhang%NULL%1,    Cun%Wei%NULL%1,    Yanpu%Jia%NULL%0,    Zhilei%Shang%NULL%0,    Luna%Sun%NULL%1,    Lili%Wu%NULL%1,    Zhuoer%Sun%NULL%0,    Yaoguang%Zhou%NULL%0,    Yan%Wang%NULL%1,    Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,    Emily%Zhang%NULL%1,    Ga Tin Fifi%Wong%NULL%1,    Sunah%Hyun%NULL%1,    Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,    Yue%Wang%NULL%1,    Jingwen%Jiang%NULL%1,    Unnur A.%Valdimarsdóttir%NULL%1,    Katja%Fall%NULL%2,    Katja%Fall%NULL%0,    Fang%Fang%NULL%0,    Fang%Fang%NULL%0,    Huan%Song%NULL%1,    Donghao%Lu%NULL%1,    Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,   Chiang%E. S.%coreGivesNoEmail%1,   Fernandez%R.%coreGivesNoEmail%1,   Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,   Ibrahim%H.%coreGivesNoEmail%1,   Lee%B.%coreGivesNoEmail%1,   Shi%L.%coreGivesNoEmail%1,   Sun%N.%coreGivesNoEmail%1,   Tsay%S.\u2010F.%coreGivesNoEmail%1,   World%Health Organisation%coreGivesNoEmail%2,   World%Health Organisation%coreGivesNoEmail%0,   Xiaoyue%Xu%coreGivesNoEmail%1,   Xiuchuan%Li%coreGivesNoEmail%1,   Ying%Zhou%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,    Peixin%Lu%NULL%1,    Lianting%Hu%NULL%1,    Tianhui%Huang%NULL%1,    Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,   Holly%Wei%coreGivesNoEmail%1,   Hong%Xu%coreGivesNoEmail%1,   Lili%Wei%coreGivesNoEmail%1,   Lu%H%coreGivesNoEmail%1,   Min%Leng%coreGivesNoEmail%1,   Shi%Ti JC%coreGivesNoEmail%1,   Shuyun%Xing%coreGivesNoEmail%1,   Weathers%F%coreGivesNoEmail%1,   Wenwen%Zhang%coreGivesNoEmail%1,   Xiaohui%Shi%coreGivesNoEmail%1,   Xiaoying%Zhang%coreGivesNoEmail%1,   Yang%T%coreGivesNoEmail%1,   Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,    Anh Kim%Dang%NULL%1,    Jayson%Toweh%NULL%1,    Quang Nhat%Nguyen%NULL%1,    Huong Thi%Le%NULL%1,    Toan Thi Thanh%Do%NULL%1,    Hanh Bich Thi%Phan%NULL%1,    Thao Thanh%Nguyen%NULL%1,    Quan Thi%Pham%NULL%1,    Nhung Kim Thi%Ta%NULL%1,    Quynh Thi%Nguyen%NULL%1,    Anh Ngoc%Nguyen%NULL%1,    Quan%Van Duong%NULL%1,    Men Thi%Hoang%NULL%1,    Hai Quang%Pham%NULL%1,    Linh Gia%Vu%NULL%1,    Bach Xuan%Tran%NULL%1,    Carl A.%Latkin%NULL%1,    Cyrus S. H.%Ho%NULL%1,    Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,    S.%Joo%NULL%1,    P.-A.%Couette%NULL%1,    S.%de Jaegher%NULL%1,    F.%Joly%NULL%1,    X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,    Simeng%Ma%NULL%5,    Ying%Wang%NULL%5,    Zhongxiang%Cai%NULL%5,    Jianbo%Hu%NULL%3,    Ning%Wei%NULL%3,    Jiang%Wu%NULL%4,    Hui%Du%NULL%0,    Tingting%Chen%NULL%3,    Ruiting%Li%NULL%5,    Huawei%Tan%NULL%3,    Lijun%Kang%NULL%4,    Lihua%Yao%NULL%4,    Manli%Huang%NULL%3,    Huafen%Wang%NULL%3,    Gaohua%Wang%NULL%5,    Zhongchun%Liu%NULL%6,    Shaohua%Hu%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,    Mark%Shevlin%NULL%1,    Jamie%Murphy%NULL%1,    Orla%McBride%NULL%1,    Menachem%Ben‐Ezra%NULL%2,    Menachem%Ben‐Ezra%NULL%0,    Richard P.%Bentall%NULL%1,    Frédérique%Vallières%NULL%1,    Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,    Stephanie%Manasse%NULL%2,    Stephanie%Manasse%NULL%0,    Rebecca A.%Krukowski%NULL%2,    Rebecca A.%Krukowski%NULL%0,    Kathryn%Ross%NULL%2,    Kathryn%Ross%NULL%0,    Rebecca%Shakour%NULL%2,    Rebecca%Shakour%NULL%0,    Darci R.%Miller%NULL%1,    Dominick J.%Lemas%NULL%1,    Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,    Xing Lin%Feng%NULL%1,    Xiao Hua%Wang%NULL%2,    Xiao Hua%Wang%NULL%0,    Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,    Berta%Ausín%NULL%2,    Miguel Ángel%Castellanos%NULL%2,    Jesús%Saiz%NULL%2,    Aída%López-Gómez%NULL%2,    Carolina%Ugidos%NULL%2,    Manuel%Muñoz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,    Reyna Jazmín%Martínez Arriaga%NULL%2,    Reyna Jazmín%Martínez Arriaga%NULL%0,    Martha Alicia%Hernández-Gonzalez%NULL%2,    Martha Alicia%Hernández-Gonzalez%NULL%0,    José María%De la Roca-Chiapas%NULL%2,    José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,    Francesca%Favieri%NULL%2,    Francesca%Favieri%NULL%0,    Renata%Tambelli%NULL%2,    Renata%Tambelli%NULL%0,    Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,    Farah%Ghrissi%NULL%1,    Bouthaina%Abbassi%NULL%1,    Wissal%Cherif%NULL%1,    Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,    Enayat M.%Soltan%enayatsoltan@gmail.com%2,    Enayat M.%Soltan%enayatsoltan@gmail.com%0,    Hend M.%Salama%hind_mikhail@yahoo.com%2,    Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,    Charles B%Malpas%NULL%2,    Charles B%Malpas%NULL%0,    Aidan JC%Burrell%NULL%1,    Caroline%Gurvich%NULL%1,    Leo%Chen%NULL%1,    Jayashri%Kulkarni%NULL%1,    Toby%Winton-Brown%NULL%2,    Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,    Regino%Piñeiro-Lamas%NULL%1,    César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,    Yasmeen%Byrnes%NULL%2,    Yasmeen%Byrnes%NULL%0,    Changgee%Chang%NULL%2,    Aman%Prasad%NULL%1,    Kevin%Chorath%NULL%2,    Kevin%Chorath%NULL%0,    Seerat K.%Poonia%NULL%1,    Carolyn M.%Jenks%NULL%1,    Andrés M.%Bur%NULL%1,    Punam%Thakkar%NULL%2,    Punam%Thakkar%NULL%0,    Evan M.%Graboyes%NULL%2,    Evan M.%Graboyes%NULL%0,    Rahul%Seth%NULL%2,    Rahul%Seth%NULL%0,    Samuel%Trosman%NULL%1,    Anni%Wong%NULL%2,    Anni%Wong%NULL%0,    Benjamin M.%Laitman%NULL%1,    Brianna N.%Harris%NULL%1,    Janki%Shah%NULL%2,    Janki%Shah%NULL%0,    Vanessa%Stubbs%NULL%1,    Garret%Choby%NULL%1,    Qi%Long%NULL%2,    Christopher H.%Rassekh%NULL%1,    Erica%Thaler%NULL%1,    Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,    Antonio%Bertelli%NULL%1,    Antonio%Gonçalves%NULL%1,    Emily%Getzen%NULL%1,    Changgee%Chang%NULL%0,    Qi%Long%NULL%0,    Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,    Benjamin%Becker%NULL%1,    Qian%Yu%NULL%1,    Peter%Willeit%NULL%1,    Can%Jiao%NULL%1,    Liuyue%Huang%NULL%1,    M. Mahhub%Hossain%NULL%1,    Igor%Grabovac%NULL%1,    Albert%Yeung%NULL%1,    Jingyuan%Lin%NULL%1,    Nicola%Veronese%NULL%1,    Jian%Wang%NULL%0,    Xinqi%Zhou%NULL%1,    Scott R.%Doig%NULL%1,    Xiaofeng%Liu%NULL%1,    Andre F.%Carvalho%NULL%1,    Lin%Yang%NULL%2,    Tao%Xiao%NULL%1,    Liye%Zou%NULL%1,    Paolo%Fusar-Poli%NULL%1,    Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,    Jinghao Nicholas%Ngiam%NULL%1,    Benjamin Yong-Qiang%Tan%NULL%2,    Benjamin Yong-Qiang%Tan%NULL%0,    Sai-Meng%Tham%NULL%1,    Celine Yan-Shan%Tan%NULL%1,    Mingxue%Jing%NULL%3,    Renarebecca%Sagayanathan%NULL%3,    Jin Tao%Chen%NULL%3,    Lily Y. H.%Wong%NULL%1,    Aftab%Ahmad%NULL%3,    Faheem Ahmed%Khan%NULL%2,    Maznah%Marmin%NULL%1,    Fadhlina Binte%Hassan%NULL%1,    Tai Mei-Ling%Sharon%NULL%1,    Chin Han%Lim%NULL%1,    Mohamad Iqbal Bin%Mohaini%NULL%1,    Rivan%Danuaji%NULL%1,    Thang H.%Nguyen%NULL%1,    Georgios%Tsivgoulis%NULL%2,    Sotirios%Tsiodras%NULL%1,    Paraskevi C.%Fragkou%NULL%1,    Dimitra%Dimopoulou%NULL%2,    Dimitra%Dimopoulou%NULL%0,    Arvind K.%Sharma%NULL%2,    Kenam%Shah%NULL%2,    Bhargesh%Patel%NULL%2,    Suktara%Sharma%NULL%1,    R. N.%Komalkumar%NULL%1,    R. V.%Meenakshi%NULL%1,    Shikha%Talati%NULL%1,    Hock Luen%Teoh%NULL%3,    Cyrus S.%Ho%NULL%4,    Roger C.%Ho%NULL%0,    Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,    Qin%Cui%NULL%1,    Zhongchun%Liu%NULL%0,    Juanjuan%Li%NULL%1,    Xuan%Gong%NULL%1,    Jingfang%Liu%NULL%1,    Zhiying%Wan%NULL%1,    Xiaoping%Yuan%NULL%1,    Xiaofen%Li%NULL%1,    Chuang%Chen%NULL%1,    Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,   Apostolos%Blekas%coreGivesNoEmail%1,   Eleni%Parlapani%coreGivesNoEmail%1,   Ioannis%Diakogiannis%coreGivesNoEmail%1,   Maria%Athanasiadou%coreGivesNoEmail%1,   Marina%Skoupra%coreGivesNoEmail%1,   Markos%Syngelakis%coreGivesNoEmail%1,   Panteleimon%Voitsidis%coreGivesNoEmail%1,   Vasiliki%Holeva%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,    Zheng Feei%Ma%NULL%0,    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,    Wanqiu%Tan%NULL%1,    Li%Jiang%NULL%0,    Ling%Zhang%NULL%0,    Xinling%Zhao%NULL%0,    Yiran%Zou%NULL%0,    Yirong%Hu%NULL%0,    Xi%Luo%NULL%0,    Xiaojiang%Jiang%NULL%0,    Roger S.%McIntyre%NULL%0,    Bach%Tran%NULL%0,    Jiaqian%Sun%NULL%1,    Zhisong%Zhang%NULL%0,    Roger%Ho%NULL%0,    Cyrus%Ho%NULL%0,    Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,    Hui%Ren%NULL%1,    Ruilin%Cao%NULL%1,    Yueyang%Hu%NULL%1,    Zeying%Qin%NULL%1,    Chuanen%Li%NULL%1,    Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,     Roy F.%Baumeister%NULL%1,     Jennifer C.%Veilleux%NULL%1,     Caixia%Chen%NULL%1,     Wenjun%Liu%NULL%1,     Yongjie%Yue%NULL%1,     Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,     Xiaopeng%Hu%NULL%1,     Ivo Otte%Ekumi%NULL%1,     Jianchun%Wang%NULL%1,     Yawen%An%NULL%1,     Zhiwen%Li%NULL%1,     Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,     Wen%Li%NULL%1,     Yuan%Yang%NULL%2,     Yuan%Yang%NULL%0,     Yu%Wang%NULL%0,     Qinge%Zhang%NULL%1,     Teris%Cheung%NULL%1,     Xinjuan%Wu%NULL%1,     Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,     Cherica A.%Tee%NULL%1,     Joseph P.%Anlacan%NULL%1,     Katrina Joy G.%Aligam%NULL%1,     Patrick Wincy C.%Reyes%NULL%1,     Vipat%Kuruchittham%NULL%1,     Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,     Xiao-You%Su%suxiaoyou@hotmail.com%1,     Yu%Jiang%jiangyu@pumc.edu.cn%2,     Yu%Jiang%jiangyu@pumc.edu.cn%0,     Wen-Jun%Wang%wwjun1973@163.com%1,     Xiao-Fen%Gu%357539328@qq.com%1,     Li%Ma%mali_lele@sina.com%1,     Jing%Li%lijingwcph@scu.edu.cn%0,     Shao-Kai%Zhang%shaokaizhang@126.com%1,     Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,     Ran%Ren%renran99@163.com%1,     Yuan-Li%Liu%liuyuanli_pumc@163.com%1,     You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,     Helena%Garrido-Hernansaiz%NULL%1,     Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,     Xiangfen%Su%suxiangfengfy@163.com%1,     Shuzeng%Zhang%NULL%2,     Shuzeng%Zhang%NULL%0,     Wenjie%Guan%NULL%1,     Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,     Rong-Ning%Chen%NULL%1,     Li-Li%Liu%NULL%1,     Xue-Guo%Li%NULL%1,     Jian-Bin%Chen%NULL%1,     Si-Yao%Tang%NULL%1,     Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,     Elisa%Pedroli%NULL%1,     Guido E.%D'Aniello%NULL%1,     Chiara%Stramba Badiale%NULL%1,     Giada%Pietrabissa%NULL%1,     Chiara%Manna%NULL%1,     Marco%Stramba Badiale%NULL%1,     Giuseppe%Riva%NULL%1,     Gianluca%Castelnuovo%NULL%1,     Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,     Qing-xian%Li%NULL%1,     Heng%Zhang%NULL%1,     Jia-yong%Zhu%NULL%1,     Xu%Yang%NULL%1,     Yu-hang%Wu%NULL%1,     Jie%Xiong%NULL%2,     Fu%Li%NULL%1,     Hua%Wang%whzkwlh@126.com%0,     Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,     Charlotte%Coste%NULL%1,     Rocio%Sanchez%NULL%1,     Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,     Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,     Saleh A.%Alrashed%NULL%1,     Ali A.%Alzunaydi%NULL%1,     Ahmed S.%Almohimeed%NULL%1,     Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,     Hui%Shi%NULL%1,     Zhengkui%Liu%NULL%1,     Songxu%Peng%gwxypsx@163.com%2,     Songxu%Peng%gwxypsx@163.com%0,     Ruoxi%Wang%NULL%2,     Ruoxi%Wang%NULL%0,     Ling%Qi%NULL%1,     Zezhi%Li%NULL%1,     Jiezhi%Yang%NULL%1,     Yali%Ren%NULL%1,     Xiuli%Song%NULL%1,     Lingyun%Zeng%NULL%1,     Wei%Qian%NULL%1,     Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,    Khazaie%H.%coreGivesNoEmail%1,    Li%J.%coreGivesNoEmail%1,    Xiaohui%Li%coreGivesNoEmail%1,    Xing%Tan%coreGivesNoEmail%1,    Yuanyuan%An%coreGivesNoEmail%1,    Yuqing%Zhao%coreGivesNoEmail%1]</t>
   </si>
   <si>
     <t>CORE</t>
   </si>
   <si>
-    <t>[Yingfei%Zhang%NULL%0,  Zheng Feei%Ma%NULL%0,  Zheng Feei%Ma%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qianlan%Yin%NULL%1,  Zhuoer%Sun%NULL%0,  Zhuoer%Sun%NULL%0,  Tuanjie%Liu%NULL%1,  Xiong%Ni%NULL%1,  Xuanfeng%Deng%NULL%1,  Yanpu%Jia%NULL%0,  Zhilei%Shang%NULL%0,  Yaoguang%Zhou%NULL%0,  Weizhi%Liu%13024141970@163.com%0,  Weizhi%Liu%13024141970@163.com%0]</t>
-  </si>
-  <si>
-    <t>[U.%Wesemann%NULL%1,  N.%Hadjamu%NULL%2,  N.%Hadjamu%NULL%0,  G.%Willmund%NULL%1,  S.%Dolff%NULL%1,  N.%Vonderlin%NULL%1,  R.%Wakili%NULL%1,  J.%Vogel%NULL%1,  T.%Rassaf%NULL%1,  J.%Siebermair%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Cuiyan%Wang%NULL%0,  Riyu%Pan%NULL%0,  Xiaoyang%Wan%NULL%0,  Yilin%Tan%NULL%0,  Linkang%Xu%NULL%0,  Roger S.%McIntyre%NULL%4,  Faith N.%Choo%NULL%2,  Bach%Tran%NULL%4,  Roger%Ho%NULL%4,  Vijay K.%Sharma%NULL%0,  Cyrus%Ho%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Mohit%Varshney%NULL%1,  Jithin Thomas%Parel%NULL%2,  Jithin Thomas%Parel%NULL%0,  Neeraj%Raizada%NULL%2,  Neeraj%Raizada%NULL%0,  Shiv Kumar%Sarin%NULL%1,  Abdallah M.%Samy%NULL%2,  Abdallah M.%Samy%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,  Rene%Stefitz%NULL%1,  Kerstin%Gaisbachgrabner%NULL%1,  Andreas%Schwerdtfeger%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wanjie%Tang%NULL%1,  Tao%Hu%NULL%1,  Baodi%Hu%NULL%1,  Chunhan%Jin%NULL%1,  Gang%Wang%NULL%1,  Chao%Xie%NULL%1,  Sen%Chen%NULL%1,  Jiuping%Xu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wanqiu%Tan%NULL%1,  Fengyi%Hao%NULL%1,  Roger S.%McIntyre%NULL%0,  Li%Jiang%NULL%2,  Xiaojiang%Jiang%NULL%2,  Ling%Zhang%NULL%0,  Xinling%Zhao%NULL%2,  Yiran%Zou%NULL%2,  Yirong%Hu%NULL%2,  Xi%Luo%NULL%2,  Zhisong%Zhang%NULL%2,  Andre%Lai%NULL%1,  Roger%Ho%NULL%0,  Bach%Tran%NULL%0,  Cyrus%Ho%NULL%0,  Wilson%Tam%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Xingyue%Song%NULL%3,  Wenning%Fu%NULL%3,  Xiaoran%Liu%NULL%3,  Zhiqian%Luo%NULL%3,  Rixing%Wang%NULL%3,  Ning%Zhou%NULL%0,  Shijiao%Yan%NULL%4,  Chuanzhu%Lv%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Allen C.%Sherman%NULL%1,  Mark L%Williams%NULL%1,  Benjamin C%Amick%NULL%1,  Teresa J.%Hudson%NULL%1,  Erick L%Messias%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,  Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,  Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,  Necdet%Sut%necdetsut@yahoo.com%2,  Necdet%Sut%necdetsut@yahoo.com%0,  Selma%Akdogan%drslma.akdogan@gmail.com%2,  Selma%Akdogan%drslma.akdogan@gmail.com%0,  Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,  Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
-  </si>
-  <si>
-    <t>[Rodolfo%Rossi%NULL%3,  Valentina%Socci%NULL%3,  Dalila%Talevi%NULL%1,  Sonia%Mensi%NULL%1,  Cinzia%Niolu%NULL%1,  Francesca%Pacitti%NULL%3,  Antinisca%Di Marco%NULL%3,  Alessandro%Rossi%NULL%3,  Alberto%Siracusano%NULL%3,  Giorgio%Di Lorenzo%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Rodolfo%Rossi%NULL%0,  Valentina%Socci%NULL%0,  Francesca%Pacitti%NULL%0,  Giorgio%Di Lorenzo%NULL%0,  Antinisca%Di Marco%NULL%0,  Alberto%Siracusano%NULL%0,  Alessandro%Rossi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Marianna%Riello%NULL%1,  Marianna%Purgato%NULL%1,  Chiara%Bove%NULL%1,  David%MacTaggart%NULL%1,  Elena%Rusconi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Rongfeng%Qi%NULL%2,  Wei%Chen%NULL%0,  Saiduo%Liu%NULL%2,  Paul M.%Thompson%NULL%2,  Long Jiang%Zhang%NULL%3,  Fei%Xia%NULL%3,  Fang%Cheng%NULL%2,  Ailing%Hong%NULL%2,  Wesley%Surento%NULL%2,  Song%Luo%NULL%3,  Zhi Yuan%Sun%NULL%3,  Chang Sheng%Zhou%NULL%3,  Lingjiang%Li%NULL%2,  Xiangao%Jiang%NULL%2,  Guang Ming%Lu%NULL%3,   R.%Qi%null%2,   W.% Chen%null%2,   S.% Liu%null%2,   P. M.% Thompson%null%2,   L. J.% Zhang%null%2,   F.% Xia%null%2,   F.% Cheng%null%2,   A.% Hong%null%2,   W.% Surento%null%2,   S.% Luo%null%2,   Z. Y.% Sun%null%2,   C. S.% Zhou%null%2,   L.% Li%null%2,   X.% Jiang%null%2,   G. M. % Lu%null%2]</t>
-  </si>
-  <si>
-    <t>[Zheng Feei%Ma%NULL%1,  Yutong%Zhang%NULL%2,  Yutong%Zhang%NULL%0,  Xiaoqin%Luo%NULL%1,  Xinli%Li%NULL%1,  Yeshan%Li%NULL%0,  Shuchang%Liu%NULL%1,  Yingfei%Zhang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lourdes%Luceño-Moreno%NULL%1,  Beatriz%Talavera-Velasco%NULL%2,  Beatriz%Talavera-Velasco%NULL%0,  Yolanda%García-Albuerne%NULL%1,  Jesús%Martín-García%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Nianqi%Liu%NULL%0,  Fan%Zhang%NULL%0,  Cun%Wei%NULL%0,  Yanpu%Jia%NULL%0,  Zhilei%Shang%NULL%0,  Luna%Sun%NULL%0,  Lili%Wu%NULL%0,  Zhuoer%Sun%NULL%0,  Yaoguang%Zhou%NULL%0,  Yan%Wang%NULL%0,  Weizhi%Liu%13024141970@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,  Emily%Zhang%NULL%1,  Ga Tin Fifi%Wong%NULL%1,  Sunah%Hyun%NULL%1,  Hyeouk “Chris”%Hahm%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuchen%Li%NULL%1,  Yue%Wang%NULL%0,  Jingwen%Jiang%NULL%1,  Unnur A.%Valdimarsdóttir%NULL%1,  Katja%Fall%NULL%2,  Katja%Fall%NULL%0,  Fang%Fang%NULL%0,  Fang%Fang%NULL%0,  Huan%Song%NULL%1,  Donghao%Lu%NULL%1,  Wei%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>Insomnia and psychological reactions during the COVID-19 outbreak in China</t>
-  </si>
-  <si>
-    <t>[The%Novel Coronavirus Pneumonia Emergency Response Epidemiology Team Chinese Center for Disease Control and Prevention%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>Factors associated with the psychological well\u2010being among front\u2010line nurses exposed to COVID\u20102019 in China: A predictive study</t>
-  </si>
-  <si>
-    <t>[Bisson%J. I.%coreGivesNoEmail%1, Chiang%E. S.%coreGivesNoEmail%1, Fernandez%R.%coreGivesNoEmail%1, Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1, Ibrahim%H.%coreGivesNoEmail%1, Lee%B.%coreGivesNoEmail%1, Shi%L.%coreGivesNoEmail%1, Sun%N.%coreGivesNoEmail%1, Tsay%S.\u2010F.%coreGivesNoEmail%1, World%Health Organisation%coreGivesNoEmail%2, World%Health Organisation%coreGivesNoEmail%0, Xiaoyue%Xu%coreGivesNoEmail%1, Xiuchuan%Li%coreGivesNoEmail%1, Ying%Zhou%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xin%Li%NULL%1,  Peixin%Lu%NULL%1,  Lianting%Hu%NULL%1,  Tianhui%Huang%NULL%1,  Long%Lu%NULL%1]</t>
-  </si>
-  <si>
-    <t>Mental distress and influencing factors in nurses caring for patients with\n                    COVID</t>
-  </si>
-  <si>
-    <t>[Guorong%Cao%coreGivesNoEmail%1, Holly%Wei%coreGivesNoEmail%1, Hong%Xu%coreGivesNoEmail%1, Lili%Wei%coreGivesNoEmail%1, Lu%H%coreGivesNoEmail%1, Min%Leng%coreGivesNoEmail%1, Shi%Ti JC%coreGivesNoEmail%1, Shuyun%Xing%coreGivesNoEmail%1, Weathers%F%coreGivesNoEmail%1, Wenwen%Zhang%coreGivesNoEmail%1, Xiaohui%Shi%coreGivesNoEmail%1, Xiaoying%Zhang%coreGivesNoEmail%1, Yang%T%coreGivesNoEmail%1, Yuling%Wei%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xuan Thi Thanh%Le%NULL%1,  Anh Kim%Dang%NULL%1,  Jayson%Toweh%NULL%1,  Quang Nhat%Nguyen%NULL%1,  Huong Thi%Le%NULL%1,  Toan Thi Thanh%Do%NULL%1,  Hanh Bich Thi%Phan%NULL%1,  Thao Thanh%Nguyen%NULL%1,  Quan Thi%Pham%NULL%1,  Nhung Kim Thi%Ta%NULL%1,  Quynh Thi%Nguyen%NULL%1,  Anh Ngoc%Nguyen%NULL%1,  Quan%Van Duong%NULL%1,  Men Thi%Hoang%NULL%1,  Hai Quang%Pham%NULL%1,  Linh Gia%Vu%NULL%1,  Bach Xuan%Tran%NULL%1,  Carl A.%Latkin%NULL%1,  Cyrus S. H.%Ho%NULL%1,  Roger C. M.%Ho%NULL%1]</t>
-  </si>
-  <si>
-    <t>[M.%Lange%NULL%1,  S.%Joo%NULL%1,  P.-A.%Couette%NULL%1,  S.%de Jaegher%NULL%1,  F.%Joly%NULL%1,  X.%Humbert%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jianbo%Lai%NULL%0,  Simeng%Ma%NULL%0,  Ying%Wang%NULL%0,  Zhongxiang%Cai%NULL%0,  Jianbo%Hu%NULL%0,  Ning%Wei%NULL%0,  Jiang%Wu%NULL%0,  Hui%Du%NULL%0,  Tingting%Chen%NULL%0,  Ruiting%Li%NULL%0,  Huawei%Tan%NULL%0,  Lijun%Kang%NULL%0,  Lihua%Yao%NULL%0,  Manli%Huang%NULL%0,  Huafen%Wang%NULL%0,  Gaohua%Wang%NULL%0,  Zhongchun%Liu%NULL%0,  Shaohua%Hu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,  Mark%Shevlin%NULL%1,  Jamie%Murphy%NULL%1,  Orla%McBride%NULL%1,  Menachem%Ben‐Ezra%NULL%2,  Menachem%Ben‐Ezra%NULL%0,  Richard P.%Bentall%NULL%1,  Frédérique%Vallières%NULL%1,  Philip%Hyland%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,  Stephanie%Manasse%NULL%2,  Stephanie%Manasse%NULL%0,  Rebecca A.%Krukowski%NULL%2,  Rebecca A.%Krukowski%NULL%0,  Kathryn%Ross%NULL%2,  Kathryn%Ross%NULL%0,  Rebecca%Shakour%NULL%2,  Rebecca%Shakour%NULL%0,  Darci R.%Miller%NULL%1,  Dominick J.%Lemas%NULL%1,  Young‐Rock%Hong%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Guo%NULL%1,  Xing Lin%Feng%NULL%1,  Xiao Hua%Wang%NULL%2,  Xiao Hua%Wang%NULL%0,  Marinus H.%van IJzendoorn%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Clara%González-Sanguino%NULL%2,  Berta%Ausín%NULL%2,  Miguel Ángel%Castellanos%NULL%2,  Jesús%Saiz%NULL%2,  Aída%López-Gómez%NULL%2,  Carolina%Ugidos%NULL%2,  Manuel%Muñoz%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Leivy Patricia%González Ramírez%NULL%1,  Reyna Jazmín%Martínez Arriaga%NULL%2,  Reyna Jazmín%Martínez Arriaga%NULL%0,  Martha Alicia%Hernández-Gonzalez%NULL%2,  Martha Alicia%Hernández-Gonzalez%NULL%0,  José María%De la Roca-Chiapas%NULL%2,  José María%De la Roca-Chiapas%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Giuseppe%Forte%NULL%1,  Francesca%Favieri%NULL%2,  Francesca%Favieri%NULL%0,  Renata%Tambelli%NULL%2,  Renata%Tambelli%NULL%0,  Maria%Casagrande%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,  Farah%Ghrissi%NULL%1,  Bouthaina%Abbassi%NULL%1,  Wissal%Cherif%NULL%1,  Majda%Cheour%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,  Enayat M.%Soltan%enayatsoltan@gmail.com%2,  Enayat M.%Soltan%enayatsoltan@gmail.com%0,  Hend M.%Salama%hind_mikhail@yahoo.com%2,  Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
-  </si>
-  <si>
-    <t>[Hannah%Dobson%NULL%1,  Charles B%Malpas%NULL%2,  Charles B%Malpas%NULL%0,  Aidan JC%Burrell%NULL%1,  Caroline%Gurvich%NULL%1,  Leo%Chen%NULL%1,  Jayashri%Kulkarni%NULL%1,  Toby%Winton-Brown%NULL%2,  Toby%Winton-Brown%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,  Regino%Piñeiro-Lamas%NULL%1,  César Rubén%Vuelvas-Olmos%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Alyssa M.%Civantos%NULL%2,  Yasmeen%Byrnes%NULL%2,  Yasmeen%Byrnes%NULL%0,  Changgee%Chang%NULL%2,  Aman%Prasad%NULL%1,  Kevin%Chorath%NULL%2,  Kevin%Chorath%NULL%0,  Seerat K.%Poonia%NULL%1,  Carolyn M.%Jenks%NULL%1,  Andrés M.%Bur%NULL%1,  Punam%Thakkar%NULL%2,  Punam%Thakkar%NULL%0,  Evan M.%Graboyes%NULL%2,  Evan M.%Graboyes%NULL%0,  Rahul%Seth%NULL%2,  Rahul%Seth%NULL%0,  Samuel%Trosman%NULL%1,  Anni%Wong%NULL%2,  Anni%Wong%NULL%0,  Benjamin M.%Laitman%NULL%1,  Brianna N.%Harris%NULL%1,  Janki%Shah%NULL%2,  Janki%Shah%NULL%0,  Vanessa%Stubbs%NULL%1,  Garret%Choby%NULL%1,  Qi%Long%NULL%2,  Christopher H.%Rassekh%NULL%1,  Erica%Thaler%NULL%1,  Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
-  </si>
-  <si>
-    <t>[Alyssa M.%Civantos%NULL%0,  Antonio%Bertelli%NULL%1,  Antonio%Gonçalves%NULL%1,  Emily%Getzen%NULL%1,  Changgee%Chang%NULL%0,  Qi%Long%NULL%0,  Karthik%Rajasekaran%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xinli%Chi%NULL%2,  Benjamin%Becker%NULL%2,  Qian%Yu%NULL%2,  Peter%Willeit%NULL%2,  Can%Jiao%NULL%2,  Liuyue%Huang%NULL%2,  M. Mahhub%Hossain%NULL%2,  Igor%Grabovac%NULL%2,  Albert%Yeung%NULL%2,  Jingyuan%Lin%NULL%2,  Nicola%Veronese%NULL%2,  Jian%Wang%NULL%0,  Xinqi%Zhou%NULL%2,  Scott R.%Doig%NULL%2,  Xiaofeng%Liu%NULL%2,  Andre F.%Carvalho%NULL%2,  Lin%Yang%NULL%0,  Tao%Xiao%NULL%2,  Liye%Zou%NULL%2,  Paolo%Fusar-Poli%NULL%2,  Marco%Solmi%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Nicholas W. S.%Chew%NULL%1,  Jinghao Nicholas%Ngiam%NULL%1,  Benjamin Yong-Qiang%Tan%NULL%2,  Benjamin Yong-Qiang%Tan%NULL%0,  Sai-Meng%Tham%NULL%1,  Celine Yan-Shan%Tan%NULL%1,  Mingxue%Jing%NULL%0,  Renarebecca%Sagayanathan%NULL%0,  Jin Tao%Chen%NULL%0,  Lily Y. H.%Wong%NULL%1,  Aftab%Ahmad%NULL%0,  Faheem Ahmed%Khan%NULL%0,  Maznah%Marmin%NULL%1,  Fadhlina Binte%Hassan%NULL%1,  Tai Mei-Ling%Sharon%NULL%1,  Chin Han%Lim%NULL%1,  Mohamad Iqbal Bin%Mohaini%NULL%1,  Rivan%Danuaji%NULL%1,  Thang H.%Nguyen%NULL%1,  Georgios%Tsivgoulis%NULL%2,  Sotirios%Tsiodras%NULL%1,  Paraskevi C.%Fragkou%NULL%1,  Dimitra%Dimopoulou%NULL%2,  Dimitra%Dimopoulou%NULL%0,  Arvind K.%Sharma%NULL%2,  Kenam%Shah%NULL%2,  Bhargesh%Patel%NULL%2,  Suktara%Sharma%NULL%1,  R. N.%Komalkumar%NULL%1,  R. V.%Meenakshi%NULL%1,  Shikha%Talati%NULL%1,  Hock Luen%Teoh%NULL%0,  Cyrus S.%Ho%NULL%0,  Roger C.%Ho%NULL%0,  Vijay K.%Sharma%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zhongxiang%Cai%NULL%1,  Qin%Cui%NULL%1,  Zhongchun%Liu%NULL%0,  Juanjuan%Li%NULL%1,  Xuan%Gong%NULL%1,  Jingfang%Liu%NULL%1,  Zhiying%Wan%NULL%1,  Xiaoping%Yuan%NULL%1,  Xiaofen%Li%NULL%0,  Chuang%Chen%NULL%1,  Gaohua%Wang%NULL%0]</t>
-  </si>
-  <si>
-    <t>COVID-19: PTSD symptoms in Greek health care professionals.</t>
-  </si>
-  <si>
-    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1, Apostolos%Blekas%coreGivesNoEmail%1, Eleni%Parlapani%coreGivesNoEmail%1, Ioannis%Diakogiannis%coreGivesNoEmail%1, Maria%Athanasiadou%coreGivesNoEmail%1, Marina%Skoupra%coreGivesNoEmail%1, Markos%Syngelakis%coreGivesNoEmail%1, Panteleimon%Voitsidis%coreGivesNoEmail%1, Vasiliki%Holeva%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Fengyi%Hao%NULL%1,  Wanqiu%Tan%NULL%1,  Li%Jiang%NULL%0,  Ling%Zhang%NULL%0,  Xinling%Zhao%NULL%0,  Yiran%Zou%NULL%0,  Yirong%Hu%NULL%0,  Xi%Luo%NULL%0,  Xiaojiang%Jiang%NULL%0,  Roger S.%McIntyre%NULL%0,  Bach%Tran%NULL%0,  Jiaqian%Sun%NULL%1,  Zhisong%Zhang%NULL%0,  Roger%Ho%NULL%0,  Cyrus%Ho%NULL%0,  Wilson%Tam%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Leilei%Liang%NULL%1,  Hui%Ren%NULL%1,  Ruilin%Cao%NULL%1,  Yueyang%Hu%NULL%1,  Zeying%Qin%NULL%1,  Chuanen%Li%NULL%1,  Songli%Mei%meisongli@sina.com%1]</t>
-  </si>
-  <si>
-    <t>Other found locations</t>
-  </si>
-  <si>
-    <t>[Dong%Liu%NULL%1,   Roy F.%Baumeister%NULL%1,   Jennifer C.%Veilleux%NULL%1,   Caixia%Chen%NULL%1,   Wenjun%Liu%NULL%1,   Yongjie%Yue%NULL%1,   Shi%Zhang%NULL%1]</t>
-  </si>
-  <si>
-    <t>_PMC_elsevier</t>
-  </si>
-  <si>
-    <t>[Xin%Cai%NULL%1,   Xiaopeng%Hu%NULL%1,   Ivo Otte%Ekumi%NULL%1,   Jianchun%Wang%NULL%1,   Yawen%An%NULL%1,   Zhiwen%Li%NULL%1,   Bo%Yuan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Hai-Xin%Bo%NULL%0,   Wen%Li%NULL%0,   Yuan%Yang%NULL%0,   Yuan%Yang%NULL%0,   Yu%Wang%NULL%0,   Qinge%Zhang%NULL%0,   Teris%Cheung%NULL%0,   Xinjuan%Wu%NULL%0,   Yu-Tao%Xiang%NULL%0]</t>
-  </si>
-  <si>
-    <t>_PMC</t>
-  </si>
-  <si>
-    <t>[Michael L.%Tee%NULL%1,   Cherica A.%Tee%NULL%1,   Joseph P.%Anlacan%NULL%1,   Katrina Joy G.%Aligam%NULL%1,   Patrick Wincy C.%Reyes%NULL%1,   Vipat%Kuruchittham%NULL%1,   Roger C.%Ho%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ming-Yu%Si%myu_si@163.com%1,   Xiao-You%Su%suxiaoyou@hotmail.com%1,   Yu%Jiang%jiangyu@pumc.edu.cn%2,   Yu%Jiang%jiangyu@pumc.edu.cn%0,   Wen-Jun%Wang%wwjun1973@163.com%1,   Xiao-Fen%Gu%357539328@qq.com%1,   Li%Ma%mali_lele@sina.com%1,   Jing%Li%lijingwcph@scu.edu.cn%1,   Shao-Kai%Zhang%shaokaizhang@126.com%1,   Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,   Ran%Ren%renran99@163.com%1,   Yuan-Li%Liu%liuyuanli_pumc@163.com%1,   You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>_PMC_Springer</t>
-  </si>
-  <si>
-    <t>[Rocío%Rodríguez-Rey%NULL%1,   Helena%Garrido-Hernansaiz%NULL%1,   Silvia%Collado%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Anliu%Nie%NULL%1,   Xiangfen%Su%suxiangfengfy@163.com%1,   Shuzeng%Zhang%NULL%2,   Shuzeng%Zhang%NULL%0,   Wenjie%Guan%NULL%1,   Jianfeng%Li%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Shun-Wei%Liang%NULL%1,   Rong-Ning%Chen%NULL%1,   Li-Li%Liu%NULL%1,   Xue-Guo%Li%NULL%1,   Jian-Bin%Chen%NULL%1,   Si-Yao%Tang%NULL%1,   Jing-Bo%Zhao%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Emanuele Maria%Giusti%NULL%2,   Elisa%Pedroli%NULL%2,   Guido E.%D'Aniello%NULL%2,   Chiara%Stramba Badiale%NULL%2,   Giada%Pietrabissa%NULL%2,   Chiara%Manna%NULL%2,   Marco%Stramba Badiale%NULL%2,   Giuseppe%Riva%NULL%2,   Gianluca%Castelnuovo%NULL%2,   Enrico%Molinari%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Biao%Chen%NULL%1,   Qing-xian%Li%NULL%1,   Heng%Zhang%NULL%0,   Jia-yong%Zhu%NULL%1,   Xu%Yang%NULL%1,   Yu-hang%Wu%NULL%1,   Jie%Xiong%NULL%1,   Fu%Li%NULL%1,   Hua%Wang%whzkwlh@126.com%1,   Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
-  </si>
-  <si>
-    <t>[Anaëlle%Caillet%NULL%1,   Charlotte%Coste%NULL%1,   Rocio%Sanchez%NULL%1,   Bernard%Allaouchiche%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,   Justin%Thomas%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Abdulmajeed A.%Alkhamees%NULL%1,   Saleh A.%Alrashed%NULL%1,   Ali A.%Alzunaydi%NULL%1,   Ahmed S.%Almohimeed%NULL%1,   Moath S.%Aljohani%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yongjie%Zhou%NULL%1,   Hui%Shi%NULL%1,   Zhengkui%Liu%NULL%1,   Songxu%Peng%gwxypsx@163.com%2,   Songxu%Peng%gwxypsx@163.com%0,   Ruoxi%Wang%NULL%2,   Ruoxi%Wang%NULL%0,   Ling%Qi%NULL%1,   Zezhi%Li%NULL%1,   Jiezhi%Yang%NULL%1,   Yali%Ren%NULL%1,   Xiuli%Song%NULL%1,   Lingyun%Zeng%NULL%1,   Wei%Qian%NULL%1,   Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
-  </si>
-  <si>
-    <t>[Chang%J.%coreGivesNoEmail%1,  Khazaie%H.%coreGivesNoEmail%1,  Li%J.%coreGivesNoEmail%1,  Xiaohui%Li%coreGivesNoEmail%1,  Xing%Tan%coreGivesNoEmail%1,  Yuanyuan%An%coreGivesNoEmail%1,  Yuqing%Zhao%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Yingfei%Zhang%NULL%0,   Zheng Feei%Ma%NULL%0,   Zheng Feei%Ma%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Qianlan%Yin%NULL%1,   Zhuoer%Sun%NULL%0,   Zhuoer%Sun%NULL%0,   Tuanjie%Liu%NULL%1,   Xiong%Ni%NULL%1,   Xuanfeng%Deng%NULL%1,   Yanpu%Jia%NULL%0,   Zhilei%Shang%NULL%0,   Yaoguang%Zhou%NULL%0,   Weizhi%Liu%13024141970@163.com%0,   Weizhi%Liu%13024141970@163.com%0]</t>
-  </si>
-  <si>
-    <t>[U.%Wesemann%NULL%1,   N.%Hadjamu%NULL%2,   N.%Hadjamu%NULL%0,   G.%Willmund%NULL%1,   S.%Dolff%NULL%1,   N.%Vonderlin%NULL%1,   R.%Wakili%NULL%1,   J.%Vogel%NULL%1,   T.%Rassaf%NULL%1,   J.%Siebermair%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Cuiyan%Wang%NULL%0,   Riyu%Pan%NULL%0,   Xiaoyang%Wan%NULL%0,   Yilin%Tan%NULL%0,   Linkang%Xu%NULL%0,   Roger S.%McIntyre%NULL%4,   Faith N.%Choo%NULL%2,   Bach%Tran%NULL%4,   Roger%Ho%NULL%4,   Vijay K.%Sharma%NULL%0,   Cyrus%Ho%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Mohit%Varshney%NULL%1,   Jithin Thomas%Parel%NULL%2,   Jithin Thomas%Parel%NULL%0,   Neeraj%Raizada%NULL%2,   Neeraj%Raizada%NULL%0,   Shiv Kumar%Sarin%NULL%1,   Abdallah M.%Samy%NULL%2,   Abdallah M.%Samy%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,   Rene%Stefitz%NULL%1,   Kerstin%Gaisbachgrabner%NULL%1,   Andreas%Schwerdtfeger%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wanjie%Tang%NULL%1,   Tao%Hu%NULL%1,   Baodi%Hu%NULL%1,   Chunhan%Jin%NULL%1,   Gang%Wang%NULL%1,   Chao%Xie%NULL%1,   Sen%Chen%NULL%1,   Jiuping%Xu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wanqiu%Tan%NULL%1,   Fengyi%Hao%NULL%1,   Roger S.%McIntyre%NULL%0,   Li%Jiang%NULL%2,   Xiaojiang%Jiang%NULL%2,   Ling%Zhang%NULL%2,   Xinling%Zhao%NULL%2,   Yiran%Zou%NULL%2,   Yirong%Hu%NULL%2,   Xi%Luo%NULL%2,   Zhisong%Zhang%NULL%2,   Andre%Lai%NULL%1,   Roger%Ho%NULL%0,   Bach%Tran%NULL%0,   Cyrus%Ho%NULL%0,   Wilson%Tam%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Xingyue%Song%NULL%3,   Wenning%Fu%NULL%2,   Xiaoran%Liu%NULL%2,   Zhiqian%Luo%NULL%2,   Rixing%Wang%NULL%2,   Ning%Zhou%NULL%3,   Shijiao%Yan%NULL%2,   Chuanzhu%Lv%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Allen C.%Sherman%NULL%1,   Mark L%Williams%NULL%1,   Benjamin C%Amick%NULL%1,   Teresa J.%Hudson%NULL%1,   Erick L%Messias%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,   Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,   Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,   Necdet%Sut%necdetsut@yahoo.com%2,   Necdet%Sut%necdetsut@yahoo.com%0,   Selma%Akdogan%drslma.akdogan@gmail.com%2,   Selma%Akdogan%drslma.akdogan@gmail.com%0,   Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,   Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
-  </si>
-  <si>
-    <t>[Rodolfo%Rossi%NULL%3,   Valentina%Socci%NULL%2,   Dalila%Talevi%NULL%1,   Sonia%Mensi%NULL%1,   Cinzia%Niolu%NULL%1,   Francesca%Pacitti%NULL%2,   Antinisca%Di Marco%NULL%2,   Alessandro%Rossi%NULL%2,   Alberto%Siracusano%NULL%2,   Giorgio%Di Lorenzo%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Rodolfo%Rossi%NULL%0,   Valentina%Socci%NULL%0,   Francesca%Pacitti%NULL%0,   Giorgio%Di Lorenzo%NULL%0,   Antinisca%Di Marco%NULL%0,   Alberto%Siracusano%NULL%0,   Alessandro%Rossi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Marianna%Riello%NULL%1,   Marianna%Purgato%NULL%1,   Chiara%Bove%NULL%1,   David%MacTaggart%NULL%1,   Elena%Rusconi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Rongfeng%Qi%NULL%2,   Wei%Chen%NULL%0,   Saiduo%Liu%NULL%1,   Paul M.%Thompson%NULL%1,   Long Jiang%Zhang%NULL%1,   Fei%Xia%NULL%1,   Fang%Cheng%NULL%1,   Ailing%Hong%NULL%1,   Wesley%Surento%NULL%1,   Song%Luo%NULL%1,   Zhi Yuan%Sun%NULL%1,   Chang Sheng%Zhou%NULL%1,   Lingjiang%Li%NULL%0,   Xiangao%Jiang%NULL%1,   Guang Ming%Lu%NULL%1,    R.%Qi%null%1,    W.% Chen%null%1,    S.% Liu%null%1,    P. M.% Thompson%null%1,    L. J.% Zhang%null%1,    F.% Xia%null%1,    F.% Cheng%null%1,    A.% Hong%null%1,    W.% Surento%null%1,    S.% Luo%null%1,    Z. Y.% Sun%null%1,    C. S.% Zhou%null%1,    L.% Li%null%1,    X.% Jiang%null%1,    G. M. % Lu%null%1,  R.%Qi%null%1,  W.% Chen%null%1,  S.% Liu%null%1,  P. M.% Thompson%null%1,  L. J.% Zhang%null%1,  F.% Xia%null%1,  F.% Cheng%null%1,  A.% Hong%null%1,  W.% Surento%null%1,  S.% Luo%null%1,  Z. Y.% Sun%null%1,  C. S.% Zhou%null%1,  L.% Li%null%1,  X.% Jiang%null%1,  G. M. % Lu%null%1]</t>
-  </si>
-  <si>
-    <t>medrxiv/biorxiv doi</t>
-  </si>
-  <si>
-    <t>[Zheng Feei%Ma%NULL%1,   Yutong%Zhang%NULL%2,   Yutong%Zhang%NULL%0,   Xiaoqin%Luo%NULL%1,   Xinli%Li%NULL%1,   Yeshan%Li%NULL%0,   Shuchang%Liu%NULL%1,   Yingfei%Zhang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lourdes%Luceño-Moreno%NULL%1,   Beatriz%Talavera-Velasco%NULL%2,   Beatriz%Talavera-Velasco%NULL%0,   Yolanda%García-Albuerne%NULL%1,   Jesús%Martín-García%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Nianqi%Liu%NULL%0,   Fan%Zhang%NULL%0,   Cun%Wei%NULL%0,   Yanpu%Jia%NULL%0,   Zhilei%Shang%NULL%0,   Luna%Sun%NULL%0,   Lili%Wu%NULL%0,   Zhuoer%Sun%NULL%0,   Yaoguang%Zhou%NULL%0,   Yan%Wang%NULL%0,   Weizhi%Liu%13024141970@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,   Emily%Zhang%NULL%1,   Ga Tin Fifi%Wong%NULL%1,   Sunah%Hyun%NULL%1,   Hyeouk “Chris”%Hahm%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yuchen%Li%NULL%1,   Yue%Wang%NULL%0,   Jingwen%Jiang%NULL%1,   Unnur A.%Valdimarsdóttir%NULL%1,   Katja%Fall%NULL%2,   Katja%Fall%NULL%0,   Fang%Fang%NULL%3,   Fang%Fang%NULL%0,   Huan%Song%NULL%1,   Donghao%Lu%NULL%1,   Wei%Zhang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Bisson%J. I.%coreGivesNoEmail%1,  Chiang%E. S.%coreGivesNoEmail%1,  Fernandez%R.%coreGivesNoEmail%1,  Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,  Ibrahim%H.%coreGivesNoEmail%1,  Lee%B.%coreGivesNoEmail%1,  Shi%L.%coreGivesNoEmail%1,  Sun%N.%coreGivesNoEmail%1,  Tsay%S.\u2010F.%coreGivesNoEmail%1,  World%Health Organisation%coreGivesNoEmail%2,  World%Health Organisation%coreGivesNoEmail%0,  Xiaoyue%Xu%coreGivesNoEmail%1,  Xiuchuan%Li%coreGivesNoEmail%1,  Ying%Zhou%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xin%Li%NULL%1,   Peixin%Lu%NULL%1,   Lianting%Hu%NULL%1,   Tianhui%Huang%NULL%1,   Long%Lu%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Guorong%Cao%coreGivesNoEmail%1,  Holly%Wei%coreGivesNoEmail%1,  Hong%Xu%coreGivesNoEmail%1,  Lili%Wei%coreGivesNoEmail%1,  Lu%H%coreGivesNoEmail%1,  Min%Leng%coreGivesNoEmail%1,  Shi%Ti JC%coreGivesNoEmail%1,  Shuyun%Xing%coreGivesNoEmail%1,  Weathers%F%coreGivesNoEmail%1,  Wenwen%Zhang%coreGivesNoEmail%1,  Xiaohui%Shi%coreGivesNoEmail%1,  Xiaoying%Zhang%coreGivesNoEmail%1,  Yang%T%coreGivesNoEmail%1,  Yuling%Wei%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xuan Thi Thanh%Le%NULL%1,   Anh Kim%Dang%NULL%1,   Jayson%Toweh%NULL%1,   Quang Nhat%Nguyen%NULL%1,   Huong Thi%Le%NULL%1,   Toan Thi Thanh%Do%NULL%1,   Hanh Bich Thi%Phan%NULL%1,   Thao Thanh%Nguyen%NULL%1,   Quan Thi%Pham%NULL%1,   Nhung Kim Thi%Ta%NULL%1,   Quynh Thi%Nguyen%NULL%1,   Anh Ngoc%Nguyen%NULL%1,   Quan%Van Duong%NULL%1,   Men Thi%Hoang%NULL%1,   Hai Quang%Pham%NULL%1,   Linh Gia%Vu%NULL%1,   Bach Xuan%Tran%NULL%1,   Carl A.%Latkin%NULL%1,   Cyrus S. H.%Ho%NULL%1,   Roger C. M.%Ho%NULL%1]</t>
-  </si>
-  <si>
-    <t>[M.%Lange%NULL%1,   S.%Joo%NULL%1,   P.-A.%Couette%NULL%1,   S.%de Jaegher%NULL%1,   F.%Joly%NULL%1,   X.%Humbert%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jianbo%Lai%NULL%0,   Simeng%Ma%NULL%0,   Ying%Wang%NULL%0,   Zhongxiang%Cai%NULL%0,   Jianbo%Hu%NULL%0,   Ning%Wei%NULL%0,   Jiang%Wu%NULL%0,   Hui%Du%NULL%0,   Tingting%Chen%NULL%0,   Ruiting%Li%NULL%0,   Huawei%Tan%NULL%0,   Lijun%Kang%NULL%0,   Lihua%Yao%NULL%0,   Manli%Huang%NULL%0,   Huafen%Wang%NULL%0,   Gaohua%Wang%NULL%0,   Zhongchun%Liu%NULL%0,   Shaohua%Hu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,   Mark%Shevlin%NULL%1,   Jamie%Murphy%NULL%1,   Orla%McBride%NULL%1,   Menachem%Ben‐Ezra%NULL%2,   Menachem%Ben‐Ezra%NULL%0,   Richard P.%Bentall%NULL%1,   Frédérique%Vallières%NULL%1,   Philip%Hyland%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,   Stephanie%Manasse%NULL%2,   Stephanie%Manasse%NULL%0,   Rebecca A.%Krukowski%NULL%2,   Rebecca A.%Krukowski%NULL%0,   Kathryn%Ross%NULL%2,   Kathryn%Ross%NULL%0,   Rebecca%Shakour%NULL%2,   Rebecca%Shakour%NULL%0,   Darci R.%Miller%NULL%1,   Dominick J.%Lemas%NULL%1,   Young‐Rock%Hong%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jing%Guo%NULL%1,   Xing Lin%Feng%NULL%1,   Xiao Hua%Wang%NULL%2,   Xiao Hua%Wang%NULL%0,   Marinus H.%van IJzendoorn%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Clara%González-Sanguino%NULL%2,   Berta%Ausín%NULL%2,   Miguel Ángel%Castellanos%NULL%2,   Jesús%Saiz%NULL%2,   Aída%López-Gómez%NULL%2,   Carolina%Ugidos%NULL%2,   Manuel%Muñoz%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Leivy Patricia%González Ramírez%NULL%1,   Reyna Jazmín%Martínez Arriaga%NULL%2,   Reyna Jazmín%Martínez Arriaga%NULL%0,   Martha Alicia%Hernández-Gonzalez%NULL%2,   Martha Alicia%Hernández-Gonzalez%NULL%0,   José María%De la Roca-Chiapas%NULL%2,   José María%De la Roca-Chiapas%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Giuseppe%Forte%NULL%1,   Francesca%Favieri%NULL%2,   Francesca%Favieri%NULL%0,   Renata%Tambelli%NULL%2,   Renata%Tambelli%NULL%0,   Maria%Casagrande%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,   Farah%Ghrissi%NULL%1,   Bouthaina%Abbassi%NULL%1,   Wissal%Cherif%NULL%1,   Majda%Cheour%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,   Enayat M.%Soltan%enayatsoltan@gmail.com%2,   Enayat M.%Soltan%enayatsoltan@gmail.com%0,   Hend M.%Salama%hind_mikhail@yahoo.com%2,   Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
-  </si>
-  <si>
-    <t>[Hannah%Dobson%NULL%1,   Charles B%Malpas%NULL%2,   Charles B%Malpas%NULL%0,   Aidan JC%Burrell%NULL%1,   Caroline%Gurvich%NULL%1,   Leo%Chen%NULL%1,   Jayashri%Kulkarni%NULL%1,   Toby%Winton-Brown%NULL%2,   Toby%Winton-Brown%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,   Regino%Piñeiro-Lamas%NULL%1,   César Rubén%Vuelvas-Olmos%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Alyssa M.%Civantos%NULL%2,   Yasmeen%Byrnes%NULL%2,   Yasmeen%Byrnes%NULL%0,   Changgee%Chang%NULL%2,   Aman%Prasad%NULL%1,   Kevin%Chorath%NULL%2,   Kevin%Chorath%NULL%0,   Seerat K.%Poonia%NULL%1,   Carolyn M.%Jenks%NULL%1,   Andrés M.%Bur%NULL%1,   Punam%Thakkar%NULL%2,   Punam%Thakkar%NULL%0,   Evan M.%Graboyes%NULL%2,   Evan M.%Graboyes%NULL%0,   Rahul%Seth%NULL%2,   Rahul%Seth%NULL%0,   Samuel%Trosman%NULL%1,   Anni%Wong%NULL%2,   Anni%Wong%NULL%0,   Benjamin M.%Laitman%NULL%1,   Brianna N.%Harris%NULL%1,   Janki%Shah%NULL%2,   Janki%Shah%NULL%0,   Vanessa%Stubbs%NULL%1,   Garret%Choby%NULL%1,   Qi%Long%NULL%2,   Christopher H.%Rassekh%NULL%1,   Erica%Thaler%NULL%1,   Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
-  </si>
-  <si>
-    <t>[Alyssa M.%Civantos%NULL%0,   Antonio%Bertelli%NULL%1,   Antonio%Gonçalves%NULL%1,   Emily%Getzen%NULL%1,   Changgee%Chang%NULL%0,   Qi%Long%NULL%0,   Karthik%Rajasekaran%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xinli%Chi%NULL%2,   Benjamin%Becker%NULL%1,   Qian%Yu%NULL%1,   Peter%Willeit%NULL%1,   Can%Jiao%NULL%1,   Liuyue%Huang%NULL%1,   M. Mahhub%Hossain%NULL%1,   Igor%Grabovac%NULL%1,   Albert%Yeung%NULL%1,   Jingyuan%Lin%NULL%1,   Nicola%Veronese%NULL%1,   Jian%Wang%NULL%1,   Xinqi%Zhou%NULL%1,   Scott R.%Doig%NULL%1,   Xiaofeng%Liu%NULL%1,   Andre F.%Carvalho%NULL%1,   Lin%Yang%NULL%0,   Tao%Xiao%NULL%1,   Liye%Zou%NULL%1,   Paolo%Fusar-Poli%NULL%1,   Marco%Solmi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Nicholas W. S.%Chew%NULL%1,   Jinghao Nicholas%Ngiam%NULL%1,   Benjamin Yong-Qiang%Tan%NULL%2,   Benjamin Yong-Qiang%Tan%NULL%0,   Sai-Meng%Tham%NULL%1,   Celine Yan-Shan%Tan%NULL%1,   Mingxue%Jing%NULL%0,   Renarebecca%Sagayanathan%NULL%0,   Jin Tao%Chen%NULL%0,   Lily Y. H.%Wong%NULL%1,   Aftab%Ahmad%NULL%0,   Faheem Ahmed%Khan%NULL%0,   Maznah%Marmin%NULL%1,   Fadhlina Binte%Hassan%NULL%1,   Tai Mei-Ling%Sharon%NULL%1,   Chin Han%Lim%NULL%1,   Mohamad Iqbal Bin%Mohaini%NULL%1,   Rivan%Danuaji%NULL%1,   Thang H.%Nguyen%NULL%1,   Georgios%Tsivgoulis%NULL%2,   Sotirios%Tsiodras%NULL%1,   Paraskevi C.%Fragkou%NULL%1,   Dimitra%Dimopoulou%NULL%2,   Dimitra%Dimopoulou%NULL%0,   Arvind K.%Sharma%NULL%2,   Kenam%Shah%NULL%2,   Bhargesh%Patel%NULL%2,   Suktara%Sharma%NULL%1,   R. N.%Komalkumar%NULL%1,   R. V.%Meenakshi%NULL%1,   Shikha%Talati%NULL%1,   Hock Luen%Teoh%NULL%0,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Vijay K.%Sharma%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Zhongxiang%Cai%NULL%1,   Qin%Cui%NULL%1,   Zhongchun%Liu%NULL%0,   Juanjuan%Li%NULL%1,   Xuan%Gong%NULL%1,   Jingfang%Liu%NULL%1,   Zhiying%Wan%NULL%1,   Xiaoping%Yuan%NULL%1,   Xiaofen%Li%NULL%0,   Chuang%Chen%NULL%1,   Gaohua%Wang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,  Apostolos%Blekas%coreGivesNoEmail%1,  Eleni%Parlapani%coreGivesNoEmail%1,  Ioannis%Diakogiannis%coreGivesNoEmail%1,  Maria%Athanasiadou%coreGivesNoEmail%1,  Marina%Skoupra%coreGivesNoEmail%1,  Markos%Syngelakis%coreGivesNoEmail%1,  Panteleimon%Voitsidis%coreGivesNoEmail%1,  Vasiliki%Holeva%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Fengyi%Hao%NULL%1,   Wanqiu%Tan%NULL%1,   Li%Jiang%NULL%0,   Ling%Zhang%NULL%0,   Xinling%Zhao%NULL%0,   Yiran%Zou%NULL%0,   Yirong%Hu%NULL%0,   Xi%Luo%NULL%0,   Xiaojiang%Jiang%NULL%0,   Roger S.%McIntyre%NULL%0,   Bach%Tran%NULL%0,   Jiaqian%Sun%NULL%1,   Zhisong%Zhang%NULL%0,   Roger%Ho%NULL%0,   Cyrus%Ho%NULL%0,   Wilson%Tam%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Leilei%Liang%NULL%1,   Hui%Ren%NULL%1,   Ruilin%Cao%NULL%1,   Yueyang%Hu%NULL%1,   Zeying%Qin%NULL%1,   Chuanen%Li%NULL%1,   Songli%Mei%meisongli@sina.com%1]</t>
+    <t>[Yingfei%Zhang%NULL%0,     Zheng Feei%Ma%NULL%4,     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,     Zhuoer%Sun%NULL%3,     Zhuoer%Sun%NULL%0,     Tuanjie%Liu%NULL%1,     Xiong%Ni%NULL%1,     Xuanfeng%Deng%NULL%1,     Yanpu%Jia%NULL%2,     Zhilei%Shang%NULL%2,     Yaoguang%Zhou%NULL%2,     Weizhi%Liu%13024141970@163.com%3,     Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,     N.%Hadjamu%NULL%2,     N.%Hadjamu%NULL%0,     G.%Willmund%NULL%1,     S.%Dolff%NULL%1,     N.%Vonderlin%NULL%1,     R.%Wakili%NULL%1,     J.%Vogel%NULL%1,     T.%Rassaf%NULL%1,     J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,     Riyu%Pan%NULL%1,     Xiaoyang%Wan%NULL%1,     Yilin%Tan%NULL%1,     Linkang%Xu%NULL%1,     Roger S.%McIntyre%NULL%3,     Faith N.%Choo%NULL%1,     Bach%Tran%NULL%3,     Roger%Ho%NULL%3,     Vijay K.%Sharma%NULL%2,     Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,     Jithin Thomas%Parel%NULL%2,     Jithin Thomas%Parel%NULL%0,     Neeraj%Raizada%NULL%2,     Neeraj%Raizada%NULL%0,     Shiv Kumar%Sarin%NULL%1,     Abdallah M.%Samy%NULL%2,     Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,     Rene%Stefitz%NULL%1,     Kerstin%Gaisbachgrabner%NULL%1,     Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,     Tao%Hu%NULL%1,     Baodi%Hu%NULL%1,     Chunhan%Jin%NULL%1,     Gang%Wang%NULL%1,     Chao%Xie%NULL%1,     Sen%Chen%NULL%1,     Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,     Fengyi%Hao%NULL%1,     Roger S.%McIntyre%NULL%0,     Li%Jiang%NULL%2,     Xiaojiang%Jiang%NULL%2,     Ling%Zhang%NULL%0,     Xinling%Zhao%NULL%2,     Yiran%Zou%NULL%2,     Yirong%Hu%NULL%2,     Xi%Luo%NULL%2,     Zhisong%Zhang%NULL%2,     Andre%Lai%NULL%1,     Roger%Ho%NULL%0,     Bach%Tran%NULL%0,     Cyrus%Ho%NULL%0,     Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,     Wenning%Fu%NULL%1,     Xiaoran%Liu%NULL%1,     Zhiqian%Luo%NULL%1,     Rixing%Wang%NULL%1,     Ning%Zhou%NULL%0,     Shijiao%Yan%NULL%1,     Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,     Mark L%Williams%NULL%1,     Benjamin C%Amick%NULL%1,     Teresa J.%Hudson%NULL%1,     Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,     Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,     Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,     Necdet%Sut%necdetsut@yahoo.com%2,     Necdet%Sut%necdetsut@yahoo.com%0,     Selma%Akdogan%drslma.akdogan@gmail.com%2,     Selma%Akdogan%drslma.akdogan@gmail.com%0,     Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,     Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,     Valentina%Socci%NULL%2,     Dalila%Talevi%NULL%1,     Sonia%Mensi%NULL%1,     Cinzia%Niolu%NULL%1,     Francesca%Pacitti%NULL%2,     Antinisca%Di Marco%NULL%2,     Alessandro%Rossi%NULL%2,     Alberto%Siracusano%NULL%2,     Giorgio%Di Lorenzo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,     Valentina%Socci%NULL%0,     Francesca%Pacitti%NULL%0,     Giorgio%Di Lorenzo%NULL%0,     Antinisca%Di Marco%NULL%0,     Alberto%Siracusano%NULL%0,     Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,     Marianna%Purgato%NULL%1,     Chiara%Bove%NULL%1,     David%MacTaggart%NULL%1,     Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,     Wei%Chen%NULL%2,     Saiduo%Liu%NULL%1,     Paul M.%Thompson%NULL%1,     Long Jiang%Zhang%NULL%2,     Fei%Xia%NULL%2,     Fang%Cheng%NULL%1,     Ailing%Hong%NULL%1,     Wesley%Surento%NULL%1,     Song%Luo%NULL%2,     Zhi Yuan%Sun%NULL%2,     Chang Sheng%Zhou%NULL%2,     Lingjiang%Li%NULL%0,     Xiangao%Jiang%NULL%1,     Guang Ming%Lu%NULL%2,      R.%Qi%null%1,      W.% Chen%null%1,      S.% Liu%null%1,      P. M.% Thompson%null%1,      L. J.% Zhang%null%1,      F.% Xia%null%1,      F.% Cheng%null%1,      A.% Hong%null%1,      W.% Surento%null%1,      S.% Luo%null%1,      Z. Y.% Sun%null%1,      C. S.% Zhou%null%1,      L.% Li%null%1,      X.% Jiang%null%1,      G. M. % Lu%null%1,    R.%Qi%null%1,    W.% Chen%null%1,    S.% Liu%null%1,    P. M.% Thompson%null%1,    L. J.% Zhang%null%1,    F.% Xia%null%1,    F.% Cheng%null%1,    A.% Hong%null%1,    W.% Surento%null%1,    S.% Luo%null%1,    Z. Y.% Sun%null%1,    C. S.% Zhou%null%1,    L.% Li%null%1,    X.% Jiang%null%1,    G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,     Yutong%Zhang%NULL%2,     Yutong%Zhang%NULL%0,     Xiaoqin%Luo%NULL%1,     Xinli%Li%NULL%1,     Yeshan%Li%NULL%1,     Shuchang%Liu%NULL%1,     Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,     Beatriz%Talavera-Velasco%NULL%2,     Beatriz%Talavera-Velasco%NULL%0,     Yolanda%García-Albuerne%NULL%1,     Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,     Fan%Zhang%NULL%1,     Cun%Wei%NULL%1,     Yanpu%Jia%NULL%0,     Zhilei%Shang%NULL%0,     Luna%Sun%NULL%1,     Lili%Wu%NULL%1,     Zhuoer%Sun%NULL%0,     Yaoguang%Zhou%NULL%0,     Yan%Wang%NULL%1,     Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,     Emily%Zhang%NULL%1,     Ga Tin Fifi%Wong%NULL%1,     Sunah%Hyun%NULL%1,     Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,     Yue%Wang%NULL%1,     Jingwen%Jiang%NULL%1,     Unnur A.%Valdimarsdóttir%NULL%1,     Katja%Fall%NULL%2,     Katja%Fall%NULL%0,     Fang%Fang%NULL%0,     Fang%Fang%NULL%0,     Huan%Song%NULL%1,     Donghao%Lu%NULL%1,     Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,    Chiang%E. S.%coreGivesNoEmail%1,    Fernandez%R.%coreGivesNoEmail%1,    Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,    Ibrahim%H.%coreGivesNoEmail%1,    Lee%B.%coreGivesNoEmail%1,    Shi%L.%coreGivesNoEmail%1,    Sun%N.%coreGivesNoEmail%1,    Tsay%S.\u2010F.%coreGivesNoEmail%1,    World%Health Organisation%coreGivesNoEmail%2,    World%Health Organisation%coreGivesNoEmail%0,    Xiaoyue%Xu%coreGivesNoEmail%1,    Xiuchuan%Li%coreGivesNoEmail%1,    Ying%Zhou%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,     Peixin%Lu%NULL%1,     Lianting%Hu%NULL%1,     Tianhui%Huang%NULL%1,     Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,    Holly%Wei%coreGivesNoEmail%1,    Hong%Xu%coreGivesNoEmail%1,    Lili%Wei%coreGivesNoEmail%1,    Lu%H%coreGivesNoEmail%1,    Min%Leng%coreGivesNoEmail%1,    Shi%Ti JC%coreGivesNoEmail%1,    Shuyun%Xing%coreGivesNoEmail%1,    Weathers%F%coreGivesNoEmail%1,    Wenwen%Zhang%coreGivesNoEmail%1,    Xiaohui%Shi%coreGivesNoEmail%1,    Xiaoying%Zhang%coreGivesNoEmail%1,    Yang%T%coreGivesNoEmail%1,    Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,     Anh Kim%Dang%NULL%1,     Jayson%Toweh%NULL%1,     Quang Nhat%Nguyen%NULL%1,     Huong Thi%Le%NULL%1,     Toan Thi Thanh%Do%NULL%1,     Hanh Bich Thi%Phan%NULL%1,     Thao Thanh%Nguyen%NULL%1,     Quan Thi%Pham%NULL%1,     Nhung Kim Thi%Ta%NULL%1,     Quynh Thi%Nguyen%NULL%1,     Anh Ngoc%Nguyen%NULL%1,     Quan%Van Duong%NULL%1,     Men Thi%Hoang%NULL%1,     Hai Quang%Pham%NULL%1,     Linh Gia%Vu%NULL%1,     Bach Xuan%Tran%NULL%1,     Carl A.%Latkin%NULL%1,     Cyrus S. H.%Ho%NULL%1,     Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,     S.%Joo%NULL%1,     P.-A.%Couette%NULL%1,     S.%de Jaegher%NULL%1,     F.%Joly%NULL%1,     X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,     Simeng%Ma%NULL%1,     Ying%Wang%NULL%2,     Zhongxiang%Cai%NULL%1,     Jianbo%Hu%NULL%1,     Ning%Wei%NULL%1,     Jiang%Wu%NULL%2,     Hui%Du%NULL%0,     Tingting%Chen%NULL%1,     Ruiting%Li%NULL%2,     Huawei%Tan%NULL%1,     Lijun%Kang%NULL%1,     Lihua%Yao%NULL%1,     Manli%Huang%NULL%1,     Huafen%Wang%NULL%1,     Gaohua%Wang%NULL%2,     Zhongchun%Liu%NULL%2,     Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,     Mark%Shevlin%NULL%1,     Jamie%Murphy%NULL%1,     Orla%McBride%NULL%1,     Menachem%Ben‐Ezra%NULL%2,     Menachem%Ben‐Ezra%NULL%0,     Richard P.%Bentall%NULL%1,     Frédérique%Vallières%NULL%1,     Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,     Stephanie%Manasse%NULL%2,     Stephanie%Manasse%NULL%0,     Rebecca A.%Krukowski%NULL%2,     Rebecca A.%Krukowski%NULL%0,     Kathryn%Ross%NULL%2,     Kathryn%Ross%NULL%0,     Rebecca%Shakour%NULL%2,     Rebecca%Shakour%NULL%0,     Darci R.%Miller%NULL%1,     Dominick J.%Lemas%NULL%1,     Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,     Xing Lin%Feng%NULL%1,     Xiao Hua%Wang%NULL%2,     Xiao Hua%Wang%NULL%0,     Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,     Berta%Ausín%NULL%1,     Miguel Ángel%Castellanos%NULL%1,     Jesús%Saiz%NULL%1,     Aída%López-Gómez%NULL%1,     Carolina%Ugidos%NULL%1,     Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,     Reyna Jazmín%Martínez Arriaga%NULL%2,     Reyna Jazmín%Martínez Arriaga%NULL%0,     Martha Alicia%Hernández-Gonzalez%NULL%2,     Martha Alicia%Hernández-Gonzalez%NULL%0,     José María%De la Roca-Chiapas%NULL%2,     José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,     Francesca%Favieri%NULL%2,     Francesca%Favieri%NULL%0,     Renata%Tambelli%NULL%2,     Renata%Tambelli%NULL%0,     Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,     Farah%Ghrissi%NULL%1,     Bouthaina%Abbassi%NULL%1,     Wissal%Cherif%NULL%1,     Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,     Enayat M.%Soltan%enayatsoltan@gmail.com%2,     Enayat M.%Soltan%enayatsoltan@gmail.com%0,     Hend M.%Salama%hind_mikhail@yahoo.com%2,     Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,     Charles B%Malpas%NULL%2,     Charles B%Malpas%NULL%0,     Aidan JC%Burrell%NULL%1,     Caroline%Gurvich%NULL%1,     Leo%Chen%NULL%1,     Jayashri%Kulkarni%NULL%1,     Toby%Winton-Brown%NULL%2,     Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,     Regino%Piñeiro-Lamas%NULL%1,     César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,     Yasmeen%Byrnes%NULL%2,     Yasmeen%Byrnes%NULL%0,     Changgee%Chang%NULL%2,     Aman%Prasad%NULL%1,     Kevin%Chorath%NULL%2,     Kevin%Chorath%NULL%0,     Seerat K.%Poonia%NULL%1,     Carolyn M.%Jenks%NULL%1,     Andrés M.%Bur%NULL%1,     Punam%Thakkar%NULL%2,     Punam%Thakkar%NULL%0,     Evan M.%Graboyes%NULL%2,     Evan M.%Graboyes%NULL%0,     Rahul%Seth%NULL%2,     Rahul%Seth%NULL%0,     Samuel%Trosman%NULL%1,     Anni%Wong%NULL%2,     Anni%Wong%NULL%0,     Benjamin M.%Laitman%NULL%1,     Brianna N.%Harris%NULL%1,     Janki%Shah%NULL%2,     Janki%Shah%NULL%0,     Vanessa%Stubbs%NULL%1,     Garret%Choby%NULL%1,     Qi%Long%NULL%2,     Christopher H.%Rassekh%NULL%1,     Erica%Thaler%NULL%1,     Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,     Antonio%Bertelli%NULL%1,     Antonio%Gonçalves%NULL%1,     Emily%Getzen%NULL%1,     Changgee%Chang%NULL%0,     Qi%Long%NULL%0,     Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,     Benjamin%Becker%NULL%1,     Qian%Yu%NULL%1,     Peter%Willeit%NULL%1,     Can%Jiao%NULL%1,     Liuyue%Huang%NULL%1,     M. Mahhub%Hossain%NULL%1,     Igor%Grabovac%NULL%2,     Albert%Yeung%NULL%1,     Jingyuan%Lin%NULL%1,     Nicola%Veronese%NULL%1,     Jian%Wang%NULL%0,     Xinqi%Zhou%NULL%1,     Scott R.%Doig%NULL%1,     Xiaofeng%Liu%NULL%1,     Andre F.%Carvalho%NULL%1,     Lin%Yang%NULL%2,     Tao%Xiao%NULL%1,     Liye%Zou%NULL%1,     Paolo%Fusar-Poli%NULL%1,     Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,     Jinghao Nicholas%Ngiam%NULL%1,     Benjamin Yong-Qiang%Tan%NULL%2,     Benjamin Yong-Qiang%Tan%NULL%0,     Sai-Meng%Tham%NULL%1,     Celine Yan-Shan%Tan%NULL%1,     Mingxue%Jing%NULL%1,     Renarebecca%Sagayanathan%NULL%1,     Jin Tao%Chen%NULL%1,     Lily Y. H.%Wong%NULL%1,     Aftab%Ahmad%NULL%1,     Faheem Ahmed%Khan%NULL%1,     Maznah%Marmin%NULL%1,     Fadhlina Binte%Hassan%NULL%1,     Tai Mei-Ling%Sharon%NULL%1,     Chin Han%Lim%NULL%1,     Mohamad Iqbal Bin%Mohaini%NULL%1,     Rivan%Danuaji%NULL%1,     Thang H.%Nguyen%NULL%1,     Georgios%Tsivgoulis%NULL%1,     Sotirios%Tsiodras%NULL%1,     Paraskevi C.%Fragkou%NULL%1,     Dimitra%Dimopoulou%NULL%2,     Dimitra%Dimopoulou%NULL%0,     Arvind K.%Sharma%NULL%1,     Kenam%Shah%NULL%1,     Bhargesh%Patel%NULL%1,     Suktara%Sharma%NULL%1,     R. N.%Komalkumar%NULL%1,     R. V.%Meenakshi%NULL%1,     Shikha%Talati%NULL%1,     Hock Luen%Teoh%NULL%1,     Cyrus S.%Ho%NULL%1,     Roger C.%Ho%NULL%0,     Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,     Qin%Cui%NULL%1,     Zhongchun%Liu%NULL%0,     Juanjuan%Li%NULL%1,     Xuan%Gong%NULL%1,     Jingfang%Liu%NULL%1,     Zhiying%Wan%NULL%1,     Xiaoping%Yuan%NULL%1,     Xiaofen%Li%NULL%1,     Chuang%Chen%NULL%1,     Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,    Apostolos%Blekas%coreGivesNoEmail%1,    Eleni%Parlapani%coreGivesNoEmail%1,    Ioannis%Diakogiannis%coreGivesNoEmail%1,    Maria%Athanasiadou%coreGivesNoEmail%1,    Marina%Skoupra%coreGivesNoEmail%1,    Markos%Syngelakis%coreGivesNoEmail%1,    Panteleimon%Voitsidis%coreGivesNoEmail%1,    Vasiliki%Holeva%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,     Zheng Feei%Ma%NULL%0,     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,     Wanqiu%Tan%NULL%1,     Li%Jiang%NULL%0,     Ling%Zhang%NULL%0,     Xinling%Zhao%NULL%0,     Yiran%Zou%NULL%0,     Yirong%Hu%NULL%0,     Xi%Luo%NULL%0,     Xiaojiang%Jiang%NULL%0,     Roger S.%McIntyre%NULL%0,     Bach%Tran%NULL%0,     Jiaqian%Sun%NULL%1,     Zhisong%Zhang%NULL%0,     Roger%Ho%NULL%0,     Cyrus%Ho%NULL%0,     Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,     Hui%Ren%NULL%1,     Ruilin%Cao%NULL%1,     Yueyang%Hu%NULL%1,     Zeying%Qin%NULL%1,     Chuanen%Li%NULL%1,     Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,      Roy F.%Baumeister%NULL%1,      Jennifer C.%Veilleux%NULL%1,      Caixia%Chen%NULL%1,      Wenjun%Liu%NULL%1,      Yongjie%Yue%NULL%1,      Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,      Xiaopeng%Hu%NULL%1,      Ivo Otte%Ekumi%NULL%1,      Jianchun%Wang%NULL%1,      Yawen%An%NULL%1,      Zhiwen%Li%NULL%1,      Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,      Wen%Li%NULL%1,      Yuan%Yang%NULL%2,      Yuan%Yang%NULL%0,      Yu%Wang%NULL%0,      Qinge%Zhang%NULL%1,      Teris%Cheung%NULL%1,      Xinjuan%Wu%NULL%1,      Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,      Cherica A.%Tee%NULL%1,      Joseph P.%Anlacan%NULL%1,      Katrina Joy G.%Aligam%NULL%1,      Patrick Wincy C.%Reyes%NULL%1,      Vipat%Kuruchittham%NULL%1,      Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,      Xiao-You%Su%suxiaoyou@hotmail.com%1,      Yu%Jiang%jiangyu@pumc.edu.cn%2,      Yu%Jiang%jiangyu@pumc.edu.cn%0,      Wen-Jun%Wang%wwjun1973@163.com%1,      Xiao-Fen%Gu%357539328@qq.com%1,      Li%Ma%mali_lele@sina.com%1,      Jing%Li%lijingwcph@scu.edu.cn%0,      Shao-Kai%Zhang%shaokaizhang@126.com%1,      Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,      Ran%Ren%renran99@163.com%1,      Yuan-Li%Liu%liuyuanli_pumc@163.com%1,      You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,      Helena%Garrido-Hernansaiz%NULL%1,      Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,      Xiangfen%Su%suxiangfengfy@163.com%1,      Shuzeng%Zhang%NULL%2,      Shuzeng%Zhang%NULL%0,      Wenjie%Guan%NULL%1,      Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,      Rong-Ning%Chen%NULL%1,      Li-Li%Liu%NULL%1,      Xue-Guo%Li%NULL%1,      Jian-Bin%Chen%NULL%1,      Si-Yao%Tang%NULL%1,      Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,      Elisa%Pedroli%NULL%1,      Guido E.%D'Aniello%NULL%1,      Chiara%Stramba Badiale%NULL%1,      Giada%Pietrabissa%NULL%1,      Chiara%Manna%NULL%1,      Marco%Stramba Badiale%NULL%1,      Giuseppe%Riva%NULL%1,      Gianluca%Castelnuovo%NULL%1,      Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,      Qing-xian%Li%NULL%1,      Heng%Zhang%NULL%1,      Jia-yong%Zhu%NULL%1,      Xu%Yang%NULL%1,      Yu-hang%Wu%NULL%1,      Jie%Xiong%NULL%2,      Fu%Li%NULL%1,      Hua%Wang%whzkwlh@126.com%0,      Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,      Charlotte%Coste%NULL%1,      Rocio%Sanchez%NULL%1,      Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,      Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,      Saleh A.%Alrashed%NULL%1,      Ali A.%Alzunaydi%NULL%1,      Ahmed S.%Almohimeed%NULL%1,      Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,      Hui%Shi%NULL%1,      Zhengkui%Liu%NULL%1,      Songxu%Peng%gwxypsx@163.com%2,      Songxu%Peng%gwxypsx@163.com%0,      Ruoxi%Wang%NULL%2,      Ruoxi%Wang%NULL%0,      Ling%Qi%NULL%1,      Zezhi%Li%NULL%1,      Jiezhi%Yang%NULL%1,      Yali%Ren%NULL%1,      Xiuli%Song%NULL%1,      Lingyun%Zeng%NULL%1,      Wei%Qian%NULL%1,      Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,     Khazaie%H.%coreGivesNoEmail%1,     Li%J.%coreGivesNoEmail%1,     Xiaohui%Li%coreGivesNoEmail%1,     Xing%Tan%coreGivesNoEmail%1,     Yuanyuan%An%coreGivesNoEmail%1,     Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,      Zheng Feei%Ma%NULL%4,      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,      Zhuoer%Sun%NULL%3,      Zhuoer%Sun%NULL%0,      Tuanjie%Liu%NULL%1,      Xiong%Ni%NULL%1,      Xuanfeng%Deng%NULL%1,      Yanpu%Jia%NULL%2,      Zhilei%Shang%NULL%2,      Yaoguang%Zhou%NULL%2,      Weizhi%Liu%13024141970@163.com%3,      Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,      N.%Hadjamu%NULL%2,      N.%Hadjamu%NULL%0,      G.%Willmund%NULL%1,      S.%Dolff%NULL%1,      N.%Vonderlin%NULL%1,      R.%Wakili%NULL%1,      J.%Vogel%NULL%1,      T.%Rassaf%NULL%1,      J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,      Riyu%Pan%NULL%1,      Xiaoyang%Wan%NULL%1,      Yilin%Tan%NULL%1,      Linkang%Xu%NULL%1,      Roger S.%McIntyre%NULL%3,      Faith N.%Choo%NULL%1,      Bach%Tran%NULL%3,      Roger%Ho%NULL%3,      Vijay K.%Sharma%NULL%2,      Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,      Jithin Thomas%Parel%NULL%2,      Jithin Thomas%Parel%NULL%0,      Neeraj%Raizada%NULL%2,      Neeraj%Raizada%NULL%0,      Shiv Kumar%Sarin%NULL%1,      Abdallah M.%Samy%NULL%2,      Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,      Rene%Stefitz%NULL%1,      Kerstin%Gaisbachgrabner%NULL%1,      Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,      Tao%Hu%NULL%1,      Baodi%Hu%NULL%1,      Chunhan%Jin%NULL%1,      Gang%Wang%NULL%1,      Chao%Xie%NULL%1,      Sen%Chen%NULL%1,      Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,      Fengyi%Hao%NULL%1,      Roger S.%McIntyre%NULL%0,      Li%Jiang%NULL%2,      Xiaojiang%Jiang%NULL%2,      Ling%Zhang%NULL%0,      Xinling%Zhao%NULL%2,      Yiran%Zou%NULL%2,      Yirong%Hu%NULL%2,      Xi%Luo%NULL%2,      Zhisong%Zhang%NULL%2,      Andre%Lai%NULL%1,      Roger%Ho%NULL%0,      Bach%Tran%NULL%0,      Cyrus%Ho%NULL%0,      Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,      Wenning%Fu%NULL%1,      Xiaoran%Liu%NULL%1,      Zhiqian%Luo%NULL%1,      Rixing%Wang%NULL%1,      Ning%Zhou%NULL%0,      Shijiao%Yan%NULL%1,      Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,      Mark L%Williams%NULL%1,      Benjamin C%Amick%NULL%1,      Teresa J.%Hudson%NULL%1,      Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,      Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,      Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,      Necdet%Sut%necdetsut@yahoo.com%2,      Necdet%Sut%necdetsut@yahoo.com%0,      Selma%Akdogan%drslma.akdogan@gmail.com%2,      Selma%Akdogan%drslma.akdogan@gmail.com%0,      Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,      Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,      Valentina%Socci%NULL%2,      Dalila%Talevi%NULL%1,      Sonia%Mensi%NULL%1,      Cinzia%Niolu%NULL%1,      Francesca%Pacitti%NULL%2,      Antinisca%Di Marco%NULL%2,      Alessandro%Rossi%NULL%2,      Alberto%Siracusano%NULL%2,      Giorgio%Di Lorenzo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,      Valentina%Socci%NULL%0,      Francesca%Pacitti%NULL%0,      Giorgio%Di Lorenzo%NULL%0,      Antinisca%Di Marco%NULL%0,      Alberto%Siracusano%NULL%0,      Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,      Marianna%Purgato%NULL%1,      Chiara%Bove%NULL%1,      David%MacTaggart%NULL%1,      Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,      Wei%Chen%NULL%2,      Saiduo%Liu%NULL%1,      Paul M.%Thompson%NULL%1,      Long Jiang%Zhang%NULL%2,      Fei%Xia%NULL%2,      Fang%Cheng%NULL%1,      Ailing%Hong%NULL%1,      Wesley%Surento%NULL%1,      Song%Luo%NULL%2,      Zhi Yuan%Sun%NULL%2,      Chang Sheng%Zhou%NULL%2,      Lingjiang%Li%NULL%0,      Xiangao%Jiang%NULL%1,      Guang Ming%Lu%NULL%2,       R.%Qi%null%1,       W.% Chen%null%1,       S.% Liu%null%1,       P. M.% Thompson%null%1,       L. J.% Zhang%null%1,       F.% Xia%null%1,       F.% Cheng%null%1,       A.% Hong%null%1,       W.% Surento%null%1,       S.% Luo%null%1,       Z. Y.% Sun%null%1,       C. S.% Zhou%null%1,       L.% Li%null%1,       X.% Jiang%null%1,       G. M. % Lu%null%1,     R.%Qi%null%1,     W.% Chen%null%1,     S.% Liu%null%1,     P. M.% Thompson%null%1,     L. J.% Zhang%null%1,     F.% Xia%null%1,     F.% Cheng%null%1,     A.% Hong%null%1,     W.% Surento%null%1,     S.% Luo%null%1,     Z. Y.% Sun%null%1,     C. S.% Zhou%null%1,     L.% Li%null%1,     X.% Jiang%null%1,     G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,      Yutong%Zhang%NULL%2,      Yutong%Zhang%NULL%0,      Xiaoqin%Luo%NULL%1,      Xinli%Li%NULL%1,      Yeshan%Li%NULL%1,      Shuchang%Liu%NULL%1,      Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,      Beatriz%Talavera-Velasco%NULL%2,      Beatriz%Talavera-Velasco%NULL%0,      Yolanda%García-Albuerne%NULL%1,      Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,      Fan%Zhang%NULL%1,      Cun%Wei%NULL%1,      Yanpu%Jia%NULL%0,      Zhilei%Shang%NULL%0,      Luna%Sun%NULL%1,      Lili%Wu%NULL%1,      Zhuoer%Sun%NULL%0,      Yaoguang%Zhou%NULL%0,      Yan%Wang%NULL%1,      Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,      Emily%Zhang%NULL%1,      Ga Tin Fifi%Wong%NULL%1,      Sunah%Hyun%NULL%1,      Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,      Yue%Wang%NULL%1,      Jingwen%Jiang%NULL%1,      Unnur A.%Valdimarsdóttir%NULL%1,      Katja%Fall%NULL%2,      Katja%Fall%NULL%0,      Fang%Fang%NULL%0,      Fang%Fang%NULL%0,      Huan%Song%NULL%1,      Donghao%Lu%NULL%1,      Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,     Chiang%E. S.%coreGivesNoEmail%1,     Fernandez%R.%coreGivesNoEmail%1,     Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,     Ibrahim%H.%coreGivesNoEmail%1,     Lee%B.%coreGivesNoEmail%1,     Shi%L.%coreGivesNoEmail%1,     Sun%N.%coreGivesNoEmail%1,     Tsay%S.\u2010F.%coreGivesNoEmail%1,     World%Health Organisation%coreGivesNoEmail%2,     World%Health Organisation%coreGivesNoEmail%0,     Xiaoyue%Xu%coreGivesNoEmail%1,     Xiuchuan%Li%coreGivesNoEmail%1,     Ying%Zhou%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,      Peixin%Lu%NULL%1,      Lianting%Hu%NULL%1,      Tianhui%Huang%NULL%1,      Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,     Holly%Wei%coreGivesNoEmail%1,     Hong%Xu%coreGivesNoEmail%1,     Lili%Wei%coreGivesNoEmail%1,     Lu%H%coreGivesNoEmail%1,     Min%Leng%coreGivesNoEmail%1,     Shi%Ti JC%coreGivesNoEmail%1,     Shuyun%Xing%coreGivesNoEmail%1,     Weathers%F%coreGivesNoEmail%1,     Wenwen%Zhang%coreGivesNoEmail%1,     Xiaohui%Shi%coreGivesNoEmail%1,     Xiaoying%Zhang%coreGivesNoEmail%1,     Yang%T%coreGivesNoEmail%1,     Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,      Anh Kim%Dang%NULL%1,      Jayson%Toweh%NULL%1,      Quang Nhat%Nguyen%NULL%1,      Huong Thi%Le%NULL%1,      Toan Thi Thanh%Do%NULL%1,      Hanh Bich Thi%Phan%NULL%1,      Thao Thanh%Nguyen%NULL%1,      Quan Thi%Pham%NULL%1,      Nhung Kim Thi%Ta%NULL%1,      Quynh Thi%Nguyen%NULL%1,      Anh Ngoc%Nguyen%NULL%1,      Quan%Van Duong%NULL%1,      Men Thi%Hoang%NULL%1,      Hai Quang%Pham%NULL%1,      Linh Gia%Vu%NULL%1,      Bach Xuan%Tran%NULL%1,      Carl A.%Latkin%NULL%1,      Cyrus S. H.%Ho%NULL%1,      Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,      S.%Joo%NULL%1,      P.-A.%Couette%NULL%1,      S.%de Jaegher%NULL%1,      F.%Joly%NULL%1,      X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,      Simeng%Ma%NULL%1,      Ying%Wang%NULL%2,      Zhongxiang%Cai%NULL%1,      Jianbo%Hu%NULL%1,      Ning%Wei%NULL%1,      Jiang%Wu%NULL%2,      Hui%Du%NULL%0,      Tingting%Chen%NULL%1,      Ruiting%Li%NULL%2,      Huawei%Tan%NULL%1,      Lijun%Kang%NULL%1,      Lihua%Yao%NULL%1,      Manli%Huang%NULL%1,      Huafen%Wang%NULL%1,      Gaohua%Wang%NULL%2,      Zhongchun%Liu%NULL%2,      Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,      Mark%Shevlin%NULL%1,      Jamie%Murphy%NULL%1,      Orla%McBride%NULL%1,      Menachem%Ben‐Ezra%NULL%2,      Menachem%Ben‐Ezra%NULL%0,      Richard P.%Bentall%NULL%1,      Frédérique%Vallières%NULL%1,      Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,      Stephanie%Manasse%NULL%2,      Stephanie%Manasse%NULL%0,      Rebecca A.%Krukowski%NULL%2,      Rebecca A.%Krukowski%NULL%0,      Kathryn%Ross%NULL%2,      Kathryn%Ross%NULL%0,      Rebecca%Shakour%NULL%2,      Rebecca%Shakour%NULL%0,      Darci R.%Miller%NULL%1,      Dominick J.%Lemas%NULL%1,      Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,      Xing Lin%Feng%NULL%1,      Xiao Hua%Wang%NULL%2,      Xiao Hua%Wang%NULL%0,      Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,      Berta%Ausín%NULL%1,      Miguel Ángel%Castellanos%NULL%1,      Jesús%Saiz%NULL%1,      Aída%López-Gómez%NULL%1,      Carolina%Ugidos%NULL%1,      Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,      Reyna Jazmín%Martínez Arriaga%NULL%2,      Reyna Jazmín%Martínez Arriaga%NULL%0,      Martha Alicia%Hernández-Gonzalez%NULL%2,      Martha Alicia%Hernández-Gonzalez%NULL%0,      José María%De la Roca-Chiapas%NULL%2,      José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,      Francesca%Favieri%NULL%2,      Francesca%Favieri%NULL%0,      Renata%Tambelli%NULL%2,      Renata%Tambelli%NULL%0,      Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,      Farah%Ghrissi%NULL%1,      Bouthaina%Abbassi%NULL%1,      Wissal%Cherif%NULL%1,      Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,      Enayat M.%Soltan%enayatsoltan@gmail.com%2,      Enayat M.%Soltan%enayatsoltan@gmail.com%0,      Hend M.%Salama%hind_mikhail@yahoo.com%2,      Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,      Charles B%Malpas%NULL%2,      Charles B%Malpas%NULL%0,      Aidan JC%Burrell%NULL%1,      Caroline%Gurvich%NULL%1,      Leo%Chen%NULL%1,      Jayashri%Kulkarni%NULL%1,      Toby%Winton-Brown%NULL%2,      Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,      Regino%Piñeiro-Lamas%NULL%1,      César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,      Yasmeen%Byrnes%NULL%2,      Yasmeen%Byrnes%NULL%0,      Changgee%Chang%NULL%2,      Aman%Prasad%NULL%1,      Kevin%Chorath%NULL%2,      Kevin%Chorath%NULL%0,      Seerat K.%Poonia%NULL%1,      Carolyn M.%Jenks%NULL%1,      Andrés M.%Bur%NULL%1,      Punam%Thakkar%NULL%2,      Punam%Thakkar%NULL%0,      Evan M.%Graboyes%NULL%2,      Evan M.%Graboyes%NULL%0,      Rahul%Seth%NULL%2,      Rahul%Seth%NULL%0,      Samuel%Trosman%NULL%1,      Anni%Wong%NULL%2,      Anni%Wong%NULL%0,      Benjamin M.%Laitman%NULL%1,      Brianna N.%Harris%NULL%1,      Janki%Shah%NULL%2,      Janki%Shah%NULL%0,      Vanessa%Stubbs%NULL%1,      Garret%Choby%NULL%1,      Qi%Long%NULL%2,      Christopher H.%Rassekh%NULL%1,      Erica%Thaler%NULL%1,      Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,      Antonio%Bertelli%NULL%1,      Antonio%Gonçalves%NULL%1,      Emily%Getzen%NULL%1,      Changgee%Chang%NULL%0,      Qi%Long%NULL%0,      Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,      Benjamin%Becker%NULL%1,      Qian%Yu%NULL%1,      Peter%Willeit%NULL%1,      Can%Jiao%NULL%1,      Liuyue%Huang%NULL%1,      M. Mahhub%Hossain%NULL%1,      Igor%Grabovac%NULL%2,      Albert%Yeung%NULL%1,      Jingyuan%Lin%NULL%1,      Nicola%Veronese%NULL%1,      Jian%Wang%NULL%1,      Xinqi%Zhou%NULL%1,      Scott R.%Doig%NULL%1,      Xiaofeng%Liu%NULL%1,      Andre F.%Carvalho%NULL%1,      Lin%Yang%NULL%2,      Tao%Xiao%NULL%1,      Liye%Zou%NULL%1,      Paolo%Fusar-Poli%NULL%1,      Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,      Jinghao Nicholas%Ngiam%NULL%1,      Benjamin Yong-Qiang%Tan%NULL%2,      Benjamin Yong-Qiang%Tan%NULL%0,      Sai-Meng%Tham%NULL%1,      Celine Yan-Shan%Tan%NULL%1,      Mingxue%Jing%NULL%1,      Renarebecca%Sagayanathan%NULL%1,      Jin Tao%Chen%NULL%1,      Lily Y. H.%Wong%NULL%1,      Aftab%Ahmad%NULL%1,      Faheem Ahmed%Khan%NULL%1,      Maznah%Marmin%NULL%1,      Fadhlina Binte%Hassan%NULL%1,      Tai Mei-Ling%Sharon%NULL%1,      Chin Han%Lim%NULL%1,      Mohamad Iqbal Bin%Mohaini%NULL%1,      Rivan%Danuaji%NULL%1,      Thang H.%Nguyen%NULL%1,      Georgios%Tsivgoulis%NULL%1,      Sotirios%Tsiodras%NULL%1,      Paraskevi C.%Fragkou%NULL%1,      Dimitra%Dimopoulou%NULL%2,      Dimitra%Dimopoulou%NULL%0,      Arvind K.%Sharma%NULL%1,      Kenam%Shah%NULL%1,      Bhargesh%Patel%NULL%1,      Suktara%Sharma%NULL%1,      R. N.%Komalkumar%NULL%1,      R. V.%Meenakshi%NULL%1,      Shikha%Talati%NULL%1,      Hock Luen%Teoh%NULL%1,      Cyrus S.%Ho%NULL%1,      Roger C.%Ho%NULL%0,      Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,      Qin%Cui%NULL%1,      Zhongchun%Liu%NULL%0,      Juanjuan%Li%NULL%1,      Xuan%Gong%NULL%1,      Jingfang%Liu%NULL%1,      Zhiying%Wan%NULL%1,      Xiaoping%Yuan%NULL%1,      Xiaofen%Li%NULL%1,      Chuang%Chen%NULL%1,      Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,     Apostolos%Blekas%coreGivesNoEmail%1,     Eleni%Parlapani%coreGivesNoEmail%1,     Ioannis%Diakogiannis%coreGivesNoEmail%1,     Maria%Athanasiadou%coreGivesNoEmail%1,     Marina%Skoupra%coreGivesNoEmail%1,     Markos%Syngelakis%coreGivesNoEmail%1,     Panteleimon%Voitsidis%coreGivesNoEmail%1,     Vasiliki%Holeva%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,      Zheng Feei%Ma%NULL%0,      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,      Wanqiu%Tan%NULL%1,      Li%Jiang%NULL%0,      Ling%Zhang%NULL%0,      Xinling%Zhao%NULL%0,      Yiran%Zou%NULL%0,      Yirong%Hu%NULL%0,      Xi%Luo%NULL%0,      Xiaojiang%Jiang%NULL%0,      Roger S.%McIntyre%NULL%0,      Bach%Tran%NULL%0,      Jiaqian%Sun%NULL%1,      Zhisong%Zhang%NULL%0,      Roger%Ho%NULL%0,      Cyrus%Ho%NULL%0,      Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,      Hui%Ren%NULL%1,      Ruilin%Cao%NULL%1,      Yueyang%Hu%NULL%1,      Zeying%Qin%NULL%1,      Chuanen%Li%NULL%1,      Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,       Roy F.%Baumeister%NULL%1,       Jennifer C.%Veilleux%NULL%1,       Caixia%Chen%NULL%1,       Wenjun%Liu%NULL%1,       Yongjie%Yue%NULL%1,       Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,       Xiaopeng%Hu%NULL%1,       Ivo Otte%Ekumi%NULL%1,       Jianchun%Wang%NULL%1,       Yawen%An%NULL%1,       Zhiwen%Li%NULL%1,       Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,       Wen%Li%NULL%1,       Yuan%Yang%NULL%2,       Yuan%Yang%NULL%0,       Yu%Wang%NULL%0,       Qinge%Zhang%NULL%1,       Teris%Cheung%NULL%1,       Xinjuan%Wu%NULL%1,       Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,       Cherica A.%Tee%NULL%1,       Joseph P.%Anlacan%NULL%1,       Katrina Joy G.%Aligam%NULL%1,       Patrick Wincy C.%Reyes%NULL%1,       Vipat%Kuruchittham%NULL%1,       Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,       Xiao-You%Su%suxiaoyou@hotmail.com%1,       Yu%Jiang%jiangyu@pumc.edu.cn%2,       Yu%Jiang%jiangyu@pumc.edu.cn%0,       Wen-Jun%Wang%wwjun1973@163.com%1,       Xiao-Fen%Gu%357539328@qq.com%1,       Li%Ma%mali_lele@sina.com%1,       Jing%Li%lijingwcph@scu.edu.cn%0,       Shao-Kai%Zhang%shaokaizhang@126.com%1,       Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,       Ran%Ren%renran99@163.com%1,       Yuan-Li%Liu%liuyuanli_pumc@163.com%1,       You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,       Helena%Garrido-Hernansaiz%NULL%1,       Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,       Xiangfen%Su%suxiangfengfy@163.com%1,       Shuzeng%Zhang%NULL%2,       Shuzeng%Zhang%NULL%0,       Wenjie%Guan%NULL%1,       Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,       Rong-Ning%Chen%NULL%1,       Li-Li%Liu%NULL%1,       Xue-Guo%Li%NULL%1,       Jian-Bin%Chen%NULL%1,       Si-Yao%Tang%NULL%1,       Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,       Elisa%Pedroli%NULL%1,       Guido E.%D'Aniello%NULL%1,       Chiara%Stramba Badiale%NULL%1,       Giada%Pietrabissa%NULL%1,       Chiara%Manna%NULL%1,       Marco%Stramba Badiale%NULL%1,       Giuseppe%Riva%NULL%1,       Gianluca%Castelnuovo%NULL%1,       Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,       Qing-xian%Li%NULL%1,       Heng%Zhang%NULL%1,       Jia-yong%Zhu%NULL%1,       Xu%Yang%NULL%1,       Yu-hang%Wu%NULL%1,       Jie%Xiong%NULL%2,       Fu%Li%NULL%1,       Hua%Wang%whzkwlh@126.com%0,       Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,       Charlotte%Coste%NULL%1,       Rocio%Sanchez%NULL%1,       Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,       Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,       Saleh A.%Alrashed%NULL%1,       Ali A.%Alzunaydi%NULL%1,       Ahmed S.%Almohimeed%NULL%1,       Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,       Hui%Shi%NULL%1,       Zhengkui%Liu%NULL%1,       Songxu%Peng%gwxypsx@163.com%2,       Songxu%Peng%gwxypsx@163.com%0,       Ruoxi%Wang%NULL%2,       Ruoxi%Wang%NULL%0,       Ling%Qi%NULL%1,       Zezhi%Li%NULL%1,       Jiezhi%Yang%NULL%1,       Yali%Ren%NULL%1,       Xiuli%Song%NULL%1,       Lingyun%Zeng%NULL%1,       Wei%Qian%NULL%1,       Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,      Khazaie%H.%coreGivesNoEmail%1,      Li%J.%coreGivesNoEmail%1,      Xiaohui%Li%coreGivesNoEmail%1,      Xing%Tan%coreGivesNoEmail%1,      Yuanyuan%An%coreGivesNoEmail%1,      Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,       Zheng Feei%Ma%NULL%4,       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,       Zhuoer%Sun%NULL%3,       Zhuoer%Sun%NULL%0,       Tuanjie%Liu%NULL%1,       Xiong%Ni%NULL%1,       Xuanfeng%Deng%NULL%1,       Yanpu%Jia%NULL%2,       Zhilei%Shang%NULL%2,       Yaoguang%Zhou%NULL%2,       Weizhi%Liu%13024141970@163.com%3,       Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,       N.%Hadjamu%NULL%2,       N.%Hadjamu%NULL%0,       G.%Willmund%NULL%1,       S.%Dolff%NULL%1,       N.%Vonderlin%NULL%1,       R.%Wakili%NULL%1,       J.%Vogel%NULL%1,       T.%Rassaf%NULL%1,       J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,       Riyu%Pan%NULL%1,       Xiaoyang%Wan%NULL%1,       Yilin%Tan%NULL%1,       Linkang%Xu%NULL%1,       Roger S.%McIntyre%NULL%3,       Faith N.%Choo%NULL%1,       Bach%Tran%NULL%3,       Roger%Ho%NULL%3,       Vijay K.%Sharma%NULL%2,       Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,       Jithin Thomas%Parel%NULL%2,       Jithin Thomas%Parel%NULL%0,       Neeraj%Raizada%NULL%2,       Neeraj%Raizada%NULL%0,       Shiv Kumar%Sarin%NULL%1,       Abdallah M.%Samy%NULL%2,       Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,       Rene%Stefitz%NULL%1,       Kerstin%Gaisbachgrabner%NULL%1,       Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,       Tao%Hu%NULL%1,       Baodi%Hu%NULL%1,       Chunhan%Jin%NULL%1,       Gang%Wang%NULL%1,       Chao%Xie%NULL%1,       Sen%Chen%NULL%1,       Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,       Fengyi%Hao%NULL%1,       Roger S.%McIntyre%NULL%0,       Li%Jiang%NULL%2,       Xiaojiang%Jiang%NULL%2,       Ling%Zhang%NULL%0,       Xinling%Zhao%NULL%2,       Yiran%Zou%NULL%2,       Yirong%Hu%NULL%2,       Xi%Luo%NULL%2,       Zhisong%Zhang%NULL%2,       Andre%Lai%NULL%1,       Roger%Ho%NULL%0,       Bach%Tran%NULL%0,       Cyrus%Ho%NULL%0,       Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,       Wenning%Fu%NULL%1,       Xiaoran%Liu%NULL%1,       Zhiqian%Luo%NULL%1,       Rixing%Wang%NULL%1,       Ning%Zhou%NULL%0,       Shijiao%Yan%NULL%1,       Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,       Mark L%Williams%NULL%1,       Benjamin C%Amick%NULL%1,       Teresa J.%Hudson%NULL%1,       Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,       Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,       Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,       Necdet%Sut%necdetsut@yahoo.com%2,       Necdet%Sut%necdetsut@yahoo.com%0,       Selma%Akdogan%drslma.akdogan@gmail.com%2,       Selma%Akdogan%drslma.akdogan@gmail.com%0,       Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,       Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,       Valentina%Socci%NULL%2,       Dalila%Talevi%NULL%1,       Sonia%Mensi%NULL%1,       Cinzia%Niolu%NULL%1,       Francesca%Pacitti%NULL%2,       Antinisca%Di Marco%NULL%2,       Alessandro%Rossi%NULL%2,       Alberto%Siracusano%NULL%2,       Giorgio%Di Lorenzo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,       Valentina%Socci%NULL%0,       Francesca%Pacitti%NULL%0,       Giorgio%Di Lorenzo%NULL%0,       Antinisca%Di Marco%NULL%0,       Alberto%Siracusano%NULL%0,       Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,       Marianna%Purgato%NULL%1,       Chiara%Bove%NULL%1,       David%MacTaggart%NULL%1,       Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,       Wei%Chen%NULL%2,       Saiduo%Liu%NULL%1,       Paul M.%Thompson%NULL%1,       Long Jiang%Zhang%NULL%2,       Fei%Xia%NULL%2,       Fang%Cheng%NULL%1,       Ailing%Hong%NULL%1,       Wesley%Surento%NULL%1,       Song%Luo%NULL%2,       Zhi Yuan%Sun%NULL%2,       Chang Sheng%Zhou%NULL%2,       Lingjiang%Li%NULL%0,       Xiangao%Jiang%NULL%1,       Guang Ming%Lu%NULL%2,        R.%Qi%null%1,        W.% Chen%null%1,        S.% Liu%null%1,        P. M.% Thompson%null%1,        L. J.% Zhang%null%1,        F.% Xia%null%1,        F.% Cheng%null%1,        A.% Hong%null%1,        W.% Surento%null%1,        S.% Luo%null%1,        Z. Y.% Sun%null%1,        C. S.% Zhou%null%1,        L.% Li%null%1,        X.% Jiang%null%1,        G. M. % Lu%null%1,      R.%Qi%null%1,      W.% Chen%null%1,      S.% Liu%null%1,      P. M.% Thompson%null%1,      L. J.% Zhang%null%1,      F.% Xia%null%1,      F.% Cheng%null%1,      A.% Hong%null%1,      W.% Surento%null%1,      S.% Luo%null%1,      Z. Y.% Sun%null%1,      C. S.% Zhou%null%1,      L.% Li%null%1,      X.% Jiang%null%1,      G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,       Yutong%Zhang%NULL%2,       Yutong%Zhang%NULL%0,       Xiaoqin%Luo%NULL%1,       Xinli%Li%NULL%1,       Yeshan%Li%NULL%1,       Shuchang%Liu%NULL%1,       Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,       Beatriz%Talavera-Velasco%NULL%2,       Beatriz%Talavera-Velasco%NULL%0,       Yolanda%García-Albuerne%NULL%1,       Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,       Fan%Zhang%NULL%1,       Cun%Wei%NULL%1,       Yanpu%Jia%NULL%0,       Zhilei%Shang%NULL%0,       Luna%Sun%NULL%1,       Lili%Wu%NULL%1,       Zhuoer%Sun%NULL%0,       Yaoguang%Zhou%NULL%0,       Yan%Wang%NULL%1,       Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,       Emily%Zhang%NULL%1,       Ga Tin Fifi%Wong%NULL%1,       Sunah%Hyun%NULL%1,       Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,       Yue%Wang%NULL%1,       Jingwen%Jiang%NULL%1,       Unnur A.%Valdimarsdóttir%NULL%1,       Katja%Fall%NULL%2,       Katja%Fall%NULL%0,       Fang%Fang%NULL%0,       Fang%Fang%NULL%0,       Huan%Song%NULL%1,       Donghao%Lu%NULL%1,       Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,      Chiang%E. S.%coreGivesNoEmail%1,      Fernandez%R.%coreGivesNoEmail%1,      Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,      Ibrahim%H.%coreGivesNoEmail%1,      Lee%B.%coreGivesNoEmail%1,      Shi%L.%coreGivesNoEmail%1,      Sun%N.%coreGivesNoEmail%1,      Tsay%S.\u2010F.%coreGivesNoEmail%1,      World%Health Organisation%coreGivesNoEmail%2,      World%Health Organisation%coreGivesNoEmail%0,      Xiaoyue%Xu%coreGivesNoEmail%1,      Xiuchuan%Li%coreGivesNoEmail%1,      Ying%Zhou%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,       Peixin%Lu%NULL%1,       Lianting%Hu%NULL%1,       Tianhui%Huang%NULL%1,       Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,      Holly%Wei%coreGivesNoEmail%1,      Hong%Xu%coreGivesNoEmail%1,      Lili%Wei%coreGivesNoEmail%1,      Lu%H%coreGivesNoEmail%1,      Min%Leng%coreGivesNoEmail%1,      Shi%Ti JC%coreGivesNoEmail%1,      Shuyun%Xing%coreGivesNoEmail%1,      Weathers%F%coreGivesNoEmail%1,      Wenwen%Zhang%coreGivesNoEmail%1,      Xiaohui%Shi%coreGivesNoEmail%1,      Xiaoying%Zhang%coreGivesNoEmail%1,      Yang%T%coreGivesNoEmail%1,      Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,       Anh Kim%Dang%NULL%1,       Jayson%Toweh%NULL%1,       Quang Nhat%Nguyen%NULL%1,       Huong Thi%Le%NULL%1,       Toan Thi Thanh%Do%NULL%1,       Hanh Bich Thi%Phan%NULL%1,       Thao Thanh%Nguyen%NULL%1,       Quan Thi%Pham%NULL%1,       Nhung Kim Thi%Ta%NULL%1,       Quynh Thi%Nguyen%NULL%1,       Anh Ngoc%Nguyen%NULL%1,       Quan%Van Duong%NULL%1,       Men Thi%Hoang%NULL%1,       Hai Quang%Pham%NULL%1,       Linh Gia%Vu%NULL%1,       Bach Xuan%Tran%NULL%1,       Carl A.%Latkin%NULL%1,       Cyrus S. H.%Ho%NULL%1,       Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,       S.%Joo%NULL%1,       P.-A.%Couette%NULL%1,       S.%de Jaegher%NULL%1,       F.%Joly%NULL%1,       X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,       Simeng%Ma%NULL%1,       Ying%Wang%NULL%2,       Zhongxiang%Cai%NULL%1,       Jianbo%Hu%NULL%1,       Ning%Wei%NULL%1,       Jiang%Wu%NULL%2,       Hui%Du%NULL%0,       Tingting%Chen%NULL%1,       Ruiting%Li%NULL%2,       Huawei%Tan%NULL%1,       Lijun%Kang%NULL%1,       Lihua%Yao%NULL%1,       Manli%Huang%NULL%1,       Huafen%Wang%NULL%1,       Gaohua%Wang%NULL%2,       Zhongchun%Liu%NULL%2,       Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,       Mark%Shevlin%NULL%1,       Jamie%Murphy%NULL%1,       Orla%McBride%NULL%1,       Menachem%Ben‐Ezra%NULL%2,       Menachem%Ben‐Ezra%NULL%0,       Richard P.%Bentall%NULL%1,       Frédérique%Vallières%NULL%1,       Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,       Stephanie%Manasse%NULL%2,       Stephanie%Manasse%NULL%0,       Rebecca A.%Krukowski%NULL%2,       Rebecca A.%Krukowski%NULL%0,       Kathryn%Ross%NULL%2,       Kathryn%Ross%NULL%0,       Rebecca%Shakour%NULL%2,       Rebecca%Shakour%NULL%0,       Darci R.%Miller%NULL%1,       Dominick J.%Lemas%NULL%1,       Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,       Xing Lin%Feng%NULL%1,       Xiao Hua%Wang%NULL%2,       Xiao Hua%Wang%NULL%0,       Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,       Berta%Ausín%NULL%1,       Miguel Ángel%Castellanos%NULL%1,       Jesús%Saiz%NULL%1,       Aída%López-Gómez%NULL%1,       Carolina%Ugidos%NULL%1,       Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,       Reyna Jazmín%Martínez Arriaga%NULL%2,       Reyna Jazmín%Martínez Arriaga%NULL%0,       Martha Alicia%Hernández-Gonzalez%NULL%2,       Martha Alicia%Hernández-Gonzalez%NULL%0,       José María%De la Roca-Chiapas%NULL%2,       José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,       Francesca%Favieri%NULL%2,       Francesca%Favieri%NULL%0,       Renata%Tambelli%NULL%2,       Renata%Tambelli%NULL%0,       Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,       Farah%Ghrissi%NULL%1,       Bouthaina%Abbassi%NULL%1,       Wissal%Cherif%NULL%1,       Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,       Enayat M.%Soltan%enayatsoltan@gmail.com%2,       Enayat M.%Soltan%enayatsoltan@gmail.com%0,       Hend M.%Salama%hind_mikhail@yahoo.com%2,       Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,       Charles B%Malpas%NULL%2,       Charles B%Malpas%NULL%0,       Aidan JC%Burrell%NULL%1,       Caroline%Gurvich%NULL%1,       Leo%Chen%NULL%1,       Jayashri%Kulkarni%NULL%1,       Toby%Winton-Brown%NULL%2,       Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,       Regino%Piñeiro-Lamas%NULL%1,       César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,       Yasmeen%Byrnes%NULL%2,       Yasmeen%Byrnes%NULL%0,       Changgee%Chang%NULL%2,       Aman%Prasad%NULL%1,       Kevin%Chorath%NULL%2,       Kevin%Chorath%NULL%0,       Seerat K.%Poonia%NULL%1,       Carolyn M.%Jenks%NULL%1,       Andrés M.%Bur%NULL%1,       Punam%Thakkar%NULL%2,       Punam%Thakkar%NULL%0,       Evan M.%Graboyes%NULL%2,       Evan M.%Graboyes%NULL%0,       Rahul%Seth%NULL%2,       Rahul%Seth%NULL%0,       Samuel%Trosman%NULL%1,       Anni%Wong%NULL%2,       Anni%Wong%NULL%0,       Benjamin M.%Laitman%NULL%1,       Brianna N.%Harris%NULL%1,       Janki%Shah%NULL%2,       Janki%Shah%NULL%0,       Vanessa%Stubbs%NULL%1,       Garret%Choby%NULL%1,       Qi%Long%NULL%2,       Christopher H.%Rassekh%NULL%1,       Erica%Thaler%NULL%1,       Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,       Antonio%Bertelli%NULL%1,       Antonio%Gonçalves%NULL%1,       Emily%Getzen%NULL%1,       Changgee%Chang%NULL%0,       Qi%Long%NULL%0,       Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,       Benjamin%Becker%NULL%1,       Qian%Yu%NULL%1,       Peter%Willeit%NULL%1,       Can%Jiao%NULL%1,       Liuyue%Huang%NULL%1,       M. Mahhub%Hossain%NULL%1,       Igor%Grabovac%NULL%2,       Albert%Yeung%NULL%1,       Jingyuan%Lin%NULL%1,       Nicola%Veronese%NULL%1,       Jian%Wang%NULL%1,       Xinqi%Zhou%NULL%1,       Scott R.%Doig%NULL%1,       Xiaofeng%Liu%NULL%1,       Andre F.%Carvalho%NULL%1,       Lin%Yang%NULL%2,       Tao%Xiao%NULL%1,       Liye%Zou%NULL%1,       Paolo%Fusar-Poli%NULL%1,       Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,       Jinghao Nicholas%Ngiam%NULL%1,       Benjamin Yong-Qiang%Tan%NULL%2,       Benjamin Yong-Qiang%Tan%NULL%0,       Sai-Meng%Tham%NULL%1,       Celine Yan-Shan%Tan%NULL%1,       Mingxue%Jing%NULL%1,       Renarebecca%Sagayanathan%NULL%1,       Jin Tao%Chen%NULL%1,       Lily Y. H.%Wong%NULL%1,       Aftab%Ahmad%NULL%1,       Faheem Ahmed%Khan%NULL%1,       Maznah%Marmin%NULL%1,       Fadhlina Binte%Hassan%NULL%1,       Tai Mei-Ling%Sharon%NULL%1,       Chin Han%Lim%NULL%1,       Mohamad Iqbal Bin%Mohaini%NULL%1,       Rivan%Danuaji%NULL%1,       Thang H.%Nguyen%NULL%1,       Georgios%Tsivgoulis%NULL%1,       Sotirios%Tsiodras%NULL%1,       Paraskevi C.%Fragkou%NULL%1,       Dimitra%Dimopoulou%NULL%2,       Dimitra%Dimopoulou%NULL%0,       Arvind K.%Sharma%NULL%1,       Kenam%Shah%NULL%1,       Bhargesh%Patel%NULL%1,       Suktara%Sharma%NULL%1,       R. N.%Komalkumar%NULL%1,       R. V.%Meenakshi%NULL%1,       Shikha%Talati%NULL%1,       Hock Luen%Teoh%NULL%1,       Cyrus S.%Ho%NULL%1,       Roger C.%Ho%NULL%0,       Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,       Qin%Cui%NULL%1,       Zhongchun%Liu%NULL%0,       Juanjuan%Li%NULL%1,       Xuan%Gong%NULL%1,       Jingfang%Liu%NULL%1,       Zhiying%Wan%NULL%1,       Xiaoping%Yuan%NULL%1,       Xiaofen%Li%NULL%1,       Chuang%Chen%NULL%1,       Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,      Apostolos%Blekas%coreGivesNoEmail%1,      Eleni%Parlapani%coreGivesNoEmail%1,      Ioannis%Diakogiannis%coreGivesNoEmail%1,      Maria%Athanasiadou%coreGivesNoEmail%1,      Marina%Skoupra%coreGivesNoEmail%1,      Markos%Syngelakis%coreGivesNoEmail%1,      Panteleimon%Voitsidis%coreGivesNoEmail%1,      Vasiliki%Holeva%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,       Zheng Feei%Ma%NULL%0,       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,       Wanqiu%Tan%NULL%1,       Li%Jiang%NULL%0,       Ling%Zhang%NULL%0,       Xinling%Zhao%NULL%0,       Yiran%Zou%NULL%0,       Yirong%Hu%NULL%0,       Xi%Luo%NULL%0,       Xiaojiang%Jiang%NULL%0,       Roger S.%McIntyre%NULL%0,       Bach%Tran%NULL%0,       Jiaqian%Sun%NULL%1,       Zhisong%Zhang%NULL%0,       Roger%Ho%NULL%0,       Cyrus%Ho%NULL%0,       Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,       Hui%Ren%NULL%1,       Ruilin%Cao%NULL%1,       Yueyang%Hu%NULL%1,       Zeying%Qin%NULL%1,       Chuanen%Li%NULL%1,       Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,        Roy F.%Baumeister%NULL%1,        Jennifer C.%Veilleux%NULL%1,        Caixia%Chen%NULL%1,        Wenjun%Liu%NULL%1,        Yongjie%Yue%NULL%1,        Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,        Xiaopeng%Hu%NULL%1,        Ivo Otte%Ekumi%NULL%1,        Jianchun%Wang%NULL%1,        Yawen%An%NULL%1,        Zhiwen%Li%NULL%1,        Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,        Wen%Li%NULL%1,        Yuan%Yang%NULL%2,        Yuan%Yang%NULL%0,        Yu%Wang%NULL%0,        Qinge%Zhang%NULL%1,        Teris%Cheung%NULL%1,        Xinjuan%Wu%NULL%1,        Yu-Tao%Xiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,        Cherica A.%Tee%NULL%1,        Joseph P.%Anlacan%NULL%1,        Katrina Joy G.%Aligam%NULL%1,        Patrick Wincy C.%Reyes%NULL%1,        Vipat%Kuruchittham%NULL%1,        Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,        Xiao-You%Su%suxiaoyou@hotmail.com%1,        Yu%Jiang%jiangyu@pumc.edu.cn%2,        Yu%Jiang%jiangyu@pumc.edu.cn%0,        Wen-Jun%Wang%wwjun1973@163.com%1,        Xiao-Fen%Gu%357539328@qq.com%1,        Li%Ma%mali_lele@sina.com%1,        Jing%Li%lijingwcph@scu.edu.cn%0,        Shao-Kai%Zhang%shaokaizhang@126.com%1,        Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,        Ran%Ren%renran99@163.com%1,        Yuan-Li%Liu%liuyuanli_pumc@163.com%1,        You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,        Helena%Garrido-Hernansaiz%NULL%1,        Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,        Xiangfen%Su%suxiangfengfy@163.com%1,        Shuzeng%Zhang%NULL%2,        Shuzeng%Zhang%NULL%0,        Wenjie%Guan%NULL%1,        Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,        Rong-Ning%Chen%NULL%1,        Li-Li%Liu%NULL%1,        Xue-Guo%Li%NULL%1,        Jian-Bin%Chen%NULL%1,        Si-Yao%Tang%NULL%1,        Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,        Elisa%Pedroli%NULL%1,        Guido E.%D'Aniello%NULL%1,        Chiara%Stramba Badiale%NULL%1,        Giada%Pietrabissa%NULL%1,        Chiara%Manna%NULL%1,        Marco%Stramba Badiale%NULL%1,        Giuseppe%Riva%NULL%1,        Gianluca%Castelnuovo%NULL%1,        Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,        Qing-xian%Li%NULL%1,        Heng%Zhang%NULL%1,        Jia-yong%Zhu%NULL%1,        Xu%Yang%NULL%1,        Yu-hang%Wu%NULL%1,        Jie%Xiong%NULL%2,        Fu%Li%NULL%1,        Hua%Wang%whzkwlh@126.com%0,        Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,        Charlotte%Coste%NULL%1,        Rocio%Sanchez%NULL%1,        Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,        Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,        Saleh A.%Alrashed%NULL%1,        Ali A.%Alzunaydi%NULL%1,        Ahmed S.%Almohimeed%NULL%1,        Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,        Hui%Shi%NULL%1,        Zhengkui%Liu%NULL%1,        Songxu%Peng%gwxypsx@163.com%2,        Songxu%Peng%gwxypsx@163.com%0,        Ruoxi%Wang%NULL%2,        Ruoxi%Wang%NULL%0,        Ling%Qi%NULL%1,        Zezhi%Li%NULL%1,        Jiezhi%Yang%NULL%1,        Yali%Ren%NULL%1,        Xiuli%Song%NULL%1,        Lingyun%Zeng%NULL%1,        Wei%Qian%NULL%1,        Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,       Khazaie%H.%coreGivesNoEmail%1,       Li%J.%coreGivesNoEmail%1,       Xiaohui%Li%coreGivesNoEmail%1,       Xing%Tan%coreGivesNoEmail%1,       Yuanyuan%An%coreGivesNoEmail%1,       Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,        Zheng Feei%Ma%NULL%4,        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,        Zhuoer%Sun%NULL%3,        Zhuoer%Sun%NULL%0,        Tuanjie%Liu%NULL%1,        Xiong%Ni%NULL%1,        Xuanfeng%Deng%NULL%1,        Yanpu%Jia%NULL%2,        Zhilei%Shang%NULL%2,        Yaoguang%Zhou%NULL%2,        Weizhi%Liu%13024141970@163.com%3,        Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,        N.%Hadjamu%NULL%2,        N.%Hadjamu%NULL%0,        G.%Willmund%NULL%1,        S.%Dolff%NULL%1,        N.%Vonderlin%NULL%1,        R.%Wakili%NULL%1,        J.%Vogel%NULL%1,        T.%Rassaf%NULL%1,        J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,        Riyu%Pan%NULL%1,        Xiaoyang%Wan%NULL%1,        Yilin%Tan%NULL%1,        Linkang%Xu%NULL%1,        Roger S.%McIntyre%NULL%3,        Faith N.%Choo%NULL%1,        Bach%Tran%NULL%3,        Roger%Ho%NULL%3,        Vijay K.%Sharma%NULL%2,        Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,        Jithin Thomas%Parel%NULL%2,        Jithin Thomas%Parel%NULL%0,        Neeraj%Raizada%NULL%2,        Neeraj%Raizada%NULL%0,        Shiv Kumar%Sarin%NULL%1,        Abdallah M.%Samy%NULL%2,        Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,        Rene%Stefitz%NULL%1,        Kerstin%Gaisbachgrabner%NULL%1,        Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,        Tao%Hu%NULL%1,        Baodi%Hu%NULL%1,        Chunhan%Jin%NULL%1,        Gang%Wang%NULL%1,        Chao%Xie%NULL%1,        Sen%Chen%NULL%1,        Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,        Fengyi%Hao%NULL%1,        Roger S.%McIntyre%NULL%0,        Li%Jiang%NULL%2,        Xiaojiang%Jiang%NULL%2,        Ling%Zhang%NULL%0,        Xinling%Zhao%NULL%2,        Yiran%Zou%NULL%2,        Yirong%Hu%NULL%2,        Xi%Luo%NULL%2,        Zhisong%Zhang%NULL%2,        Andre%Lai%NULL%1,        Roger%Ho%NULL%0,        Bach%Tran%NULL%0,        Cyrus%Ho%NULL%0,        Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,        Wenning%Fu%NULL%1,        Xiaoran%Liu%NULL%1,        Zhiqian%Luo%NULL%1,        Rixing%Wang%NULL%1,        Ning%Zhou%NULL%0,        Shijiao%Yan%NULL%1,        Chuanzhu%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,        Mark L%Williams%NULL%1,        Benjamin C%Amick%NULL%1,        Teresa J.%Hudson%NULL%1,        Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,        Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,        Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,        Necdet%Sut%necdetsut@yahoo.com%2,        Necdet%Sut%necdetsut@yahoo.com%0,        Selma%Akdogan%drslma.akdogan@gmail.com%2,        Selma%Akdogan%drslma.akdogan@gmail.com%0,        Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,        Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,        Valentina%Socci%NULL%2,        Dalila%Talevi%NULL%1,        Sonia%Mensi%NULL%1,        Cinzia%Niolu%NULL%1,        Francesca%Pacitti%NULL%2,        Antinisca%Di Marco%NULL%2,        Alessandro%Rossi%NULL%2,        Alberto%Siracusano%NULL%2,        Giorgio%Di Lorenzo%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,        Valentina%Socci%NULL%0,        Francesca%Pacitti%NULL%0,        Giorgio%Di Lorenzo%NULL%0,        Antinisca%Di Marco%NULL%0,        Alberto%Siracusano%NULL%0,        Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,        Marianna%Purgato%NULL%1,        Chiara%Bove%NULL%1,        David%MacTaggart%NULL%1,        Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,        Wei%Chen%NULL%2,        Saiduo%Liu%NULL%1,        Paul M.%Thompson%NULL%1,        Long Jiang%Zhang%NULL%2,        Fei%Xia%NULL%2,        Fang%Cheng%NULL%1,        Ailing%Hong%NULL%1,        Wesley%Surento%NULL%1,        Song%Luo%NULL%2,        Zhi Yuan%Sun%NULL%2,        Chang Sheng%Zhou%NULL%2,        Lingjiang%Li%NULL%0,        Xiangao%Jiang%NULL%1,        Guang Ming%Lu%NULL%2,         R.%Qi%null%1,         W.% Chen%null%1,         S.% Liu%null%1,         P. M.% Thompson%null%1,         L. J.% Zhang%null%1,         F.% Xia%null%1,         F.% Cheng%null%1,         A.% Hong%null%1,         W.% Surento%null%1,         S.% Luo%null%1,         Z. Y.% Sun%null%1,         C. S.% Zhou%null%1,         L.% Li%null%1,         X.% Jiang%null%1,         G. M. % Lu%null%1,       R.%Qi%null%1,       W.% Chen%null%1,       S.% Liu%null%1,       P. M.% Thompson%null%1,       L. J.% Zhang%null%1,       F.% Xia%null%1,       F.% Cheng%null%1,       A.% Hong%null%1,       W.% Surento%null%1,       S.% Luo%null%1,       Z. Y.% Sun%null%1,       C. S.% Zhou%null%1,       L.% Li%null%1,       X.% Jiang%null%1,       G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,        Yutong%Zhang%NULL%2,        Yutong%Zhang%NULL%0,        Xiaoqin%Luo%NULL%1,        Xinli%Li%NULL%1,        Yeshan%Li%NULL%1,        Shuchang%Liu%NULL%1,        Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,        Beatriz%Talavera-Velasco%NULL%2,        Beatriz%Talavera-Velasco%NULL%0,        Yolanda%García-Albuerne%NULL%1,        Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,        Fan%Zhang%NULL%1,        Cun%Wei%NULL%1,        Yanpu%Jia%NULL%0,        Zhilei%Shang%NULL%0,        Luna%Sun%NULL%1,        Lili%Wu%NULL%1,        Zhuoer%Sun%NULL%0,        Yaoguang%Zhou%NULL%0,        Yan%Wang%NULL%1,        Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,        Emily%Zhang%NULL%1,        Ga Tin Fifi%Wong%NULL%1,        Sunah%Hyun%NULL%1,        Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,        Yue%Wang%NULL%1,        Jingwen%Jiang%NULL%1,        Unnur A.%Valdimarsdóttir%NULL%1,        Katja%Fall%NULL%2,        Katja%Fall%NULL%0,        Fang%Fang%NULL%0,        Fang%Fang%NULL%0,        Huan%Song%NULL%1,        Donghao%Lu%NULL%1,        Wei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,       Chiang%E. S.%coreGivesNoEmail%1,       Fernandez%R.%coreGivesNoEmail%1,       Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,       Ibrahim%H.%coreGivesNoEmail%1,       Lee%B.%coreGivesNoEmail%1,       Shi%L.%coreGivesNoEmail%1,       Sun%N.%coreGivesNoEmail%1,       Tsay%S.\u2010F.%coreGivesNoEmail%1,       World%Health Organisation%coreGivesNoEmail%2,       World%Health Organisation%coreGivesNoEmail%0,       Xiaoyue%Xu%coreGivesNoEmail%1,       Xiuchuan%Li%coreGivesNoEmail%1,       Ying%Zhou%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,        Peixin%Lu%NULL%1,        Lianting%Hu%NULL%1,        Tianhui%Huang%NULL%1,        Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,       Holly%Wei%coreGivesNoEmail%1,       Hong%Xu%coreGivesNoEmail%1,       Lili%Wei%coreGivesNoEmail%1,       Lu%H%coreGivesNoEmail%1,       Min%Leng%coreGivesNoEmail%1,       Shi%Ti JC%coreGivesNoEmail%1,       Shuyun%Xing%coreGivesNoEmail%1,       Weathers%F%coreGivesNoEmail%1,       Wenwen%Zhang%coreGivesNoEmail%1,       Xiaohui%Shi%coreGivesNoEmail%1,       Xiaoying%Zhang%coreGivesNoEmail%1,       Yang%T%coreGivesNoEmail%1,       Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,        Anh Kim%Dang%NULL%1,        Jayson%Toweh%NULL%1,        Quang Nhat%Nguyen%NULL%1,        Huong Thi%Le%NULL%1,        Toan Thi Thanh%Do%NULL%1,        Hanh Bich Thi%Phan%NULL%1,        Thao Thanh%Nguyen%NULL%1,        Quan Thi%Pham%NULL%1,        Nhung Kim Thi%Ta%NULL%1,        Quynh Thi%Nguyen%NULL%1,        Anh Ngoc%Nguyen%NULL%1,        Quan%Van Duong%NULL%1,        Men Thi%Hoang%NULL%1,        Hai Quang%Pham%NULL%1,        Linh Gia%Vu%NULL%1,        Bach Xuan%Tran%NULL%1,        Carl A.%Latkin%NULL%1,        Cyrus S. H.%Ho%NULL%1,        Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,        S.%Joo%NULL%1,        P.-A.%Couette%NULL%1,        S.%de Jaegher%NULL%1,        F.%Joly%NULL%1,        X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,        Simeng%Ma%NULL%1,        Ying%Wang%NULL%2,        Zhongxiang%Cai%NULL%1,        Jianbo%Hu%NULL%1,        Ning%Wei%NULL%1,        Jiang%Wu%NULL%2,        Hui%Du%NULL%0,        Tingting%Chen%NULL%1,        Ruiting%Li%NULL%2,        Huawei%Tan%NULL%1,        Lijun%Kang%NULL%1,        Lihua%Yao%NULL%1,        Manli%Huang%NULL%1,        Huafen%Wang%NULL%1,        Gaohua%Wang%NULL%2,        Zhongchun%Liu%NULL%2,        Shaohua%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,        Mark%Shevlin%NULL%1,        Jamie%Murphy%NULL%1,        Orla%McBride%NULL%1,        Menachem%Ben‐Ezra%NULL%2,        Menachem%Ben‐Ezra%NULL%0,        Richard P.%Bentall%NULL%1,        Frédérique%Vallières%NULL%1,        Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,        Stephanie%Manasse%NULL%2,        Stephanie%Manasse%NULL%0,        Rebecca A.%Krukowski%NULL%2,        Rebecca A.%Krukowski%NULL%0,        Kathryn%Ross%NULL%2,        Kathryn%Ross%NULL%0,        Rebecca%Shakour%NULL%2,        Rebecca%Shakour%NULL%0,        Darci R.%Miller%NULL%1,        Dominick J.%Lemas%NULL%1,        Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,        Xing Lin%Feng%NULL%1,        Xiao Hua%Wang%NULL%2,        Xiao Hua%Wang%NULL%0,        Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,        Berta%Ausín%NULL%1,        Miguel Ángel%Castellanos%NULL%1,        Jesús%Saiz%NULL%1,        Aída%López-Gómez%NULL%1,        Carolina%Ugidos%NULL%1,        Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,        Reyna Jazmín%Martínez Arriaga%NULL%2,        Reyna Jazmín%Martínez Arriaga%NULL%0,        Martha Alicia%Hernández-Gonzalez%NULL%2,        Martha Alicia%Hernández-Gonzalez%NULL%0,        José María%De la Roca-Chiapas%NULL%2,        José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,        Francesca%Favieri%NULL%2,        Francesca%Favieri%NULL%0,        Renata%Tambelli%NULL%2,        Renata%Tambelli%NULL%0,        Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,        Farah%Ghrissi%NULL%1,        Bouthaina%Abbassi%NULL%1,        Wissal%Cherif%NULL%1,        Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,        Enayat M.%Soltan%enayatsoltan@gmail.com%2,        Enayat M.%Soltan%enayatsoltan@gmail.com%0,        Hend M.%Salama%hind_mikhail@yahoo.com%2,        Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,        Charles B%Malpas%NULL%2,        Charles B%Malpas%NULL%0,        Aidan JC%Burrell%NULL%1,        Caroline%Gurvich%NULL%1,        Leo%Chen%NULL%1,        Jayashri%Kulkarni%NULL%1,        Toby%Winton-Brown%NULL%2,        Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,        Regino%Piñeiro-Lamas%NULL%1,        César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,        Yasmeen%Byrnes%NULL%2,        Yasmeen%Byrnes%NULL%0,        Changgee%Chang%NULL%2,        Aman%Prasad%NULL%1,        Kevin%Chorath%NULL%2,        Kevin%Chorath%NULL%0,        Seerat K.%Poonia%NULL%1,        Carolyn M.%Jenks%NULL%1,        Andrés M.%Bur%NULL%1,        Punam%Thakkar%NULL%2,        Punam%Thakkar%NULL%0,        Evan M.%Graboyes%NULL%2,        Evan M.%Graboyes%NULL%0,        Rahul%Seth%NULL%2,        Rahul%Seth%NULL%0,        Samuel%Trosman%NULL%1,        Anni%Wong%NULL%2,        Anni%Wong%NULL%0,        Benjamin M.%Laitman%NULL%1,        Brianna N.%Harris%NULL%1,        Janki%Shah%NULL%2,        Janki%Shah%NULL%0,        Vanessa%Stubbs%NULL%1,        Garret%Choby%NULL%1,        Qi%Long%NULL%2,        Christopher H.%Rassekh%NULL%1,        Erica%Thaler%NULL%1,        Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,        Antonio%Bertelli%NULL%1,        Antonio%Gonçalves%NULL%1,        Emily%Getzen%NULL%1,        Changgee%Chang%NULL%0,        Qi%Long%NULL%0,        Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,        Benjamin%Becker%NULL%1,        Qian%Yu%NULL%1,        Peter%Willeit%NULL%1,        Can%Jiao%NULL%1,        Liuyue%Huang%NULL%1,        M. Mahhub%Hossain%NULL%1,        Igor%Grabovac%NULL%2,        Albert%Yeung%NULL%1,        Jingyuan%Lin%NULL%1,        Nicola%Veronese%NULL%1,        Jian%Wang%NULL%1,        Xinqi%Zhou%NULL%1,        Scott R.%Doig%NULL%1,        Xiaofeng%Liu%NULL%1,        Andre F.%Carvalho%NULL%1,        Lin%Yang%NULL%2,        Tao%Xiao%NULL%1,        Liye%Zou%NULL%1,        Paolo%Fusar-Poli%NULL%1,        Marco%Solmi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,        Jinghao Nicholas%Ngiam%NULL%1,        Benjamin Yong-Qiang%Tan%NULL%2,        Benjamin Yong-Qiang%Tan%NULL%0,        Sai-Meng%Tham%NULL%1,        Celine Yan-Shan%Tan%NULL%1,        Mingxue%Jing%NULL%1,        Renarebecca%Sagayanathan%NULL%1,        Jin Tao%Chen%NULL%1,        Lily Y. H.%Wong%NULL%1,        Aftab%Ahmad%NULL%1,        Faheem Ahmed%Khan%NULL%1,        Maznah%Marmin%NULL%1,        Fadhlina Binte%Hassan%NULL%1,        Tai Mei-Ling%Sharon%NULL%1,        Chin Han%Lim%NULL%1,        Mohamad Iqbal Bin%Mohaini%NULL%1,        Rivan%Danuaji%NULL%1,        Thang H.%Nguyen%NULL%1,        Georgios%Tsivgoulis%NULL%1,        Sotirios%Tsiodras%NULL%1,        Paraskevi C.%Fragkou%NULL%1,        Dimitra%Dimopoulou%NULL%2,        Dimitra%Dimopoulou%NULL%0,        Arvind K.%Sharma%NULL%1,        Kenam%Shah%NULL%1,        Bhargesh%Patel%NULL%1,        Suktara%Sharma%NULL%1,        R. N.%Komalkumar%NULL%1,        R. V.%Meenakshi%NULL%1,        Shikha%Talati%NULL%1,        Hock Luen%Teoh%NULL%1,        Cyrus S.%Ho%NULL%1,        Roger C.%Ho%NULL%0,        Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,        Qin%Cui%NULL%1,        Zhongchun%Liu%NULL%0,        Juanjuan%Li%NULL%1,        Xuan%Gong%NULL%1,        Jingfang%Liu%NULL%1,        Zhiying%Wan%NULL%1,        Xiaoping%Yuan%NULL%1,        Xiaofen%Li%NULL%1,        Chuang%Chen%NULL%1,        Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,       Apostolos%Blekas%coreGivesNoEmail%1,       Eleni%Parlapani%coreGivesNoEmail%1,       Ioannis%Diakogiannis%coreGivesNoEmail%1,       Maria%Athanasiadou%coreGivesNoEmail%1,       Marina%Skoupra%coreGivesNoEmail%1,       Markos%Syngelakis%coreGivesNoEmail%1,       Panteleimon%Voitsidis%coreGivesNoEmail%1,       Vasiliki%Holeva%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,        Zheng Feei%Ma%NULL%0,        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,        Wanqiu%Tan%NULL%1,        Li%Jiang%NULL%0,        Ling%Zhang%NULL%0,        Xinling%Zhao%NULL%0,        Yiran%Zou%NULL%0,        Yirong%Hu%NULL%0,        Xi%Luo%NULL%0,        Xiaojiang%Jiang%NULL%0,        Roger S.%McIntyre%NULL%0,        Bach%Tran%NULL%0,        Jiaqian%Sun%NULL%1,        Zhisong%Zhang%NULL%0,        Roger%Ho%NULL%0,        Cyrus%Ho%NULL%0,        Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,        Hui%Ren%NULL%1,        Ruilin%Cao%NULL%1,        Yueyang%Hu%NULL%1,        Zeying%Qin%NULL%1,        Chuanen%Li%NULL%1,        Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="166" formatCode="dd mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="168" formatCode="yyyy mmmm"/>
-    <numFmt numFmtId="169" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="170" formatCode="mmmm yyyy"/>
-    <numFmt numFmtId="171" formatCode="d mmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="166" formatCode="dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="yyyy\ mmmm"/>
+    <numFmt numFmtId="169" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="170" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2083,78 +2469,70 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2344,20 +2722,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,15 +2766,15 @@
         <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
@@ -2400,259 +2783,259 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>554</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
         <v>86</v>
       </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
       <c r="I2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
       <c r="I3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" t="s">
         <v>94</v>
       </c>
-      <c r="E4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>44287.0</v>
+        <v>44287</v>
       </c>
       <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>102</v>
-      </c>
       <c r="I5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>557</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
       <c r="I6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>558</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>44005.0</v>
+        <v>44005</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>559</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>435</v>
+        <v>560</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>44078.0</v>
+        <v>44078</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -2670,1294 +3053,1294 @@
         <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>44022.0</v>
+        <v>44022</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>437</v>
+        <v>562</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
-        <v>2022.0</v>
+      <c r="B13">
+        <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>438</v>
+        <v>563</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
+        <v>564</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>566</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>44093.0</v>
+        <v>44093</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>567</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
-        <v>43973.0</v>
+      <c r="B18" s="7">
+        <v>43973</v>
       </c>
       <c r="C18" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>568</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4">
-        <v>43921.0</v>
+        <v>43921</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>569</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9">
-        <v>43952.0</v>
+      <c r="B20" s="8">
+        <v>43952</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>570</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10">
-        <v>44057.0</v>
+      <c r="B21" s="9">
+        <v>44057</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>571</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
+        <v>572</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="11">
-        <v>43980.0</v>
+      <c r="B23" s="10">
+        <v>43980</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>448</v>
+        <v>573</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>44088.0</v>
+        <v>44088</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>449</v>
+        <v>574</v>
       </c>
       <c r="F24" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="12">
-        <v>44075.0</v>
+      <c r="B25" s="11">
+        <v>44075</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="13">
-        <v>44013.0</v>
+      <c r="B26" s="12">
+        <v>44013</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>451</v>
+        <v>576</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>452</v>
+        <v>577</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="13">
-        <v>44136.0</v>
+      <c r="B28" s="12">
+        <v>44136</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="I28" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>454</v>
+        <v>579</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="4">
-        <v>44050.0</v>
+        <v>44050</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>455</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11">
-        <v>43952.0</v>
+      <c r="B31" s="10">
+        <v>43952</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>456</v>
+        <v>581</v>
       </c>
       <c r="F31" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="4">
-        <v>44104.0</v>
+        <v>44104</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>457</v>
+        <v>582</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="I32" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>458</v>
+        <v>583</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>459</v>
+        <v>312</v>
       </c>
       <c r="H33" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="I33" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>460</v>
+        <v>584</v>
       </c>
       <c r="F34" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>461</v>
+        <v>585</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="9">
-        <v>43952.0</v>
+      <c r="B36" s="8">
+        <v>43952</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>462</v>
+        <v>586</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="I36" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C37" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="F37" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="3">
-        <v>44409.0</v>
+        <v>44409</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>464</v>
+        <v>588</v>
       </c>
       <c r="F38" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="I38" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B39" s="4">
-        <v>44058.0</v>
+        <v>44058</v>
       </c>
       <c r="C39" t="s">
-        <v>396</v>
+        <v>303</v>
       </c>
       <c r="D39" t="s">
         <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="3">
-        <v>44256.0</v>
+        <v>44256</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="D40" t="s">
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>465</v>
+        <v>589</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="4">
-        <v>44047.0</v>
+        <v>44047</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>466</v>
+        <v>590</v>
       </c>
       <c r="F41" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="4">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="10">
-        <v>44039.0</v>
+      <c r="B43" s="9">
+        <v>44039</v>
       </c>
       <c r="C43" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>467</v>
+        <v>591</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="H43" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B44" s="4">
-        <v>44076.0</v>
+        <v>44076</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>468</v>
+        <v>592</v>
       </c>
       <c r="F44" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="I44" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="3">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C45" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>469</v>
+        <v>593</v>
       </c>
       <c r="F45" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="4">
-        <v>43892.0</v>
+        <v>43892</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>470</v>
+        <v>594</v>
       </c>
       <c r="F46" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>471</v>
+        <v>595</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C48" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>472</v>
+        <v>596</v>
       </c>
       <c r="F48" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="11">
-        <v>43980.0</v>
+      <c r="B49" s="10">
+        <v>43980</v>
       </c>
       <c r="C49" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>473</v>
+        <v>597</v>
       </c>
       <c r="F49" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="I49" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>474</v>
+        <v>598</v>
       </c>
       <c r="F50" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="15">
-        <v>44918.0</v>
+      <c r="B51" s="14">
+        <v>44918</v>
       </c>
       <c r="C51" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="D51" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>475</v>
+        <v>599</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>43992.0</v>
+        <v>43992</v>
       </c>
       <c r="C52" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="F52" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="I52" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="F53" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
+        <v>263</v>
+      </c>
+      <c r="I53" t="s">
         <v>309</v>
       </c>
-      <c r="I53" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="3">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C54" t="s">
-        <v>310</v>
+        <v>264</v>
       </c>
       <c r="D54" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>602</v>
+      </c>
+      <c r="F54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" t="s">
         <v>311</v>
       </c>
-      <c r="E54" t="s">
-        <v>478</v>
-      </c>
-      <c r="F54" t="s">
-        <v>313</v>
-      </c>
-      <c r="G54" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="3">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>479</v>
+        <v>603</v>
       </c>
       <c r="F55" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="3">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -3975,369 +4358,369 @@
         <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="10">
-        <v>44006.0</v>
+      <c r="B57" s="9">
+        <v>44006</v>
       </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D57" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>480</v>
+        <v>604</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="I57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C58" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>481</v>
+        <v>605</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>482</v>
+        <v>606</v>
       </c>
       <c r="F59" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I59" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B60" s="4">
-        <v>44050.0</v>
+        <v>44050</v>
       </c>
       <c r="C60" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>483</v>
+        <v>607</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="4">
-        <v>44112.0</v>
+        <v>44112</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="D61" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>484</v>
+        <v>608</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="I61" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="13">
-        <v>44166.0</v>
+      <c r="B62" s="12">
+        <v>44166</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>485</v>
+        <v>609</v>
       </c>
       <c r="F62" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="I62" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C63" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="D63" t="s">
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>486</v>
+        <v>610</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B64" s="3">
-        <v>44348.0</v>
+        <v>44348</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="F64" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I64" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B65" s="3">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C65" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="D65" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>487</v>
+        <v>612</v>
       </c>
       <c r="F65" t="s">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="I65" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B66" s="3">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C66" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="E66" t="s">
-        <v>488</v>
+        <v>613</v>
       </c>
       <c r="F66" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H66" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I66" t="s">
-        <v>433</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
-    <hyperlink r:id="rId28" ref="A29"/>
-    <hyperlink r:id="rId29" ref="A30"/>
-    <hyperlink r:id="rId30" ref="A31"/>
-    <hyperlink r:id="rId31" ref="A32"/>
-    <hyperlink r:id="rId32" ref="A33"/>
-    <hyperlink r:id="rId33" ref="A34"/>
-    <hyperlink r:id="rId34" ref="A35"/>
-    <hyperlink r:id="rId35" ref="A36"/>
-    <hyperlink r:id="rId36" ref="A37"/>
-    <hyperlink r:id="rId37" ref="A38"/>
-    <hyperlink r:id="rId38" ref="A39"/>
-    <hyperlink r:id="rId39" ref="A40"/>
-    <hyperlink r:id="rId40" ref="A41"/>
-    <hyperlink r:id="rId41" ref="A42"/>
-    <hyperlink r:id="rId42" ref="A43"/>
-    <hyperlink r:id="rId43" ref="A44"/>
-    <hyperlink r:id="rId44" ref="A45"/>
-    <hyperlink r:id="rId45" ref="A46"/>
-    <hyperlink r:id="rId46" ref="A47"/>
-    <hyperlink r:id="rId47" ref="A48"/>
-    <hyperlink r:id="rId48" ref="A49"/>
-    <hyperlink r:id="rId49" ref="A50"/>
-    <hyperlink r:id="rId50" ref="A51"/>
-    <hyperlink r:id="rId51" ref="A52"/>
-    <hyperlink r:id="rId52" ref="A53"/>
-    <hyperlink r:id="rId53" ref="A54"/>
-    <hyperlink r:id="rId54" ref="A55"/>
-    <hyperlink r:id="rId55" ref="A56"/>
-    <hyperlink r:id="rId56" ref="A58"/>
-    <hyperlink r:id="rId57" ref="A59"/>
-    <hyperlink r:id="rId58" ref="A60"/>
-    <hyperlink r:id="rId59" ref="A61"/>
-    <hyperlink r:id="rId60" ref="A62"/>
-    <hyperlink r:id="rId61" ref="A63"/>
-    <hyperlink r:id="rId62" ref="A64"/>
-    <hyperlink r:id="rId63" ref="A65"/>
-    <hyperlink r:id="rId64" ref="A66"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
   </hyperlinks>
-  <drawing r:id="rId65"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="743">
   <si>
     <t>Doi</t>
   </si>
@@ -2416,6 +2416,393 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,        Hui%Ren%NULL%1,        Ruilin%Cao%NULL%1,        Yueyang%Hu%NULL%1,        Zeying%Qin%NULL%1,        Chuanen%Li%NULL%1,        Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,         Roy F.%Baumeister%NULL%1,         Jennifer C.%Veilleux%NULL%1,         Caixia%Chen%NULL%1,         Wenjun%Liu%NULL%1,         Yongjie%Yue%NULL%1,         Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,         Xiaopeng%Hu%NULL%1,         Ivo Otte%Ekumi%NULL%1,         Jianchun%Wang%NULL%1,         Yawen%An%NULL%1,         Zhiwen%Li%NULL%1,         Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,         Wen%Li%NULL%2,         Yuan%Yang%NULL%4,         Yuan%Yang%NULL%0,         Yu%Wang%NULL%2,         Qinge%Zhang%NULL%1,         Teris%Cheung%NULL%2,         Xinjuan%Wu%NULL%2,         Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,         Cherica A.%Tee%NULL%1,         Joseph P.%Anlacan%NULL%1,         Katrina Joy G.%Aligam%NULL%1,         Patrick Wincy C.%Reyes%NULL%1,         Vipat%Kuruchittham%NULL%1,         Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,         Xiao-You%Su%suxiaoyou@hotmail.com%1,         Yu%Jiang%jiangyu@pumc.edu.cn%2,         Yu%Jiang%jiangyu@pumc.edu.cn%0,         Wen-Jun%Wang%wwjun1973@163.com%1,         Xiao-Fen%Gu%357539328@qq.com%1,         Li%Ma%mali_lele@sina.com%1,         Jing%Li%lijingwcph@scu.edu.cn%0,         Shao-Kai%Zhang%shaokaizhang@126.com%1,         Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,         Ran%Ren%renran99@163.com%1,         Yuan-Li%Liu%liuyuanli_pumc@163.com%1,         You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,         Helena%Garrido-Hernansaiz%NULL%1,         Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,         Xiangfen%Su%suxiangfengfy@163.com%1,         Shuzeng%Zhang%NULL%2,         Shuzeng%Zhang%NULL%0,         Wenjie%Guan%NULL%1,         Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,         Rong-Ning%Chen%NULL%1,         Li-Li%Liu%NULL%1,         Xue-Guo%Li%NULL%1,         Jian-Bin%Chen%NULL%1,         Si-Yao%Tang%NULL%1,         Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Psychological impact on women health workers involved in COVID-19 outbreak in Wuhan: a cross-sectional study"</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2, Jinfeng%Miao%xref no email%2, Hui%Wang%xref no email%2, Shabei%Xu%xref no email%2, Wenzhe%Sun%xref no email%2, Yebin%Fan%xref no email%2, Chenyan%Zhang%xref no email%2, Suiqiang%Zhu%xref no email%2, Zhou%Zhu%xref no email%2, Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,         Elisa%Pedroli%NULL%1,         Guido E.%D'Aniello%NULL%1,         Chiara%Stramba Badiale%NULL%1,         Giada%Pietrabissa%NULL%1,         Chiara%Manna%NULL%1,         Marco%Stramba Badiale%NULL%1,         Giuseppe%Riva%NULL%1,         Gianluca%Castelnuovo%NULL%1,         Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,         Qing-xian%Li%NULL%1,         Heng%Zhang%NULL%1,         Jia-yong%Zhu%NULL%1,         Xu%Yang%NULL%1,         Yu-hang%Wu%NULL%1,         Jie%Xiong%NULL%1,         Fu%Li%NULL%1,         Hua%Wang%whzkwlh@126.com%0,         Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,         Charlotte%Coste%NULL%1,         Rocio%Sanchez%NULL%1,         Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,         Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,         Saleh A.%Alrashed%NULL%1,         Ali A.%Alzunaydi%NULL%1,         Ahmed S.%Almohimeed%NULL%1,         Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,         Hui%Shi%NULL%1,         Zhengkui%Liu%NULL%1,         Songxu%Peng%gwxypsx@163.com%2,         Songxu%Peng%gwxypsx@163.com%0,         Ruoxi%Wang%NULL%2,         Ruoxi%Wang%NULL%0,         Ling%Qi%NULL%1,         Zezhi%Li%NULL%1,         Jiezhi%Yang%NULL%1,         Yali%Ren%NULL%1,         Xiuli%Song%NULL%1,         Lingyun%Zeng%NULL%1,         Wei%Qian%NULL%1,         Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,        Khazaie%H.%coreGivesNoEmail%1,        Li%J.%coreGivesNoEmail%1,        Xiaohui%Li%coreGivesNoEmail%1,        Xing%Tan%coreGivesNoEmail%1,        Yuanyuan%An%coreGivesNoEmail%1,        Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,         Zheng Feei%Ma%NULL%4,         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,         Zhuoer%Sun%NULL%3,         Zhuoer%Sun%NULL%0,         Tuanjie%Liu%NULL%1,         Xiong%Ni%NULL%1,         Xuanfeng%Deng%NULL%1,         Yanpu%Jia%NULL%2,         Zhilei%Shang%NULL%2,         Yaoguang%Zhou%NULL%2,         Weizhi%Liu%13024141970@163.com%3,         Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,         N.%Hadjamu%NULL%2,         N.%Hadjamu%NULL%0,         G.%Willmund%NULL%1,         S.%Dolff%NULL%1,         N.%Vonderlin%NULL%1,         R.%Wakili%NULL%1,         J.%Vogel%NULL%1,         T.%Rassaf%NULL%1,         J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,         Riyu%Pan%NULL%1,         Xiaoyang%Wan%NULL%1,         Yilin%Tan%NULL%1,         Linkang%Xu%NULL%1,         Roger S.%McIntyre%NULL%3,         Faith N.%Choo%NULL%1,         Bach%Tran%NULL%3,         Roger%Ho%NULL%3,         Vijay K.%Sharma%NULL%2,         Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,         Jithin Thomas%Parel%NULL%2,         Jithin Thomas%Parel%NULL%0,         Neeraj%Raizada%NULL%2,         Neeraj%Raizada%NULL%0,         Shiv Kumar%Sarin%NULL%1,         Abdallah M.%Samy%NULL%2,         Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,         Rene%Stefitz%NULL%1,         Kerstin%Gaisbachgrabner%NULL%1,         Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,         Tao%Hu%NULL%1,         Baodi%Hu%NULL%1,         Chunhan%Jin%NULL%1,         Gang%Wang%NULL%1,         Chao%Xie%NULL%1,         Sen%Chen%NULL%1,         Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,         Fengyi%Hao%NULL%1,         Roger S.%McIntyre%NULL%0,         Li%Jiang%NULL%2,         Xiaojiang%Jiang%NULL%2,         Ling%Zhang%NULL%2,         Xinling%Zhao%NULL%2,         Yiran%Zou%NULL%2,         Yirong%Hu%NULL%2,         Xi%Luo%NULL%2,         Zhisong%Zhang%NULL%2,         Andre%Lai%NULL%1,         Roger%Ho%NULL%0,         Bach%Tran%NULL%0,         Cyrus%Ho%NULL%0,         Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,         Wenning%Fu%NULL%2,         Xiaoran%Liu%NULL%2,         Zhiqian%Luo%NULL%2,         Rixing%Wang%NULL%2,         Ning%Zhou%NULL%2,         Shijiao%Yan%NULL%3,         Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,         Mark L%Williams%NULL%1,         Benjamin C%Amick%NULL%1,         Teresa J.%Hudson%NULL%1,         Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,         Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,         Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,         Necdet%Sut%necdetsut@yahoo.com%2,         Necdet%Sut%necdetsut@yahoo.com%0,         Selma%Akdogan%drslma.akdogan@gmail.com%2,         Selma%Akdogan%drslma.akdogan@gmail.com%0,         Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,         Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,         Valentina%Socci%NULL%3,         Dalila%Talevi%NULL%1,         Sonia%Mensi%NULL%1,         Cinzia%Niolu%NULL%1,         Francesca%Pacitti%NULL%3,         Antinisca%Di Marco%NULL%3,         Alessandro%Rossi%NULL%3,         Alberto%Siracusano%NULL%3,         Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,         Valentina%Socci%NULL%0,         Francesca%Pacitti%NULL%0,         Giorgio%Di Lorenzo%NULL%0,         Antinisca%Di Marco%NULL%0,         Alberto%Siracusano%NULL%0,         Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,         Marianna%Purgato%NULL%1,         Chiara%Bove%NULL%1,         David%MacTaggart%NULL%1,         Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,         Wei%Chen%NULL%0,         Saiduo%Liu%NULL%2,         Paul M.%Thompson%NULL%2,         Long Jiang%Zhang%NULL%2,         Fei%Xia%NULL%3,         Fang%Cheng%NULL%3,         Ailing%Hong%NULL%2,         Wesley%Surento%NULL%2,         Song%Luo%NULL%2,         Zhi Yuan%Sun%NULL%2,         Chang Sheng%Zhou%NULL%2,         Lingjiang%Li%NULL%2,         Xiangao%Jiang%NULL%2,         Guang Ming%Lu%NULL%2,          R.%Qi%null%2,          W.% Chen%null%2,          S.% Liu%null%2,          P. M.% Thompson%null%2,          L. J.% Zhang%null%2,          F.% Xia%null%2,          F.% Cheng%null%2,          A.% Hong%null%2,          W.% Surento%null%2,          S.% Luo%null%2,          Z. Y.% Sun%null%2,          C. S.% Zhou%null%2,          L.% Li%null%2,          X.% Jiang%null%2,          G. M. % Lu%null%2,        R.%Qi%null%1,        W.% Chen%null%1,        S.% Liu%null%1,        P. M.% Thompson%null%1,        L. J.% Zhang%null%1,        F.% Xia%null%1,        F.% Cheng%null%1,        A.% Hong%null%1,        W.% Surento%null%1,        S.% Luo%null%1,        Z. Y.% Sun%null%1,        C. S.% Zhou%null%1,        L.% Li%null%1,        X.% Jiang%null%1,        G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,         Yutong%Zhang%NULL%2,         Yutong%Zhang%NULL%0,         Xiaoqin%Luo%NULL%1,         Xinli%Li%NULL%1,         Yeshan%Li%NULL%1,         Shuchang%Liu%NULL%1,         Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,         Beatriz%Talavera-Velasco%NULL%2,         Beatriz%Talavera-Velasco%NULL%0,         Yolanda%García-Albuerne%NULL%1,         Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,         Fan%Zhang%NULL%1,         Cun%Wei%NULL%1,         Yanpu%Jia%NULL%0,         Zhilei%Shang%NULL%0,         Luna%Sun%NULL%1,         Lili%Wu%NULL%1,         Zhuoer%Sun%NULL%0,         Yaoguang%Zhou%NULL%0,         Yan%Wang%NULL%1,         Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,         Emily%Zhang%NULL%1,         Ga Tin Fifi%Wong%NULL%1,         Sunah%Hyun%NULL%1,         Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,         Yue%Wang%NULL%1,         Jingwen%Jiang%NULL%1,         Unnur A.%Valdimarsdóttir%NULL%1,         Katja%Fall%NULL%2,         Katja%Fall%NULL%0,         Fang%Fang%NULL%0,         Fang%Fang%NULL%0,         Huan%Song%NULL%1,         Donghao%Lu%NULL%1,         Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,        Chiang%E. S.%coreGivesNoEmail%1,        Fernandez%R.%coreGivesNoEmail%1,        Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,        Ibrahim%H.%coreGivesNoEmail%1,        Lee%B.%coreGivesNoEmail%1,        Shi%L.%coreGivesNoEmail%1,        Sun%N.%coreGivesNoEmail%1,        Tsay%S.\u2010F.%coreGivesNoEmail%1,        World%Health Organisation%coreGivesNoEmail%2,        World%Health Organisation%coreGivesNoEmail%0,        Xiaoyue%Xu%coreGivesNoEmail%1,        Xiuchuan%Li%coreGivesNoEmail%1,        Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,         Peixin%Lu%NULL%1,         Lianting%Hu%NULL%1,         Tianhui%Huang%NULL%1,         Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,        Holly%Wei%coreGivesNoEmail%1,        Hong%Xu%coreGivesNoEmail%1,        Lili%Wei%coreGivesNoEmail%1,        Lu%H%coreGivesNoEmail%1,        Min%Leng%coreGivesNoEmail%1,        Shi%Ti JC%coreGivesNoEmail%1,        Shuyun%Xing%coreGivesNoEmail%1,        Weathers%F%coreGivesNoEmail%1,        Wenwen%Zhang%coreGivesNoEmail%1,        Xiaohui%Shi%coreGivesNoEmail%1,        Xiaoying%Zhang%coreGivesNoEmail%1,        Yang%T%coreGivesNoEmail%1,        Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,         Anh Kim%Dang%NULL%1,         Jayson%Toweh%NULL%1,         Quang Nhat%Nguyen%NULL%1,         Huong Thi%Le%NULL%1,         Toan Thi Thanh%Do%NULL%1,         Hanh Bich Thi%Phan%NULL%1,         Thao Thanh%Nguyen%NULL%1,         Quan Thi%Pham%NULL%1,         Nhung Kim Thi%Ta%NULL%1,         Quynh Thi%Nguyen%NULL%1,         Anh Ngoc%Nguyen%NULL%1,         Quan%Van Duong%NULL%1,         Men Thi%Hoang%NULL%1,         Hai Quang%Pham%NULL%1,         Linh Gia%Vu%NULL%1,         Bach Xuan%Tran%NULL%1,         Carl A.%Latkin%NULL%1,         Cyrus S. H.%Ho%NULL%1,         Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,         S.%Joo%NULL%1,         P.-A.%Couette%NULL%1,         S.%de Jaegher%NULL%1,         F.%Joly%NULL%1,         X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,         Simeng%Ma%NULL%2,         Ying%Wang%NULL%4,         Zhongxiang%Cai%NULL%2,         Jianbo%Hu%NULL%2,         Ning%Wei%NULL%2,         Jiang%Wu%NULL%3,         Hui%Du%NULL%2,         Tingting%Chen%NULL%2,         Ruiting%Li%NULL%2,         Huawei%Tan%NULL%2,         Lijun%Kang%NULL%2,         Lihua%Yao%NULL%2,         Manli%Huang%NULL%2,         Huafen%Wang%NULL%2,         Gaohua%Wang%NULL%3,         Zhongchun%Liu%NULL%3,         Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,         Mark%Shevlin%NULL%1,         Jamie%Murphy%NULL%1,         Orla%McBride%NULL%1,         Menachem%Ben‐Ezra%NULL%2,         Menachem%Ben‐Ezra%NULL%0,         Richard P.%Bentall%NULL%1,         Frédérique%Vallières%NULL%1,         Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,         Stephanie%Manasse%NULL%2,         Stephanie%Manasse%NULL%0,         Rebecca A.%Krukowski%NULL%2,         Rebecca A.%Krukowski%NULL%0,         Kathryn%Ross%NULL%2,         Kathryn%Ross%NULL%0,         Rebecca%Shakour%NULL%2,         Rebecca%Shakour%NULL%0,         Darci R.%Miller%NULL%1,         Dominick J.%Lemas%NULL%1,         Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,         Xing Lin%Feng%NULL%1,         Xiao Hua%Wang%NULL%2,         Xiao Hua%Wang%NULL%0,         Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,         Berta%Ausín%NULL%1,         Miguel Ángel%Castellanos%NULL%1,         Jesús%Saiz%NULL%1,         Aída%López-Gómez%NULL%1,         Carolina%Ugidos%NULL%1,         Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,         Reyna Jazmín%Martínez Arriaga%NULL%2,         Reyna Jazmín%Martínez Arriaga%NULL%0,         Martha Alicia%Hernández-Gonzalez%NULL%2,         Martha Alicia%Hernández-Gonzalez%NULL%0,         José María%De la Roca-Chiapas%NULL%2,         José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,         Francesca%Favieri%NULL%2,         Francesca%Favieri%NULL%0,         Renata%Tambelli%NULL%2,         Renata%Tambelli%NULL%0,         Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,         Farah%Ghrissi%NULL%1,         Bouthaina%Abbassi%NULL%1,         Wissal%Cherif%NULL%1,         Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,         Enayat M.%Soltan%enayatsoltan@gmail.com%2,         Enayat M.%Soltan%enayatsoltan@gmail.com%0,         Hend M.%Salama%hind_mikhail@yahoo.com%2,         Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,         Charles B%Malpas%NULL%2,         Charles B%Malpas%NULL%0,         Aidan JC%Burrell%NULL%1,         Caroline%Gurvich%NULL%1,         Leo%Chen%NULL%1,         Jayashri%Kulkarni%NULL%1,         Toby%Winton-Brown%NULL%2,         Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Mental health of healthcare workers during the\n            &lt;scp&gt;COVID&lt;\/scp&gt;\n            \u201019 pandemic in Italy"</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1, Annunziata%Romeo%xref no email%1, Agata%Benfante%xref no email%1, Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,         Regino%Piñeiro-Lamas%NULL%1,         César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,         Yasmeen%Byrnes%NULL%2,         Yasmeen%Byrnes%NULL%0,         Changgee%Chang%NULL%2,         Aman%Prasad%NULL%1,         Kevin%Chorath%NULL%2,         Kevin%Chorath%NULL%0,         Seerat K.%Poonia%NULL%1,         Carolyn M.%Jenks%NULL%1,         Andrés M.%Bur%NULL%1,         Punam%Thakkar%NULL%2,         Punam%Thakkar%NULL%0,         Evan M.%Graboyes%NULL%2,         Evan M.%Graboyes%NULL%0,         Rahul%Seth%NULL%2,         Rahul%Seth%NULL%0,         Samuel%Trosman%NULL%1,         Anni%Wong%NULL%2,         Anni%Wong%NULL%0,         Benjamin M.%Laitman%NULL%1,         Brianna N.%Harris%NULL%1,         Janki%Shah%NULL%2,         Janki%Shah%NULL%0,         Vanessa%Stubbs%NULL%1,         Garret%Choby%NULL%1,         Qi%Long%NULL%2,         Christopher H.%Rassekh%NULL%1,         Erica%Thaler%NULL%1,         Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,         Antonio%Bertelli%NULL%1,         Antonio%Gonçalves%NULL%1,         Emily%Getzen%NULL%1,         Changgee%Chang%NULL%0,         Qi%Long%NULL%0,         Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,         Benjamin%Becker%NULL%2,         Qian%Yu%NULL%2,         Peter%Willeit%NULL%2,         Can%Jiao%NULL%2,         Liuyue%Huang%NULL%2,         M. Mahhub%Hossain%NULL%2,         Igor%Grabovac%NULL%2,         Albert%Yeung%NULL%2,         Jingyuan%Lin%NULL%2,         Nicola%Veronese%NULL%2,         Jian%Wang%NULL%3,         Xinqi%Zhou%NULL%2,         Scott R.%Doig%NULL%2,         Xiaofeng%Liu%NULL%2,         Andre F.%Carvalho%NULL%2,         Lin%Yang%NULL%4,         Tao%Xiao%NULL%2,         Liye%Zou%NULL%2,         Paolo%Fusar-Poli%NULL%2,         Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,         Jinghao Nicholas%Ngiam%NULL%1,         Benjamin Yong-Qiang%Tan%NULL%2,         Benjamin Yong-Qiang%Tan%NULL%0,         Sai-Meng%Tham%NULL%1,         Celine Yan-Shan%Tan%NULL%1,         Mingxue%Jing%NULL%1,         Renarebecca%Sagayanathan%NULL%1,         Jin Tao%Chen%NULL%1,         Lily Y. H.%Wong%NULL%1,         Aftab%Ahmad%NULL%1,         Faheem Ahmed%Khan%NULL%1,         Maznah%Marmin%NULL%1,         Fadhlina Binte%Hassan%NULL%1,         Tai Mei-Ling%Sharon%NULL%1,         Chin Han%Lim%NULL%1,         Mohamad Iqbal Bin%Mohaini%NULL%1,         Rivan%Danuaji%NULL%1,         Thang H.%Nguyen%NULL%1,         Georgios%Tsivgoulis%NULL%1,         Sotirios%Tsiodras%NULL%1,         Paraskevi C.%Fragkou%NULL%1,         Dimitra%Dimopoulou%NULL%2,         Dimitra%Dimopoulou%NULL%0,         Arvind K.%Sharma%NULL%1,         Kenam%Shah%NULL%1,         Bhargesh%Patel%NULL%1,         Suktara%Sharma%NULL%1,         R. N.%Komalkumar%NULL%1,         R. V.%Meenakshi%NULL%1,         Shikha%Talati%NULL%1,         Hock Luen%Teoh%NULL%1,         Cyrus S.%Ho%NULL%1,         Roger C.%Ho%NULL%0,         Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,         Qin%Cui%NULL%1,         Zhongchun%Liu%NULL%0,         Juanjuan%Li%NULL%1,         Xuan%Gong%NULL%1,         Jingfang%Liu%NULL%1,         Zhiying%Wan%NULL%1,         Xiaoping%Yuan%NULL%1,         Xiaofen%Li%NULL%1,         Chuang%Chen%NULL%1,         Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,        Apostolos%Blekas%coreGivesNoEmail%1,        Eleni%Parlapani%coreGivesNoEmail%1,        Ioannis%Diakogiannis%coreGivesNoEmail%1,        Maria%Athanasiadou%coreGivesNoEmail%1,        Marina%Skoupra%coreGivesNoEmail%1,        Markos%Syngelakis%coreGivesNoEmail%1,        Panteleimon%Voitsidis%coreGivesNoEmail%1,        Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,         Zheng Feei%Ma%NULL%0,         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,         Wanqiu%Tan%NULL%1,         Li%Jiang%NULL%0,         Ling%Zhang%NULL%0,         Xinling%Zhao%NULL%0,         Yiran%Zou%NULL%0,         Yirong%Hu%NULL%0,         Xi%Luo%NULL%0,         Xiaojiang%Jiang%NULL%0,         Roger S.%McIntyre%NULL%0,         Bach%Tran%NULL%0,         Jiaqian%Sun%NULL%1,         Zhisong%Zhang%NULL%0,         Roger%Ho%NULL%0,         Cyrus%Ho%NULL%0,         Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,         Hui%Ren%NULL%1,         Ruilin%Cao%NULL%1,         Yueyang%Hu%NULL%1,         Zeying%Qin%NULL%1,         Chuanen%Li%NULL%1,         Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,          Roy F.%Baumeister%NULL%1,          Jennifer C.%Veilleux%NULL%1,          Caixia%Chen%NULL%1,          Wenjun%Liu%NULL%1,          Yongjie%Yue%NULL%1,          Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,          Xiaopeng%Hu%NULL%1,          Ivo Otte%Ekumi%NULL%1,          Jianchun%Wang%NULL%1,          Yawen%An%NULL%1,          Zhiwen%Li%NULL%1,          Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,          Wen%Li%NULL%2,          Yuan%Yang%NULL%4,          Yuan%Yang%NULL%0,          Yu%Wang%NULL%2,          Qinge%Zhang%NULL%1,          Teris%Cheung%NULL%2,          Xinjuan%Wu%NULL%2,          Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,          Cherica A.%Tee%NULL%1,          Joseph P.%Anlacan%NULL%1,          Katrina Joy G.%Aligam%NULL%1,          Patrick Wincy C.%Reyes%NULL%1,          Vipat%Kuruchittham%NULL%1,          Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,          Xiao-You%Su%suxiaoyou@hotmail.com%1,          Yu%Jiang%jiangyu@pumc.edu.cn%2,          Yu%Jiang%jiangyu@pumc.edu.cn%0,          Wen-Jun%Wang%wwjun1973@163.com%1,          Xiao-Fen%Gu%357539328@qq.com%1,          Li%Ma%mali_lele@sina.com%1,          Jing%Li%lijingwcph@scu.edu.cn%0,          Shao-Kai%Zhang%shaokaizhang@126.com%1,          Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,          Ran%Ren%renran99@163.com%1,          Yuan-Li%Liu%liuyuanli_pumc@163.com%1,          You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,          Helena%Garrido-Hernansaiz%NULL%1,          Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,          Xiangfen%Su%suxiangfengfy@163.com%1,          Shuzeng%Zhang%NULL%2,          Shuzeng%Zhang%NULL%0,          Wenjie%Guan%NULL%1,          Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,          Rong-Ning%Chen%NULL%1,          Li-Li%Liu%NULL%1,          Xue-Guo%Li%NULL%1,          Jian-Bin%Chen%NULL%1,          Si-Yao%Tang%NULL%1,          Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,  Jinfeng%Miao%xref no email%2,  Hui%Wang%xref no email%2,  Shabei%Xu%xref no email%2,  Wenzhe%Sun%xref no email%2,  Yebin%Fan%xref no email%2,  Chenyan%Zhang%xref no email%2,  Suiqiang%Zhu%xref no email%2,  Zhou%Zhu%xref no email%2,  Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,          Elisa%Pedroli%NULL%1,          Guido E.%D'Aniello%NULL%1,          Chiara%Stramba Badiale%NULL%1,          Giada%Pietrabissa%NULL%1,          Chiara%Manna%NULL%1,          Marco%Stramba Badiale%NULL%1,          Giuseppe%Riva%NULL%1,          Gianluca%Castelnuovo%NULL%1,          Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,          Qing-xian%Li%NULL%1,          Heng%Zhang%NULL%1,          Jia-yong%Zhu%NULL%1,          Xu%Yang%NULL%1,          Yu-hang%Wu%NULL%1,          Jie%Xiong%NULL%1,          Fu%Li%NULL%1,          Hua%Wang%whzkwlh@126.com%0,          Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,          Charlotte%Coste%NULL%1,          Rocio%Sanchez%NULL%1,          Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,          Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,          Saleh A.%Alrashed%NULL%1,          Ali A.%Alzunaydi%NULL%1,          Ahmed S.%Almohimeed%NULL%1,          Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,          Hui%Shi%NULL%1,          Zhengkui%Liu%NULL%1,          Songxu%Peng%gwxypsx@163.com%2,          Songxu%Peng%gwxypsx@163.com%0,          Ruoxi%Wang%NULL%2,          Ruoxi%Wang%NULL%0,          Ling%Qi%NULL%1,          Zezhi%Li%NULL%1,          Jiezhi%Yang%NULL%1,          Yali%Ren%NULL%1,          Xiuli%Song%NULL%1,          Lingyun%Zeng%NULL%1,          Wei%Qian%NULL%1,          Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,         Khazaie%H.%coreGivesNoEmail%1,         Li%J.%coreGivesNoEmail%1,         Xiaohui%Li%coreGivesNoEmail%1,         Xing%Tan%coreGivesNoEmail%1,         Yuanyuan%An%coreGivesNoEmail%1,         Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,          Zheng Feei%Ma%NULL%4,          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,          Zhuoer%Sun%NULL%3,          Zhuoer%Sun%NULL%0,          Tuanjie%Liu%NULL%1,          Xiong%Ni%NULL%1,          Xuanfeng%Deng%NULL%1,          Yanpu%Jia%NULL%2,          Zhilei%Shang%NULL%2,          Yaoguang%Zhou%NULL%2,          Weizhi%Liu%13024141970@163.com%3,          Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,          N.%Hadjamu%NULL%2,          N.%Hadjamu%NULL%0,          G.%Willmund%NULL%1,          S.%Dolff%NULL%1,          N.%Vonderlin%NULL%1,          R.%Wakili%NULL%1,          J.%Vogel%NULL%1,          T.%Rassaf%NULL%1,          J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,          Riyu%Pan%NULL%1,          Xiaoyang%Wan%NULL%1,          Yilin%Tan%NULL%1,          Linkang%Xu%NULL%1,          Roger S.%McIntyre%NULL%3,          Faith N.%Choo%NULL%1,          Bach%Tran%NULL%3,          Roger%Ho%NULL%3,          Vijay K.%Sharma%NULL%2,          Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,          Jithin Thomas%Parel%NULL%2,          Jithin Thomas%Parel%NULL%0,          Neeraj%Raizada%NULL%2,          Neeraj%Raizada%NULL%0,          Shiv Kumar%Sarin%NULL%1,          Abdallah M.%Samy%NULL%2,          Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,          Rene%Stefitz%NULL%1,          Kerstin%Gaisbachgrabner%NULL%1,          Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,          Tao%Hu%NULL%1,          Baodi%Hu%NULL%1,          Chunhan%Jin%NULL%1,          Gang%Wang%NULL%1,          Chao%Xie%NULL%1,          Sen%Chen%NULL%1,          Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,          Fengyi%Hao%NULL%1,          Roger S.%McIntyre%NULL%0,          Li%Jiang%NULL%2,          Xiaojiang%Jiang%NULL%2,          Ling%Zhang%NULL%2,          Xinling%Zhao%NULL%2,          Yiran%Zou%NULL%2,          Yirong%Hu%NULL%2,          Xi%Luo%NULL%2,          Zhisong%Zhang%NULL%2,          Andre%Lai%NULL%1,          Roger%Ho%NULL%0,          Bach%Tran%NULL%0,          Cyrus%Ho%NULL%0,          Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,          Wenning%Fu%NULL%2,          Xiaoran%Liu%NULL%2,          Zhiqian%Luo%NULL%2,          Rixing%Wang%NULL%2,          Ning%Zhou%NULL%2,          Shijiao%Yan%NULL%3,          Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,          Mark L%Williams%NULL%1,          Benjamin C%Amick%NULL%1,          Teresa J.%Hudson%NULL%1,          Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,          Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,          Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,          Necdet%Sut%necdetsut@yahoo.com%2,          Necdet%Sut%necdetsut@yahoo.com%0,          Selma%Akdogan%drslma.akdogan@gmail.com%2,          Selma%Akdogan%drslma.akdogan@gmail.com%0,          Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,          Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,          Valentina%Socci%NULL%3,          Dalila%Talevi%NULL%1,          Sonia%Mensi%NULL%1,          Cinzia%Niolu%NULL%1,          Francesca%Pacitti%NULL%3,          Antinisca%Di Marco%NULL%3,          Alessandro%Rossi%NULL%3,          Alberto%Siracusano%NULL%3,          Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,          Valentina%Socci%NULL%0,          Francesca%Pacitti%NULL%0,          Giorgio%Di Lorenzo%NULL%0,          Antinisca%Di Marco%NULL%0,          Alberto%Siracusano%NULL%0,          Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,          Marianna%Purgato%NULL%1,          Chiara%Bove%NULL%1,          David%MacTaggart%NULL%1,          Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,          Wei%Chen%NULL%0,          Saiduo%Liu%NULL%2,          Paul M.%Thompson%NULL%2,          Long Jiang%Zhang%NULL%2,          Fei%Xia%NULL%3,          Fang%Cheng%NULL%3,          Ailing%Hong%NULL%2,          Wesley%Surento%NULL%2,          Song%Luo%NULL%2,          Zhi Yuan%Sun%NULL%2,          Chang Sheng%Zhou%NULL%2,          Lingjiang%Li%NULL%2,          Xiangao%Jiang%NULL%2,          Guang Ming%Lu%NULL%2,           R.%Qi%null%2,           W.% Chen%null%2,           S.% Liu%null%2,           P. M.% Thompson%null%2,           L. J.% Zhang%null%2,           F.% Xia%null%2,           F.% Cheng%null%2,           A.% Hong%null%2,           W.% Surento%null%2,           S.% Luo%null%2,           Z. Y.% Sun%null%2,           C. S.% Zhou%null%2,           L.% Li%null%2,           X.% Jiang%null%2,           G. M. % Lu%null%2,         R.%Qi%null%1,         W.% Chen%null%1,         S.% Liu%null%1,         P. M.% Thompson%null%1,         L. J.% Zhang%null%1,         F.% Xia%null%1,         F.% Cheng%null%1,         A.% Hong%null%1,         W.% Surento%null%1,         S.% Luo%null%1,         Z. Y.% Sun%null%1,         C. S.% Zhou%null%1,         L.% Li%null%1,         X.% Jiang%null%1,         G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,          Yutong%Zhang%NULL%2,          Yutong%Zhang%NULL%0,          Xiaoqin%Luo%NULL%1,          Xinli%Li%NULL%1,          Yeshan%Li%NULL%1,          Shuchang%Liu%NULL%1,          Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,          Beatriz%Talavera-Velasco%NULL%2,          Beatriz%Talavera-Velasco%NULL%0,          Yolanda%García-Albuerne%NULL%1,          Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,          Fan%Zhang%NULL%1,          Cun%Wei%NULL%1,          Yanpu%Jia%NULL%0,          Zhilei%Shang%NULL%0,          Luna%Sun%NULL%1,          Lili%Wu%NULL%1,          Zhuoer%Sun%NULL%0,          Yaoguang%Zhou%NULL%0,          Yan%Wang%NULL%1,          Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,          Emily%Zhang%NULL%1,          Ga Tin Fifi%Wong%NULL%1,          Sunah%Hyun%NULL%1,          Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,          Yue%Wang%NULL%1,          Jingwen%Jiang%NULL%1,          Unnur A.%Valdimarsdóttir%NULL%1,          Katja%Fall%NULL%2,          Katja%Fall%NULL%0,          Fang%Fang%NULL%0,          Fang%Fang%NULL%0,          Huan%Song%NULL%1,          Donghao%Lu%NULL%1,          Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,         Chiang%E. S.%coreGivesNoEmail%1,         Fernandez%R.%coreGivesNoEmail%1,         Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,         Ibrahim%H.%coreGivesNoEmail%1,         Lee%B.%coreGivesNoEmail%1,         Shi%L.%coreGivesNoEmail%1,         Sun%N.%coreGivesNoEmail%1,         Tsay%S.\u2010F.%coreGivesNoEmail%1,         World%Health Organisation%coreGivesNoEmail%2,         World%Health Organisation%coreGivesNoEmail%0,         Xiaoyue%Xu%coreGivesNoEmail%1,         Xiuchuan%Li%coreGivesNoEmail%1,         Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,          Peixin%Lu%NULL%1,          Lianting%Hu%NULL%1,          Tianhui%Huang%NULL%1,          Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,         Holly%Wei%coreGivesNoEmail%1,         Hong%Xu%coreGivesNoEmail%1,         Lili%Wei%coreGivesNoEmail%1,         Lu%H%coreGivesNoEmail%1,         Min%Leng%coreGivesNoEmail%1,         Shi%Ti JC%coreGivesNoEmail%1,         Shuyun%Xing%coreGivesNoEmail%1,         Weathers%F%coreGivesNoEmail%1,         Wenwen%Zhang%coreGivesNoEmail%1,         Xiaohui%Shi%coreGivesNoEmail%1,         Xiaoying%Zhang%coreGivesNoEmail%1,         Yang%T%coreGivesNoEmail%1,         Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,          Anh Kim%Dang%NULL%1,          Jayson%Toweh%NULL%1,          Quang Nhat%Nguyen%NULL%1,          Huong Thi%Le%NULL%1,          Toan Thi Thanh%Do%NULL%1,          Hanh Bich Thi%Phan%NULL%1,          Thao Thanh%Nguyen%NULL%1,          Quan Thi%Pham%NULL%1,          Nhung Kim Thi%Ta%NULL%1,          Quynh Thi%Nguyen%NULL%1,          Anh Ngoc%Nguyen%NULL%1,          Quan%Van Duong%NULL%1,          Men Thi%Hoang%NULL%1,          Hai Quang%Pham%NULL%1,          Linh Gia%Vu%NULL%1,          Bach Xuan%Tran%NULL%1,          Carl A.%Latkin%NULL%1,          Cyrus S. H.%Ho%NULL%1,          Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,          S.%Joo%NULL%1,          P.-A.%Couette%NULL%1,          S.%de Jaegher%NULL%1,          F.%Joly%NULL%1,          X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,          Simeng%Ma%NULL%2,          Ying%Wang%NULL%4,          Zhongxiang%Cai%NULL%2,          Jianbo%Hu%NULL%2,          Ning%Wei%NULL%2,          Jiang%Wu%NULL%3,          Hui%Du%NULL%2,          Tingting%Chen%NULL%2,          Ruiting%Li%NULL%2,          Huawei%Tan%NULL%2,          Lijun%Kang%NULL%2,          Lihua%Yao%NULL%2,          Manli%Huang%NULL%2,          Huafen%Wang%NULL%2,          Gaohua%Wang%NULL%3,          Zhongchun%Liu%NULL%3,          Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,          Mark%Shevlin%NULL%1,          Jamie%Murphy%NULL%1,          Orla%McBride%NULL%1,          Menachem%Ben‐Ezra%NULL%2,          Menachem%Ben‐Ezra%NULL%0,          Richard P.%Bentall%NULL%1,          Frédérique%Vallières%NULL%1,          Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,          Stephanie%Manasse%NULL%2,          Stephanie%Manasse%NULL%0,          Rebecca A.%Krukowski%NULL%2,          Rebecca A.%Krukowski%NULL%0,          Kathryn%Ross%NULL%2,          Kathryn%Ross%NULL%0,          Rebecca%Shakour%NULL%2,          Rebecca%Shakour%NULL%0,          Darci R.%Miller%NULL%1,          Dominick J.%Lemas%NULL%1,          Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,          Xing Lin%Feng%NULL%1,          Xiao Hua%Wang%NULL%2,          Xiao Hua%Wang%NULL%0,          Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,          Berta%Ausín%NULL%1,          Miguel Ángel%Castellanos%NULL%1,          Jesús%Saiz%NULL%1,          Aída%López-Gómez%NULL%1,          Carolina%Ugidos%NULL%1,          Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,          Reyna Jazmín%Martínez Arriaga%NULL%2,          Reyna Jazmín%Martínez Arriaga%NULL%0,          Martha Alicia%Hernández-Gonzalez%NULL%2,          Martha Alicia%Hernández-Gonzalez%NULL%0,          José María%De la Roca-Chiapas%NULL%2,          José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,          Francesca%Favieri%NULL%2,          Francesca%Favieri%NULL%0,          Renata%Tambelli%NULL%2,          Renata%Tambelli%NULL%0,          Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,          Farah%Ghrissi%NULL%1,          Bouthaina%Abbassi%NULL%1,          Wissal%Cherif%NULL%1,          Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,          Enayat M.%Soltan%enayatsoltan@gmail.com%2,          Enayat M.%Soltan%enayatsoltan@gmail.com%0,          Hend M.%Salama%hind_mikhail@yahoo.com%2,          Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,          Charles B%Malpas%NULL%2,          Charles B%Malpas%NULL%0,          Aidan JC%Burrell%NULL%1,          Caroline%Gurvich%NULL%1,          Leo%Chen%NULL%1,          Jayashri%Kulkarni%NULL%1,          Toby%Winton-Brown%NULL%2,          Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,  Annunziata%Romeo%xref no email%1,  Agata%Benfante%xref no email%1,  Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,          Regino%Piñeiro-Lamas%NULL%1,          César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,          Yasmeen%Byrnes%NULL%2,          Yasmeen%Byrnes%NULL%0,          Changgee%Chang%NULL%2,          Aman%Prasad%NULL%1,          Kevin%Chorath%NULL%2,          Kevin%Chorath%NULL%0,          Seerat K.%Poonia%NULL%1,          Carolyn M.%Jenks%NULL%1,          Andrés M.%Bur%NULL%1,          Punam%Thakkar%NULL%2,          Punam%Thakkar%NULL%0,          Evan M.%Graboyes%NULL%2,          Evan M.%Graboyes%NULL%0,          Rahul%Seth%NULL%2,          Rahul%Seth%NULL%0,          Samuel%Trosman%NULL%1,          Anni%Wong%NULL%2,          Anni%Wong%NULL%0,          Benjamin M.%Laitman%NULL%1,          Brianna N.%Harris%NULL%1,          Janki%Shah%NULL%2,          Janki%Shah%NULL%0,          Vanessa%Stubbs%NULL%1,          Garret%Choby%NULL%1,          Qi%Long%NULL%2,          Christopher H.%Rassekh%NULL%1,          Erica%Thaler%NULL%1,          Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,          Antonio%Bertelli%NULL%1,          Antonio%Gonçalves%NULL%1,          Emily%Getzen%NULL%1,          Changgee%Chang%NULL%0,          Qi%Long%NULL%0,          Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,          Benjamin%Becker%NULL%2,          Qian%Yu%NULL%2,          Peter%Willeit%NULL%2,          Can%Jiao%NULL%2,          Liuyue%Huang%NULL%2,          M. Mahhub%Hossain%NULL%2,          Igor%Grabovac%NULL%2,          Albert%Yeung%NULL%2,          Jingyuan%Lin%NULL%2,          Nicola%Veronese%NULL%2,          Jian%Wang%NULL%3,          Xinqi%Zhou%NULL%2,          Scott R.%Doig%NULL%2,          Xiaofeng%Liu%NULL%2,          Andre F.%Carvalho%NULL%2,          Lin%Yang%NULL%4,          Tao%Xiao%NULL%2,          Liye%Zou%NULL%2,          Paolo%Fusar-Poli%NULL%2,          Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,          Jinghao Nicholas%Ngiam%NULL%1,          Benjamin Yong-Qiang%Tan%NULL%2,          Benjamin Yong-Qiang%Tan%NULL%0,          Sai-Meng%Tham%NULL%1,          Celine Yan-Shan%Tan%NULL%1,          Mingxue%Jing%NULL%1,          Renarebecca%Sagayanathan%NULL%1,          Jin Tao%Chen%NULL%1,          Lily Y. H.%Wong%NULL%1,          Aftab%Ahmad%NULL%1,          Faheem Ahmed%Khan%NULL%1,          Maznah%Marmin%NULL%1,          Fadhlina Binte%Hassan%NULL%1,          Tai Mei-Ling%Sharon%NULL%1,          Chin Han%Lim%NULL%1,          Mohamad Iqbal Bin%Mohaini%NULL%1,          Rivan%Danuaji%NULL%1,          Thang H.%Nguyen%NULL%1,          Georgios%Tsivgoulis%NULL%1,          Sotirios%Tsiodras%NULL%1,          Paraskevi C.%Fragkou%NULL%1,          Dimitra%Dimopoulou%NULL%2,          Dimitra%Dimopoulou%NULL%0,          Arvind K.%Sharma%NULL%1,          Kenam%Shah%NULL%1,          Bhargesh%Patel%NULL%1,          Suktara%Sharma%NULL%1,          R. N.%Komalkumar%NULL%1,          R. V.%Meenakshi%NULL%1,          Shikha%Talati%NULL%1,          Hock Luen%Teoh%NULL%1,          Cyrus S.%Ho%NULL%1,          Roger C.%Ho%NULL%0,          Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,          Qin%Cui%NULL%1,          Zhongchun%Liu%NULL%0,          Juanjuan%Li%NULL%1,          Xuan%Gong%NULL%1,          Jingfang%Liu%NULL%1,          Zhiying%Wan%NULL%1,          Xiaoping%Yuan%NULL%1,          Xiaofen%Li%NULL%1,          Chuang%Chen%NULL%1,          Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,         Apostolos%Blekas%coreGivesNoEmail%1,         Eleni%Parlapani%coreGivesNoEmail%1,         Ioannis%Diakogiannis%coreGivesNoEmail%1,         Maria%Athanasiadou%coreGivesNoEmail%1,         Marina%Skoupra%coreGivesNoEmail%1,         Markos%Syngelakis%coreGivesNoEmail%1,         Panteleimon%Voitsidis%coreGivesNoEmail%1,         Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,          Zheng Feei%Ma%NULL%0,          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,          Wanqiu%Tan%NULL%1,          Li%Jiang%NULL%0,          Ling%Zhang%NULL%0,          Xinling%Zhao%NULL%0,          Yiran%Zou%NULL%0,          Yirong%Hu%NULL%0,          Xi%Luo%NULL%0,          Xiaojiang%Jiang%NULL%0,          Roger S.%McIntyre%NULL%0,          Bach%Tran%NULL%0,          Jiaqian%Sun%NULL%1,          Zhisong%Zhang%NULL%0,          Roger%Ho%NULL%0,          Cyrus%Ho%NULL%0,          Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,          Hui%Ren%NULL%1,          Ruilin%Cao%NULL%1,          Yueyang%Hu%NULL%1,          Zeying%Qin%NULL%1,          Chuanen%Li%NULL%1,          Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +3170,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>554</v>
+        <v>681</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -2841,7 +3228,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>555</v>
+        <v>682</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -2870,7 +3257,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>556</v>
+        <v>683</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -2899,7 +3286,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>557</v>
+        <v>684</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -2928,7 +3315,7 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>558</v>
+        <v>685</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -2957,7 +3344,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>559</v>
+        <v>686</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -2986,7 +3373,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>560</v>
+        <v>687</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -3015,7 +3402,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>561</v>
+        <v>688</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -3038,22 +3425,22 @@
         <v>44044</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>622</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>689</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>624</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>625</v>
       </c>
       <c r="I11" t="s">
         <v>97</v>
@@ -3073,7 +3460,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>562</v>
+        <v>690</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -3102,7 +3489,7 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>563</v>
+        <v>691</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3131,7 +3518,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>564</v>
+        <v>692</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -3160,7 +3547,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>565</v>
+        <v>693</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -3189,7 +3576,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>566</v>
+        <v>694</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -3218,7 +3605,7 @@
         <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>567</v>
+        <v>695</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -3247,7 +3634,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>568</v>
+        <v>696</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3276,7 +3663,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>569</v>
+        <v>697</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -3305,7 +3692,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>570</v>
+        <v>698</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -3334,7 +3721,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>571</v>
+        <v>699</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -3363,7 +3750,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>572</v>
+        <v>700</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -3392,7 +3779,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>573</v>
+        <v>701</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -3421,7 +3808,7 @@
         <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>574</v>
+        <v>702</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -3450,7 +3837,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>575</v>
+        <v>703</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -3479,7 +3866,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>576</v>
+        <v>704</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -3508,7 +3895,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>577</v>
+        <v>705</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -3537,7 +3924,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>578</v>
+        <v>706</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -3566,7 +3953,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>579</v>
+        <v>707</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -3595,7 +3982,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>580</v>
+        <v>708</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -3624,7 +4011,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>581</v>
+        <v>709</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -3653,7 +4040,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>582</v>
+        <v>710</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -3682,7 +4069,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>583</v>
+        <v>711</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -3711,7 +4098,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>584</v>
+        <v>712</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -3740,7 +4127,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>585</v>
+        <v>713</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -3769,7 +4156,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>586</v>
+        <v>714</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -3798,7 +4185,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>587</v>
+        <v>715</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -3827,7 +4214,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>588</v>
+        <v>716</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -3885,7 +4272,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>589</v>
+        <v>717</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -3914,7 +4301,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>590</v>
+        <v>718</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -3972,7 +4359,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>591</v>
+        <v>719</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -4001,7 +4388,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>592</v>
+        <v>720</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -4030,7 +4417,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>593</v>
+        <v>721</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -4059,7 +4446,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>594</v>
+        <v>722</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -4088,7 +4475,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>595</v>
+        <v>723</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -4117,7 +4504,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>596</v>
+        <v>724</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -4146,7 +4533,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>597</v>
+        <v>725</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -4175,7 +4562,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -4204,7 +4591,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>599</v>
+        <v>727</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -4233,7 +4620,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>600</v>
+        <v>728</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -4262,7 +4649,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>601</v>
+        <v>729</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -4291,7 +4678,7 @@
         <v>265</v>
       </c>
       <c r="E54" t="s">
-        <v>602</v>
+        <v>730</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -4320,7 +4707,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>603</v>
+        <v>731</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -4343,22 +4730,22 @@
         <v>44166</v>
       </c>
       <c r="C56" t="s">
-        <v>74</v>
+        <v>668</v>
       </c>
       <c r="D56" t="s">
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>624</v>
       </c>
       <c r="H56" t="s">
-        <v>120</v>
+        <v>670</v>
       </c>
       <c r="I56" t="s">
         <v>97</v>
@@ -4378,7 +4765,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>604</v>
+        <v>733</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -4407,7 +4794,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>605</v>
+        <v>734</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -4436,7 +4823,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>606</v>
+        <v>735</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -4465,7 +4852,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>607</v>
+        <v>736</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -4494,7 +4881,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>608</v>
+        <v>737</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -4523,7 +4910,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>609</v>
+        <v>738</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -4552,7 +4939,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>610</v>
+        <v>739</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -4581,7 +4968,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>611</v>
+        <v>740</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -4610,7 +4997,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>612</v>
+        <v>741</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -4639,7 +5026,7 @@
         <v>300</v>
       </c>
       <c r="E66" t="s">
-        <v>613</v>
+        <v>742</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="867">
   <si>
     <t>Doi</t>
   </si>
@@ -2803,6 +2803,378 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,          Hui%Ren%NULL%1,          Ruilin%Cao%NULL%1,          Yueyang%Hu%NULL%1,          Zeying%Qin%NULL%1,          Chuanen%Li%NULL%1,          Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,           Roy F.%Baumeister%NULL%1,           Jennifer C.%Veilleux%NULL%1,           Caixia%Chen%NULL%1,           Wenjun%Liu%NULL%1,           Yongjie%Yue%NULL%1,           Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,           Xiaopeng%Hu%NULL%1,           Ivo Otte%Ekumi%NULL%1,           Jianchun%Wang%NULL%1,           Yawen%An%NULL%1,           Zhiwen%Li%NULL%1,           Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,           Wen%Li%NULL%2,           Yuan%Yang%NULL%4,           Yuan%Yang%NULL%0,           Yu%Wang%NULL%2,           Qinge%Zhang%NULL%1,           Teris%Cheung%NULL%2,           Xinjuan%Wu%NULL%2,           Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,           Cherica A.%Tee%NULL%1,           Joseph P.%Anlacan%NULL%1,           Katrina Joy G.%Aligam%NULL%1,           Patrick Wincy C.%Reyes%NULL%1,           Vipat%Kuruchittham%NULL%1,           Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,           Xiao-You%Su%suxiaoyou@hotmail.com%1,           Yu%Jiang%jiangyu@pumc.edu.cn%2,           Yu%Jiang%jiangyu@pumc.edu.cn%0,           Wen-Jun%Wang%wwjun1973@163.com%1,           Xiao-Fen%Gu%357539328@qq.com%1,           Li%Ma%mali_lele@sina.com%1,           Jing%Li%lijingwcph@scu.edu.cn%0,           Shao-Kai%Zhang%shaokaizhang@126.com%1,           Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,           Ran%Ren%renran99@163.com%1,           Yuan-Li%Liu%liuyuanli_pumc@163.com%1,           You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,           Helena%Garrido-Hernansaiz%NULL%1,           Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,           Xiangfen%Su%suxiangfengfy@163.com%1,           Shuzeng%Zhang%NULL%2,           Shuzeng%Zhang%NULL%0,           Wenjie%Guan%NULL%1,           Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,           Rong-Ning%Chen%NULL%1,           Li-Li%Liu%NULL%1,           Xue-Guo%Li%NULL%1,           Jian-Bin%Chen%NULL%1,           Si-Yao%Tang%NULL%1,           Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,   Jinfeng%Miao%xref no email%2,   Hui%Wang%xref no email%2,   Shabei%Xu%xref no email%2,   Wenzhe%Sun%xref no email%2,   Yebin%Fan%xref no email%2,   Chenyan%Zhang%xref no email%2,   Suiqiang%Zhu%xref no email%2,   Zhou%Zhu%xref no email%2,   Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,           Elisa%Pedroli%NULL%1,           Guido E.%D'Aniello%NULL%1,           Chiara%Stramba Badiale%NULL%1,           Giada%Pietrabissa%NULL%1,           Chiara%Manna%NULL%1,           Marco%Stramba Badiale%NULL%1,           Giuseppe%Riva%NULL%1,           Gianluca%Castelnuovo%NULL%1,           Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,           Qing-xian%Li%NULL%1,           Heng%Zhang%NULL%1,           Jia-yong%Zhu%NULL%1,           Xu%Yang%NULL%1,           Yu-hang%Wu%NULL%1,           Jie%Xiong%NULL%1,           Fu%Li%NULL%1,           Hua%Wang%whzkwlh@126.com%0,           Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,           Charlotte%Coste%NULL%1,           Rocio%Sanchez%NULL%1,           Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,           Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,           Saleh A.%Alrashed%NULL%1,           Ali A.%Alzunaydi%NULL%1,           Ahmed S.%Almohimeed%NULL%1,           Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,           Hui%Shi%NULL%1,           Zhengkui%Liu%NULL%1,           Songxu%Peng%gwxypsx@163.com%2,           Songxu%Peng%gwxypsx@163.com%0,           Ruoxi%Wang%NULL%2,           Ruoxi%Wang%NULL%0,           Ling%Qi%NULL%1,           Zezhi%Li%NULL%1,           Jiezhi%Yang%NULL%1,           Yali%Ren%NULL%1,           Xiuli%Song%NULL%1,           Lingyun%Zeng%NULL%1,           Wei%Qian%NULL%1,           Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,          Khazaie%H.%coreGivesNoEmail%1,          Li%J.%coreGivesNoEmail%1,          Xiaohui%Li%coreGivesNoEmail%1,          Xing%Tan%coreGivesNoEmail%1,          Yuanyuan%An%coreGivesNoEmail%1,          Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,           Zheng Feei%Ma%NULL%4,           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,           Zhuoer%Sun%NULL%3,           Zhuoer%Sun%NULL%0,           Tuanjie%Liu%NULL%1,           Xiong%Ni%NULL%1,           Xuanfeng%Deng%NULL%1,           Yanpu%Jia%NULL%2,           Zhilei%Shang%NULL%2,           Yaoguang%Zhou%NULL%2,           Weizhi%Liu%13024141970@163.com%3,           Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,           N.%Hadjamu%NULL%2,           N.%Hadjamu%NULL%0,           G.%Willmund%NULL%1,           S.%Dolff%NULL%1,           N.%Vonderlin%NULL%1,           R.%Wakili%NULL%1,           J.%Vogel%NULL%1,           T.%Rassaf%NULL%1,           J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,           Riyu%Pan%NULL%1,           Xiaoyang%Wan%NULL%1,           Yilin%Tan%NULL%1,           Linkang%Xu%NULL%1,           Roger S.%McIntyre%NULL%3,           Faith N.%Choo%NULL%1,           Bach%Tran%NULL%3,           Roger%Ho%NULL%3,           Vijay K.%Sharma%NULL%2,           Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,           Jithin Thomas%Parel%NULL%2,           Jithin Thomas%Parel%NULL%0,           Neeraj%Raizada%NULL%2,           Neeraj%Raizada%NULL%0,           Shiv Kumar%Sarin%NULL%1,           Abdallah M.%Samy%NULL%2,           Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,           Rene%Stefitz%NULL%1,           Kerstin%Gaisbachgrabner%NULL%1,           Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,           Tao%Hu%NULL%1,           Baodi%Hu%NULL%1,           Chunhan%Jin%NULL%1,           Gang%Wang%NULL%1,           Chao%Xie%NULL%1,           Sen%Chen%NULL%1,           Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,           Fengyi%Hao%NULL%1,           Roger S.%McIntyre%NULL%0,           Li%Jiang%NULL%2,           Xiaojiang%Jiang%NULL%2,           Ling%Zhang%NULL%2,           Xinling%Zhao%NULL%2,           Yiran%Zou%NULL%2,           Yirong%Hu%NULL%2,           Xi%Luo%NULL%2,           Zhisong%Zhang%NULL%2,           Andre%Lai%NULL%1,           Roger%Ho%NULL%0,           Bach%Tran%NULL%0,           Cyrus%Ho%NULL%0,           Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,           Wenning%Fu%NULL%2,           Xiaoran%Liu%NULL%2,           Zhiqian%Luo%NULL%2,           Rixing%Wang%NULL%2,           Ning%Zhou%NULL%2,           Shijiao%Yan%NULL%3,           Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,           Mark L%Williams%NULL%1,           Benjamin C%Amick%NULL%1,           Teresa J.%Hudson%NULL%1,           Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,           Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,           Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,           Necdet%Sut%necdetsut@yahoo.com%2,           Necdet%Sut%necdetsut@yahoo.com%0,           Selma%Akdogan%drslma.akdogan@gmail.com%2,           Selma%Akdogan%drslma.akdogan@gmail.com%0,           Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,           Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,           Valentina%Socci%NULL%3,           Dalila%Talevi%NULL%1,           Sonia%Mensi%NULL%1,           Cinzia%Niolu%NULL%1,           Francesca%Pacitti%NULL%3,           Antinisca%Di Marco%NULL%3,           Alessandro%Rossi%NULL%3,           Alberto%Siracusano%NULL%3,           Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,           Valentina%Socci%NULL%0,           Francesca%Pacitti%NULL%0,           Giorgio%Di Lorenzo%NULL%0,           Antinisca%Di Marco%NULL%0,           Alberto%Siracusano%NULL%0,           Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,           Marianna%Purgato%NULL%1,           Chiara%Bove%NULL%1,           David%MacTaggart%NULL%1,           Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,           Wei%Chen%NULL%0,           Saiduo%Liu%NULL%2,           Paul M.%Thompson%NULL%2,           Long Jiang%Zhang%NULL%2,           Fei%Xia%NULL%3,           Fang%Cheng%NULL%3,           Ailing%Hong%NULL%2,           Wesley%Surento%NULL%2,           Song%Luo%NULL%2,           Zhi Yuan%Sun%NULL%2,           Chang Sheng%Zhou%NULL%2,           Lingjiang%Li%NULL%2,           Xiangao%Jiang%NULL%2,           Guang Ming%Lu%NULL%2,            R.%Qi%null%2,            W.% Chen%null%2,            S.% Liu%null%2,            P. M.% Thompson%null%2,            L. J.% Zhang%null%2,            F.% Xia%null%2,            F.% Cheng%null%2,            A.% Hong%null%2,            W.% Surento%null%2,            S.% Luo%null%2,            Z. Y.% Sun%null%2,            C. S.% Zhou%null%2,            L.% Li%null%2,            X.% Jiang%null%2,            G. M. % Lu%null%2,          R.%Qi%null%1,          W.% Chen%null%1,          S.% Liu%null%1,          P. M.% Thompson%null%1,          L. J.% Zhang%null%1,          F.% Xia%null%1,          F.% Cheng%null%1,          A.% Hong%null%1,          W.% Surento%null%1,          S.% Luo%null%1,          Z. Y.% Sun%null%1,          C. S.% Zhou%null%1,          L.% Li%null%1,          X.% Jiang%null%1,          G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,           Yutong%Zhang%NULL%2,           Yutong%Zhang%NULL%0,           Xiaoqin%Luo%NULL%1,           Xinli%Li%NULL%1,           Yeshan%Li%NULL%1,           Shuchang%Liu%NULL%1,           Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,           Beatriz%Talavera-Velasco%NULL%2,           Beatriz%Talavera-Velasco%NULL%0,           Yolanda%García-Albuerne%NULL%1,           Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,           Fan%Zhang%NULL%1,           Cun%Wei%NULL%1,           Yanpu%Jia%NULL%0,           Zhilei%Shang%NULL%0,           Luna%Sun%NULL%1,           Lili%Wu%NULL%1,           Zhuoer%Sun%NULL%0,           Yaoguang%Zhou%NULL%0,           Yan%Wang%NULL%1,           Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,           Emily%Zhang%NULL%1,           Ga Tin Fifi%Wong%NULL%1,           Sunah%Hyun%NULL%1,           Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,           Yue%Wang%NULL%1,           Jingwen%Jiang%NULL%1,           Unnur A.%Valdimarsdóttir%NULL%1,           Katja%Fall%NULL%2,           Katja%Fall%NULL%0,           Fang%Fang%NULL%0,           Fang%Fang%NULL%0,           Huan%Song%NULL%1,           Donghao%Lu%NULL%1,           Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,          Chiang%E. S.%coreGivesNoEmail%1,          Fernandez%R.%coreGivesNoEmail%1,          Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,          Ibrahim%H.%coreGivesNoEmail%1,          Lee%B.%coreGivesNoEmail%1,          Shi%L.%coreGivesNoEmail%1,          Sun%N.%coreGivesNoEmail%1,          Tsay%S.\u2010F.%coreGivesNoEmail%1,          World%Health Organisation%coreGivesNoEmail%2,          World%Health Organisation%coreGivesNoEmail%0,          Xiaoyue%Xu%coreGivesNoEmail%1,          Xiuchuan%Li%coreGivesNoEmail%1,          Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,           Peixin%Lu%NULL%1,           Lianting%Hu%NULL%1,           Tianhui%Huang%NULL%1,           Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,          Holly%Wei%coreGivesNoEmail%1,          Hong%Xu%coreGivesNoEmail%1,          Lili%Wei%coreGivesNoEmail%1,          Lu%H%coreGivesNoEmail%1,          Min%Leng%coreGivesNoEmail%1,          Shi%Ti JC%coreGivesNoEmail%1,          Shuyun%Xing%coreGivesNoEmail%1,          Weathers%F%coreGivesNoEmail%1,          Wenwen%Zhang%coreGivesNoEmail%1,          Xiaohui%Shi%coreGivesNoEmail%1,          Xiaoying%Zhang%coreGivesNoEmail%1,          Yang%T%coreGivesNoEmail%1,          Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,           Anh Kim%Dang%NULL%1,           Jayson%Toweh%NULL%1,           Quang Nhat%Nguyen%NULL%1,           Huong Thi%Le%NULL%1,           Toan Thi Thanh%Do%NULL%1,           Hanh Bich Thi%Phan%NULL%1,           Thao Thanh%Nguyen%NULL%1,           Quan Thi%Pham%NULL%1,           Nhung Kim Thi%Ta%NULL%1,           Quynh Thi%Nguyen%NULL%1,           Anh Ngoc%Nguyen%NULL%1,           Quan%Van Duong%NULL%1,           Men Thi%Hoang%NULL%1,           Hai Quang%Pham%NULL%1,           Linh Gia%Vu%NULL%1,           Bach Xuan%Tran%NULL%1,           Carl A.%Latkin%NULL%1,           Cyrus S. H.%Ho%NULL%1,           Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,           S.%Joo%NULL%1,           P.-A.%Couette%NULL%1,           S.%de Jaegher%NULL%1,           F.%Joly%NULL%1,           X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,           Simeng%Ma%NULL%2,           Ying%Wang%NULL%4,           Zhongxiang%Cai%NULL%2,           Jianbo%Hu%NULL%2,           Ning%Wei%NULL%2,           Jiang%Wu%NULL%3,           Hui%Du%NULL%2,           Tingting%Chen%NULL%2,           Ruiting%Li%NULL%2,           Huawei%Tan%NULL%2,           Lijun%Kang%NULL%2,           Lihua%Yao%NULL%2,           Manli%Huang%NULL%2,           Huafen%Wang%NULL%2,           Gaohua%Wang%NULL%3,           Zhongchun%Liu%NULL%3,           Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,           Mark%Shevlin%NULL%1,           Jamie%Murphy%NULL%1,           Orla%McBride%NULL%1,           Menachem%Ben‐Ezra%NULL%2,           Menachem%Ben‐Ezra%NULL%0,           Richard P.%Bentall%NULL%1,           Frédérique%Vallières%NULL%1,           Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,           Stephanie%Manasse%NULL%2,           Stephanie%Manasse%NULL%0,           Rebecca A.%Krukowski%NULL%2,           Rebecca A.%Krukowski%NULL%0,           Kathryn%Ross%NULL%2,           Kathryn%Ross%NULL%0,           Rebecca%Shakour%NULL%2,           Rebecca%Shakour%NULL%0,           Darci R.%Miller%NULL%1,           Dominick J.%Lemas%NULL%1,           Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,           Xing Lin%Feng%NULL%1,           Xiao Hua%Wang%NULL%2,           Xiao Hua%Wang%NULL%0,           Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,           Berta%Ausín%NULL%1,           Miguel Ángel%Castellanos%NULL%1,           Jesús%Saiz%NULL%1,           Aída%López-Gómez%NULL%1,           Carolina%Ugidos%NULL%1,           Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,           Reyna Jazmín%Martínez Arriaga%NULL%2,           Reyna Jazmín%Martínez Arriaga%NULL%0,           Martha Alicia%Hernández-Gonzalez%NULL%2,           Martha Alicia%Hernández-Gonzalez%NULL%0,           José María%De la Roca-Chiapas%NULL%2,           José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,           Francesca%Favieri%NULL%2,           Francesca%Favieri%NULL%0,           Renata%Tambelli%NULL%2,           Renata%Tambelli%NULL%0,           Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,           Farah%Ghrissi%NULL%1,           Bouthaina%Abbassi%NULL%1,           Wissal%Cherif%NULL%1,           Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,           Enayat M.%Soltan%enayatsoltan@gmail.com%2,           Enayat M.%Soltan%enayatsoltan@gmail.com%0,           Hend M.%Salama%hind_mikhail@yahoo.com%2,           Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,           Charles B%Malpas%NULL%2,           Charles B%Malpas%NULL%0,           Aidan JC%Burrell%NULL%1,           Caroline%Gurvich%NULL%1,           Leo%Chen%NULL%1,           Jayashri%Kulkarni%NULL%1,           Toby%Winton-Brown%NULL%2,           Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,   Annunziata%Romeo%xref no email%1,   Agata%Benfante%xref no email%1,   Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,           Regino%Piñeiro-Lamas%NULL%1,           César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,           Yasmeen%Byrnes%NULL%2,           Yasmeen%Byrnes%NULL%0,           Changgee%Chang%NULL%2,           Aman%Prasad%NULL%1,           Kevin%Chorath%NULL%2,           Kevin%Chorath%NULL%0,           Seerat K.%Poonia%NULL%1,           Carolyn M.%Jenks%NULL%1,           Andrés M.%Bur%NULL%1,           Punam%Thakkar%NULL%2,           Punam%Thakkar%NULL%0,           Evan M.%Graboyes%NULL%2,           Evan M.%Graboyes%NULL%0,           Rahul%Seth%NULL%2,           Rahul%Seth%NULL%0,           Samuel%Trosman%NULL%1,           Anni%Wong%NULL%2,           Anni%Wong%NULL%0,           Benjamin M.%Laitman%NULL%1,           Brianna N.%Harris%NULL%1,           Janki%Shah%NULL%2,           Janki%Shah%NULL%0,           Vanessa%Stubbs%NULL%1,           Garret%Choby%NULL%1,           Qi%Long%NULL%2,           Christopher H.%Rassekh%NULL%1,           Erica%Thaler%NULL%1,           Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,           Antonio%Bertelli%NULL%1,           Antonio%Gonçalves%NULL%1,           Emily%Getzen%NULL%1,           Changgee%Chang%NULL%0,           Qi%Long%NULL%0,           Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,           Benjamin%Becker%NULL%2,           Qian%Yu%NULL%2,           Peter%Willeit%NULL%2,           Can%Jiao%NULL%2,           Liuyue%Huang%NULL%2,           M. Mahhub%Hossain%NULL%2,           Igor%Grabovac%NULL%2,           Albert%Yeung%NULL%2,           Jingyuan%Lin%NULL%2,           Nicola%Veronese%NULL%2,           Jian%Wang%NULL%3,           Xinqi%Zhou%NULL%2,           Scott R.%Doig%NULL%2,           Xiaofeng%Liu%NULL%2,           Andre F.%Carvalho%NULL%2,           Lin%Yang%NULL%4,           Tao%Xiao%NULL%2,           Liye%Zou%NULL%2,           Paolo%Fusar-Poli%NULL%2,           Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,           Jinghao Nicholas%Ngiam%NULL%1,           Benjamin Yong-Qiang%Tan%NULL%2,           Benjamin Yong-Qiang%Tan%NULL%0,           Sai-Meng%Tham%NULL%1,           Celine Yan-Shan%Tan%NULL%1,           Mingxue%Jing%NULL%1,           Renarebecca%Sagayanathan%NULL%1,           Jin Tao%Chen%NULL%1,           Lily Y. H.%Wong%NULL%1,           Aftab%Ahmad%NULL%1,           Faheem Ahmed%Khan%NULL%1,           Maznah%Marmin%NULL%1,           Fadhlina Binte%Hassan%NULL%1,           Tai Mei-Ling%Sharon%NULL%1,           Chin Han%Lim%NULL%1,           Mohamad Iqbal Bin%Mohaini%NULL%1,           Rivan%Danuaji%NULL%1,           Thang H.%Nguyen%NULL%1,           Georgios%Tsivgoulis%NULL%1,           Sotirios%Tsiodras%NULL%1,           Paraskevi C.%Fragkou%NULL%1,           Dimitra%Dimopoulou%NULL%2,           Dimitra%Dimopoulou%NULL%0,           Arvind K.%Sharma%NULL%1,           Kenam%Shah%NULL%1,           Bhargesh%Patel%NULL%1,           Suktara%Sharma%NULL%1,           R. N.%Komalkumar%NULL%1,           R. V.%Meenakshi%NULL%1,           Shikha%Talati%NULL%1,           Hock Luen%Teoh%NULL%1,           Cyrus S.%Ho%NULL%1,           Roger C.%Ho%NULL%0,           Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,           Qin%Cui%NULL%1,           Zhongchun%Liu%NULL%0,           Juanjuan%Li%NULL%1,           Xuan%Gong%NULL%1,           Jingfang%Liu%NULL%1,           Zhiying%Wan%NULL%1,           Xiaoping%Yuan%NULL%1,           Xiaofen%Li%NULL%1,           Chuang%Chen%NULL%1,           Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,          Apostolos%Blekas%coreGivesNoEmail%1,          Eleni%Parlapani%coreGivesNoEmail%1,          Ioannis%Diakogiannis%coreGivesNoEmail%1,          Maria%Athanasiadou%coreGivesNoEmail%1,          Marina%Skoupra%coreGivesNoEmail%1,          Markos%Syngelakis%coreGivesNoEmail%1,          Panteleimon%Voitsidis%coreGivesNoEmail%1,          Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,           Zheng Feei%Ma%NULL%0,           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,           Wanqiu%Tan%NULL%1,           Li%Jiang%NULL%0,           Ling%Zhang%NULL%0,           Xinling%Zhao%NULL%0,           Yiran%Zou%NULL%0,           Yirong%Hu%NULL%0,           Xi%Luo%NULL%0,           Xiaojiang%Jiang%NULL%0,           Roger S.%McIntyre%NULL%0,           Bach%Tran%NULL%0,           Jiaqian%Sun%NULL%1,           Zhisong%Zhang%NULL%0,           Roger%Ho%NULL%0,           Cyrus%Ho%NULL%0,           Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,           Hui%Ren%NULL%1,           Ruilin%Cao%NULL%1,           Yueyang%Hu%NULL%1,           Zeying%Qin%NULL%1,           Chuanen%Li%NULL%1,           Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,            Roy F.%Baumeister%NULL%1,            Jennifer C.%Veilleux%NULL%1,            Caixia%Chen%NULL%1,            Wenjun%Liu%NULL%1,            Yongjie%Yue%NULL%1,            Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,            Xiaopeng%Hu%NULL%1,            Ivo Otte%Ekumi%NULL%1,            Jianchun%Wang%NULL%1,            Yawen%An%NULL%1,            Zhiwen%Li%NULL%1,            Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,            Wen%Li%NULL%2,            Yuan%Yang%NULL%4,            Yuan%Yang%NULL%0,            Yu%Wang%NULL%2,            Qinge%Zhang%NULL%1,            Teris%Cheung%NULL%2,            Xinjuan%Wu%NULL%2,            Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,            Cherica A.%Tee%NULL%1,            Joseph P.%Anlacan%NULL%1,            Katrina Joy G.%Aligam%NULL%1,            Patrick Wincy C.%Reyes%NULL%1,            Vipat%Kuruchittham%NULL%1,            Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,            Xiao-You%Su%suxiaoyou@hotmail.com%1,            Yu%Jiang%jiangyu@pumc.edu.cn%2,            Yu%Jiang%jiangyu@pumc.edu.cn%0,            Wen-Jun%Wang%wwjun1973@163.com%1,            Xiao-Fen%Gu%357539328@qq.com%1,            Li%Ma%mali_lele@sina.com%1,            Jing%Li%lijingwcph@scu.edu.cn%0,            Shao-Kai%Zhang%shaokaizhang@126.com%1,            Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,            Ran%Ren%renran99@163.com%1,            Yuan-Li%Liu%liuyuanli_pumc@163.com%1,            You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,            Helena%Garrido-Hernansaiz%NULL%1,            Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,            Xiangfen%Su%suxiangfengfy@163.com%1,            Shuzeng%Zhang%NULL%2,            Shuzeng%Zhang%NULL%0,            Wenjie%Guan%NULL%1,            Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,            Rong-Ning%Chen%NULL%1,            Li-Li%Liu%NULL%1,            Xue-Guo%Li%NULL%1,            Jian-Bin%Chen%NULL%1,            Si-Yao%Tang%NULL%1,            Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,    Jinfeng%Miao%xref no email%2,    Hui%Wang%xref no email%2,    Shabei%Xu%xref no email%2,    Wenzhe%Sun%xref no email%2,    Yebin%Fan%xref no email%2,    Chenyan%Zhang%xref no email%2,    Suiqiang%Zhu%xref no email%2,    Zhou%Zhu%xref no email%2,    Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,            Elisa%Pedroli%NULL%1,            Guido E.%D'Aniello%NULL%1,            Chiara%Stramba Badiale%NULL%1,            Giada%Pietrabissa%NULL%1,            Chiara%Manna%NULL%1,            Marco%Stramba Badiale%NULL%1,            Giuseppe%Riva%NULL%1,            Gianluca%Castelnuovo%NULL%1,            Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,            Qing-xian%Li%NULL%1,            Heng%Zhang%NULL%1,            Jia-yong%Zhu%NULL%1,            Xu%Yang%NULL%1,            Yu-hang%Wu%NULL%1,            Jie%Xiong%NULL%1,            Fu%Li%NULL%1,            Hua%Wang%whzkwlh@126.com%0,            Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,            Charlotte%Coste%NULL%1,            Rocio%Sanchez%NULL%1,            Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,            Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,            Saleh A.%Alrashed%NULL%1,            Ali A.%Alzunaydi%NULL%1,            Ahmed S.%Almohimeed%NULL%1,            Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,            Hui%Shi%NULL%1,            Zhengkui%Liu%NULL%1,            Songxu%Peng%gwxypsx@163.com%2,            Songxu%Peng%gwxypsx@163.com%0,            Ruoxi%Wang%NULL%2,            Ruoxi%Wang%NULL%0,            Ling%Qi%NULL%1,            Zezhi%Li%NULL%1,            Jiezhi%Yang%NULL%1,            Yali%Ren%NULL%1,            Xiuli%Song%NULL%1,            Lingyun%Zeng%NULL%1,            Wei%Qian%NULL%1,            Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,           Khazaie%H.%coreGivesNoEmail%1,           Li%J.%coreGivesNoEmail%1,           Xiaohui%Li%coreGivesNoEmail%1,           Xing%Tan%coreGivesNoEmail%1,           Yuanyuan%An%coreGivesNoEmail%1,           Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,            Zheng Feei%Ma%NULL%4,            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,            Zhuoer%Sun%NULL%3,            Zhuoer%Sun%NULL%0,            Tuanjie%Liu%NULL%1,            Xiong%Ni%NULL%1,            Xuanfeng%Deng%NULL%1,            Yanpu%Jia%NULL%2,            Zhilei%Shang%NULL%2,            Yaoguang%Zhou%NULL%2,            Weizhi%Liu%13024141970@163.com%3,            Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,            N.%Hadjamu%NULL%2,            N.%Hadjamu%NULL%0,            G.%Willmund%NULL%1,            S.%Dolff%NULL%1,            N.%Vonderlin%NULL%1,            R.%Wakili%NULL%1,            J.%Vogel%NULL%1,            T.%Rassaf%NULL%1,            J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,            Riyu%Pan%NULL%1,            Xiaoyang%Wan%NULL%1,            Yilin%Tan%NULL%1,            Linkang%Xu%NULL%1,            Roger S.%McIntyre%NULL%3,            Faith N.%Choo%NULL%1,            Bach%Tran%NULL%3,            Roger%Ho%NULL%3,            Vijay K.%Sharma%NULL%2,            Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,            Jithin Thomas%Parel%NULL%2,            Jithin Thomas%Parel%NULL%0,            Neeraj%Raizada%NULL%2,            Neeraj%Raizada%NULL%0,            Shiv Kumar%Sarin%NULL%1,            Abdallah M.%Samy%NULL%2,            Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,            Rene%Stefitz%NULL%1,            Kerstin%Gaisbachgrabner%NULL%1,            Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,            Tao%Hu%NULL%1,            Baodi%Hu%NULL%1,            Chunhan%Jin%NULL%1,            Gang%Wang%NULL%1,            Chao%Xie%NULL%1,            Sen%Chen%NULL%1,            Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,            Fengyi%Hao%NULL%1,            Roger S.%McIntyre%NULL%0,            Li%Jiang%NULL%2,            Xiaojiang%Jiang%NULL%2,            Ling%Zhang%NULL%2,            Xinling%Zhao%NULL%2,            Yiran%Zou%NULL%2,            Yirong%Hu%NULL%2,            Xi%Luo%NULL%2,            Zhisong%Zhang%NULL%2,            Andre%Lai%NULL%1,            Roger%Ho%NULL%0,            Bach%Tran%NULL%0,            Cyrus%Ho%NULL%0,            Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,            Wenning%Fu%NULL%2,            Xiaoran%Liu%NULL%2,            Zhiqian%Luo%NULL%2,            Rixing%Wang%NULL%2,            Ning%Zhou%NULL%2,            Shijiao%Yan%NULL%3,            Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,            Mark L%Williams%NULL%1,            Benjamin C%Amick%NULL%1,            Teresa J.%Hudson%NULL%1,            Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,            Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,            Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,            Necdet%Sut%necdetsut@yahoo.com%2,            Necdet%Sut%necdetsut@yahoo.com%0,            Selma%Akdogan%drslma.akdogan@gmail.com%2,            Selma%Akdogan%drslma.akdogan@gmail.com%0,            Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,            Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,            Valentina%Socci%NULL%3,            Dalila%Talevi%NULL%1,            Sonia%Mensi%NULL%1,            Cinzia%Niolu%NULL%1,            Francesca%Pacitti%NULL%3,            Antinisca%Di Marco%NULL%3,            Alessandro%Rossi%NULL%3,            Alberto%Siracusano%NULL%3,            Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,            Valentina%Socci%NULL%0,            Francesca%Pacitti%NULL%0,            Giorgio%Di Lorenzo%NULL%0,            Antinisca%Di Marco%NULL%0,            Alberto%Siracusano%NULL%0,            Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,            Marianna%Purgato%NULL%1,            Chiara%Bove%NULL%1,            David%MacTaggart%NULL%1,            Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,            Wei%Chen%NULL%0,            Saiduo%Liu%NULL%2,            Paul M.%Thompson%NULL%2,            Long Jiang%Zhang%NULL%2,            Fei%Xia%NULL%3,            Fang%Cheng%NULL%3,            Ailing%Hong%NULL%2,            Wesley%Surento%NULL%2,            Song%Luo%NULL%2,            Zhi Yuan%Sun%NULL%2,            Chang Sheng%Zhou%NULL%2,            Lingjiang%Li%NULL%2,            Xiangao%Jiang%NULL%2,            Guang Ming%Lu%NULL%2,             R.%Qi%null%2,             W.% Chen%null%2,             S.% Liu%null%2,             P. M.% Thompson%null%2,             L. J.% Zhang%null%2,             F.% Xia%null%2,             F.% Cheng%null%2,             A.% Hong%null%2,             W.% Surento%null%2,             S.% Luo%null%2,             Z. Y.% Sun%null%2,             C. S.% Zhou%null%2,             L.% Li%null%2,             X.% Jiang%null%2,             G. M. % Lu%null%2,           R.%Qi%null%1,           W.% Chen%null%1,           S.% Liu%null%1,           P. M.% Thompson%null%1,           L. J.% Zhang%null%1,           F.% Xia%null%1,           F.% Cheng%null%1,           A.% Hong%null%1,           W.% Surento%null%1,           S.% Luo%null%1,           Z. Y.% Sun%null%1,           C. S.% Zhou%null%1,           L.% Li%null%1,           X.% Jiang%null%1,           G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,            Yutong%Zhang%NULL%2,            Yutong%Zhang%NULL%0,            Xiaoqin%Luo%NULL%1,            Xinli%Li%NULL%1,            Yeshan%Li%NULL%1,            Shuchang%Liu%NULL%1,            Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,            Beatriz%Talavera-Velasco%NULL%2,            Beatriz%Talavera-Velasco%NULL%0,            Yolanda%García-Albuerne%NULL%1,            Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,            Fan%Zhang%NULL%1,            Cun%Wei%NULL%1,            Yanpu%Jia%NULL%0,            Zhilei%Shang%NULL%0,            Luna%Sun%NULL%1,            Lili%Wu%NULL%1,            Zhuoer%Sun%NULL%0,            Yaoguang%Zhou%NULL%0,            Yan%Wang%NULL%1,            Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,            Emily%Zhang%NULL%1,            Ga Tin Fifi%Wong%NULL%1,            Sunah%Hyun%NULL%1,            Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,            Yue%Wang%NULL%1,            Jingwen%Jiang%NULL%1,            Unnur A.%Valdimarsdóttir%NULL%1,            Katja%Fall%NULL%2,            Katja%Fall%NULL%0,            Fang%Fang%NULL%4,            Fang%Fang%NULL%0,            Huan%Song%NULL%1,            Donghao%Lu%NULL%1,            Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,           Chiang%E. S.%coreGivesNoEmail%1,           Fernandez%R.%coreGivesNoEmail%1,           Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,           Ibrahim%H.%coreGivesNoEmail%1,           Lee%B.%coreGivesNoEmail%1,           Shi%L.%coreGivesNoEmail%1,           Sun%N.%coreGivesNoEmail%1,           Tsay%S.\u2010F.%coreGivesNoEmail%1,           World%Health Organisation%coreGivesNoEmail%2,           World%Health Organisation%coreGivesNoEmail%0,           Xiaoyue%Xu%coreGivesNoEmail%1,           Xiuchuan%Li%coreGivesNoEmail%1,           Ying%Zhou%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,            Peixin%Lu%NULL%1,            Lianting%Hu%NULL%1,            Tianhui%Huang%NULL%1,            Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,           Holly%Wei%coreGivesNoEmail%1,           Hong%Xu%coreGivesNoEmail%1,           Lili%Wei%coreGivesNoEmail%1,           Lu%H%coreGivesNoEmail%1,           Min%Leng%coreGivesNoEmail%1,           Shi%Ti JC%coreGivesNoEmail%1,           Shuyun%Xing%coreGivesNoEmail%1,           Weathers%F%coreGivesNoEmail%1,           Wenwen%Zhang%coreGivesNoEmail%1,           Xiaohui%Shi%coreGivesNoEmail%1,           Xiaoying%Zhang%coreGivesNoEmail%1,           Yang%T%coreGivesNoEmail%1,           Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,            Anh Kim%Dang%NULL%1,            Jayson%Toweh%NULL%1,            Quang Nhat%Nguyen%NULL%1,            Huong Thi%Le%NULL%1,            Toan Thi Thanh%Do%NULL%1,            Hanh Bich Thi%Phan%NULL%1,            Thao Thanh%Nguyen%NULL%1,            Quan Thi%Pham%NULL%1,            Nhung Kim Thi%Ta%NULL%1,            Quynh Thi%Nguyen%NULL%1,            Anh Ngoc%Nguyen%NULL%1,            Quan%Van Duong%NULL%1,            Men Thi%Hoang%NULL%1,            Hai Quang%Pham%NULL%1,            Linh Gia%Vu%NULL%1,            Bach Xuan%Tran%NULL%1,            Carl A.%Latkin%NULL%1,            Cyrus S. H.%Ho%NULL%1,            Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,            S.%Joo%NULL%1,            P.-A.%Couette%NULL%1,            S.%de Jaegher%NULL%1,            F.%Joly%NULL%1,            X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,            Simeng%Ma%NULL%2,            Ying%Wang%NULL%4,            Zhongxiang%Cai%NULL%2,            Jianbo%Hu%NULL%2,            Ning%Wei%NULL%2,            Jiang%Wu%NULL%3,            Hui%Du%NULL%2,            Tingting%Chen%NULL%2,            Ruiting%Li%NULL%2,            Huawei%Tan%NULL%2,            Lijun%Kang%NULL%2,            Lihua%Yao%NULL%2,            Manli%Huang%NULL%2,            Huafen%Wang%NULL%2,            Gaohua%Wang%NULL%3,            Zhongchun%Liu%NULL%3,            Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,            Mark%Shevlin%NULL%1,            Jamie%Murphy%NULL%1,            Orla%McBride%NULL%1,            Menachem%Ben‐Ezra%NULL%2,            Menachem%Ben‐Ezra%NULL%0,            Richard P.%Bentall%NULL%1,            Frédérique%Vallières%NULL%1,            Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,            Stephanie%Manasse%NULL%2,            Stephanie%Manasse%NULL%0,            Rebecca A.%Krukowski%NULL%2,            Rebecca A.%Krukowski%NULL%0,            Kathryn%Ross%NULL%2,            Kathryn%Ross%NULL%0,            Rebecca%Shakour%NULL%2,            Rebecca%Shakour%NULL%0,            Darci R.%Miller%NULL%1,            Dominick J.%Lemas%NULL%1,            Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,            Xing Lin%Feng%NULL%1,            Xiao Hua%Wang%NULL%2,            Xiao Hua%Wang%NULL%0,            Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,            Berta%Ausín%NULL%1,            Miguel Ángel%Castellanos%NULL%1,            Jesús%Saiz%NULL%1,            Aída%López-Gómez%NULL%1,            Carolina%Ugidos%NULL%1,            Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,            Reyna Jazmín%Martínez Arriaga%NULL%2,            Reyna Jazmín%Martínez Arriaga%NULL%0,            Martha Alicia%Hernández-Gonzalez%NULL%2,            Martha Alicia%Hernández-Gonzalez%NULL%0,            José María%De la Roca-Chiapas%NULL%2,            José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,            Francesca%Favieri%NULL%2,            Francesca%Favieri%NULL%0,            Renata%Tambelli%NULL%2,            Renata%Tambelli%NULL%0,            Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,            Farah%Ghrissi%NULL%1,            Bouthaina%Abbassi%NULL%1,            Wissal%Cherif%NULL%1,            Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,            Enayat M.%Soltan%enayatsoltan@gmail.com%2,            Enayat M.%Soltan%enayatsoltan@gmail.com%0,            Hend M.%Salama%hind_mikhail@yahoo.com%2,            Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,            Charles B%Malpas%NULL%2,            Charles B%Malpas%NULL%0,            Aidan JC%Burrell%NULL%1,            Caroline%Gurvich%NULL%1,            Leo%Chen%NULL%1,            Jayashri%Kulkarni%NULL%1,            Toby%Winton-Brown%NULL%2,            Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,    Annunziata%Romeo%xref no email%1,    Agata%Benfante%xref no email%1,    Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,            Regino%Piñeiro-Lamas%NULL%1,            César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,            Yasmeen%Byrnes%NULL%2,            Yasmeen%Byrnes%NULL%0,            Changgee%Chang%NULL%2,            Aman%Prasad%NULL%1,            Kevin%Chorath%NULL%2,            Kevin%Chorath%NULL%0,            Seerat K.%Poonia%NULL%1,            Carolyn M.%Jenks%NULL%1,            Andrés M.%Bur%NULL%1,            Punam%Thakkar%NULL%2,            Punam%Thakkar%NULL%0,            Evan M.%Graboyes%NULL%2,            Evan M.%Graboyes%NULL%0,            Rahul%Seth%NULL%2,            Rahul%Seth%NULL%0,            Samuel%Trosman%NULL%1,            Anni%Wong%NULL%2,            Anni%Wong%NULL%0,            Benjamin M.%Laitman%NULL%1,            Brianna N.%Harris%NULL%1,            Janki%Shah%NULL%2,            Janki%Shah%NULL%0,            Vanessa%Stubbs%NULL%1,            Garret%Choby%NULL%1,            Qi%Long%NULL%2,            Christopher H.%Rassekh%NULL%1,            Erica%Thaler%NULL%1,            Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,            Antonio%Bertelli%NULL%1,            Antonio%Gonçalves%NULL%1,            Emily%Getzen%NULL%1,            Changgee%Chang%NULL%0,            Qi%Long%NULL%0,            Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,            Benjamin%Becker%NULL%2,            Qian%Yu%NULL%2,            Peter%Willeit%NULL%2,            Can%Jiao%NULL%2,            Liuyue%Huang%NULL%2,            M. Mahhub%Hossain%NULL%2,            Igor%Grabovac%NULL%2,            Albert%Yeung%NULL%2,            Jingyuan%Lin%NULL%2,            Nicola%Veronese%NULL%2,            Jian%Wang%NULL%3,            Xinqi%Zhou%NULL%2,            Scott R.%Doig%NULL%2,            Xiaofeng%Liu%NULL%2,            Andre F.%Carvalho%NULL%2,            Lin%Yang%NULL%4,            Tao%Xiao%NULL%2,            Liye%Zou%NULL%2,            Paolo%Fusar-Poli%NULL%2,            Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,            Jinghao Nicholas%Ngiam%NULL%1,            Benjamin Yong-Qiang%Tan%NULL%2,            Benjamin Yong-Qiang%Tan%NULL%0,            Sai-Meng%Tham%NULL%1,            Celine Yan-Shan%Tan%NULL%1,            Mingxue%Jing%NULL%1,            Renarebecca%Sagayanathan%NULL%1,            Jin Tao%Chen%NULL%1,            Lily Y. H.%Wong%NULL%1,            Aftab%Ahmad%NULL%1,            Faheem Ahmed%Khan%NULL%1,            Maznah%Marmin%NULL%1,            Fadhlina Binte%Hassan%NULL%1,            Tai Mei-Ling%Sharon%NULL%1,            Chin Han%Lim%NULL%1,            Mohamad Iqbal Bin%Mohaini%NULL%1,            Rivan%Danuaji%NULL%1,            Thang H.%Nguyen%NULL%1,            Georgios%Tsivgoulis%NULL%1,            Sotirios%Tsiodras%NULL%1,            Paraskevi C.%Fragkou%NULL%1,            Dimitra%Dimopoulou%NULL%2,            Dimitra%Dimopoulou%NULL%0,            Arvind K.%Sharma%NULL%1,            Kenam%Shah%NULL%1,            Bhargesh%Patel%NULL%1,            Suktara%Sharma%NULL%1,            R. N.%Komalkumar%NULL%1,            R. V.%Meenakshi%NULL%1,            Shikha%Talati%NULL%1,            Hock Luen%Teoh%NULL%1,            Cyrus S.%Ho%NULL%1,            Roger C.%Ho%NULL%0,            Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,            Qin%Cui%NULL%1,            Zhongchun%Liu%NULL%0,            Juanjuan%Li%NULL%1,            Xuan%Gong%NULL%1,            Jingfang%Liu%NULL%1,            Zhiying%Wan%NULL%1,            Xiaoping%Yuan%NULL%1,            Xiaofen%Li%NULL%1,            Chuang%Chen%NULL%1,            Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,           Apostolos%Blekas%coreGivesNoEmail%1,           Eleni%Parlapani%coreGivesNoEmail%1,           Ioannis%Diakogiannis%coreGivesNoEmail%1,           Maria%Athanasiadou%coreGivesNoEmail%1,           Marina%Skoupra%coreGivesNoEmail%1,           Markos%Syngelakis%coreGivesNoEmail%1,           Panteleimon%Voitsidis%coreGivesNoEmail%1,           Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,            Zheng Feei%Ma%NULL%0,            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,            Wanqiu%Tan%NULL%1,            Li%Jiang%NULL%0,            Ling%Zhang%NULL%0,            Xinling%Zhao%NULL%0,            Yiran%Zou%NULL%0,            Yirong%Hu%NULL%0,            Xi%Luo%NULL%0,            Xiaojiang%Jiang%NULL%0,            Roger S.%McIntyre%NULL%0,            Bach%Tran%NULL%0,            Jiaqian%Sun%NULL%1,            Zhisong%Zhang%NULL%0,            Roger%Ho%NULL%0,            Cyrus%Ho%NULL%0,            Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,            Hui%Ren%NULL%1,            Ruilin%Cao%NULL%1,            Yueyang%Hu%NULL%1,            Zeying%Qin%NULL%1,            Chuanen%Li%NULL%1,            Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3170,7 +3542,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>681</v>
+        <v>805</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -3228,7 +3600,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>682</v>
+        <v>806</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -3257,7 +3629,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>807</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -3286,7 +3658,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>684</v>
+        <v>808</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -3315,7 +3687,7 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>685</v>
+        <v>809</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -3344,7 +3716,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>686</v>
+        <v>810</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -3373,7 +3745,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>811</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -3402,7 +3774,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>812</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -3431,7 +3803,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>689</v>
+        <v>813</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3460,7 +3832,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>690</v>
+        <v>814</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -3489,7 +3861,7 @@
         <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>691</v>
+        <v>815</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3518,7 +3890,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>692</v>
+        <v>816</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -3547,7 +3919,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>693</v>
+        <v>817</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -3576,7 +3948,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>694</v>
+        <v>818</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -3605,7 +3977,7 @@
         <v>139</v>
       </c>
       <c r="E17" t="s">
-        <v>695</v>
+        <v>819</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -3634,7 +4006,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>696</v>
+        <v>820</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3663,7 +4035,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>697</v>
+        <v>821</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -3692,7 +4064,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>698</v>
+        <v>822</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -3721,7 +4093,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>699</v>
+        <v>823</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -3750,7 +4122,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>700</v>
+        <v>824</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -3779,7 +4151,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>701</v>
+        <v>825</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -3808,7 +4180,7 @@
         <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>702</v>
+        <v>826</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -3837,7 +4209,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>703</v>
+        <v>827</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -3866,7 +4238,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>704</v>
+        <v>828</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -3895,7 +4267,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>705</v>
+        <v>829</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -3924,7 +4296,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>706</v>
+        <v>830</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -3953,7 +4325,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>707</v>
+        <v>831</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -3982,7 +4354,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>708</v>
+        <v>832</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -4011,7 +4383,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>709</v>
+        <v>833</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -4040,7 +4412,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>710</v>
+        <v>834</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -4069,7 +4441,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>711</v>
+        <v>835</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -4098,7 +4470,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>712</v>
+        <v>836</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -4127,7 +4499,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>713</v>
+        <v>837</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -4156,7 +4528,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>714</v>
+        <v>838</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -4185,7 +4557,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>715</v>
+        <v>839</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -4214,7 +4586,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -4272,7 +4644,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>717</v>
+        <v>841</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -4301,7 +4673,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>718</v>
+        <v>842</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -4359,7 +4731,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>719</v>
+        <v>843</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -4388,7 +4760,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>720</v>
+        <v>844</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -4417,7 +4789,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>721</v>
+        <v>845</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -4446,7 +4818,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>722</v>
+        <v>846</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -4475,7 +4847,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>723</v>
+        <v>847</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -4504,7 +4876,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>724</v>
+        <v>848</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -4533,7 +4905,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>725</v>
+        <v>849</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -4562,7 +4934,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>726</v>
+        <v>850</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -4591,7 +4963,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>727</v>
+        <v>851</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -4620,7 +4992,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>728</v>
+        <v>852</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -4649,7 +5021,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>729</v>
+        <v>853</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -4678,7 +5050,7 @@
         <v>265</v>
       </c>
       <c r="E54" t="s">
-        <v>730</v>
+        <v>854</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -4707,7 +5079,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>731</v>
+        <v>855</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -4736,7 +5108,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>732</v>
+        <v>856</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -4765,7 +5137,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>733</v>
+        <v>857</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -4794,7 +5166,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>734</v>
+        <v>858</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -4823,7 +5195,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>735</v>
+        <v>859</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -4852,7 +5224,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>736</v>
+        <v>860</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -4881,7 +5253,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>737</v>
+        <v>861</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -4910,7 +5282,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>738</v>
+        <v>862</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -4939,7 +5311,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>739</v>
+        <v>863</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -4968,7 +5340,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>740</v>
+        <v>864</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -4997,7 +5369,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>741</v>
+        <v>865</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -5026,7 +5398,7 @@
         <v>300</v>
       </c>
       <c r="E66" t="s">
-        <v>742</v>
+        <v>866</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="997">
   <si>
     <t>Doi</t>
   </si>
@@ -3175,6 +3175,473 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,            Hui%Ren%NULL%1,            Ruilin%Cao%NULL%1,            Yueyang%Hu%NULL%1,            Zeying%Qin%NULL%1,            Chuanen%Li%NULL%1,            Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,             Roy F.%Baumeister%NULL%1,             Jennifer C.%Veilleux%NULL%1,             Caixia%Chen%NULL%1,             Wenjun%Liu%NULL%1,             Yongjie%Yue%NULL%1,             Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,             Xiaopeng%Hu%NULL%1,             Ivo Otte%Ekumi%NULL%1,             Jianchun%Wang%NULL%1,             Yawen%An%NULL%1,             Zhiwen%Li%NULL%1,             Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,             Wen%Li%NULL%2,             Yuan%Yang%NULL%4,             Yuan%Yang%NULL%0,             Yu%Wang%NULL%2,             Qinge%Zhang%NULL%1,             Teris%Cheung%NULL%2,             Xinjuan%Wu%NULL%2,             Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,             Cherica A.%Tee%NULL%1,             Joseph P.%Anlacan%NULL%1,             Katrina Joy G.%Aligam%NULL%1,             Patrick Wincy C.%Reyes%NULL%1,             Vipat%Kuruchittham%NULL%1,             Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Medical care workers experienced unprecedented levels of workload and pressure since the outbreak of coronavirus disease 2019 (COVID-19).
+ Little is known about its exact impact on medical care workers and related factors in China.
+ This study aims to identify the psychological impact of COVID-19 on medical care workers in China.
+Methods
+From February 23 to March 5, 2020, a cross-sectional survey was conducted among 863 medical care workers from seven provinces in China using standard questionnaires measuring adverse psychological outcomes including Impact of Event Scale-6 (IES-6), Depression, Anxiety and Stress Scale(DASS)and related psychosocial factors like perceived threat, social support and coping strategies.
+ Exploratory Factor analysis was performed to identify the dimensions of perceived threat by study participants.
+ Multivariate regression was used to examine the determinants of adverse psychological outcomes.
+Results
+Posttraumatic stress (PTS) were prevalent in this sample of health care professionals, and 40.2% indicated positive screens for significant posttraumatic stress disorder symptoms.
+ The proportion of having mild to extremely severe symptoms of depression, anxiety and stress were 13.6, 13.9 and 8.6%, respectively.
+ Perceived threat and passive coping strategies were positively correlated to PTS and DASS scores, while perceived social support and active coping strategies were negatively correlated to DASS scores.
+ Nurses were more likely to be anxious than others among medical care workers during the COVID-19 epidemic.
+Conclusions
+Adverse psychological symptoms were prevalent among medical care workers in China during the COVID-19 epidemic.
+ Screening for adverse psychological outcomes and developing corresponding preventive measures would be beneficial in decreasing negative psychological outcomes.
+</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,             Xiao-You%Su%suxiaoyou@hotmail.com%1,             Yu%Jiang%jiangyu@pumc.edu.cn%2,             Yu%Jiang%jiangyu@pumc.edu.cn%0,             Wen-Jun%Wang%wwjun1973@163.com%1,             Xiao-Fen%Gu%357539328@qq.com%1,             Li%Ma%mali_lele@sina.com%1,             Jing%Li%lijingwcph@scu.edu.cn%0,             Shao-Kai%Zhang%shaokaizhang@126.com%1,             Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,             Ran%Ren%renran99@163.com%1,             Yuan-Li%Liu%liuyuanli_pumc@163.com%1,             You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,             Helena%Garrido-Hernansaiz%NULL%1,             Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,             Xiangfen%Su%suxiangfengfy@163.com%1,             Shuzeng%Zhang%NULL%2,             Shuzeng%Zhang%NULL%0,             Wenjie%Guan%NULL%1,             Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,             Rong-Ning%Chen%NULL%1,             Li-Li%Liu%NULL%1,             Xue-Guo%Li%NULL%1,             Jian-Bin%Chen%NULL%1,             Si-Yao%Tang%NULL%1,             Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,     Jinfeng%Miao%xref no email%2,     Hui%Wang%xref no email%2,     Shabei%Xu%xref no email%2,     Wenzhe%Sun%xref no email%2,     Yebin%Fan%xref no email%2,     Chenyan%Zhang%xref no email%2,     Suiqiang%Zhu%xref no email%2,     Zhou%Zhu%xref no email%2,     Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,             Elisa%Pedroli%NULL%1,             Guido E.%D'Aniello%NULL%1,             Chiara%Stramba Badiale%NULL%1,             Giada%Pietrabissa%NULL%1,             Chiara%Manna%NULL%1,             Marco%Stramba Badiale%NULL%1,             Giuseppe%Riva%NULL%1,             Gianluca%Castelnuovo%NULL%1,             Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To assess the psychological effects of the novel coronavirus disease (COVID-19) on medical staff and the general public.
+ During the outbreak of COVID-19, an internet-based questionnaire included The Self-rating Depression Scale (SDS), Perceived Stress Scale (PSS-10), and Impact of Event Scale-Revised (IES-R) was used to assess the impact of the pandemic situation on the mental health of medical staff and general population in Wuhan and its surrounding areas.
+ Among the 1493 questionnaires completed, 827 (55.39%) of these were men, and 422 (28.27%) of these were medical personnel.
+ The results suggest that the outbreak of COVID-19 has affected individuals significantly, the degree of which is related to age, sex, occupation and mental illness.
+ There was a significant difference in PSS-10 and IES-R scores between the medical staff and the general population.
+ The medical staff showed higher PSS-10 scores (16.813 ± 4.87) and IES-R scores (22.40 ± 12.12) compared to members of the general population PSS-10 (14.80 ± 5.60) and IES-R scores (17.89 ± 13.08).
+ However, there was no statistically significant difference between the SDS scores of medical staff (44.52 ± 12.36) and the general public (43.08 ± 11.42).
+ In terms of the need for psychological assistance, 50.97% of interviewees responded that they needed psychological counseling, of which medical staff accounted for 65.87% and non-medical staff accounted for 45.10%.
+ During the ongoing COVID-19 outbreak, great attention should be paid to the mental health of the population, especially medical staff, and measures such as psychological intervention should be actively carried out for reducing the psychosocial effects.
+</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,             Qing-xian%Li%NULL%1,             Heng%Zhang%NULL%1,             Jia-yong%Zhu%NULL%1,             Xu%Yang%NULL%1,             Yu-hang%Wu%NULL%1,             Jie%Xiong%NULL%1,             Fu%Li%NULL%1,             Hua%Wang%whzkwlh@126.com%0,             Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,             Charlotte%Coste%NULL%1,             Rocio%Sanchez%NULL%1,             Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,             Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,             Saleh A.%Alrashed%NULL%1,             Ali A.%Alzunaydi%NULL%1,             Ahmed S.%Almohimeed%NULL%1,             Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) is rapidly spreading worldwide, with a staggering number of cases and deaths.
+ However, available data on the psychological impacts of COVID-19 on pregnant women are limited.
+ The purposes of this study were to assess the prevalence of psychiatric symptoms among pregnant women, and to compare them with non-pregnant women.
+ From February 28 to March 12, 2020, a cross-sectional study of pregnant and non-pregnant women was performed in China.
+ The online questionnaire was used to collect information of participants.
+ The mental health status was assessed by patient health questionnaire, generalized anxiety disorder scale, insomnia severity index, somatization subscale of the symptom checklist 90, and post-traumatic stress disorder (PTSD) checklist-5. Totally, 859 respondents were enrolled, including 544 pregnant women and 315 non-pregnant women.
+ In this study, 5.3%, 6.8%, 2.4%, 2.6%, and 0.9% of pregnant women were identified to have symptoms of depression, anxiety, physical discomfort, insomnia, and PTSD, respectively.
+ However, the corresponding prevalence rates among non-pregnant women were 17.5%, 17.5%, 2.5%, 5.4%, 5.7%, respectively.
+ After adjusting for other covariates, we observed that pregnancy was associated a reduced risk of symptoms of depression (OR = 0.23; 95% CI: 0.12–0.45), anxiety (OR = 0.26; 95% CI: 0.16–0.42), insomnia (OR = 0.19; 95% CI: 0.06–0.58), and PTSD (OR = 0.15; 95% CI: 0.04–0.53) during the COVID-19 epidemic.
+ Our results indicate that during the COVID-19 epidemic in China, pregnant women have an advantage of facing mental problems caused by COVID-19, showing fewer depression, anxiety, insomnia, and PTSD symptoms than non-pregnant women.
+</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,             Hui%Shi%NULL%1,             Zhengkui%Liu%NULL%1,             Songxu%Peng%gwxypsx@163.com%2,             Songxu%Peng%gwxypsx@163.com%0,             Ruoxi%Wang%NULL%2,             Ruoxi%Wang%NULL%0,             Ling%Qi%NULL%1,             Zezhi%Li%NULL%1,             Jiezhi%Yang%NULL%1,             Yali%Ren%NULL%1,             Xiuli%Song%NULL%1,             Lingyun%Zeng%NULL%1,             Wei%Qian%NULL%1,             Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,            Khazaie%H.%coreGivesNoEmail%1,            Li%J.%coreGivesNoEmail%1,            Xiaohui%Li%coreGivesNoEmail%1,            Xing%Tan%coreGivesNoEmail%1,            Yuanyuan%An%coreGivesNoEmail%1,            Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,             Zheng Feei%Ma%NULL%4,             Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,             Zhuoer%Sun%NULL%3,             Zhuoer%Sun%NULL%0,             Tuanjie%Liu%NULL%1,             Xiong%Ni%NULL%1,             Xuanfeng%Deng%NULL%1,             Yanpu%Jia%NULL%2,             Zhilei%Shang%NULL%2,             Yaoguang%Zhou%NULL%2,             Weizhi%Liu%13024141970@163.com%3,             Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,             N.%Hadjamu%NULL%2,             N.%Hadjamu%NULL%0,             G.%Willmund%NULL%1,             S.%Dolff%NULL%1,             N.%Vonderlin%NULL%1,             R.%Wakili%NULL%1,             J.%Vogel%NULL%1,             T.%Rassaf%NULL%1,             J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,             Riyu%Pan%NULL%1,             Xiaoyang%Wan%NULL%1,             Yilin%Tan%NULL%1,             Linkang%Xu%NULL%1,             Roger S.%McIntyre%NULL%3,             Faith N.%Choo%NULL%1,             Bach%Tran%NULL%3,             Roger%Ho%NULL%3,             Vijay K.%Sharma%NULL%2,             Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,             Jithin Thomas%Parel%NULL%2,             Jithin Thomas%Parel%NULL%0,             Neeraj%Raizada%NULL%2,             Neeraj%Raizada%NULL%0,             Shiv Kumar%Sarin%NULL%1,             Abdallah M.%Samy%NULL%2,             Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 poses the greatest challenge for the entire world since the Second World War.
+ Governments are forced to define strict measures to avoid the spreading of the virus, which may further impose psychological burden for the majority of the population.
+ The aim of this study was to evaluate the psychological distress in Austria during the initial stage of the COVID-19 outbreak.
+Methods
+From 25 March to 3 April 2020, an anonymous online survey was conducted.
+ Target group included all members of the Austrian population older than 16 years.
+ The survey addressed the following areas (1) and sociodemographic data, (2) physical and mental health; (3) knowledge and concerns about COVID-19; (4) contact with infected people; (5) prevention efforts; (6) need for further information.
+ The Impact of Event Scale-Revised (IES-R) and the Depression, Anxiety and Stress Scale (DASS-21) were used to assess mental health.
+ Analyses were based on 4126 individuals (74% female, age: M = 38.68, SD = 13.36).
+Results
+43.3% rated the psychological impact as moderate (5.6%) or severe (37.7%).
+ 26.5% reported moderate (13.3%) to severe (13.2%) depression; 20.3% moderate (8.9%) to severe (11.4%) anxiety and 21.2% reported to suffer from moderate (10.5%) or severe stress (10.7%).
+ Being female, higher age, lower levels of education, concern about family members, internet as main source of information, student or pupil status, poor self-rated health, and downplaying the seriousness of the problem were significantly associated with higher psychological burden.
+ Protective factors were the possibility to work in home office, frequent (indirect) contact with family or friends, the availability of virus-specific information, confidence in the diagnosis capability, and physical activity during the crisis.
+Conclusion
+This study is among the first in Europe on the psychological correlates of the COVID-19 pandemic.
+ 37.7% of the Austrian study population reported a severe psychological impact on the event and 1 in 10 is considered to suffer from severe depression, anxiety or stress.
+ The present findings inform about the identification of protective factors, psychologically vulnerable groups and may guide the development of psychological interventions.
+</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,             Rene%Stefitz%NULL%1,             Kerstin%Gaisbachgrabner%NULL%1,             Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,             Tao%Hu%NULL%1,             Baodi%Hu%NULL%1,             Chunhan%Jin%NULL%1,             Gang%Wang%NULL%1,             Chao%Xie%NULL%1,             Sen%Chen%NULL%1,             Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,             Fengyi%Hao%NULL%1,             Roger S.%McIntyre%NULL%0,             Li%Jiang%NULL%2,             Xiaojiang%Jiang%NULL%2,             Ling%Zhang%NULL%2,             Xinling%Zhao%NULL%2,             Yiran%Zou%NULL%2,             Yirong%Hu%NULL%2,             Xi%Luo%NULL%2,             Zhisong%Zhang%NULL%2,             Andre%Lai%NULL%1,             Roger%Ho%NULL%0,             Bach%Tran%NULL%0,             Cyrus%Ho%NULL%0,             Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,             Wenning%Fu%NULL%2,             Xiaoran%Liu%NULL%2,             Zhiqian%Luo%NULL%2,             Rixing%Wang%NULL%2,             Ning%Zhou%NULL%2,             Shijiao%Yan%NULL%3,             Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,             Mark L%Williams%NULL%1,             Benjamin C%Amick%NULL%1,             Teresa J.%Hudson%NULL%1,             Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,             Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,             Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,             Necdet%Sut%necdetsut@yahoo.com%2,             Necdet%Sut%necdetsut@yahoo.com%0,             Selma%Akdogan%drslma.akdogan@gmail.com%2,             Selma%Akdogan%drslma.akdogan@gmail.com%0,             Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,             Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,             Valentina%Socci%NULL%3,             Dalila%Talevi%NULL%1,             Sonia%Mensi%NULL%1,             Cinzia%Niolu%NULL%1,             Francesca%Pacitti%NULL%3,             Antinisca%Di Marco%NULL%3,             Alessandro%Rossi%NULL%3,             Alberto%Siracusano%NULL%3,             Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,             Valentina%Socci%NULL%0,             Francesca%Pacitti%NULL%0,             Giorgio%Di Lorenzo%NULL%0,             Antinisca%Di Marco%NULL%0,             Alberto%Siracusano%NULL%0,             Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,             Marianna%Purgato%NULL%1,             Chiara%Bove%NULL%1,             David%MacTaggart%NULL%1,             Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,             Wei%Chen%NULL%0,             Saiduo%Liu%NULL%2,             Paul M.%Thompson%NULL%2,             Long Jiang%Zhang%NULL%2,             Fei%Xia%NULL%3,             Fang%Cheng%NULL%3,             Ailing%Hong%NULL%2,             Wesley%Surento%NULL%2,             Song%Luo%NULL%2,             Zhi Yuan%Sun%NULL%2,             Chang Sheng%Zhou%NULL%2,             Lingjiang%Li%NULL%2,             Xiangao%Jiang%NULL%2,             Guang Ming%Lu%NULL%2,              R.%Qi%null%2,              W.% Chen%null%2,              S.% Liu%null%2,              P. M.% Thompson%null%2,              L. J.% Zhang%null%2,              F.% Xia%null%2,              F.% Cheng%null%2,              A.% Hong%null%2,              W.% Surento%null%2,              S.% Luo%null%2,              Z. Y.% Sun%null%2,              C. S.% Zhou%null%2,              L.% Li%null%2,              X.% Jiang%null%2,              G. M. % Lu%null%2,            R.%Qi%null%1,            W.% Chen%null%1,            S.% Liu%null%1,            P. M.% Thompson%null%1,            L. J.% Zhang%null%1,            F.% Xia%null%1,            F.% Cheng%null%1,            A.% Hong%null%1,            W.% Surento%null%1,            S.% Luo%null%1,            Z. Y.% Sun%null%1,            C. S.% Zhou%null%1,            L.% Li%null%1,            X.% Jiang%null%1,            G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,             Yutong%Zhang%NULL%2,             Yutong%Zhang%NULL%0,             Xiaoqin%Luo%NULL%1,             Xinli%Li%NULL%1,             Yeshan%Li%NULL%1,             Shuchang%Liu%NULL%1,             Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,             Beatriz%Talavera-Velasco%NULL%2,             Beatriz%Talavera-Velasco%NULL%0,             Yolanda%García-Albuerne%NULL%1,             Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,             Fan%Zhang%NULL%1,             Cun%Wei%NULL%1,             Yanpu%Jia%NULL%0,             Zhilei%Shang%NULL%0,             Luna%Sun%NULL%1,             Lili%Wu%NULL%1,             Zhuoer%Sun%NULL%0,             Yaoguang%Zhou%NULL%0,             Yan%Wang%NULL%1,             Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,             Emily%Zhang%NULL%1,             Ga Tin Fifi%Wong%NULL%1,             Sunah%Hyun%NULL%1,             Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,             Yue%Wang%NULL%1,             Jingwen%Jiang%NULL%1,             Unnur A.%Valdimarsdóttir%NULL%1,             Katja%Fall%NULL%2,             Katja%Fall%NULL%0,             Fang%Fang%NULL%4,             Fang%Fang%NULL%0,             Huan%Song%NULL%1,             Donghao%Lu%NULL%1,             Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,            Chiang%E. S.%coreGivesNoEmail%1,            Fernandez%R.%coreGivesNoEmail%1,            Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,            Ibrahim%H.%coreGivesNoEmail%1,            Lee%B.%coreGivesNoEmail%1,            Shi%L.%coreGivesNoEmail%1,            Sun%N.%coreGivesNoEmail%1,            Tsay%S.\u2010F.%coreGivesNoEmail%1,            World%Health Organisation%coreGivesNoEmail%2,            World%Health Organisation%coreGivesNoEmail%0,            Xiaoyue%Xu%coreGivesNoEmail%1,            Xiuchuan%Li%coreGivesNoEmail%1,            Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,             Peixin%Lu%NULL%1,             Lianting%Hu%NULL%1,             Tianhui%Huang%NULL%1,             Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,            Holly%Wei%coreGivesNoEmail%1,            Hong%Xu%coreGivesNoEmail%1,            Lili%Wei%coreGivesNoEmail%1,            Lu%H%coreGivesNoEmail%1,            Min%Leng%coreGivesNoEmail%1,            Shi%Ti JC%coreGivesNoEmail%1,            Shuyun%Xing%coreGivesNoEmail%1,            Weathers%F%coreGivesNoEmail%1,            Wenwen%Zhang%coreGivesNoEmail%1,            Xiaohui%Shi%coreGivesNoEmail%1,            Xiaoying%Zhang%coreGivesNoEmail%1,            Yang%T%coreGivesNoEmail%1,            Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,             Anh Kim%Dang%NULL%1,             Jayson%Toweh%NULL%1,             Quang Nhat%Nguyen%NULL%1,             Huong Thi%Le%NULL%1,             Toan Thi Thanh%Do%NULL%1,             Hanh Bich Thi%Phan%NULL%1,             Thao Thanh%Nguyen%NULL%1,             Quan Thi%Pham%NULL%1,             Nhung Kim Thi%Ta%NULL%1,             Quynh Thi%Nguyen%NULL%1,             Anh Ngoc%Nguyen%NULL%1,             Quan%Van Duong%NULL%1,             Men Thi%Hoang%NULL%1,             Hai Quang%Pham%NULL%1,             Linh Gia%Vu%NULL%1,             Bach Xuan%Tran%NULL%1,             Carl A.%Latkin%NULL%1,             Cyrus S. H.%Ho%NULL%1,             Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,             S.%Joo%NULL%1,             P.-A.%Couette%NULL%1,             S.%de Jaegher%NULL%1,             F.%Joly%NULL%1,             X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,             Simeng%Ma%NULL%2,             Ying%Wang%NULL%4,             Zhongxiang%Cai%NULL%2,             Jianbo%Hu%NULL%2,             Ning%Wei%NULL%2,             Jiang%Wu%NULL%3,             Hui%Du%NULL%2,             Tingting%Chen%NULL%2,             Ruiting%Li%NULL%2,             Huawei%Tan%NULL%2,             Lijun%Kang%NULL%2,             Lihua%Yao%NULL%2,             Manli%Huang%NULL%2,             Huafen%Wang%NULL%2,             Gaohua%Wang%NULL%3,             Zhongchun%Liu%NULL%3,             Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,             Mark%Shevlin%NULL%1,             Jamie%Murphy%NULL%1,             Orla%McBride%NULL%1,             Menachem%Ben‐Ezra%NULL%2,             Menachem%Ben‐Ezra%NULL%0,             Richard P.%Bentall%NULL%1,             Frédérique%Vallières%NULL%1,             Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,             Stephanie%Manasse%NULL%2,             Stephanie%Manasse%NULL%0,             Rebecca A.%Krukowski%NULL%2,             Rebecca A.%Krukowski%NULL%0,             Kathryn%Ross%NULL%2,             Kathryn%Ross%NULL%0,             Rebecca%Shakour%NULL%2,             Rebecca%Shakour%NULL%0,             Darci R.%Miller%NULL%1,             Dominick J.%Lemas%NULL%1,             Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,             Xing Lin%Feng%NULL%1,             Xiao Hua%Wang%NULL%2,             Xiao Hua%Wang%NULL%0,             Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,             Berta%Ausín%NULL%1,             Miguel Ángel%Castellanos%NULL%1,             Jesús%Saiz%NULL%1,             Aída%López-Gómez%NULL%1,             Carolina%Ugidos%NULL%1,             Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,             Reyna Jazmín%Martínez Arriaga%NULL%2,             Reyna Jazmín%Martínez Arriaga%NULL%0,             Martha Alicia%Hernández-Gonzalez%NULL%2,             Martha Alicia%Hernández-Gonzalez%NULL%0,             José María%De la Roca-Chiapas%NULL%2,             José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,             Francesca%Favieri%NULL%2,             Francesca%Favieri%NULL%0,             Renata%Tambelli%NULL%2,             Renata%Tambelli%NULL%0,             Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,             Farah%Ghrissi%NULL%1,             Bouthaina%Abbassi%NULL%1,             Wissal%Cherif%NULL%1,             Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The psychological impact of outbreaks on individuals includes an intense and wide range of psychiatric morbidities.
+ People are likely to experience feelings as; worry about being infected or getting sick, increased self-blame, and helplessness.
+ This study aimed to assess the impact of COVID-19 on mental health and social support among Egyptian adults during the period of the pandemic.
+ This is a cross-sectional observational study using an anonymous online questionnaire.
+ The survey was conducted through a link shared on social networking sites.
+ It was conducted from 2 May 2020 to 9 May 2020. The general populations of the Egyptian adults were included by using convenience and snowball sampling technique (510 adults).
+ Impact Event scale mean 34.3 ± 15. About 211 (41.4%) suffered a severe impact.
+ There was an increase in stress from work in 174 (34.1%), financial stress in 284 (55.7%), and stress from home in 320 (62.7%).
+ Half of them felt horrified and helpless in 275 (53.9%), and 265 (52%) respectively, while 338 (66.3%) felt apprehensive.
+ only 24.2% reported increased support from friends, while increased support from family members in 207 (40.6%).
+ 46.5% shared their feelings with family members, while 176 (34.5%) shared with others.
+ Caring for family members’ feelings increased in 330 (64.7%).
+ Age and rural residency were negative predictors for the impact of event score, while female gender or presence of chronic condition was a positive predictor for the impact of event score.
+ Covid-19 pandemic has a great psychological impact on adult Egyptians and affected social support.
+</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,             Enayat M.%Soltan%enayatsoltan@gmail.com%2,             Enayat M.%Soltan%enayatsoltan@gmail.com%0,             Hend M.%Salama%hind_mikhail@yahoo.com%2,             Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,             Charles B%Malpas%NULL%2,             Charles B%Malpas%NULL%0,             Aidan JC%Burrell%NULL%1,             Caroline%Gurvich%NULL%1,             Leo%Chen%NULL%1,             Jayashri%Kulkarni%NULL%1,             Toby%Winton-Brown%NULL%2,             Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,     Annunziata%Romeo%xref no email%1,     Agata%Benfante%xref no email%1,     Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,             Regino%Piñeiro-Lamas%NULL%1,             César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,             Yasmeen%Byrnes%NULL%2,             Yasmeen%Byrnes%NULL%0,             Changgee%Chang%NULL%2,             Aman%Prasad%NULL%1,             Kevin%Chorath%NULL%2,             Kevin%Chorath%NULL%0,             Seerat K.%Poonia%NULL%1,             Carolyn M.%Jenks%NULL%1,             Andrés M.%Bur%NULL%1,             Punam%Thakkar%NULL%2,             Punam%Thakkar%NULL%0,             Evan M.%Graboyes%NULL%2,             Evan M.%Graboyes%NULL%0,             Rahul%Seth%NULL%2,             Rahul%Seth%NULL%0,             Samuel%Trosman%NULL%1,             Anni%Wong%NULL%2,             Anni%Wong%NULL%0,             Benjamin M.%Laitman%NULL%1,             Brianna N.%Harris%NULL%1,             Janki%Shah%NULL%2,             Janki%Shah%NULL%0,             Vanessa%Stubbs%NULL%1,             Garret%Choby%NULL%1,             Qi%Long%NULL%2,             Christopher H.%Rassekh%NULL%1,             Erica%Thaler%NULL%1,             Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,             Antonio%Bertelli%NULL%1,             Antonio%Gonçalves%NULL%1,             Emily%Getzen%NULL%1,             Changgee%Chang%NULL%0,             Qi%Long%NULL%0,             Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,             Benjamin%Becker%NULL%2,             Qian%Yu%NULL%2,             Peter%Willeit%NULL%2,             Can%Jiao%NULL%2,             Liuyue%Huang%NULL%2,             M. Mahhub%Hossain%NULL%2,             Igor%Grabovac%NULL%2,             Albert%Yeung%NULL%2,             Jingyuan%Lin%NULL%2,             Nicola%Veronese%NULL%2,             Jian%Wang%NULL%3,             Xinqi%Zhou%NULL%2,             Scott R.%Doig%NULL%2,             Xiaofeng%Liu%NULL%2,             Andre F.%Carvalho%NULL%2,             Lin%Yang%NULL%4,             Tao%Xiao%NULL%2,             Liye%Zou%NULL%2,             Paolo%Fusar-Poli%NULL%2,             Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,             Jinghao Nicholas%Ngiam%NULL%1,             Benjamin Yong-Qiang%Tan%NULL%2,             Benjamin Yong-Qiang%Tan%NULL%0,             Sai-Meng%Tham%NULL%1,             Celine Yan-Shan%Tan%NULL%1,             Mingxue%Jing%NULL%1,             Renarebecca%Sagayanathan%NULL%1,             Jin Tao%Chen%NULL%1,             Lily Y. H.%Wong%NULL%1,             Aftab%Ahmad%NULL%1,             Faheem Ahmed%Khan%NULL%1,             Maznah%Marmin%NULL%1,             Fadhlina Binte%Hassan%NULL%1,             Tai Mei-Ling%Sharon%NULL%1,             Chin Han%Lim%NULL%1,             Mohamad Iqbal Bin%Mohaini%NULL%1,             Rivan%Danuaji%NULL%1,             Thang H.%Nguyen%NULL%1,             Georgios%Tsivgoulis%NULL%1,             Sotirios%Tsiodras%NULL%1,             Paraskevi C.%Fragkou%NULL%1,             Dimitra%Dimopoulou%NULL%2,             Dimitra%Dimopoulou%NULL%0,             Arvind K.%Sharma%NULL%1,             Kenam%Shah%NULL%1,             Bhargesh%Patel%NULL%1,             Suktara%Sharma%NULL%1,             R. N.%Komalkumar%NULL%1,             R. V.%Meenakshi%NULL%1,             Shikha%Talati%NULL%1,             Hock Luen%Teoh%NULL%1,             Cyrus S.%Ho%NULL%1,             Roger C.%Ho%NULL%0,             Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,             Qin%Cui%NULL%1,             Zhongchun%Liu%NULL%0,             Juanjuan%Li%NULL%1,             Xuan%Gong%NULL%1,             Jingfang%Liu%NULL%1,             Zhiying%Wan%NULL%1,             Xiaoping%Yuan%NULL%1,             Xiaofen%Li%NULL%1,             Chuang%Chen%NULL%1,             Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,            Apostolos%Blekas%coreGivesNoEmail%1,            Eleni%Parlapani%coreGivesNoEmail%1,            Ioannis%Diakogiannis%coreGivesNoEmail%1,            Maria%Athanasiadou%coreGivesNoEmail%1,            Marina%Skoupra%coreGivesNoEmail%1,            Markos%Syngelakis%coreGivesNoEmail%1,            Panteleimon%Voitsidis%coreGivesNoEmail%1,            Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,             Zheng Feei%Ma%NULL%0,             Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,             Wanqiu%Tan%NULL%1,             Li%Jiang%NULL%0,             Ling%Zhang%NULL%0,             Xinling%Zhao%NULL%0,             Yiran%Zou%NULL%0,             Yirong%Hu%NULL%0,             Xi%Luo%NULL%0,             Xiaojiang%Jiang%NULL%0,             Roger S.%McIntyre%NULL%0,             Bach%Tran%NULL%0,             Jiaqian%Sun%NULL%1,             Zhisong%Zhang%NULL%0,             Roger%Ho%NULL%0,             Cyrus%Ho%NULL%0,             Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purposes of this study was to assess the youth mental health after the coronavirus disease 19 (COVID-19) occurred in China two weeks later, and to investigate factors of mental health among youth groups.
+ A cross-sectional study was conducted two weeks after the occurrence of COVID-19 in China.
+ A total of 584 youth enrolled in this study and completed the question about cognitive status of COVID-19, the General Health Questionnaire(GHQ-12), the PTSD Checklist-Civilian Version (PCL-C) and the Negative coping styles scale.
+ Univariate analysis and univariate logistic regression were used to evaluate the effect of COVID-19 on youth mental health.
+ The results of this cross-sectional study suggest that nearly 40.4% the sampled youth were found to be prone to psychological problems and 14.4% the sampled youth with Post-traumatic stress disorder (PTSD) symptoms.
+ Univariate logistic regression revealed that youth mental health was significantly related to being less educated (OR = 8.71, 95%CI:1.97–38.43), being the enterprise employee (OR = 2.36, 95%CI:1.09–5.09), suffering from the PTSD symptom (OR = 1.05, 95%CI:1.03–1.07) and using negative coping styles (OR = 1.03, 95%CI:1.00–1.07).
+ Results of this study suggest that nearly 40.4% of the youth group had a tendency to have psychological problems.
+ Thus, this was a remarkable evidence that infectious diseases, such as COVID-19, may have an immense influence on youth mental health.
+ Therefor, local governments should develop effective psychological interventions for youth groups, moreover, it is important to consider the educational level and occupation of the youth during the interventions.
+</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,             Hui%Ren%NULL%1,             Ruilin%Cao%NULL%1,             Yueyang%Hu%NULL%1,             Zeying%Qin%NULL%1,             Chuanen%Li%NULL%1,             Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,              Roy F.%Baumeister%NULL%1,              Jennifer C.%Veilleux%NULL%1,              Caixia%Chen%NULL%1,              Wenjun%Liu%NULL%1,              Yongjie%Yue%NULL%1,              Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,              Xiaopeng%Hu%NULL%1,              Ivo Otte%Ekumi%NULL%1,              Jianchun%Wang%NULL%1,              Yawen%An%NULL%1,              Zhiwen%Li%NULL%1,              Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,              Wen%Li%NULL%2,              Yuan%Yang%NULL%4,              Yuan%Yang%NULL%0,              Yu%Wang%NULL%2,              Qinge%Zhang%NULL%1,              Teris%Cheung%NULL%2,              Xinjuan%Wu%NULL%2,              Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,              Cherica A.%Tee%NULL%1,              Joseph P.%Anlacan%NULL%1,              Katrina Joy G.%Aligam%NULL%1,              Patrick Wincy C.%Reyes%NULL%1,              Vipat%Kuruchittham%NULL%1,              Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,              Xiao-You%Su%suxiaoyou@hotmail.com%1,              Yu%Jiang%jiangyu@pumc.edu.cn%2,              Yu%Jiang%jiangyu@pumc.edu.cn%0,              Wen-Jun%Wang%wwjun1973@163.com%1,              Xiao-Fen%Gu%357539328@qq.com%1,              Li%Ma%mali_lele@sina.com%1,              Jing%Li%lijingwcph@scu.edu.cn%0,              Shao-Kai%Zhang%shaokaizhang@126.com%1,              Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,              Ran%Ren%renran99@163.com%1,              Yuan-Li%Liu%liuyuanli_pumc@163.com%1,              You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,              Helena%Garrido-Hernansaiz%NULL%1,              Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,              Xiangfen%Su%suxiangfengfy@163.com%1,              Shuzeng%Zhang%NULL%2,              Shuzeng%Zhang%NULL%0,              Wenjie%Guan%NULL%1,              Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,              Rong-Ning%Chen%NULL%1,              Li-Li%Liu%NULL%1,              Xue-Guo%Li%NULL%1,              Jian-Bin%Chen%NULL%1,              Si-Yao%Tang%NULL%1,              Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,      Jinfeng%Miao%xref no email%2,      Hui%Wang%xref no email%2,      Shabei%Xu%xref no email%2,      Wenzhe%Sun%xref no email%2,      Yebin%Fan%xref no email%2,      Chenyan%Zhang%xref no email%2,      Suiqiang%Zhu%xref no email%2,      Zhou%Zhu%xref no email%2,      Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,              Elisa%Pedroli%NULL%1,              Guido E.%D'Aniello%NULL%1,              Chiara%Stramba Badiale%NULL%1,              Giada%Pietrabissa%NULL%1,              Chiara%Manna%NULL%1,              Marco%Stramba Badiale%NULL%1,              Giuseppe%Riva%NULL%1,              Gianluca%Castelnuovo%NULL%1,              Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,              Qing-xian%Li%NULL%1,              Heng%Zhang%NULL%1,              Jia-yong%Zhu%NULL%1,              Xu%Yang%NULL%1,              Yu-hang%Wu%NULL%1,              Jie%Xiong%NULL%1,              Fu%Li%NULL%1,              Hua%Wang%whzkwlh@126.com%0,              Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,              Charlotte%Coste%NULL%1,              Rocio%Sanchez%NULL%1,              Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,              Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,              Saleh A.%Alrashed%NULL%1,              Ali A.%Alzunaydi%NULL%1,              Ahmed S.%Almohimeed%NULL%1,              Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,              Hui%Shi%NULL%1,              Zhengkui%Liu%NULL%1,              Songxu%Peng%gwxypsx@163.com%2,              Songxu%Peng%gwxypsx@163.com%0,              Ruoxi%Wang%NULL%2,              Ruoxi%Wang%NULL%0,              Ling%Qi%NULL%1,              Zezhi%Li%NULL%1,              Jiezhi%Yang%NULL%1,              Yali%Ren%NULL%1,              Xiuli%Song%NULL%1,              Lingyun%Zeng%NULL%1,              Wei%Qian%NULL%1,              Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,             Khazaie%H.%coreGivesNoEmail%1,             Li%J.%coreGivesNoEmail%1,             Xiaohui%Li%coreGivesNoEmail%1,             Xing%Tan%coreGivesNoEmail%1,             Yuanyuan%An%coreGivesNoEmail%1,             Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,              Zheng Feei%Ma%NULL%4,              Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,              Zhuoer%Sun%NULL%3,              Zhuoer%Sun%NULL%0,              Tuanjie%Liu%NULL%1,              Xiong%Ni%NULL%1,              Xuanfeng%Deng%NULL%1,              Yanpu%Jia%NULL%2,              Zhilei%Shang%NULL%2,              Yaoguang%Zhou%NULL%2,              Weizhi%Liu%13024141970@163.com%3,              Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,              N.%Hadjamu%NULL%2,              N.%Hadjamu%NULL%0,              G.%Willmund%NULL%1,              S.%Dolff%NULL%1,              N.%Vonderlin%NULL%1,              R.%Wakili%NULL%1,              J.%Vogel%NULL%1,              T.%Rassaf%NULL%1,              J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,              Riyu%Pan%NULL%1,              Xiaoyang%Wan%NULL%1,              Yilin%Tan%NULL%1,              Linkang%Xu%NULL%1,              Roger S.%McIntyre%NULL%3,              Faith N.%Choo%NULL%1,              Bach%Tran%NULL%3,              Roger%Ho%NULL%3,              Vijay K.%Sharma%NULL%2,              Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,              Jithin Thomas%Parel%NULL%2,              Jithin Thomas%Parel%NULL%0,              Neeraj%Raizada%NULL%2,              Neeraj%Raizada%NULL%0,              Shiv Kumar%Sarin%NULL%1,              Abdallah M.%Samy%NULL%2,              Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,              Rene%Stefitz%NULL%1,              Kerstin%Gaisbachgrabner%NULL%1,              Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,              Tao%Hu%NULL%1,              Baodi%Hu%NULL%1,              Chunhan%Jin%NULL%1,              Gang%Wang%NULL%1,              Chao%Xie%NULL%1,              Sen%Chen%NULL%1,              Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,              Fengyi%Hao%NULL%1,              Roger S.%McIntyre%NULL%0,              Li%Jiang%NULL%2,              Xiaojiang%Jiang%NULL%2,              Ling%Zhang%NULL%2,              Xinling%Zhao%NULL%2,              Yiran%Zou%NULL%2,              Yirong%Hu%NULL%2,              Xi%Luo%NULL%2,              Zhisong%Zhang%NULL%2,              Andre%Lai%NULL%1,              Roger%Ho%NULL%0,              Bach%Tran%NULL%0,              Cyrus%Ho%NULL%0,              Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,              Wenning%Fu%NULL%2,              Xiaoran%Liu%NULL%2,              Zhiqian%Luo%NULL%2,              Rixing%Wang%NULL%2,              Ning%Zhou%NULL%2,              Shijiao%Yan%NULL%3,              Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,              Mark L%Williams%NULL%1,              Benjamin C%Amick%NULL%1,              Teresa J.%Hudson%NULL%1,              Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,              Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,              Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,              Necdet%Sut%necdetsut@yahoo.com%2,              Necdet%Sut%necdetsut@yahoo.com%0,              Selma%Akdogan%drslma.akdogan@gmail.com%2,              Selma%Akdogan%drslma.akdogan@gmail.com%0,              Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,              Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,              Valentina%Socci%NULL%3,              Dalila%Talevi%NULL%1,              Sonia%Mensi%NULL%1,              Cinzia%Niolu%NULL%1,              Francesca%Pacitti%NULL%3,              Antinisca%Di Marco%NULL%3,              Alessandro%Rossi%NULL%3,              Alberto%Siracusano%NULL%3,              Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,              Valentina%Socci%NULL%0,              Francesca%Pacitti%NULL%0,              Giorgio%Di Lorenzo%NULL%0,              Antinisca%Di Marco%NULL%0,              Alberto%Siracusano%NULL%0,              Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,              Marianna%Purgato%NULL%1,              Chiara%Bove%NULL%1,              David%MacTaggart%NULL%1,              Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,              Wei%Chen%NULL%0,              Saiduo%Liu%NULL%2,              Paul M.%Thompson%NULL%2,              Long Jiang%Zhang%NULL%2,              Fei%Xia%NULL%3,              Fang%Cheng%NULL%3,              Ailing%Hong%NULL%2,              Wesley%Surento%NULL%2,              Song%Luo%NULL%2,              Zhi Yuan%Sun%NULL%2,              Chang Sheng%Zhou%NULL%2,              Lingjiang%Li%NULL%2,              Xiangao%Jiang%NULL%2,              Guang Ming%Lu%NULL%2,               R.%Qi%null%2,               W.% Chen%null%2,               S.% Liu%null%2,               P. M.% Thompson%null%2,               L. J.% Zhang%null%2,               F.% Xia%null%2,               F.% Cheng%null%2,               A.% Hong%null%2,               W.% Surento%null%2,               S.% Luo%null%2,               Z. Y.% Sun%null%2,               C. S.% Zhou%null%2,               L.% Li%null%2,               X.% Jiang%null%2,               G. M. % Lu%null%2,             R.%Qi%null%1,             W.% Chen%null%1,             S.% Liu%null%1,             P. M.% Thompson%null%1,             L. J.% Zhang%null%1,             F.% Xia%null%1,             F.% Cheng%null%1,             A.% Hong%null%1,             W.% Surento%null%1,             S.% Luo%null%1,             Z. Y.% Sun%null%1,             C. S.% Zhou%null%1,             L.% Li%null%1,             X.% Jiang%null%1,             G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,              Yutong%Zhang%NULL%2,              Yutong%Zhang%NULL%0,              Xiaoqin%Luo%NULL%1,              Xinli%Li%NULL%1,              Yeshan%Li%NULL%1,              Shuchang%Liu%NULL%1,              Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,              Beatriz%Talavera-Velasco%NULL%2,              Beatriz%Talavera-Velasco%NULL%0,              Yolanda%García-Albuerne%NULL%1,              Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,              Fan%Zhang%NULL%1,              Cun%Wei%NULL%1,              Yanpu%Jia%NULL%0,              Zhilei%Shang%NULL%0,              Luna%Sun%NULL%1,              Lili%Wu%NULL%1,              Zhuoer%Sun%NULL%0,              Yaoguang%Zhou%NULL%0,              Yan%Wang%NULL%1,              Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,              Emily%Zhang%NULL%1,              Ga Tin Fifi%Wong%NULL%1,              Sunah%Hyun%NULL%1,              Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,              Yue%Wang%NULL%1,              Jingwen%Jiang%NULL%1,              Unnur A.%Valdimarsdóttir%NULL%1,              Katja%Fall%NULL%2,              Katja%Fall%NULL%0,              Fang%Fang%NULL%4,              Fang%Fang%NULL%0,              Huan%Song%NULL%1,              Donghao%Lu%NULL%1,              Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,             Chiang%E. S.%coreGivesNoEmail%1,             Fernandez%R.%coreGivesNoEmail%1,             Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,             Ibrahim%H.%coreGivesNoEmail%1,             Lee%B.%coreGivesNoEmail%1,             Shi%L.%coreGivesNoEmail%1,             Sun%N.%coreGivesNoEmail%1,             Tsay%S.\u2010F.%coreGivesNoEmail%1,             World%Health Organisation%coreGivesNoEmail%2,             World%Health Organisation%coreGivesNoEmail%0,             Xiaoyue%Xu%coreGivesNoEmail%1,             Xiuchuan%Li%coreGivesNoEmail%1,             Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,              Peixin%Lu%NULL%1,              Lianting%Hu%NULL%1,              Tianhui%Huang%NULL%1,              Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,             Holly%Wei%coreGivesNoEmail%1,             Hong%Xu%coreGivesNoEmail%1,             Lili%Wei%coreGivesNoEmail%1,             Lu%H%coreGivesNoEmail%1,             Min%Leng%coreGivesNoEmail%1,             Shi%Ti JC%coreGivesNoEmail%1,             Shuyun%Xing%coreGivesNoEmail%1,             Weathers%F%coreGivesNoEmail%1,             Wenwen%Zhang%coreGivesNoEmail%1,             Xiaohui%Shi%coreGivesNoEmail%1,             Xiaoying%Zhang%coreGivesNoEmail%1,             Yang%T%coreGivesNoEmail%1,             Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,              Anh Kim%Dang%NULL%1,              Jayson%Toweh%NULL%1,              Quang Nhat%Nguyen%NULL%1,              Huong Thi%Le%NULL%1,              Toan Thi Thanh%Do%NULL%1,              Hanh Bich Thi%Phan%NULL%1,              Thao Thanh%Nguyen%NULL%1,              Quan Thi%Pham%NULL%1,              Nhung Kim Thi%Ta%NULL%1,              Quynh Thi%Nguyen%NULL%1,              Anh Ngoc%Nguyen%NULL%1,              Quan%Van Duong%NULL%1,              Men Thi%Hoang%NULL%1,              Hai Quang%Pham%NULL%1,              Linh Gia%Vu%NULL%1,              Bach Xuan%Tran%NULL%1,              Carl A.%Latkin%NULL%1,              Cyrus S. H.%Ho%NULL%1,              Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,              S.%Joo%NULL%1,              P.-A.%Couette%NULL%1,              S.%de Jaegher%NULL%1,              F.%Joly%NULL%1,              X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,              Simeng%Ma%NULL%2,              Ying%Wang%NULL%4,              Zhongxiang%Cai%NULL%2,              Jianbo%Hu%NULL%2,              Ning%Wei%NULL%2,              Jiang%Wu%NULL%3,              Hui%Du%NULL%2,              Tingting%Chen%NULL%2,              Ruiting%Li%NULL%2,              Huawei%Tan%NULL%2,              Lijun%Kang%NULL%2,              Lihua%Yao%NULL%2,              Manli%Huang%NULL%2,              Huafen%Wang%NULL%2,              Gaohua%Wang%NULL%3,              Zhongchun%Liu%NULL%3,              Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,              Mark%Shevlin%NULL%1,              Jamie%Murphy%NULL%1,              Orla%McBride%NULL%1,              Menachem%Ben‐Ezra%NULL%2,              Menachem%Ben‐Ezra%NULL%0,              Richard P.%Bentall%NULL%1,              Frédérique%Vallières%NULL%1,              Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,              Stephanie%Manasse%NULL%2,              Stephanie%Manasse%NULL%0,              Rebecca A.%Krukowski%NULL%2,              Rebecca A.%Krukowski%NULL%0,              Kathryn%Ross%NULL%2,              Kathryn%Ross%NULL%0,              Rebecca%Shakour%NULL%2,              Rebecca%Shakour%NULL%0,              Darci R.%Miller%NULL%1,              Dominick J.%Lemas%NULL%1,              Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,              Xing Lin%Feng%NULL%1,              Xiao Hua%Wang%NULL%2,              Xiao Hua%Wang%NULL%0,              Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,              Berta%Ausín%NULL%1,              Miguel Ángel%Castellanos%NULL%1,              Jesús%Saiz%NULL%1,              Aída%López-Gómez%NULL%1,              Carolina%Ugidos%NULL%1,              Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,              Reyna Jazmín%Martínez Arriaga%NULL%2,              Reyna Jazmín%Martínez Arriaga%NULL%0,              Martha Alicia%Hernández-Gonzalez%NULL%2,              Martha Alicia%Hernández-Gonzalez%NULL%0,              José María%De la Roca-Chiapas%NULL%2,              José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,              Francesca%Favieri%NULL%2,              Francesca%Favieri%NULL%0,              Renata%Tambelli%NULL%2,              Renata%Tambelli%NULL%0,              Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,              Farah%Ghrissi%NULL%1,              Bouthaina%Abbassi%NULL%1,              Wissal%Cherif%NULL%1,              Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,              Enayat M.%Soltan%enayatsoltan@gmail.com%2,              Enayat M.%Soltan%enayatsoltan@gmail.com%0,              Hend M.%Salama%hind_mikhail@yahoo.com%2,              Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,              Charles B%Malpas%NULL%2,              Charles B%Malpas%NULL%0,              Aidan JC%Burrell%NULL%1,              Caroline%Gurvich%NULL%1,              Leo%Chen%NULL%1,              Jayashri%Kulkarni%NULL%1,              Toby%Winton-Brown%NULL%2,              Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,      Annunziata%Romeo%xref no email%1,      Agata%Benfante%xref no email%1,      Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,              Regino%Piñeiro-Lamas%NULL%1,              César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,              Yasmeen%Byrnes%NULL%2,              Yasmeen%Byrnes%NULL%0,              Changgee%Chang%NULL%2,              Aman%Prasad%NULL%1,              Kevin%Chorath%NULL%2,              Kevin%Chorath%NULL%0,              Seerat K.%Poonia%NULL%1,              Carolyn M.%Jenks%NULL%1,              Andrés M.%Bur%NULL%1,              Punam%Thakkar%NULL%2,              Punam%Thakkar%NULL%0,              Evan M.%Graboyes%NULL%2,              Evan M.%Graboyes%NULL%0,              Rahul%Seth%NULL%2,              Rahul%Seth%NULL%0,              Samuel%Trosman%NULL%1,              Anni%Wong%NULL%2,              Anni%Wong%NULL%0,              Benjamin M.%Laitman%NULL%1,              Brianna N.%Harris%NULL%1,              Janki%Shah%NULL%2,              Janki%Shah%NULL%0,              Vanessa%Stubbs%NULL%1,              Garret%Choby%NULL%1,              Qi%Long%NULL%2,              Christopher H.%Rassekh%NULL%1,              Erica%Thaler%NULL%1,              Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,              Antonio%Bertelli%NULL%1,              Antonio%Gonçalves%NULL%1,              Emily%Getzen%NULL%1,              Changgee%Chang%NULL%0,              Qi%Long%NULL%0,              Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,              Benjamin%Becker%NULL%2,              Qian%Yu%NULL%2,              Peter%Willeit%NULL%2,              Can%Jiao%NULL%2,              Liuyue%Huang%NULL%2,              M. Mahhub%Hossain%NULL%2,              Igor%Grabovac%NULL%2,              Albert%Yeung%NULL%2,              Jingyuan%Lin%NULL%2,              Nicola%Veronese%NULL%2,              Jian%Wang%NULL%3,              Xinqi%Zhou%NULL%2,              Scott R.%Doig%NULL%2,              Xiaofeng%Liu%NULL%2,              Andre F.%Carvalho%NULL%2,              Lin%Yang%NULL%4,              Tao%Xiao%NULL%2,              Liye%Zou%NULL%2,              Paolo%Fusar-Poli%NULL%2,              Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,              Jinghao Nicholas%Ngiam%NULL%1,              Benjamin Yong-Qiang%Tan%NULL%2,              Benjamin Yong-Qiang%Tan%NULL%0,              Sai-Meng%Tham%NULL%1,              Celine Yan-Shan%Tan%NULL%1,              Mingxue%Jing%NULL%1,              Renarebecca%Sagayanathan%NULL%1,              Jin Tao%Chen%NULL%1,              Lily Y. H.%Wong%NULL%1,              Aftab%Ahmad%NULL%1,              Faheem Ahmed%Khan%NULL%1,              Maznah%Marmin%NULL%1,              Fadhlina Binte%Hassan%NULL%1,              Tai Mei-Ling%Sharon%NULL%1,              Chin Han%Lim%NULL%1,              Mohamad Iqbal Bin%Mohaini%NULL%1,              Rivan%Danuaji%NULL%1,              Thang H.%Nguyen%NULL%1,              Georgios%Tsivgoulis%NULL%1,              Sotirios%Tsiodras%NULL%1,              Paraskevi C.%Fragkou%NULL%1,              Dimitra%Dimopoulou%NULL%2,              Dimitra%Dimopoulou%NULL%0,              Arvind K.%Sharma%NULL%1,              Kenam%Shah%NULL%1,              Bhargesh%Patel%NULL%1,              Suktara%Sharma%NULL%1,              R. N.%Komalkumar%NULL%1,              R. V.%Meenakshi%NULL%1,              Shikha%Talati%NULL%1,              Hock Luen%Teoh%NULL%1,              Cyrus S.%Ho%NULL%1,              Roger C.%Ho%NULL%0,              Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,              Qin%Cui%NULL%1,              Zhongchun%Liu%NULL%0,              Juanjuan%Li%NULL%1,              Xuan%Gong%NULL%1,              Jingfang%Liu%NULL%1,              Zhiying%Wan%NULL%1,              Xiaoping%Yuan%NULL%1,              Xiaofen%Li%NULL%1,              Chuang%Chen%NULL%1,              Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,             Apostolos%Blekas%coreGivesNoEmail%1,             Eleni%Parlapani%coreGivesNoEmail%1,             Ioannis%Diakogiannis%coreGivesNoEmail%1,             Maria%Athanasiadou%coreGivesNoEmail%1,             Marina%Skoupra%coreGivesNoEmail%1,             Markos%Syngelakis%coreGivesNoEmail%1,             Panteleimon%Voitsidis%coreGivesNoEmail%1,             Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,              Zheng Feei%Ma%NULL%0,              Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,              Wanqiu%Tan%NULL%1,              Li%Jiang%NULL%0,              Ling%Zhang%NULL%0,              Xinling%Zhao%NULL%0,              Yiran%Zou%NULL%0,              Yirong%Hu%NULL%0,              Xi%Luo%NULL%0,              Xiaojiang%Jiang%NULL%0,              Roger S.%McIntyre%NULL%0,              Bach%Tran%NULL%0,              Jiaqian%Sun%NULL%1,              Zhisong%Zhang%NULL%0,              Roger%Ho%NULL%0,              Cyrus%Ho%NULL%0,              Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,              Hui%Ren%NULL%1,              Ruilin%Cao%NULL%1,              Yueyang%Hu%NULL%1,              Zeying%Qin%NULL%1,              Chuanen%Li%NULL%1,              Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -3542,7 +4009,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>805</v>
+        <v>935</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -3600,7 +4067,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>806</v>
+        <v>936</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -3629,7 +4096,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>807</v>
+        <v>937</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -3658,7 +4125,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>808</v>
+        <v>938</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -3684,10 +4151,10 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>809</v>
+        <v>939</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -3716,7 +4183,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>810</v>
+        <v>940</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -3745,7 +4212,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>811</v>
+        <v>941</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -3774,7 +4241,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>812</v>
+        <v>942</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -3803,7 +4270,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>813</v>
+        <v>943</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3832,7 +4299,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>814</v>
+        <v>944</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -3858,10 +4325,10 @@
         <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>815</v>
+        <v>945</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -3890,7 +4357,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>816</v>
+        <v>946</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -3919,7 +4386,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>817</v>
+        <v>947</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -3948,7 +4415,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>818</v>
+        <v>948</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -3974,10 +4441,10 @@
         <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>819</v>
+        <v>949</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -4006,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>820</v>
+        <v>950</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4035,7 +4502,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>821</v>
+        <v>951</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -4064,7 +4531,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>822</v>
+        <v>952</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -4093,7 +4560,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>823</v>
+        <v>953</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -4122,7 +4589,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>824</v>
+        <v>954</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -4151,7 +4618,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>825</v>
+        <v>955</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -4177,10 +4644,10 @@
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>826</v>
+        <v>956</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -4209,7 +4676,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>827</v>
+        <v>957</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -4238,7 +4705,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>828</v>
+        <v>958</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -4267,7 +4734,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>829</v>
+        <v>959</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -4296,7 +4763,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>830</v>
+        <v>960</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -4325,7 +4792,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>831</v>
+        <v>961</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -4354,7 +4821,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>832</v>
+        <v>962</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -4383,7 +4850,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>833</v>
+        <v>963</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -4412,7 +4879,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>834</v>
+        <v>964</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -4441,7 +4908,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>835</v>
+        <v>965</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -4470,7 +4937,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>836</v>
+        <v>966</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -4499,7 +4966,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>837</v>
+        <v>967</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -4528,7 +4995,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>838</v>
+        <v>968</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -4557,7 +5024,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>839</v>
+        <v>969</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -4586,7 +5053,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>840</v>
+        <v>970</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -4644,7 +5111,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>841</v>
+        <v>971</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -4673,7 +5140,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>842</v>
+        <v>972</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -4731,7 +5198,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>843</v>
+        <v>973</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -4760,7 +5227,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>844</v>
+        <v>974</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -4789,7 +5256,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>845</v>
+        <v>975</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -4818,7 +5285,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>846</v>
+        <v>976</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -4847,7 +5314,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>847</v>
+        <v>977</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -4876,7 +5343,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>848</v>
+        <v>978</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -4905,7 +5372,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>849</v>
+        <v>979</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -4934,7 +5401,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>850</v>
+        <v>980</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -4963,7 +5430,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>851</v>
+        <v>981</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -4992,7 +5459,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>852</v>
+        <v>982</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -5021,7 +5488,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>853</v>
+        <v>983</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -5047,10 +5514,10 @@
         <v>264</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>854</v>
+        <v>984</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -5079,7 +5546,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>855</v>
+        <v>985</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -5108,7 +5575,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>856</v>
+        <v>986</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -5137,7 +5604,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>857</v>
+        <v>987</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -5166,7 +5633,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>858</v>
+        <v>988</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -5195,7 +5662,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>859</v>
+        <v>989</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -5224,7 +5691,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -5253,7 +5720,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>861</v>
+        <v>991</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -5282,7 +5749,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>862</v>
+        <v>992</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -5311,7 +5778,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>863</v>
+        <v>993</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -5340,7 +5807,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>864</v>
+        <v>994</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -5369,7 +5836,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>865</v>
+        <v>995</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -5395,10 +5862,10 @@
         <v>299</v>
       </c>
       <c r="D66" t="s">
-        <v>300</v>
+        <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>866</v>
+        <v>996</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="1059">
   <si>
     <t>Doi</t>
   </si>
@@ -3642,6 +3642,192 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,              Hui%Ren%NULL%1,              Ruilin%Cao%NULL%1,              Yueyang%Hu%NULL%1,              Zeying%Qin%NULL%1,              Chuanen%Li%NULL%1,              Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,               Roy F.%Baumeister%NULL%1,               Jennifer C.%Veilleux%NULL%1,               Caixia%Chen%NULL%1,               Wenjun%Liu%NULL%1,               Yongjie%Yue%NULL%1,               Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,               Xiaopeng%Hu%NULL%1,               Ivo Otte%Ekumi%NULL%1,               Jianchun%Wang%NULL%1,               Yawen%An%NULL%1,               Zhiwen%Li%NULL%1,               Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,               Wen%Li%NULL%2,               Yuan%Yang%NULL%4,               Yuan%Yang%NULL%0,               Yu%Wang%NULL%2,               Qinge%Zhang%NULL%1,               Teris%Cheung%NULL%2,               Xinjuan%Wu%NULL%2,               Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,               Cherica A.%Tee%NULL%1,               Joseph P.%Anlacan%NULL%1,               Katrina Joy G.%Aligam%NULL%1,               Patrick Wincy C.%Reyes%NULL%1,               Vipat%Kuruchittham%NULL%1,               Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,               Xiao-You%Su%suxiaoyou@hotmail.com%1,               Yu%Jiang%jiangyu@pumc.edu.cn%2,               Yu%Jiang%jiangyu@pumc.edu.cn%0,               Wen-Jun%Wang%wwjun1973@163.com%1,               Xiao-Fen%Gu%357539328@qq.com%1,               Li%Ma%mali_lele@sina.com%1,               Jing%Li%lijingwcph@scu.edu.cn%0,               Shao-Kai%Zhang%shaokaizhang@126.com%1,               Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,               Ran%Ren%renran99@163.com%1,               Yuan-Li%Liu%liuyuanli_pumc@163.com%1,               You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,               Helena%Garrido-Hernansaiz%NULL%1,               Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,               Xiangfen%Su%suxiangfengfy@163.com%1,               Shuzeng%Zhang%NULL%2,               Shuzeng%Zhang%NULL%0,               Wenjie%Guan%NULL%1,               Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,               Rong-Ning%Chen%NULL%1,               Li-Li%Liu%NULL%1,               Xue-Guo%Li%NULL%1,               Jian-Bin%Chen%NULL%1,               Si-Yao%Tang%NULL%1,               Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,       Jinfeng%Miao%xref no email%2,       Hui%Wang%xref no email%2,       Shabei%Xu%xref no email%2,       Wenzhe%Sun%xref no email%2,       Yebin%Fan%xref no email%2,       Chenyan%Zhang%xref no email%2,       Suiqiang%Zhu%xref no email%2,       Zhou%Zhu%xref no email%2,       Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,               Elisa%Pedroli%NULL%1,               Guido E.%D'Aniello%NULL%1,               Chiara%Stramba Badiale%NULL%1,               Giada%Pietrabissa%NULL%1,               Chiara%Manna%NULL%1,               Marco%Stramba Badiale%NULL%1,               Giuseppe%Riva%NULL%1,               Gianluca%Castelnuovo%NULL%1,               Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,               Qing-xian%Li%NULL%1,               Heng%Zhang%NULL%1,               Jia-yong%Zhu%NULL%1,               Xu%Yang%NULL%1,               Yu-hang%Wu%NULL%1,               Jie%Xiong%NULL%1,               Fu%Li%NULL%1,               Hua%Wang%whzkwlh@126.com%0,               Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,               Charlotte%Coste%NULL%1,               Rocio%Sanchez%NULL%1,               Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,               Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,               Saleh A.%Alrashed%NULL%1,               Ali A.%Alzunaydi%NULL%1,               Ahmed S.%Almohimeed%NULL%1,               Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,               Hui%Shi%NULL%1,               Zhengkui%Liu%NULL%1,               Songxu%Peng%gwxypsx@163.com%2,               Songxu%Peng%gwxypsx@163.com%0,               Ruoxi%Wang%NULL%2,               Ruoxi%Wang%NULL%0,               Ling%Qi%NULL%1,               Zezhi%Li%NULL%1,               Jiezhi%Yang%NULL%1,               Yali%Ren%NULL%1,               Xiuli%Song%NULL%1,               Lingyun%Zeng%NULL%1,               Wei%Qian%NULL%1,               Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,              Khazaie%H.%coreGivesNoEmail%1,              Li%J.%coreGivesNoEmail%1,              Xiaohui%Li%coreGivesNoEmail%1,              Xing%Tan%coreGivesNoEmail%1,              Yuanyuan%An%coreGivesNoEmail%1,              Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,               Zheng Feei%Ma%NULL%4,               Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,               Zhuoer%Sun%NULL%3,               Zhuoer%Sun%NULL%0,               Tuanjie%Liu%NULL%1,               Xiong%Ni%NULL%1,               Xuanfeng%Deng%NULL%1,               Yanpu%Jia%NULL%2,               Zhilei%Shang%NULL%2,               Yaoguang%Zhou%NULL%2,               Weizhi%Liu%13024141970@163.com%3,               Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,               N.%Hadjamu%NULL%2,               N.%Hadjamu%NULL%0,               G.%Willmund%NULL%1,               S.%Dolff%NULL%1,               N.%Vonderlin%NULL%1,               R.%Wakili%NULL%1,               J.%Vogel%NULL%1,               T.%Rassaf%NULL%1,               J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,               Riyu%Pan%NULL%1,               Xiaoyang%Wan%NULL%1,               Yilin%Tan%NULL%1,               Linkang%Xu%NULL%1,               Roger S.%McIntyre%NULL%3,               Faith N.%Choo%NULL%1,               Bach%Tran%NULL%3,               Roger%Ho%NULL%3,               Vijay K.%Sharma%NULL%2,               Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,               Jithin Thomas%Parel%NULL%2,               Jithin Thomas%Parel%NULL%0,               Neeraj%Raizada%NULL%2,               Neeraj%Raizada%NULL%0,               Shiv Kumar%Sarin%NULL%1,               Abdallah M.%Samy%NULL%2,               Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,               Rene%Stefitz%NULL%1,               Kerstin%Gaisbachgrabner%NULL%1,               Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,               Tao%Hu%NULL%1,               Baodi%Hu%NULL%1,               Chunhan%Jin%NULL%1,               Gang%Wang%NULL%1,               Chao%Xie%NULL%1,               Sen%Chen%NULL%1,               Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,               Fengyi%Hao%NULL%1,               Roger S.%McIntyre%NULL%0,               Li%Jiang%NULL%2,               Xiaojiang%Jiang%NULL%2,               Ling%Zhang%NULL%2,               Xinling%Zhao%NULL%2,               Yiran%Zou%NULL%2,               Yirong%Hu%NULL%2,               Xi%Luo%NULL%2,               Zhisong%Zhang%NULL%2,               Andre%Lai%NULL%1,               Roger%Ho%NULL%0,               Bach%Tran%NULL%0,               Cyrus%Ho%NULL%0,               Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,               Wenning%Fu%NULL%2,               Xiaoran%Liu%NULL%2,               Zhiqian%Luo%NULL%2,               Rixing%Wang%NULL%2,               Ning%Zhou%NULL%2,               Shijiao%Yan%NULL%3,               Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,               Mark L%Williams%NULL%1,               Benjamin C%Amick%NULL%1,               Teresa J.%Hudson%NULL%1,               Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,               Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,               Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,               Necdet%Sut%necdetsut@yahoo.com%2,               Necdet%Sut%necdetsut@yahoo.com%0,               Selma%Akdogan%drslma.akdogan@gmail.com%2,               Selma%Akdogan%drslma.akdogan@gmail.com%0,               Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,               Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,               Valentina%Socci%NULL%3,               Dalila%Talevi%NULL%1,               Sonia%Mensi%NULL%1,               Cinzia%Niolu%NULL%1,               Francesca%Pacitti%NULL%3,               Antinisca%Di Marco%NULL%3,               Alessandro%Rossi%NULL%3,               Alberto%Siracusano%NULL%3,               Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,               Valentina%Socci%NULL%0,               Francesca%Pacitti%NULL%0,               Giorgio%Di Lorenzo%NULL%0,               Antinisca%Di Marco%NULL%0,               Alberto%Siracusano%NULL%0,               Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,               Marianna%Purgato%NULL%1,               Chiara%Bove%NULL%1,               David%MacTaggart%NULL%1,               Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,               Wei%Chen%NULL%0,               Saiduo%Liu%NULL%2,               Paul M.%Thompson%NULL%2,               Long Jiang%Zhang%NULL%2,               Fei%Xia%NULL%3,               Fang%Cheng%NULL%3,               Ailing%Hong%NULL%2,               Wesley%Surento%NULL%2,               Song%Luo%NULL%2,               Zhi Yuan%Sun%NULL%2,               Chang Sheng%Zhou%NULL%2,               Lingjiang%Li%NULL%2,               Xiangao%Jiang%NULL%2,               Guang Ming%Lu%NULL%2,                R.%Qi%null%2,                W.% Chen%null%2,                S.% Liu%null%2,                P. M.% Thompson%null%2,                L. J.% Zhang%null%2,                F.% Xia%null%2,                F.% Cheng%null%2,                A.% Hong%null%2,                W.% Surento%null%2,                S.% Luo%null%2,                Z. Y.% Sun%null%2,                C. S.% Zhou%null%2,                L.% Li%null%2,                X.% Jiang%null%2,                G. M. % Lu%null%2,              R.%Qi%null%1,              W.% Chen%null%1,              S.% Liu%null%1,              P. M.% Thompson%null%1,              L. J.% Zhang%null%1,              F.% Xia%null%1,              F.% Cheng%null%1,              A.% Hong%null%1,              W.% Surento%null%1,              S.% Luo%null%1,              Z. Y.% Sun%null%1,              C. S.% Zhou%null%1,              L.% Li%null%1,              X.% Jiang%null%1,              G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,               Yutong%Zhang%NULL%2,               Yutong%Zhang%NULL%0,               Xiaoqin%Luo%NULL%1,               Xinli%Li%NULL%1,               Yeshan%Li%NULL%1,               Shuchang%Liu%NULL%1,               Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,               Beatriz%Talavera-Velasco%NULL%2,               Beatriz%Talavera-Velasco%NULL%0,               Yolanda%García-Albuerne%NULL%1,               Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,               Fan%Zhang%NULL%1,               Cun%Wei%NULL%1,               Yanpu%Jia%NULL%0,               Zhilei%Shang%NULL%0,               Luna%Sun%NULL%1,               Lili%Wu%NULL%1,               Zhuoer%Sun%NULL%0,               Yaoguang%Zhou%NULL%0,               Yan%Wang%NULL%1,               Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,               Emily%Zhang%NULL%1,               Ga Tin Fifi%Wong%NULL%1,               Sunah%Hyun%NULL%1,               Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,               Yue%Wang%NULL%1,               Jingwen%Jiang%NULL%1,               Unnur A.%Valdimarsdóttir%NULL%1,               Katja%Fall%NULL%2,               Katja%Fall%NULL%0,               Fang%Fang%NULL%4,               Fang%Fang%NULL%0,               Huan%Song%NULL%1,               Donghao%Lu%NULL%1,               Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,              Chiang%E. S.%coreGivesNoEmail%1,              Fernandez%R.%coreGivesNoEmail%1,              Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,              Ibrahim%H.%coreGivesNoEmail%1,              Lee%B.%coreGivesNoEmail%1,              Shi%L.%coreGivesNoEmail%1,              Sun%N.%coreGivesNoEmail%1,              Tsay%S.\u2010F.%coreGivesNoEmail%1,              World%Health Organisation%coreGivesNoEmail%2,              World%Health Organisation%coreGivesNoEmail%0,              Xiaoyue%Xu%coreGivesNoEmail%1,              Xiuchuan%Li%coreGivesNoEmail%1,              Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,               Peixin%Lu%NULL%1,               Lianting%Hu%NULL%1,               Tianhui%Huang%NULL%1,               Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,              Holly%Wei%coreGivesNoEmail%1,              Hong%Xu%coreGivesNoEmail%1,              Lili%Wei%coreGivesNoEmail%1,              Lu%H%coreGivesNoEmail%1,              Min%Leng%coreGivesNoEmail%1,              Shi%Ti JC%coreGivesNoEmail%1,              Shuyun%Xing%coreGivesNoEmail%1,              Weathers%F%coreGivesNoEmail%1,              Wenwen%Zhang%coreGivesNoEmail%1,              Xiaohui%Shi%coreGivesNoEmail%1,              Xiaoying%Zhang%coreGivesNoEmail%1,              Yang%T%coreGivesNoEmail%1,              Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,               Anh Kim%Dang%NULL%1,               Jayson%Toweh%NULL%1,               Quang Nhat%Nguyen%NULL%1,               Huong Thi%Le%NULL%1,               Toan Thi Thanh%Do%NULL%1,               Hanh Bich Thi%Phan%NULL%1,               Thao Thanh%Nguyen%NULL%1,               Quan Thi%Pham%NULL%1,               Nhung Kim Thi%Ta%NULL%1,               Quynh Thi%Nguyen%NULL%1,               Anh Ngoc%Nguyen%NULL%1,               Quan%Van Duong%NULL%1,               Men Thi%Hoang%NULL%1,               Hai Quang%Pham%NULL%1,               Linh Gia%Vu%NULL%1,               Bach Xuan%Tran%NULL%1,               Carl A.%Latkin%NULL%1,               Cyrus S. H.%Ho%NULL%1,               Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,               S.%Joo%NULL%1,               P.-A.%Couette%NULL%1,               S.%de Jaegher%NULL%1,               F.%Joly%NULL%1,               X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,               Simeng%Ma%NULL%2,               Ying%Wang%NULL%4,               Zhongxiang%Cai%NULL%2,               Jianbo%Hu%NULL%2,               Ning%Wei%NULL%2,               Jiang%Wu%NULL%3,               Hui%Du%NULL%2,               Tingting%Chen%NULL%2,               Ruiting%Li%NULL%2,               Huawei%Tan%NULL%2,               Lijun%Kang%NULL%2,               Lihua%Yao%NULL%2,               Manli%Huang%NULL%2,               Huafen%Wang%NULL%2,               Gaohua%Wang%NULL%3,               Zhongchun%Liu%NULL%3,               Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,               Mark%Shevlin%NULL%1,               Jamie%Murphy%NULL%1,               Orla%McBride%NULL%1,               Menachem%Ben‐Ezra%NULL%2,               Menachem%Ben‐Ezra%NULL%0,               Richard P.%Bentall%NULL%1,               Frédérique%Vallières%NULL%1,               Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,               Stephanie%Manasse%NULL%2,               Stephanie%Manasse%NULL%0,               Rebecca A.%Krukowski%NULL%2,               Rebecca A.%Krukowski%NULL%0,               Kathryn%Ross%NULL%2,               Kathryn%Ross%NULL%0,               Rebecca%Shakour%NULL%2,               Rebecca%Shakour%NULL%0,               Darci R.%Miller%NULL%1,               Dominick J.%Lemas%NULL%1,               Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,               Xing Lin%Feng%NULL%1,               Xiao Hua%Wang%NULL%2,               Xiao Hua%Wang%NULL%0,               Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,               Berta%Ausín%NULL%1,               Miguel Ángel%Castellanos%NULL%1,               Jesús%Saiz%NULL%1,               Aída%López-Gómez%NULL%1,               Carolina%Ugidos%NULL%1,               Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,               Reyna Jazmín%Martínez Arriaga%NULL%2,               Reyna Jazmín%Martínez Arriaga%NULL%0,               Martha Alicia%Hernández-Gonzalez%NULL%2,               Martha Alicia%Hernández-Gonzalez%NULL%0,               José María%De la Roca-Chiapas%NULL%2,               José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,               Francesca%Favieri%NULL%2,               Francesca%Favieri%NULL%0,               Renata%Tambelli%NULL%2,               Renata%Tambelli%NULL%0,               Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,               Farah%Ghrissi%NULL%1,               Bouthaina%Abbassi%NULL%1,               Wissal%Cherif%NULL%1,               Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,               Enayat M.%Soltan%enayatsoltan@gmail.com%2,               Enayat M.%Soltan%enayatsoltan@gmail.com%0,               Hend M.%Salama%hind_mikhail@yahoo.com%2,               Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,               Charles B%Malpas%NULL%2,               Charles B%Malpas%NULL%0,               Aidan JC%Burrell%NULL%1,               Caroline%Gurvich%NULL%1,               Leo%Chen%NULL%1,               Jayashri%Kulkarni%NULL%1,               Toby%Winton-Brown%NULL%2,               Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,       Annunziata%Romeo%xref no email%1,       Agata%Benfante%xref no email%1,       Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,               Regino%Piñeiro-Lamas%NULL%1,               César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,               Yasmeen%Byrnes%NULL%2,               Yasmeen%Byrnes%NULL%0,               Changgee%Chang%NULL%2,               Aman%Prasad%NULL%1,               Kevin%Chorath%NULL%2,               Kevin%Chorath%NULL%0,               Seerat K.%Poonia%NULL%1,               Carolyn M.%Jenks%NULL%1,               Andrés M.%Bur%NULL%1,               Punam%Thakkar%NULL%2,               Punam%Thakkar%NULL%0,               Evan M.%Graboyes%NULL%2,               Evan M.%Graboyes%NULL%0,               Rahul%Seth%NULL%2,               Rahul%Seth%NULL%0,               Samuel%Trosman%NULL%1,               Anni%Wong%NULL%2,               Anni%Wong%NULL%0,               Benjamin M.%Laitman%NULL%1,               Brianna N.%Harris%NULL%1,               Janki%Shah%NULL%2,               Janki%Shah%NULL%0,               Vanessa%Stubbs%NULL%1,               Garret%Choby%NULL%1,               Qi%Long%NULL%2,               Christopher H.%Rassekh%NULL%1,               Erica%Thaler%NULL%1,               Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,               Antonio%Bertelli%NULL%1,               Antonio%Gonçalves%NULL%1,               Emily%Getzen%NULL%1,               Changgee%Chang%NULL%0,               Qi%Long%NULL%0,               Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,               Benjamin%Becker%NULL%2,               Qian%Yu%NULL%2,               Peter%Willeit%NULL%2,               Can%Jiao%NULL%2,               Liuyue%Huang%NULL%2,               M. Mahhub%Hossain%NULL%2,               Igor%Grabovac%NULL%2,               Albert%Yeung%NULL%2,               Jingyuan%Lin%NULL%2,               Nicola%Veronese%NULL%2,               Jian%Wang%NULL%3,               Xinqi%Zhou%NULL%2,               Scott R.%Doig%NULL%2,               Xiaofeng%Liu%NULL%2,               Andre F.%Carvalho%NULL%2,               Lin%Yang%NULL%4,               Tao%Xiao%NULL%2,               Liye%Zou%NULL%2,               Paolo%Fusar-Poli%NULL%2,               Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,               Jinghao Nicholas%Ngiam%NULL%1,               Benjamin Yong-Qiang%Tan%NULL%2,               Benjamin Yong-Qiang%Tan%NULL%0,               Sai-Meng%Tham%NULL%1,               Celine Yan-Shan%Tan%NULL%1,               Mingxue%Jing%NULL%1,               Renarebecca%Sagayanathan%NULL%1,               Jin Tao%Chen%NULL%1,               Lily Y. H.%Wong%NULL%1,               Aftab%Ahmad%NULL%1,               Faheem Ahmed%Khan%NULL%1,               Maznah%Marmin%NULL%1,               Fadhlina Binte%Hassan%NULL%1,               Tai Mei-Ling%Sharon%NULL%1,               Chin Han%Lim%NULL%1,               Mohamad Iqbal Bin%Mohaini%NULL%1,               Rivan%Danuaji%NULL%1,               Thang H.%Nguyen%NULL%1,               Georgios%Tsivgoulis%NULL%1,               Sotirios%Tsiodras%NULL%1,               Paraskevi C.%Fragkou%NULL%1,               Dimitra%Dimopoulou%NULL%2,               Dimitra%Dimopoulou%NULL%0,               Arvind K.%Sharma%NULL%1,               Kenam%Shah%NULL%1,               Bhargesh%Patel%NULL%1,               Suktara%Sharma%NULL%1,               R. N.%Komalkumar%NULL%1,               R. V.%Meenakshi%NULL%1,               Shikha%Talati%NULL%1,               Hock Luen%Teoh%NULL%1,               Cyrus S.%Ho%NULL%1,               Roger C.%Ho%NULL%0,               Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,               Qin%Cui%NULL%1,               Zhongchun%Liu%NULL%0,               Juanjuan%Li%NULL%1,               Xuan%Gong%NULL%1,               Jingfang%Liu%NULL%1,               Zhiying%Wan%NULL%1,               Xiaoping%Yuan%NULL%1,               Xiaofen%Li%NULL%1,               Chuang%Chen%NULL%1,               Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,              Apostolos%Blekas%coreGivesNoEmail%1,              Eleni%Parlapani%coreGivesNoEmail%1,              Ioannis%Diakogiannis%coreGivesNoEmail%1,              Maria%Athanasiadou%coreGivesNoEmail%1,              Marina%Skoupra%coreGivesNoEmail%1,              Markos%Syngelakis%coreGivesNoEmail%1,              Panteleimon%Voitsidis%coreGivesNoEmail%1,              Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,               Zheng Feei%Ma%NULL%0,               Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,               Wanqiu%Tan%NULL%1,               Li%Jiang%NULL%0,               Ling%Zhang%NULL%0,               Xinling%Zhao%NULL%0,               Yiran%Zou%NULL%0,               Yirong%Hu%NULL%0,               Xi%Luo%NULL%0,               Xiaojiang%Jiang%NULL%0,               Roger S.%McIntyre%NULL%0,               Bach%Tran%NULL%0,               Jiaqian%Sun%NULL%1,               Zhisong%Zhang%NULL%0,               Roger%Ho%NULL%0,               Cyrus%Ho%NULL%0,               Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,               Hui%Ren%NULL%1,               Ruilin%Cao%NULL%1,               Yueyang%Hu%NULL%1,               Zeying%Qin%NULL%1,               Chuanen%Li%NULL%1,               Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -4009,7 +4195,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>935</v>
+        <v>997</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4067,7 +4253,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>936</v>
+        <v>998</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -4096,7 +4282,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>937</v>
+        <v>999</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -4125,7 +4311,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>938</v>
+        <v>1000</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -4154,7 +4340,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>939</v>
+        <v>1001</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -4183,7 +4369,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>940</v>
+        <v>1002</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4212,7 +4398,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>941</v>
+        <v>1003</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -4241,7 +4427,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>942</v>
+        <v>1004</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -4270,7 +4456,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>943</v>
+        <v>1005</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4299,7 +4485,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>944</v>
+        <v>1006</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -4328,7 +4514,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>945</v>
+        <v>1007</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4357,7 +4543,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>946</v>
+        <v>1008</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -4386,7 +4572,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>947</v>
+        <v>1009</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -4415,7 +4601,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>948</v>
+        <v>1010</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -4444,7 +4630,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>949</v>
+        <v>1011</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -4473,7 +4659,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>950</v>
+        <v>1012</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4502,7 +4688,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>951</v>
+        <v>1013</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -4531,7 +4717,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>952</v>
+        <v>1014</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -4560,7 +4746,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>953</v>
+        <v>1015</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -4589,7 +4775,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>954</v>
+        <v>1016</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -4618,7 +4804,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>955</v>
+        <v>1017</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -4647,7 +4833,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>956</v>
+        <v>1018</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -4676,7 +4862,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>957</v>
+        <v>1019</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -4705,7 +4891,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>958</v>
+        <v>1020</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -4734,7 +4920,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>959</v>
+        <v>1021</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -4763,7 +4949,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>960</v>
+        <v>1022</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -4792,7 +4978,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>961</v>
+        <v>1023</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -4821,7 +5007,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>962</v>
+        <v>1024</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -4850,7 +5036,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -4879,7 +5065,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>964</v>
+        <v>1026</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -4908,7 +5094,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>965</v>
+        <v>1027</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -4937,7 +5123,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>966</v>
+        <v>1028</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -4966,7 +5152,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>967</v>
+        <v>1029</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -4995,7 +5181,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>968</v>
+        <v>1030</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -5024,7 +5210,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>969</v>
+        <v>1031</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -5053,7 +5239,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>970</v>
+        <v>1032</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -5111,7 +5297,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>971</v>
+        <v>1033</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -5140,7 +5326,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>972</v>
+        <v>1034</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -5198,7 +5384,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>973</v>
+        <v>1035</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -5227,7 +5413,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>974</v>
+        <v>1036</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -5256,7 +5442,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>975</v>
+        <v>1037</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -5285,7 +5471,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>976</v>
+        <v>1038</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -5314,7 +5500,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>977</v>
+        <v>1039</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -5343,7 +5529,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>978</v>
+        <v>1040</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -5372,7 +5558,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>979</v>
+        <v>1041</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -5401,7 +5587,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>980</v>
+        <v>1042</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -5430,7 +5616,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>981</v>
+        <v>1043</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -5459,7 +5645,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>982</v>
+        <v>1044</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -5488,7 +5674,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>983</v>
+        <v>1045</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -5517,7 +5703,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>984</v>
+        <v>1046</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -5546,7 +5732,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>985</v>
+        <v>1047</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -5575,7 +5761,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>986</v>
+        <v>1048</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -5604,7 +5790,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>987</v>
+        <v>1049</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -5633,7 +5819,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>988</v>
+        <v>1050</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -5662,7 +5848,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>989</v>
+        <v>1051</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -5691,7 +5877,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>990</v>
+        <v>1052</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -5720,7 +5906,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>991</v>
+        <v>1053</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -5749,7 +5935,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>992</v>
+        <v>1054</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -5778,7 +5964,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>993</v>
+        <v>1055</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -5807,7 +5993,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>994</v>
+        <v>1056</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -5836,7 +6022,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>995</v>
+        <v>1057</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -5865,7 +6051,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>996</v>
+        <v>1058</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1121">
   <si>
     <t>Doi</t>
   </si>
@@ -3828,6 +3828,192 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,               Hui%Ren%NULL%1,               Ruilin%Cao%NULL%1,               Yueyang%Hu%NULL%1,               Zeying%Qin%NULL%1,               Chuanen%Li%NULL%1,               Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                Roy F.%Baumeister%NULL%1,                Jennifer C.%Veilleux%NULL%1,                Caixia%Chen%NULL%1,                Wenjun%Liu%NULL%1,                Yongjie%Yue%NULL%1,                Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                Xiaopeng%Hu%NULL%1,                Ivo Otte%Ekumi%NULL%1,                Jianchun%Wang%NULL%1,                Yawen%An%NULL%1,                Zhiwen%Li%NULL%1,                Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                Wen%Li%NULL%2,                Yuan%Yang%NULL%4,                Yuan%Yang%NULL%0,                Yu%Wang%NULL%2,                Qinge%Zhang%NULL%1,                Teris%Cheung%NULL%2,                Xinjuan%Wu%NULL%2,                Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                Cherica A.%Tee%NULL%1,                Joseph P.%Anlacan%NULL%1,                Katrina Joy G.%Aligam%NULL%1,                Patrick Wincy C.%Reyes%NULL%1,                Vipat%Kuruchittham%NULL%1,                Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                Xiao-You%Su%suxiaoyou@hotmail.com%1,                Yu%Jiang%jiangyu@pumc.edu.cn%2,                Yu%Jiang%jiangyu@pumc.edu.cn%0,                Wen-Jun%Wang%wwjun1973@163.com%1,                Xiao-Fen%Gu%357539328@qq.com%1,                Li%Ma%mali_lele@sina.com%1,                Jing%Li%lijingwcph@scu.edu.cn%0,                Shao-Kai%Zhang%shaokaizhang@126.com%1,                Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                Ran%Ren%renran99@163.com%1,                Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                Helena%Garrido-Hernansaiz%NULL%1,                Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                Xiangfen%Su%suxiangfengfy@163.com%1,                Shuzeng%Zhang%NULL%2,                Shuzeng%Zhang%NULL%0,                Wenjie%Guan%NULL%1,                Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                Rong-Ning%Chen%NULL%1,                Li-Li%Liu%NULL%1,                Xue-Guo%Li%NULL%1,                Jian-Bin%Chen%NULL%1,                Si-Yao%Tang%NULL%1,                Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,        Jinfeng%Miao%xref no email%2,        Hui%Wang%xref no email%2,        Shabei%Xu%xref no email%2,        Wenzhe%Sun%xref no email%2,        Yebin%Fan%xref no email%2,        Chenyan%Zhang%xref no email%2,        Suiqiang%Zhu%xref no email%2,        Zhou%Zhu%xref no email%2,        Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                Elisa%Pedroli%NULL%1,                Guido E.%D'Aniello%NULL%1,                Chiara%Stramba Badiale%NULL%1,                Giada%Pietrabissa%NULL%1,                Chiara%Manna%NULL%1,                Marco%Stramba Badiale%NULL%1,                Giuseppe%Riva%NULL%1,                Gianluca%Castelnuovo%NULL%1,                Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                Qing-xian%Li%NULL%1,                Heng%Zhang%NULL%1,                Jia-yong%Zhu%NULL%1,                Xu%Yang%NULL%1,                Yu-hang%Wu%NULL%1,                Jie%Xiong%NULL%1,                Fu%Li%NULL%1,                Hua%Wang%whzkwlh@126.com%0,                Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                Charlotte%Coste%NULL%1,                Rocio%Sanchez%NULL%1,                Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                Saleh A.%Alrashed%NULL%1,                Ali A.%Alzunaydi%NULL%1,                Ahmed S.%Almohimeed%NULL%1,                Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                Hui%Shi%NULL%1,                Zhengkui%Liu%NULL%1,                Songxu%Peng%gwxypsx@163.com%2,                Songxu%Peng%gwxypsx@163.com%0,                Ruoxi%Wang%NULL%2,                Ruoxi%Wang%NULL%0,                Ling%Qi%NULL%1,                Zezhi%Li%NULL%1,                Jiezhi%Yang%NULL%1,                Yali%Ren%NULL%1,                Xiuli%Song%NULL%1,                Lingyun%Zeng%NULL%1,                Wei%Qian%NULL%1,                Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,               Khazaie%H.%coreGivesNoEmail%1,               Li%J.%coreGivesNoEmail%1,               Xiaohui%Li%coreGivesNoEmail%1,               Xing%Tan%coreGivesNoEmail%1,               Yuanyuan%An%coreGivesNoEmail%1,               Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                Zheng Feei%Ma%NULL%4,                Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                Zhuoer%Sun%NULL%3,                Zhuoer%Sun%NULL%0,                Tuanjie%Liu%NULL%1,                Xiong%Ni%NULL%1,                Xuanfeng%Deng%NULL%1,                Yanpu%Jia%NULL%2,                Zhilei%Shang%NULL%2,                Yaoguang%Zhou%NULL%2,                Weizhi%Liu%13024141970@163.com%3,                Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                N.%Hadjamu%NULL%2,                N.%Hadjamu%NULL%0,                G.%Willmund%NULL%1,                S.%Dolff%NULL%1,                N.%Vonderlin%NULL%1,                R.%Wakili%NULL%1,                J.%Vogel%NULL%1,                T.%Rassaf%NULL%1,                J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                Riyu%Pan%NULL%1,                Xiaoyang%Wan%NULL%1,                Yilin%Tan%NULL%1,                Linkang%Xu%NULL%1,                Roger S.%McIntyre%NULL%3,                Faith N.%Choo%NULL%1,                Bach%Tran%NULL%3,                Roger%Ho%NULL%3,                Vijay K.%Sharma%NULL%2,                Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                Jithin Thomas%Parel%NULL%2,                Jithin Thomas%Parel%NULL%0,                Neeraj%Raizada%NULL%2,                Neeraj%Raizada%NULL%0,                Shiv Kumar%Sarin%NULL%1,                Abdallah M.%Samy%NULL%2,                Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                Rene%Stefitz%NULL%1,                Kerstin%Gaisbachgrabner%NULL%1,                Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                Tao%Hu%NULL%1,                Baodi%Hu%NULL%1,                Chunhan%Jin%NULL%1,                Gang%Wang%NULL%1,                Chao%Xie%NULL%1,                Sen%Chen%NULL%1,                Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                Fengyi%Hao%NULL%1,                Roger S.%McIntyre%NULL%0,                Li%Jiang%NULL%2,                Xiaojiang%Jiang%NULL%2,                Ling%Zhang%NULL%2,                Xinling%Zhao%NULL%2,                Yiran%Zou%NULL%2,                Yirong%Hu%NULL%2,                Xi%Luo%NULL%2,                Zhisong%Zhang%NULL%2,                Andre%Lai%NULL%1,                Roger%Ho%NULL%0,                Bach%Tran%NULL%0,                Cyrus%Ho%NULL%0,                Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                Wenning%Fu%NULL%2,                Xiaoran%Liu%NULL%2,                Zhiqian%Luo%NULL%2,                Rixing%Wang%NULL%2,                Ning%Zhou%NULL%2,                Shijiao%Yan%NULL%3,                Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                Mark L%Williams%NULL%1,                Benjamin C%Amick%NULL%1,                Teresa J.%Hudson%NULL%1,                Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                Necdet%Sut%necdetsut@yahoo.com%2,                Necdet%Sut%necdetsut@yahoo.com%0,                Selma%Akdogan%drslma.akdogan@gmail.com%2,                Selma%Akdogan%drslma.akdogan@gmail.com%0,                Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                Valentina%Socci%NULL%3,                Dalila%Talevi%NULL%1,                Sonia%Mensi%NULL%1,                Cinzia%Niolu%NULL%1,                Francesca%Pacitti%NULL%3,                Antinisca%Di Marco%NULL%3,                Alessandro%Rossi%NULL%3,                Alberto%Siracusano%NULL%3,                Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                Valentina%Socci%NULL%0,                Francesca%Pacitti%NULL%0,                Giorgio%Di Lorenzo%NULL%0,                Antinisca%Di Marco%NULL%0,                Alberto%Siracusano%NULL%0,                Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                Marianna%Purgato%NULL%1,                Chiara%Bove%NULL%1,                David%MacTaggart%NULL%1,                Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                Wei%Chen%NULL%0,                Saiduo%Liu%NULL%2,                Paul M.%Thompson%NULL%2,                Long Jiang%Zhang%NULL%2,                Fei%Xia%NULL%3,                Fang%Cheng%NULL%3,                Ailing%Hong%NULL%2,                Wesley%Surento%NULL%2,                Song%Luo%NULL%2,                Zhi Yuan%Sun%NULL%2,                Chang Sheng%Zhou%NULL%2,                Lingjiang%Li%NULL%2,                Xiangao%Jiang%NULL%2,                Guang Ming%Lu%NULL%2,                 R.%Qi%null%2,                 W.% Chen%null%2,                 S.% Liu%null%2,                 P. M.% Thompson%null%2,                 L. J.% Zhang%null%2,                 F.% Xia%null%2,                 F.% Cheng%null%2,                 A.% Hong%null%2,                 W.% Surento%null%2,                 S.% Luo%null%2,                 Z. Y.% Sun%null%2,                 C. S.% Zhou%null%2,                 L.% Li%null%2,                 X.% Jiang%null%2,                 G. M. % Lu%null%2,               R.%Qi%null%1,               W.% Chen%null%1,               S.% Liu%null%1,               P. M.% Thompson%null%1,               L. J.% Zhang%null%1,               F.% Xia%null%1,               F.% Cheng%null%1,               A.% Hong%null%1,               W.% Surento%null%1,               S.% Luo%null%1,               Z. Y.% Sun%null%1,               C. S.% Zhou%null%1,               L.% Li%null%1,               X.% Jiang%null%1,               G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                Yutong%Zhang%NULL%2,                Yutong%Zhang%NULL%0,                Xiaoqin%Luo%NULL%1,                Xinli%Li%NULL%1,                Yeshan%Li%NULL%1,                Shuchang%Liu%NULL%1,                Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                Beatriz%Talavera-Velasco%NULL%2,                Beatriz%Talavera-Velasco%NULL%0,                Yolanda%García-Albuerne%NULL%1,                Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                Fan%Zhang%NULL%1,                Cun%Wei%NULL%1,                Yanpu%Jia%NULL%0,                Zhilei%Shang%NULL%0,                Luna%Sun%NULL%1,                Lili%Wu%NULL%1,                Zhuoer%Sun%NULL%0,                Yaoguang%Zhou%NULL%0,                Yan%Wang%NULL%1,                Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                Emily%Zhang%NULL%1,                Ga Tin Fifi%Wong%NULL%1,                Sunah%Hyun%NULL%1,                Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                Yue%Wang%NULL%1,                Jingwen%Jiang%NULL%1,                Unnur A.%Valdimarsdóttir%NULL%1,                Katja%Fall%NULL%2,                Katja%Fall%NULL%0,                Fang%Fang%NULL%4,                Fang%Fang%NULL%0,                Huan%Song%NULL%1,                Donghao%Lu%NULL%1,                Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,               Chiang%E. S.%coreGivesNoEmail%1,               Fernandez%R.%coreGivesNoEmail%1,               Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,               Ibrahim%H.%coreGivesNoEmail%1,               Lee%B.%coreGivesNoEmail%1,               Shi%L.%coreGivesNoEmail%1,               Sun%N.%coreGivesNoEmail%1,               Tsay%S.\u2010F.%coreGivesNoEmail%1,               World%Health Organisation%coreGivesNoEmail%2,               World%Health Organisation%coreGivesNoEmail%0,               Xiaoyue%Xu%coreGivesNoEmail%1,               Xiuchuan%Li%coreGivesNoEmail%1,               Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                Peixin%Lu%NULL%1,                Lianting%Hu%NULL%1,                Tianhui%Huang%NULL%1,                Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,               Holly%Wei%coreGivesNoEmail%1,               Hong%Xu%coreGivesNoEmail%1,               Lili%Wei%coreGivesNoEmail%1,               Lu%H%coreGivesNoEmail%1,               Min%Leng%coreGivesNoEmail%1,               Shi%Ti JC%coreGivesNoEmail%1,               Shuyun%Xing%coreGivesNoEmail%1,               Weathers%F%coreGivesNoEmail%1,               Wenwen%Zhang%coreGivesNoEmail%1,               Xiaohui%Shi%coreGivesNoEmail%1,               Xiaoying%Zhang%coreGivesNoEmail%1,               Yang%T%coreGivesNoEmail%1,               Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                Anh Kim%Dang%NULL%1,                Jayson%Toweh%NULL%1,                Quang Nhat%Nguyen%NULL%1,                Huong Thi%Le%NULL%1,                Toan Thi Thanh%Do%NULL%1,                Hanh Bich Thi%Phan%NULL%1,                Thao Thanh%Nguyen%NULL%1,                Quan Thi%Pham%NULL%1,                Nhung Kim Thi%Ta%NULL%1,                Quynh Thi%Nguyen%NULL%1,                Anh Ngoc%Nguyen%NULL%1,                Quan%Van Duong%NULL%1,                Men Thi%Hoang%NULL%1,                Hai Quang%Pham%NULL%1,                Linh Gia%Vu%NULL%1,                Bach Xuan%Tran%NULL%1,                Carl A.%Latkin%NULL%1,                Cyrus S. H.%Ho%NULL%1,                Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                S.%Joo%NULL%1,                P.-A.%Couette%NULL%1,                S.%de Jaegher%NULL%1,                F.%Joly%NULL%1,                X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                Simeng%Ma%NULL%2,                Ying%Wang%NULL%4,                Zhongxiang%Cai%NULL%2,                Jianbo%Hu%NULL%2,                Ning%Wei%NULL%2,                Jiang%Wu%NULL%3,                Hui%Du%NULL%2,                Tingting%Chen%NULL%2,                Ruiting%Li%NULL%2,                Huawei%Tan%NULL%2,                Lijun%Kang%NULL%2,                Lihua%Yao%NULL%2,                Manli%Huang%NULL%2,                Huafen%Wang%NULL%2,                Gaohua%Wang%NULL%3,                Zhongchun%Liu%NULL%3,                Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                Mark%Shevlin%NULL%1,                Jamie%Murphy%NULL%1,                Orla%McBride%NULL%1,                Menachem%Ben‐Ezra%NULL%2,                Menachem%Ben‐Ezra%NULL%0,                Richard P.%Bentall%NULL%1,                Frédérique%Vallières%NULL%1,                Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                Stephanie%Manasse%NULL%2,                Stephanie%Manasse%NULL%0,                Rebecca A.%Krukowski%NULL%2,                Rebecca A.%Krukowski%NULL%0,                Kathryn%Ross%NULL%2,                Kathryn%Ross%NULL%0,                Rebecca%Shakour%NULL%2,                Rebecca%Shakour%NULL%0,                Darci R.%Miller%NULL%1,                Dominick J.%Lemas%NULL%1,                Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                Xing Lin%Feng%NULL%1,                Xiao Hua%Wang%NULL%2,                Xiao Hua%Wang%NULL%0,                Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                Berta%Ausín%NULL%1,                Miguel Ángel%Castellanos%NULL%1,                Jesús%Saiz%NULL%1,                Aída%López-Gómez%NULL%1,                Carolina%Ugidos%NULL%1,                Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                Reyna Jazmín%Martínez Arriaga%NULL%2,                Reyna Jazmín%Martínez Arriaga%NULL%0,                Martha Alicia%Hernández-Gonzalez%NULL%2,                Martha Alicia%Hernández-Gonzalez%NULL%0,                José María%De la Roca-Chiapas%NULL%2,                José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                Francesca%Favieri%NULL%2,                Francesca%Favieri%NULL%0,                Renata%Tambelli%NULL%2,                Renata%Tambelli%NULL%0,                Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                Farah%Ghrissi%NULL%1,                Bouthaina%Abbassi%NULL%1,                Wissal%Cherif%NULL%1,                Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                Enayat M.%Soltan%enayatsoltan@gmail.com%2,                Enayat M.%Soltan%enayatsoltan@gmail.com%0,                Hend M.%Salama%hind_mikhail@yahoo.com%2,                Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                Charles B%Malpas%NULL%2,                Charles B%Malpas%NULL%0,                Aidan JC%Burrell%NULL%1,                Caroline%Gurvich%NULL%1,                Leo%Chen%NULL%1,                Jayashri%Kulkarni%NULL%1,                Toby%Winton-Brown%NULL%2,                Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,        Annunziata%Romeo%xref no email%1,        Agata%Benfante%xref no email%1,        Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                Regino%Piñeiro-Lamas%NULL%1,                César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                Yasmeen%Byrnes%NULL%2,                Yasmeen%Byrnes%NULL%0,                Changgee%Chang%NULL%2,                Aman%Prasad%NULL%1,                Kevin%Chorath%NULL%2,                Kevin%Chorath%NULL%0,                Seerat K.%Poonia%NULL%1,                Carolyn M.%Jenks%NULL%1,                Andrés M.%Bur%NULL%1,                Punam%Thakkar%NULL%2,                Punam%Thakkar%NULL%0,                Evan M.%Graboyes%NULL%2,                Evan M.%Graboyes%NULL%0,                Rahul%Seth%NULL%2,                Rahul%Seth%NULL%0,                Samuel%Trosman%NULL%1,                Anni%Wong%NULL%2,                Anni%Wong%NULL%0,                Benjamin M.%Laitman%NULL%1,                Brianna N.%Harris%NULL%1,                Janki%Shah%NULL%2,                Janki%Shah%NULL%0,                Vanessa%Stubbs%NULL%1,                Garret%Choby%NULL%1,                Qi%Long%NULL%2,                Christopher H.%Rassekh%NULL%1,                Erica%Thaler%NULL%1,                Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                Antonio%Bertelli%NULL%1,                Antonio%Gonçalves%NULL%1,                Emily%Getzen%NULL%1,                Changgee%Chang%NULL%0,                Qi%Long%NULL%0,                Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                Benjamin%Becker%NULL%2,                Qian%Yu%NULL%2,                Peter%Willeit%NULL%2,                Can%Jiao%NULL%2,                Liuyue%Huang%NULL%2,                M. Mahhub%Hossain%NULL%2,                Igor%Grabovac%NULL%2,                Albert%Yeung%NULL%2,                Jingyuan%Lin%NULL%2,                Nicola%Veronese%NULL%2,                Jian%Wang%NULL%3,                Xinqi%Zhou%NULL%2,                Scott R.%Doig%NULL%2,                Xiaofeng%Liu%NULL%2,                Andre F.%Carvalho%NULL%2,                Lin%Yang%NULL%4,                Tao%Xiao%NULL%2,                Liye%Zou%NULL%2,                Paolo%Fusar-Poli%NULL%2,                Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                Jinghao Nicholas%Ngiam%NULL%1,                Benjamin Yong-Qiang%Tan%NULL%2,                Benjamin Yong-Qiang%Tan%NULL%0,                Sai-Meng%Tham%NULL%1,                Celine Yan-Shan%Tan%NULL%1,                Mingxue%Jing%NULL%1,                Renarebecca%Sagayanathan%NULL%1,                Jin Tao%Chen%NULL%1,                Lily Y. H.%Wong%NULL%1,                Aftab%Ahmad%NULL%1,                Faheem Ahmed%Khan%NULL%1,                Maznah%Marmin%NULL%1,                Fadhlina Binte%Hassan%NULL%1,                Tai Mei-Ling%Sharon%NULL%1,                Chin Han%Lim%NULL%1,                Mohamad Iqbal Bin%Mohaini%NULL%1,                Rivan%Danuaji%NULL%1,                Thang H.%Nguyen%NULL%1,                Georgios%Tsivgoulis%NULL%1,                Sotirios%Tsiodras%NULL%1,                Paraskevi C.%Fragkou%NULL%1,                Dimitra%Dimopoulou%NULL%2,                Dimitra%Dimopoulou%NULL%0,                Arvind K.%Sharma%NULL%1,                Kenam%Shah%NULL%1,                Bhargesh%Patel%NULL%1,                Suktara%Sharma%NULL%1,                R. N.%Komalkumar%NULL%1,                R. V.%Meenakshi%NULL%1,                Shikha%Talati%NULL%1,                Hock Luen%Teoh%NULL%1,                Cyrus S.%Ho%NULL%1,                Roger C.%Ho%NULL%0,                Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                Qin%Cui%NULL%1,                Zhongchun%Liu%NULL%0,                Juanjuan%Li%NULL%1,                Xuan%Gong%NULL%1,                Jingfang%Liu%NULL%1,                Zhiying%Wan%NULL%1,                Xiaoping%Yuan%NULL%1,                Xiaofen%Li%NULL%1,                Chuang%Chen%NULL%1,                Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,               Apostolos%Blekas%coreGivesNoEmail%1,               Eleni%Parlapani%coreGivesNoEmail%1,               Ioannis%Diakogiannis%coreGivesNoEmail%1,               Maria%Athanasiadou%coreGivesNoEmail%1,               Marina%Skoupra%coreGivesNoEmail%1,               Markos%Syngelakis%coreGivesNoEmail%1,               Panteleimon%Voitsidis%coreGivesNoEmail%1,               Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                Zheng Feei%Ma%NULL%0,                Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                Wanqiu%Tan%NULL%1,                Li%Jiang%NULL%0,                Ling%Zhang%NULL%0,                Xinling%Zhao%NULL%0,                Yiran%Zou%NULL%0,                Yirong%Hu%NULL%0,                Xi%Luo%NULL%0,                Xiaojiang%Jiang%NULL%0,                Roger S.%McIntyre%NULL%0,                Bach%Tran%NULL%0,                Jiaqian%Sun%NULL%1,                Zhisong%Zhang%NULL%0,                Roger%Ho%NULL%0,                Cyrus%Ho%NULL%0,                Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                Hui%Ren%NULL%1,                Ruilin%Cao%NULL%1,                Yueyang%Hu%NULL%1,                Zeying%Qin%NULL%1,                Chuanen%Li%NULL%1,                Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -4195,7 +4381,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>997</v>
+        <v>1059</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4253,7 +4439,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>998</v>
+        <v>1060</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -4282,7 +4468,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>999</v>
+        <v>1061</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -4311,7 +4497,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -4340,7 +4526,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1001</v>
+        <v>1063</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -4369,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1002</v>
+        <v>1064</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4398,7 +4584,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1003</v>
+        <v>1065</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -4427,7 +4613,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1004</v>
+        <v>1066</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -4456,7 +4642,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1005</v>
+        <v>1067</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4485,7 +4671,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1006</v>
+        <v>1068</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -4514,7 +4700,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1007</v>
+        <v>1069</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4543,7 +4729,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1008</v>
+        <v>1070</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -4572,7 +4758,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1009</v>
+        <v>1071</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -4601,7 +4787,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1010</v>
+        <v>1072</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -4630,7 +4816,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1011</v>
+        <v>1073</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -4659,7 +4845,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1012</v>
+        <v>1074</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4688,7 +4874,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1013</v>
+        <v>1075</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -4717,7 +4903,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1014</v>
+        <v>1076</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -4746,7 +4932,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1015</v>
+        <v>1077</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -4775,7 +4961,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1016</v>
+        <v>1078</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -4804,7 +4990,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1017</v>
+        <v>1079</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -4833,7 +5019,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1018</v>
+        <v>1080</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -4862,7 +5048,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1019</v>
+        <v>1081</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -4891,7 +5077,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1020</v>
+        <v>1082</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -4920,7 +5106,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1021</v>
+        <v>1083</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -4949,7 +5135,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1022</v>
+        <v>1084</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -4978,7 +5164,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1023</v>
+        <v>1085</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -5007,7 +5193,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1024</v>
+        <v>1086</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -5036,7 +5222,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1025</v>
+        <v>1087</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -5065,7 +5251,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1026</v>
+        <v>1088</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -5094,7 +5280,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1027</v>
+        <v>1089</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -5123,7 +5309,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1028</v>
+        <v>1090</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -5152,7 +5338,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1029</v>
+        <v>1091</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -5181,7 +5367,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1030</v>
+        <v>1092</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -5210,7 +5396,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1031</v>
+        <v>1093</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -5239,7 +5425,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1032</v>
+        <v>1094</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -5297,7 +5483,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1033</v>
+        <v>1095</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -5326,7 +5512,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1034</v>
+        <v>1096</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -5384,7 +5570,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1035</v>
+        <v>1097</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -5413,7 +5599,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1036</v>
+        <v>1098</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -5442,7 +5628,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1037</v>
+        <v>1099</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -5471,7 +5657,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1038</v>
+        <v>1100</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -5500,7 +5686,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1039</v>
+        <v>1101</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -5529,7 +5715,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1040</v>
+        <v>1102</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -5558,7 +5744,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1041</v>
+        <v>1103</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -5587,7 +5773,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1042</v>
+        <v>1104</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -5616,7 +5802,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1043</v>
+        <v>1105</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -5645,7 +5831,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1044</v>
+        <v>1106</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -5674,7 +5860,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1045</v>
+        <v>1107</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -5703,7 +5889,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1046</v>
+        <v>1108</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -5732,7 +5918,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1047</v>
+        <v>1109</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -5761,7 +5947,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1048</v>
+        <v>1110</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -5790,7 +5976,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1049</v>
+        <v>1111</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -5819,7 +6005,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1050</v>
+        <v>1112</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -5848,7 +6034,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1051</v>
+        <v>1113</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -5877,7 +6063,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1052</v>
+        <v>1114</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -5906,7 +6092,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1053</v>
+        <v>1115</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -5935,7 +6121,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1054</v>
+        <v>1116</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -5964,7 +6150,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1055</v>
+        <v>1117</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -5993,7 +6179,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1056</v>
+        <v>1118</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -6022,7 +6208,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1057</v>
+        <v>1119</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -6051,7 +6237,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1058</v>
+        <v>1120</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7001" uniqueCount="1245">
   <si>
     <t>Doi</t>
   </si>
@@ -4014,6 +4014,378 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                Hui%Ren%NULL%1,                Ruilin%Cao%NULL%1,                Yueyang%Hu%NULL%1,                Zeying%Qin%NULL%1,                Chuanen%Li%NULL%1,                Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                 Roy F.%Baumeister%NULL%1,                 Jennifer C.%Veilleux%NULL%1,                 Caixia%Chen%NULL%1,                 Wenjun%Liu%NULL%1,                 Yongjie%Yue%NULL%1,                 Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                 Xiaopeng%Hu%NULL%1,                 Ivo Otte%Ekumi%NULL%1,                 Jianchun%Wang%NULL%1,                 Yawen%An%NULL%1,                 Zhiwen%Li%NULL%1,                 Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                 Wen%Li%NULL%2,                 Yuan%Yang%NULL%4,                 Yuan%Yang%NULL%0,                 Yu%Wang%NULL%2,                 Qinge%Zhang%NULL%1,                 Teris%Cheung%NULL%2,                 Xinjuan%Wu%NULL%2,                 Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                 Cherica A.%Tee%NULL%1,                 Joseph P.%Anlacan%NULL%1,                 Katrina Joy G.%Aligam%NULL%1,                 Patrick Wincy C.%Reyes%NULL%1,                 Vipat%Kuruchittham%NULL%1,                 Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                 Xiao-You%Su%suxiaoyou@hotmail.com%1,                 Yu%Jiang%jiangyu@pumc.edu.cn%2,                 Yu%Jiang%jiangyu@pumc.edu.cn%0,                 Wen-Jun%Wang%wwjun1973@163.com%1,                 Xiao-Fen%Gu%357539328@qq.com%1,                 Li%Ma%mali_lele@sina.com%1,                 Jing%Li%lijingwcph@scu.edu.cn%0,                 Shao-Kai%Zhang%shaokaizhang@126.com%1,                 Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                 Ran%Ren%renran99@163.com%1,                 Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                 You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                 Helena%Garrido-Hernansaiz%NULL%1,                 Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                 Xiangfen%Su%suxiangfengfy@163.com%1,                 Shuzeng%Zhang%NULL%2,                 Shuzeng%Zhang%NULL%0,                 Wenjie%Guan%NULL%1,                 Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                 Rong-Ning%Chen%NULL%1,                 Li-Li%Liu%NULL%1,                 Xue-Guo%Li%NULL%1,                 Jian-Bin%Chen%NULL%1,                 Si-Yao%Tang%NULL%1,                 Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,         Jinfeng%Miao%xref no email%2,         Hui%Wang%xref no email%2,         Shabei%Xu%xref no email%2,         Wenzhe%Sun%xref no email%2,         Yebin%Fan%xref no email%2,         Chenyan%Zhang%xref no email%2,         Suiqiang%Zhu%xref no email%2,         Zhou%Zhu%xref no email%2,         Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                 Elisa%Pedroli%NULL%1,                 Guido E.%D'Aniello%NULL%1,                 Chiara%Stramba Badiale%NULL%1,                 Giada%Pietrabissa%NULL%1,                 Chiara%Manna%NULL%1,                 Marco%Stramba Badiale%NULL%1,                 Giuseppe%Riva%NULL%1,                 Gianluca%Castelnuovo%NULL%1,                 Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                 Qing-xian%Li%NULL%1,                 Heng%Zhang%NULL%1,                 Jia-yong%Zhu%NULL%1,                 Xu%Yang%NULL%1,                 Yu-hang%Wu%NULL%1,                 Jie%Xiong%NULL%1,                 Fu%Li%NULL%1,                 Hua%Wang%whzkwlh@126.com%0,                 Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                 Charlotte%Coste%NULL%1,                 Rocio%Sanchez%NULL%1,                 Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                 Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                 Saleh A.%Alrashed%NULL%1,                 Ali A.%Alzunaydi%NULL%1,                 Ahmed S.%Almohimeed%NULL%1,                 Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                 Hui%Shi%NULL%1,                 Zhengkui%Liu%NULL%1,                 Songxu%Peng%gwxypsx@163.com%2,                 Songxu%Peng%gwxypsx@163.com%0,                 Ruoxi%Wang%NULL%2,                 Ruoxi%Wang%NULL%0,                 Ling%Qi%NULL%1,                 Zezhi%Li%NULL%1,                 Jiezhi%Yang%NULL%1,                 Yali%Ren%NULL%1,                 Xiuli%Song%NULL%1,                 Lingyun%Zeng%NULL%1,                 Wei%Qian%NULL%1,                 Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                Khazaie%H.%coreGivesNoEmail%1,                Li%J.%coreGivesNoEmail%1,                Xiaohui%Li%coreGivesNoEmail%1,                Xing%Tan%coreGivesNoEmail%1,                Yuanyuan%An%coreGivesNoEmail%1,                Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                 Zheng Feei%Ma%NULL%4,                 Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                 Zhuoer%Sun%NULL%3,                 Zhuoer%Sun%NULL%0,                 Tuanjie%Liu%NULL%1,                 Xiong%Ni%NULL%1,                 Xuanfeng%Deng%NULL%1,                 Yanpu%Jia%NULL%2,                 Zhilei%Shang%NULL%2,                 Yaoguang%Zhou%NULL%2,                 Weizhi%Liu%13024141970@163.com%3,                 Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                 N.%Hadjamu%NULL%2,                 N.%Hadjamu%NULL%0,                 G.%Willmund%NULL%1,                 S.%Dolff%NULL%1,                 N.%Vonderlin%NULL%1,                 R.%Wakili%NULL%1,                 J.%Vogel%NULL%1,                 T.%Rassaf%NULL%1,                 J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                 Riyu%Pan%NULL%1,                 Xiaoyang%Wan%NULL%1,                 Yilin%Tan%NULL%1,                 Linkang%Xu%NULL%1,                 Roger S.%McIntyre%NULL%3,                 Faith N.%Choo%NULL%1,                 Bach%Tran%NULL%3,                 Roger%Ho%NULL%3,                 Vijay K.%Sharma%NULL%2,                 Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                 Jithin Thomas%Parel%NULL%2,                 Jithin Thomas%Parel%NULL%0,                 Neeraj%Raizada%NULL%2,                 Neeraj%Raizada%NULL%0,                 Shiv Kumar%Sarin%NULL%1,                 Abdallah M.%Samy%NULL%2,                 Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                 Rene%Stefitz%NULL%1,                 Kerstin%Gaisbachgrabner%NULL%1,                 Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                 Tao%Hu%NULL%1,                 Baodi%Hu%NULL%1,                 Chunhan%Jin%NULL%1,                 Gang%Wang%NULL%1,                 Chao%Xie%NULL%1,                 Sen%Chen%NULL%1,                 Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                 Fengyi%Hao%NULL%1,                 Roger S.%McIntyre%NULL%0,                 Li%Jiang%NULL%2,                 Xiaojiang%Jiang%NULL%2,                 Ling%Zhang%NULL%2,                 Xinling%Zhao%NULL%2,                 Yiran%Zou%NULL%2,                 Yirong%Hu%NULL%2,                 Xi%Luo%NULL%2,                 Zhisong%Zhang%NULL%2,                 Andre%Lai%NULL%1,                 Roger%Ho%NULL%0,                 Bach%Tran%NULL%0,                 Cyrus%Ho%NULL%0,                 Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                 Wenning%Fu%NULL%2,                 Xiaoran%Liu%NULL%2,                 Zhiqian%Luo%NULL%2,                 Rixing%Wang%NULL%2,                 Ning%Zhou%NULL%2,                 Shijiao%Yan%NULL%3,                 Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                 Mark L%Williams%NULL%1,                 Benjamin C%Amick%NULL%1,                 Teresa J.%Hudson%NULL%1,                 Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                 Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                 Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                 Necdet%Sut%necdetsut@yahoo.com%2,                 Necdet%Sut%necdetsut@yahoo.com%0,                 Selma%Akdogan%drslma.akdogan@gmail.com%2,                 Selma%Akdogan%drslma.akdogan@gmail.com%0,                 Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                 Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                 Valentina%Socci%NULL%3,                 Dalila%Talevi%NULL%1,                 Sonia%Mensi%NULL%1,                 Cinzia%Niolu%NULL%1,                 Francesca%Pacitti%NULL%3,                 Antinisca%Di Marco%NULL%3,                 Alessandro%Rossi%NULL%3,                 Alberto%Siracusano%NULL%3,                 Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                 Valentina%Socci%NULL%0,                 Francesca%Pacitti%NULL%0,                 Giorgio%Di Lorenzo%NULL%0,                 Antinisca%Di Marco%NULL%0,                 Alberto%Siracusano%NULL%0,                 Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                 Marianna%Purgato%NULL%1,                 Chiara%Bove%NULL%1,                 David%MacTaggart%NULL%1,                 Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                 Wei%Chen%NULL%2,                 Saiduo%Liu%NULL%2,                 Paul M.%Thompson%NULL%2,                 Long Jiang%Zhang%NULL%2,                 Fei%Xia%NULL%3,                 Fang%Cheng%NULL%3,                 Ailing%Hong%NULL%2,                 Wesley%Surento%NULL%2,                 Song%Luo%NULL%2,                 Zhi Yuan%Sun%NULL%2,                 Chang Sheng%Zhou%NULL%2,                 Lingjiang%Li%NULL%2,                 Xiangao%Jiang%NULL%2,                 Guang Ming%Lu%NULL%2,                  R.%Qi%null%2,                  W.% Chen%null%2,                  S.% Liu%null%2,                  P. M.% Thompson%null%2,                  L. J.% Zhang%null%2,                  F.% Xia%null%2,                  F.% Cheng%null%2,                  A.% Hong%null%2,                  W.% Surento%null%2,                  S.% Luo%null%2,                  Z. Y.% Sun%null%2,                  C. S.% Zhou%null%2,                  L.% Li%null%2,                  X.% Jiang%null%2,                  G. M. % Lu%null%2,                R.%Qi%null%1,                W.% Chen%null%1,                S.% Liu%null%1,                P. M.% Thompson%null%1,                L. J.% Zhang%null%1,                F.% Xia%null%1,                F.% Cheng%null%1,                A.% Hong%null%1,                W.% Surento%null%1,                S.% Luo%null%1,                Z. Y.% Sun%null%1,                C. S.% Zhou%null%1,                L.% Li%null%1,                X.% Jiang%null%1,                G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                 Yutong%Zhang%NULL%2,                 Yutong%Zhang%NULL%0,                 Xiaoqin%Luo%NULL%1,                 Xinli%Li%NULL%1,                 Yeshan%Li%NULL%1,                 Shuchang%Liu%NULL%1,                 Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                 Beatriz%Talavera-Velasco%NULL%2,                 Beatriz%Talavera-Velasco%NULL%0,                 Yolanda%García-Albuerne%NULL%1,                 Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                 Fan%Zhang%NULL%1,                 Cun%Wei%NULL%1,                 Yanpu%Jia%NULL%0,                 Zhilei%Shang%NULL%0,                 Luna%Sun%NULL%1,                 Lili%Wu%NULL%1,                 Zhuoer%Sun%NULL%0,                 Yaoguang%Zhou%NULL%0,                 Yan%Wang%NULL%1,                 Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                 Emily%Zhang%NULL%1,                 Ga Tin Fifi%Wong%NULL%1,                 Sunah%Hyun%NULL%1,                 Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                 Yue%Wang%NULL%1,                 Jingwen%Jiang%NULL%1,                 Unnur A.%Valdimarsdóttir%NULL%1,                 Katja%Fall%NULL%2,                 Katja%Fall%NULL%0,                 Fang%Fang%NULL%4,                 Fang%Fang%NULL%0,                 Huan%Song%NULL%1,                 Donghao%Lu%NULL%1,                 Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                Chiang%E. S.%coreGivesNoEmail%1,                Fernandez%R.%coreGivesNoEmail%1,                Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                Ibrahim%H.%coreGivesNoEmail%1,                Lee%B.%coreGivesNoEmail%1,                Shi%L.%coreGivesNoEmail%1,                Sun%N.%coreGivesNoEmail%1,                Tsay%S.\u2010F.%coreGivesNoEmail%1,                World%Health Organisation%coreGivesNoEmail%2,                World%Health Organisation%coreGivesNoEmail%0,                Xiaoyue%Xu%coreGivesNoEmail%1,                Xiuchuan%Li%coreGivesNoEmail%1,                Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                 Peixin%Lu%NULL%1,                 Lianting%Hu%NULL%1,                 Tianhui%Huang%NULL%1,                 Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                Holly%Wei%coreGivesNoEmail%1,                Hong%Xu%coreGivesNoEmail%1,                Lili%Wei%coreGivesNoEmail%1,                Lu%H%coreGivesNoEmail%1,                Min%Leng%coreGivesNoEmail%1,                Shi%Ti JC%coreGivesNoEmail%1,                Shuyun%Xing%coreGivesNoEmail%1,                Weathers%F%coreGivesNoEmail%1,                Wenwen%Zhang%coreGivesNoEmail%1,                Xiaohui%Shi%coreGivesNoEmail%1,                Xiaoying%Zhang%coreGivesNoEmail%1,                Yang%T%coreGivesNoEmail%1,                Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                 Anh Kim%Dang%NULL%1,                 Jayson%Toweh%NULL%1,                 Quang Nhat%Nguyen%NULL%1,                 Huong Thi%Le%NULL%1,                 Toan Thi Thanh%Do%NULL%1,                 Hanh Bich Thi%Phan%NULL%1,                 Thao Thanh%Nguyen%NULL%1,                 Quan Thi%Pham%NULL%1,                 Nhung Kim Thi%Ta%NULL%1,                 Quynh Thi%Nguyen%NULL%1,                 Anh Ngoc%Nguyen%NULL%1,                 Quan%Van Duong%NULL%1,                 Men Thi%Hoang%NULL%1,                 Hai Quang%Pham%NULL%1,                 Linh Gia%Vu%NULL%1,                 Bach Xuan%Tran%NULL%1,                 Carl A.%Latkin%NULL%1,                 Cyrus S. H.%Ho%NULL%1,                 Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                 S.%Joo%NULL%1,                 P.-A.%Couette%NULL%1,                 S.%de Jaegher%NULL%1,                 F.%Joly%NULL%1,                 X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                 Simeng%Ma%NULL%2,                 Ying%Wang%NULL%4,                 Zhongxiang%Cai%NULL%2,                 Jianbo%Hu%NULL%2,                 Ning%Wei%NULL%2,                 Jiang%Wu%NULL%3,                 Hui%Du%NULL%2,                 Tingting%Chen%NULL%2,                 Ruiting%Li%NULL%2,                 Huawei%Tan%NULL%2,                 Lijun%Kang%NULL%2,                 Lihua%Yao%NULL%2,                 Manli%Huang%NULL%2,                 Huafen%Wang%NULL%2,                 Gaohua%Wang%NULL%3,                 Zhongchun%Liu%NULL%3,                 Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                 Mark%Shevlin%NULL%1,                 Jamie%Murphy%NULL%1,                 Orla%McBride%NULL%1,                 Menachem%Ben‐Ezra%NULL%2,                 Menachem%Ben‐Ezra%NULL%0,                 Richard P.%Bentall%NULL%1,                 Frédérique%Vallières%NULL%1,                 Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                 Stephanie%Manasse%NULL%2,                 Stephanie%Manasse%NULL%0,                 Rebecca A.%Krukowski%NULL%2,                 Rebecca A.%Krukowski%NULL%0,                 Kathryn%Ross%NULL%2,                 Kathryn%Ross%NULL%0,                 Rebecca%Shakour%NULL%2,                 Rebecca%Shakour%NULL%0,                 Darci R.%Miller%NULL%1,                 Dominick J.%Lemas%NULL%1,                 Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                 Xing Lin%Feng%NULL%1,                 Xiao Hua%Wang%NULL%2,                 Xiao Hua%Wang%NULL%0,                 Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                 Berta%Ausín%NULL%1,                 Miguel Ángel%Castellanos%NULL%1,                 Jesús%Saiz%NULL%1,                 Aída%López-Gómez%NULL%1,                 Carolina%Ugidos%NULL%1,                 Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                 Reyna Jazmín%Martínez Arriaga%NULL%2,                 Reyna Jazmín%Martínez Arriaga%NULL%0,                 Martha Alicia%Hernández-Gonzalez%NULL%2,                 Martha Alicia%Hernández-Gonzalez%NULL%0,                 José María%De la Roca-Chiapas%NULL%2,                 José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                 Francesca%Favieri%NULL%2,                 Francesca%Favieri%NULL%0,                 Renata%Tambelli%NULL%2,                 Renata%Tambelli%NULL%0,                 Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                 Farah%Ghrissi%NULL%1,                 Bouthaina%Abbassi%NULL%1,                 Wissal%Cherif%NULL%1,                 Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                 Enayat M.%Soltan%enayatsoltan@gmail.com%2,                 Enayat M.%Soltan%enayatsoltan@gmail.com%0,                 Hend M.%Salama%hind_mikhail@yahoo.com%2,                 Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                 Charles B%Malpas%NULL%2,                 Charles B%Malpas%NULL%0,                 Aidan JC%Burrell%NULL%1,                 Caroline%Gurvich%NULL%1,                 Leo%Chen%NULL%1,                 Jayashri%Kulkarni%NULL%1,                 Toby%Winton-Brown%NULL%2,                 Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,         Annunziata%Romeo%xref no email%1,         Agata%Benfante%xref no email%1,         Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                 Regino%Piñeiro-Lamas%NULL%1,                 César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                 Yasmeen%Byrnes%NULL%2,                 Yasmeen%Byrnes%NULL%0,                 Changgee%Chang%NULL%2,                 Aman%Prasad%NULL%1,                 Kevin%Chorath%NULL%2,                 Kevin%Chorath%NULL%0,                 Seerat K.%Poonia%NULL%1,                 Carolyn M.%Jenks%NULL%1,                 Andrés M.%Bur%NULL%1,                 Punam%Thakkar%NULL%2,                 Punam%Thakkar%NULL%0,                 Evan M.%Graboyes%NULL%2,                 Evan M.%Graboyes%NULL%0,                 Rahul%Seth%NULL%2,                 Rahul%Seth%NULL%0,                 Samuel%Trosman%NULL%1,                 Anni%Wong%NULL%2,                 Anni%Wong%NULL%0,                 Benjamin M.%Laitman%NULL%1,                 Brianna N.%Harris%NULL%1,                 Janki%Shah%NULL%2,                 Janki%Shah%NULL%0,                 Vanessa%Stubbs%NULL%1,                 Garret%Choby%NULL%1,                 Qi%Long%NULL%2,                 Christopher H.%Rassekh%NULL%1,                 Erica%Thaler%NULL%1,                 Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                 Antonio%Bertelli%NULL%1,                 Antonio%Gonçalves%NULL%1,                 Emily%Getzen%NULL%1,                 Changgee%Chang%NULL%0,                 Qi%Long%NULL%0,                 Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                 Benjamin%Becker%NULL%2,                 Qian%Yu%NULL%2,                 Peter%Willeit%NULL%2,                 Can%Jiao%NULL%2,                 Liuyue%Huang%NULL%2,                 M. Mahhub%Hossain%NULL%2,                 Igor%Grabovac%NULL%2,                 Albert%Yeung%NULL%2,                 Jingyuan%Lin%NULL%2,                 Nicola%Veronese%NULL%2,                 Jian%Wang%NULL%3,                 Xinqi%Zhou%NULL%2,                 Scott R.%Doig%NULL%2,                 Xiaofeng%Liu%NULL%2,                 Andre F.%Carvalho%NULL%2,                 Lin%Yang%NULL%4,                 Tao%Xiao%NULL%2,                 Liye%Zou%NULL%2,                 Paolo%Fusar-Poli%NULL%2,                 Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                 Jinghao Nicholas%Ngiam%NULL%1,                 Benjamin Yong-Qiang%Tan%NULL%2,                 Benjamin Yong-Qiang%Tan%NULL%0,                 Sai-Meng%Tham%NULL%1,                 Celine Yan-Shan%Tan%NULL%1,                 Mingxue%Jing%NULL%1,                 Renarebecca%Sagayanathan%NULL%1,                 Jin Tao%Chen%NULL%1,                 Lily Y. H.%Wong%NULL%1,                 Aftab%Ahmad%NULL%1,                 Faheem Ahmed%Khan%NULL%1,                 Maznah%Marmin%NULL%1,                 Fadhlina Binte%Hassan%NULL%1,                 Tai Mei-Ling%Sharon%NULL%1,                 Chin Han%Lim%NULL%1,                 Mohamad Iqbal Bin%Mohaini%NULL%1,                 Rivan%Danuaji%NULL%1,                 Thang H.%Nguyen%NULL%1,                 Georgios%Tsivgoulis%NULL%1,                 Sotirios%Tsiodras%NULL%1,                 Paraskevi C.%Fragkou%NULL%1,                 Dimitra%Dimopoulou%NULL%2,                 Dimitra%Dimopoulou%NULL%0,                 Arvind K.%Sharma%NULL%1,                 Kenam%Shah%NULL%1,                 Bhargesh%Patel%NULL%1,                 Suktara%Sharma%NULL%1,                 R. N.%Komalkumar%NULL%1,                 R. V.%Meenakshi%NULL%1,                 Shikha%Talati%NULL%1,                 Hock Luen%Teoh%NULL%1,                 Cyrus S.%Ho%NULL%1,                 Roger C.%Ho%NULL%0,                 Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                 Qin%Cui%NULL%1,                 Zhongchun%Liu%NULL%0,                 Juanjuan%Li%NULL%1,                 Xuan%Gong%NULL%1,                 Jingfang%Liu%NULL%1,                 Zhiying%Wan%NULL%1,                 Xiaoping%Yuan%NULL%1,                 Xiaofen%Li%NULL%1,                 Chuang%Chen%NULL%1,                 Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                Apostolos%Blekas%coreGivesNoEmail%1,                Eleni%Parlapani%coreGivesNoEmail%1,                Ioannis%Diakogiannis%coreGivesNoEmail%1,                Maria%Athanasiadou%coreGivesNoEmail%1,                Marina%Skoupra%coreGivesNoEmail%1,                Markos%Syngelakis%coreGivesNoEmail%1,                Panteleimon%Voitsidis%coreGivesNoEmail%1,                Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                 Zheng Feei%Ma%NULL%0,                 Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                 Wanqiu%Tan%NULL%1,                 Li%Jiang%NULL%0,                 Ling%Zhang%NULL%0,                 Xinling%Zhao%NULL%0,                 Yiran%Zou%NULL%0,                 Yirong%Hu%NULL%0,                 Xi%Luo%NULL%0,                 Xiaojiang%Jiang%NULL%0,                 Roger S.%McIntyre%NULL%0,                 Bach%Tran%NULL%0,                 Jiaqian%Sun%NULL%1,                 Zhisong%Zhang%NULL%0,                 Roger%Ho%NULL%0,                 Cyrus%Ho%NULL%0,                 Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                 Hui%Ren%NULL%1,                 Ruilin%Cao%NULL%1,                 Yueyang%Hu%NULL%1,                 Zeying%Qin%NULL%1,                 Chuanen%Li%NULL%1,                 Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                  Roy F.%Baumeister%NULL%1,                  Jennifer C.%Veilleux%NULL%1,                  Caixia%Chen%NULL%1,                  Wenjun%Liu%NULL%1,                  Yongjie%Yue%NULL%1,                  Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                  Xiaopeng%Hu%NULL%1,                  Ivo Otte%Ekumi%NULL%1,                  Jianchun%Wang%NULL%1,                  Yawen%An%NULL%1,                  Zhiwen%Li%NULL%1,                  Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                  Wen%Li%NULL%2,                  Yuan%Yang%NULL%4,                  Yuan%Yang%NULL%0,                  Yu%Wang%NULL%2,                  Qinge%Zhang%NULL%1,                  Teris%Cheung%NULL%2,                  Xinjuan%Wu%NULL%2,                  Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                  Cherica A.%Tee%NULL%1,                  Joseph P.%Anlacan%NULL%1,                  Katrina Joy G.%Aligam%NULL%1,                  Patrick Wincy C.%Reyes%NULL%1,                  Vipat%Kuruchittham%NULL%1,                  Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                  Xiao-You%Su%suxiaoyou@hotmail.com%1,                  Yu%Jiang%jiangyu@pumc.edu.cn%2,                  Yu%Jiang%jiangyu@pumc.edu.cn%0,                  Wen-Jun%Wang%wwjun1973@163.com%1,                  Xiao-Fen%Gu%357539328@qq.com%1,                  Li%Ma%mali_lele@sina.com%1,                  Jing%Li%lijingwcph@scu.edu.cn%0,                  Shao-Kai%Zhang%shaokaizhang@126.com%1,                  Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                  Ran%Ren%renran99@163.com%1,                  Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                  You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                  Helena%Garrido-Hernansaiz%NULL%1,                  Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                  Xiangfen%Su%suxiangfengfy@163.com%1,                  Shuzeng%Zhang%NULL%2,                  Shuzeng%Zhang%NULL%0,                  Wenjie%Guan%NULL%1,                  Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                  Rong-Ning%Chen%NULL%1,                  Li-Li%Liu%NULL%1,                  Xue-Guo%Li%NULL%1,                  Jian-Bin%Chen%NULL%1,                  Si-Yao%Tang%NULL%1,                  Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,          Jinfeng%Miao%xref no email%2,          Hui%Wang%xref no email%2,          Shabei%Xu%xref no email%2,          Wenzhe%Sun%xref no email%2,          Yebin%Fan%xref no email%2,          Chenyan%Zhang%xref no email%2,          Suiqiang%Zhu%xref no email%2,          Zhou%Zhu%xref no email%2,          Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                  Elisa%Pedroli%NULL%1,                  Guido E.%D'Aniello%NULL%1,                  Chiara%Stramba Badiale%NULL%1,                  Giada%Pietrabissa%NULL%1,                  Chiara%Manna%NULL%1,                  Marco%Stramba Badiale%NULL%1,                  Giuseppe%Riva%NULL%1,                  Gianluca%Castelnuovo%NULL%1,                  Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                  Qing-xian%Li%NULL%1,                  Heng%Zhang%NULL%1,                  Jia-yong%Zhu%NULL%1,                  Xu%Yang%NULL%1,                  Yu-hang%Wu%NULL%1,                  Jie%Xiong%NULL%1,                  Fu%Li%NULL%1,                  Hua%Wang%whzkwlh@126.com%0,                  Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                  Charlotte%Coste%NULL%1,                  Rocio%Sanchez%NULL%1,                  Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                  Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                  Saleh A.%Alrashed%NULL%1,                  Ali A.%Alzunaydi%NULL%1,                  Ahmed S.%Almohimeed%NULL%1,                  Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                  Hui%Shi%NULL%1,                  Zhengkui%Liu%NULL%1,                  Songxu%Peng%gwxypsx@163.com%2,                  Songxu%Peng%gwxypsx@163.com%0,                  Ruoxi%Wang%NULL%2,                  Ruoxi%Wang%NULL%0,                  Ling%Qi%NULL%1,                  Zezhi%Li%NULL%1,                  Jiezhi%Yang%NULL%1,                  Yali%Ren%NULL%1,                  Xiuli%Song%NULL%1,                  Lingyun%Zeng%NULL%1,                  Wei%Qian%NULL%1,                  Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                 Khazaie%H.%coreGivesNoEmail%1,                 Li%J.%coreGivesNoEmail%1,                 Xiaohui%Li%coreGivesNoEmail%1,                 Xing%Tan%coreGivesNoEmail%1,                 Yuanyuan%An%coreGivesNoEmail%1,                 Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                  Zheng Feei%Ma%NULL%4,                  Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                  Zhuoer%Sun%NULL%3,                  Zhuoer%Sun%NULL%0,                  Tuanjie%Liu%NULL%1,                  Xiong%Ni%NULL%1,                  Xuanfeng%Deng%NULL%1,                  Yanpu%Jia%NULL%2,                  Zhilei%Shang%NULL%2,                  Yaoguang%Zhou%NULL%2,                  Weizhi%Liu%13024141970@163.com%3,                  Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                  N.%Hadjamu%NULL%2,                  N.%Hadjamu%NULL%0,                  G.%Willmund%NULL%1,                  S.%Dolff%NULL%1,                  N.%Vonderlin%NULL%1,                  R.%Wakili%NULL%1,                  J.%Vogel%NULL%1,                  T.%Rassaf%NULL%1,                  J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                  Riyu%Pan%NULL%1,                  Xiaoyang%Wan%NULL%1,                  Yilin%Tan%NULL%1,                  Linkang%Xu%NULL%1,                  Roger S.%McIntyre%NULL%3,                  Faith N.%Choo%NULL%1,                  Bach%Tran%NULL%3,                  Roger%Ho%NULL%3,                  Vijay K.%Sharma%NULL%2,                  Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                  Jithin Thomas%Parel%NULL%2,                  Jithin Thomas%Parel%NULL%0,                  Neeraj%Raizada%NULL%2,                  Neeraj%Raizada%NULL%0,                  Shiv Kumar%Sarin%NULL%1,                  Abdallah M.%Samy%NULL%2,                  Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                  Rene%Stefitz%NULL%1,                  Kerstin%Gaisbachgrabner%NULL%1,                  Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                  Tao%Hu%NULL%1,                  Baodi%Hu%NULL%1,                  Chunhan%Jin%NULL%1,                  Gang%Wang%NULL%1,                  Chao%Xie%NULL%1,                  Sen%Chen%NULL%1,                  Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                  Fengyi%Hao%NULL%1,                  Roger S.%McIntyre%NULL%0,                  Li%Jiang%NULL%2,                  Xiaojiang%Jiang%NULL%2,                  Ling%Zhang%NULL%2,                  Xinling%Zhao%NULL%2,                  Yiran%Zou%NULL%2,                  Yirong%Hu%NULL%2,                  Xi%Luo%NULL%2,                  Zhisong%Zhang%NULL%2,                  Andre%Lai%NULL%1,                  Roger%Ho%NULL%0,                  Bach%Tran%NULL%0,                  Cyrus%Ho%NULL%0,                  Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                  Wenning%Fu%NULL%2,                  Xiaoran%Liu%NULL%2,                  Zhiqian%Luo%NULL%2,                  Rixing%Wang%NULL%2,                  Ning%Zhou%NULL%2,                  Shijiao%Yan%NULL%3,                  Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                  Mark L%Williams%NULL%1,                  Benjamin C%Amick%NULL%1,                  Teresa J.%Hudson%NULL%1,                  Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                  Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                  Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                  Necdet%Sut%necdetsut@yahoo.com%2,                  Necdet%Sut%necdetsut@yahoo.com%0,                  Selma%Akdogan%drslma.akdogan@gmail.com%2,                  Selma%Akdogan%drslma.akdogan@gmail.com%0,                  Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                  Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                  Valentina%Socci%NULL%3,                  Dalila%Talevi%NULL%1,                  Sonia%Mensi%NULL%1,                  Cinzia%Niolu%NULL%1,                  Francesca%Pacitti%NULL%3,                  Antinisca%Di Marco%NULL%3,                  Alessandro%Rossi%NULL%3,                  Alberto%Siracusano%NULL%3,                  Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                  Valentina%Socci%NULL%0,                  Francesca%Pacitti%NULL%0,                  Giorgio%Di Lorenzo%NULL%0,                  Antinisca%Di Marco%NULL%0,                  Alberto%Siracusano%NULL%0,                  Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                  Marianna%Purgato%NULL%1,                  Chiara%Bove%NULL%1,                  David%MacTaggart%NULL%1,                  Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                  Wei%Chen%NULL%2,                  Saiduo%Liu%NULL%2,                  Paul M.%Thompson%NULL%2,                  Long Jiang%Zhang%NULL%2,                  Fei%Xia%NULL%3,                  Fang%Cheng%NULL%3,                  Ailing%Hong%NULL%2,                  Wesley%Surento%NULL%2,                  Song%Luo%NULL%2,                  Zhi Yuan%Sun%NULL%2,                  Chang Sheng%Zhou%NULL%2,                  Lingjiang%Li%NULL%2,                  Xiangao%Jiang%NULL%2,                  Guang Ming%Lu%NULL%2,                   R.%Qi%null%2,                   W.% Chen%null%2,                   S.% Liu%null%2,                   P. M.% Thompson%null%2,                   L. J.% Zhang%null%2,                   F.% Xia%null%2,                   F.% Cheng%null%2,                   A.% Hong%null%2,                   W.% Surento%null%2,                   S.% Luo%null%2,                   Z. Y.% Sun%null%2,                   C. S.% Zhou%null%2,                   L.% Li%null%2,                   X.% Jiang%null%2,                   G. M. % Lu%null%2,                 R.%Qi%null%1,                 W.% Chen%null%1,                 S.% Liu%null%1,                 P. M.% Thompson%null%1,                 L. J.% Zhang%null%1,                 F.% Xia%null%1,                 F.% Cheng%null%1,                 A.% Hong%null%1,                 W.% Surento%null%1,                 S.% Luo%null%1,                 Z. Y.% Sun%null%1,                 C. S.% Zhou%null%1,                 L.% Li%null%1,                 X.% Jiang%null%1,                 G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                  Yutong%Zhang%NULL%2,                  Yutong%Zhang%NULL%0,                  Xiaoqin%Luo%NULL%1,                  Xinli%Li%NULL%1,                  Yeshan%Li%NULL%1,                  Shuchang%Liu%NULL%1,                  Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                  Beatriz%Talavera-Velasco%NULL%2,                  Beatriz%Talavera-Velasco%NULL%0,                  Yolanda%García-Albuerne%NULL%1,                  Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                  Fan%Zhang%NULL%1,                  Cun%Wei%NULL%1,                  Yanpu%Jia%NULL%0,                  Zhilei%Shang%NULL%0,                  Luna%Sun%NULL%1,                  Lili%Wu%NULL%1,                  Zhuoer%Sun%NULL%0,                  Yaoguang%Zhou%NULL%0,                  Yan%Wang%NULL%1,                  Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                  Emily%Zhang%NULL%1,                  Ga Tin Fifi%Wong%NULL%1,                  Sunah%Hyun%NULL%1,                  Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                  Yue%Wang%NULL%1,                  Jingwen%Jiang%NULL%1,                  Unnur A.%Valdimarsdóttir%NULL%1,                  Katja%Fall%NULL%2,                  Katja%Fall%NULL%0,                  Fang%Fang%NULL%4,                  Fang%Fang%NULL%0,                  Huan%Song%NULL%1,                  Donghao%Lu%NULL%1,                  Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                 Chiang%E. S.%coreGivesNoEmail%1,                 Fernandez%R.%coreGivesNoEmail%1,                 Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                 Ibrahim%H.%coreGivesNoEmail%1,                 Lee%B.%coreGivesNoEmail%1,                 Shi%L.%coreGivesNoEmail%1,                 Sun%N.%coreGivesNoEmail%1,                 Tsay%S.\u2010F.%coreGivesNoEmail%1,                 World%Health Organisation%coreGivesNoEmail%2,                 World%Health Organisation%coreGivesNoEmail%0,                 Xiaoyue%Xu%coreGivesNoEmail%1,                 Xiuchuan%Li%coreGivesNoEmail%1,                 Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                  Peixin%Lu%NULL%1,                  Lianting%Hu%NULL%1,                  Tianhui%Huang%NULL%1,                  Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                 Holly%Wei%coreGivesNoEmail%1,                 Hong%Xu%coreGivesNoEmail%1,                 Lili%Wei%coreGivesNoEmail%1,                 Lu%H%coreGivesNoEmail%1,                 Min%Leng%coreGivesNoEmail%1,                 Shi%Ti JC%coreGivesNoEmail%1,                 Shuyun%Xing%coreGivesNoEmail%1,                 Weathers%F%coreGivesNoEmail%1,                 Wenwen%Zhang%coreGivesNoEmail%1,                 Xiaohui%Shi%coreGivesNoEmail%1,                 Xiaoying%Zhang%coreGivesNoEmail%1,                 Yang%T%coreGivesNoEmail%1,                 Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                  Anh Kim%Dang%NULL%1,                  Jayson%Toweh%NULL%1,                  Quang Nhat%Nguyen%NULL%1,                  Huong Thi%Le%NULL%1,                  Toan Thi Thanh%Do%NULL%1,                  Hanh Bich Thi%Phan%NULL%1,                  Thao Thanh%Nguyen%NULL%1,                  Quan Thi%Pham%NULL%1,                  Nhung Kim Thi%Ta%NULL%1,                  Quynh Thi%Nguyen%NULL%1,                  Anh Ngoc%Nguyen%NULL%1,                  Quan%Van Duong%NULL%1,                  Men Thi%Hoang%NULL%1,                  Hai Quang%Pham%NULL%1,                  Linh Gia%Vu%NULL%1,                  Bach Xuan%Tran%NULL%1,                  Carl A.%Latkin%NULL%1,                  Cyrus S. H.%Ho%NULL%1,                  Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                  S.%Joo%NULL%1,                  P.-A.%Couette%NULL%1,                  S.%de Jaegher%NULL%1,                  F.%Joly%NULL%1,                  X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                  Simeng%Ma%NULL%2,                  Ying%Wang%NULL%4,                  Zhongxiang%Cai%NULL%2,                  Jianbo%Hu%NULL%2,                  Ning%Wei%NULL%2,                  Jiang%Wu%NULL%3,                  Hui%Du%NULL%2,                  Tingting%Chen%NULL%2,                  Ruiting%Li%NULL%2,                  Huawei%Tan%NULL%2,                  Lijun%Kang%NULL%2,                  Lihua%Yao%NULL%2,                  Manli%Huang%NULL%2,                  Huafen%Wang%NULL%2,                  Gaohua%Wang%NULL%3,                  Zhongchun%Liu%NULL%3,                  Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                  Mark%Shevlin%NULL%1,                  Jamie%Murphy%NULL%1,                  Orla%McBride%NULL%1,                  Menachem%Ben‐Ezra%NULL%2,                  Menachem%Ben‐Ezra%NULL%0,                  Richard P.%Bentall%NULL%1,                  Frédérique%Vallières%NULL%1,                  Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                  Stephanie%Manasse%NULL%2,                  Stephanie%Manasse%NULL%0,                  Rebecca A.%Krukowski%NULL%2,                  Rebecca A.%Krukowski%NULL%0,                  Kathryn%Ross%NULL%2,                  Kathryn%Ross%NULL%0,                  Rebecca%Shakour%NULL%2,                  Rebecca%Shakour%NULL%0,                  Darci R.%Miller%NULL%1,                  Dominick J.%Lemas%NULL%1,                  Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                  Xing Lin%Feng%NULL%1,                  Xiao Hua%Wang%NULL%2,                  Xiao Hua%Wang%NULL%0,                  Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                  Berta%Ausín%NULL%1,                  Miguel Ángel%Castellanos%NULL%1,                  Jesús%Saiz%NULL%1,                  Aída%López-Gómez%NULL%1,                  Carolina%Ugidos%NULL%1,                  Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                  Reyna Jazmín%Martínez Arriaga%NULL%2,                  Reyna Jazmín%Martínez Arriaga%NULL%0,                  Martha Alicia%Hernández-Gonzalez%NULL%2,                  Martha Alicia%Hernández-Gonzalez%NULL%0,                  José María%De la Roca-Chiapas%NULL%2,                  José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                  Francesca%Favieri%NULL%2,                  Francesca%Favieri%NULL%0,                  Renata%Tambelli%NULL%2,                  Renata%Tambelli%NULL%0,                  Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                  Farah%Ghrissi%NULL%1,                  Bouthaina%Abbassi%NULL%1,                  Wissal%Cherif%NULL%1,                  Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                  Enayat M.%Soltan%enayatsoltan@gmail.com%2,                  Enayat M.%Soltan%enayatsoltan@gmail.com%0,                  Hend M.%Salama%hind_mikhail@yahoo.com%2,                  Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                  Charles B%Malpas%NULL%2,                  Charles B%Malpas%NULL%0,                  Aidan JC%Burrell%NULL%1,                  Caroline%Gurvich%NULL%1,                  Leo%Chen%NULL%1,                  Jayashri%Kulkarni%NULL%1,                  Toby%Winton-Brown%NULL%2,                  Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,          Annunziata%Romeo%xref no email%1,          Agata%Benfante%xref no email%1,          Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                  Regino%Piñeiro-Lamas%NULL%1,                  César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                  Yasmeen%Byrnes%NULL%2,                  Yasmeen%Byrnes%NULL%0,                  Changgee%Chang%NULL%2,                  Aman%Prasad%NULL%1,                  Kevin%Chorath%NULL%2,                  Kevin%Chorath%NULL%0,                  Seerat K.%Poonia%NULL%1,                  Carolyn M.%Jenks%NULL%1,                  Andrés M.%Bur%NULL%1,                  Punam%Thakkar%NULL%2,                  Punam%Thakkar%NULL%0,                  Evan M.%Graboyes%NULL%2,                  Evan M.%Graboyes%NULL%0,                  Rahul%Seth%NULL%2,                  Rahul%Seth%NULL%0,                  Samuel%Trosman%NULL%1,                  Anni%Wong%NULL%2,                  Anni%Wong%NULL%0,                  Benjamin M.%Laitman%NULL%1,                  Brianna N.%Harris%NULL%1,                  Janki%Shah%NULL%2,                  Janki%Shah%NULL%0,                  Vanessa%Stubbs%NULL%1,                  Garret%Choby%NULL%1,                  Qi%Long%NULL%2,                  Christopher H.%Rassekh%NULL%1,                  Erica%Thaler%NULL%1,                  Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                  Antonio%Bertelli%NULL%1,                  Antonio%Gonçalves%NULL%1,                  Emily%Getzen%NULL%1,                  Changgee%Chang%NULL%0,                  Qi%Long%NULL%0,                  Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                  Benjamin%Becker%NULL%2,                  Qian%Yu%NULL%2,                  Peter%Willeit%NULL%2,                  Can%Jiao%NULL%2,                  Liuyue%Huang%NULL%2,                  M. Mahhub%Hossain%NULL%2,                  Igor%Grabovac%NULL%2,                  Albert%Yeung%NULL%2,                  Jingyuan%Lin%NULL%2,                  Nicola%Veronese%NULL%2,                  Jian%Wang%NULL%3,                  Xinqi%Zhou%NULL%2,                  Scott R.%Doig%NULL%2,                  Xiaofeng%Liu%NULL%2,                  Andre F.%Carvalho%NULL%2,                  Lin%Yang%NULL%4,                  Tao%Xiao%NULL%2,                  Liye%Zou%NULL%2,                  Paolo%Fusar-Poli%NULL%2,                  Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                  Jinghao Nicholas%Ngiam%NULL%1,                  Benjamin Yong-Qiang%Tan%NULL%2,                  Benjamin Yong-Qiang%Tan%NULL%0,                  Sai-Meng%Tham%NULL%1,                  Celine Yan-Shan%Tan%NULL%1,                  Mingxue%Jing%NULL%1,                  Renarebecca%Sagayanathan%NULL%1,                  Jin Tao%Chen%NULL%1,                  Lily Y. H.%Wong%NULL%1,                  Aftab%Ahmad%NULL%1,                  Faheem Ahmed%Khan%NULL%1,                  Maznah%Marmin%NULL%1,                  Fadhlina Binte%Hassan%NULL%1,                  Tai Mei-Ling%Sharon%NULL%1,                  Chin Han%Lim%NULL%1,                  Mohamad Iqbal Bin%Mohaini%NULL%1,                  Rivan%Danuaji%NULL%1,                  Thang H.%Nguyen%NULL%1,                  Georgios%Tsivgoulis%NULL%1,                  Sotirios%Tsiodras%NULL%1,                  Paraskevi C.%Fragkou%NULL%1,                  Dimitra%Dimopoulou%NULL%2,                  Dimitra%Dimopoulou%NULL%0,                  Arvind K.%Sharma%NULL%1,                  Kenam%Shah%NULL%1,                  Bhargesh%Patel%NULL%1,                  Suktara%Sharma%NULL%1,                  R. N.%Komalkumar%NULL%1,                  R. V.%Meenakshi%NULL%1,                  Shikha%Talati%NULL%1,                  Hock Luen%Teoh%NULL%1,                  Cyrus S.%Ho%NULL%1,                  Roger C.%Ho%NULL%0,                  Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                  Qin%Cui%NULL%1,                  Zhongchun%Liu%NULL%0,                  Juanjuan%Li%NULL%1,                  Xuan%Gong%NULL%1,                  Jingfang%Liu%NULL%1,                  Zhiying%Wan%NULL%1,                  Xiaoping%Yuan%NULL%1,                  Xiaofen%Li%NULL%1,                  Chuang%Chen%NULL%1,                  Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                 Apostolos%Blekas%coreGivesNoEmail%1,                 Eleni%Parlapani%coreGivesNoEmail%1,                 Ioannis%Diakogiannis%coreGivesNoEmail%1,                 Maria%Athanasiadou%coreGivesNoEmail%1,                 Marina%Skoupra%coreGivesNoEmail%1,                 Markos%Syngelakis%coreGivesNoEmail%1,                 Panteleimon%Voitsidis%coreGivesNoEmail%1,                 Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                  Zheng Feei%Ma%NULL%0,                  Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                  Wanqiu%Tan%NULL%1,                  Li%Jiang%NULL%0,                  Ling%Zhang%NULL%0,                  Xinling%Zhao%NULL%0,                  Yiran%Zou%NULL%0,                  Yirong%Hu%NULL%0,                  Xi%Luo%NULL%0,                  Xiaojiang%Jiang%NULL%0,                  Roger S.%McIntyre%NULL%0,                  Bach%Tran%NULL%0,                  Jiaqian%Sun%NULL%1,                  Zhisong%Zhang%NULL%0,                  Roger%Ho%NULL%0,                  Cyrus%Ho%NULL%0,                  Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                  Hui%Ren%NULL%1,                  Ruilin%Cao%NULL%1,                  Yueyang%Hu%NULL%1,                  Zeying%Qin%NULL%1,                  Chuanen%Li%NULL%1,                  Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -4381,7 +4753,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>1059</v>
+        <v>1183</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4439,7 +4811,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1060</v>
+        <v>1184</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -4468,7 +4840,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1061</v>
+        <v>1185</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -4497,7 +4869,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1062</v>
+        <v>1186</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -4526,7 +4898,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1063</v>
+        <v>1187</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -4555,7 +4927,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1064</v>
+        <v>1188</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4584,7 +4956,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1065</v>
+        <v>1189</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -4613,7 +4985,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1066</v>
+        <v>1190</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -4642,7 +5014,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1067</v>
+        <v>1191</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4671,7 +5043,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1068</v>
+        <v>1192</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -4700,7 +5072,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1069</v>
+        <v>1193</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -4729,7 +5101,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1070</v>
+        <v>1194</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -4758,7 +5130,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1071</v>
+        <v>1195</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -4787,7 +5159,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1072</v>
+        <v>1196</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -4816,7 +5188,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1073</v>
+        <v>1197</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -4845,7 +5217,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1074</v>
+        <v>1198</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4874,7 +5246,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1075</v>
+        <v>1199</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -4903,7 +5275,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1076</v>
+        <v>1200</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -4932,7 +5304,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1077</v>
+        <v>1201</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -4961,7 +5333,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1078</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -4990,7 +5362,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1079</v>
+        <v>1203</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -5019,7 +5391,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1080</v>
+        <v>1204</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -5048,7 +5420,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1081</v>
+        <v>1205</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -5077,7 +5449,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1082</v>
+        <v>1206</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -5106,7 +5478,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1083</v>
+        <v>1207</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -5135,7 +5507,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1084</v>
+        <v>1208</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -5164,7 +5536,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1085</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -5193,7 +5565,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1086</v>
+        <v>1210</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -5222,7 +5594,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1087</v>
+        <v>1211</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -5251,7 +5623,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1088</v>
+        <v>1212</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -5280,7 +5652,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1089</v>
+        <v>1213</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -5309,7 +5681,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1090</v>
+        <v>1214</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -5338,7 +5710,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1091</v>
+        <v>1215</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -5367,7 +5739,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1092</v>
+        <v>1216</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -5396,7 +5768,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1093</v>
+        <v>1217</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -5425,7 +5797,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1094</v>
+        <v>1218</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -5483,7 +5855,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1095</v>
+        <v>1219</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -5512,7 +5884,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1096</v>
+        <v>1220</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -5570,7 +5942,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1097</v>
+        <v>1221</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -5599,7 +5971,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1098</v>
+        <v>1222</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -5628,7 +6000,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1099</v>
+        <v>1223</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -5657,7 +6029,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1100</v>
+        <v>1224</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -5686,7 +6058,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1101</v>
+        <v>1225</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -5715,7 +6087,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1102</v>
+        <v>1226</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -5744,7 +6116,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1103</v>
+        <v>1227</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -5773,7 +6145,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1104</v>
+        <v>1228</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -5802,7 +6174,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1105</v>
+        <v>1229</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -5831,7 +6203,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1106</v>
+        <v>1230</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -5860,7 +6232,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1107</v>
+        <v>1231</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -5889,7 +6261,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1108</v>
+        <v>1232</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -5918,7 +6290,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1109</v>
+        <v>1233</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -5947,7 +6319,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1110</v>
+        <v>1234</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -5976,7 +6348,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1111</v>
+        <v>1235</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -6005,7 +6377,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1112</v>
+        <v>1236</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -6034,7 +6406,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1113</v>
+        <v>1237</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -6063,7 +6435,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1114</v>
+        <v>1238</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -6092,7 +6464,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1115</v>
+        <v>1239</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -6121,7 +6493,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1116</v>
+        <v>1240</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -6150,7 +6522,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1117</v>
+        <v>1241</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -6179,7 +6551,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1118</v>
+        <v>1242</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -6208,7 +6580,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1119</v>
+        <v>1243</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -6237,7 +6609,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1120</v>
+        <v>1244</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7001" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7463" uniqueCount="1307">
   <si>
     <t>Doi</t>
   </si>
@@ -4386,6 +4386,192 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                  Hui%Ren%NULL%1,                  Ruilin%Cao%NULL%1,                  Yueyang%Hu%NULL%1,                  Zeying%Qin%NULL%1,                  Chuanen%Li%NULL%1,                  Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%2,                   Roy F.%Baumeister%NULL%1,                   Jennifer C.%Veilleux%NULL%1,                   Caixia%Chen%NULL%1,                   Wenjun%Liu%NULL%1,                   Yongjie%Yue%NULL%1,                   Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                   Xiaopeng%Hu%NULL%1,                   Ivo Otte%Ekumi%NULL%1,                   Jianchun%Wang%NULL%1,                   Yawen%An%NULL%1,                   Zhiwen%Li%NULL%1,                   Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                   Wen%Li%NULL%2,                   Yuan%Yang%NULL%4,                   Yuan%Yang%NULL%0,                   Yu%Wang%NULL%2,                   Qinge%Zhang%NULL%1,                   Teris%Cheung%NULL%2,                   Xinjuan%Wu%NULL%2,                   Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                   Cherica A.%Tee%NULL%1,                   Joseph P.%Anlacan%NULL%1,                   Katrina Joy G.%Aligam%NULL%1,                   Patrick Wincy C.%Reyes%NULL%1,                   Vipat%Kuruchittham%NULL%1,                   Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                   Xiao-You%Su%suxiaoyou@hotmail.com%1,                   Yu%Jiang%jiangyu@pumc.edu.cn%2,                   Yu%Jiang%jiangyu@pumc.edu.cn%0,                   Wen-Jun%Wang%wwjun1973@163.com%1,                   Xiao-Fen%Gu%357539328@qq.com%1,                   Li%Ma%mali_lele@sina.com%1,                   Jing%Li%lijingwcph@scu.edu.cn%0,                   Shao-Kai%Zhang%shaokaizhang@126.com%1,                   Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                   Ran%Ren%renran99@163.com%1,                   Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                   You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                   Helena%Garrido-Hernansaiz%NULL%1,                   Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                   Xiangfen%Su%suxiangfengfy@163.com%1,                   Shuzeng%Zhang%NULL%2,                   Shuzeng%Zhang%NULL%0,                   Wenjie%Guan%NULL%1,                   Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                   Rong-Ning%Chen%NULL%1,                   Li-Li%Liu%NULL%1,                   Xue-Guo%Li%NULL%1,                   Jian-Bin%Chen%NULL%1,                   Si-Yao%Tang%NULL%1,                   Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,           Jinfeng%Miao%xref no email%2,           Hui%Wang%xref no email%2,           Shabei%Xu%xref no email%2,           Wenzhe%Sun%xref no email%2,           Yebin%Fan%xref no email%2,           Chenyan%Zhang%xref no email%2,           Suiqiang%Zhu%xref no email%2,           Zhou%Zhu%xref no email%2,           Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                   Elisa%Pedroli%NULL%1,                   Guido E.%D'Aniello%NULL%1,                   Chiara%Stramba Badiale%NULL%1,                   Giada%Pietrabissa%NULL%1,                   Chiara%Manna%NULL%1,                   Marco%Stramba Badiale%NULL%1,                   Giuseppe%Riva%NULL%1,                   Gianluca%Castelnuovo%NULL%1,                   Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                   Qing-xian%Li%NULL%1,                   Heng%Zhang%NULL%1,                   Jia-yong%Zhu%NULL%1,                   Xu%Yang%NULL%1,                   Yu-hang%Wu%NULL%1,                   Jie%Xiong%NULL%1,                   Fu%Li%NULL%1,                   Hua%Wang%whzkwlh@126.com%0,                   Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                   Charlotte%Coste%NULL%1,                   Rocio%Sanchez%NULL%1,                   Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                   Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                   Saleh A.%Alrashed%NULL%1,                   Ali A.%Alzunaydi%NULL%1,                   Ahmed S.%Almohimeed%NULL%1,                   Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                   Hui%Shi%NULL%1,                   Zhengkui%Liu%NULL%1,                   Songxu%Peng%gwxypsx@163.com%2,                   Songxu%Peng%gwxypsx@163.com%0,                   Ruoxi%Wang%NULL%2,                   Ruoxi%Wang%NULL%0,                   Ling%Qi%NULL%1,                   Zezhi%Li%NULL%1,                   Jiezhi%Yang%NULL%1,                   Yali%Ren%NULL%1,                   Xiuli%Song%NULL%1,                   Lingyun%Zeng%NULL%1,                   Wei%Qian%NULL%1,                   Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                  Khazaie%H.%coreGivesNoEmail%1,                  Li%J.%coreGivesNoEmail%1,                  Xiaohui%Li%coreGivesNoEmail%1,                  Xing%Tan%coreGivesNoEmail%1,                  Yuanyuan%An%coreGivesNoEmail%1,                  Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                   Zheng Feei%Ma%NULL%4,                   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                   Zhuoer%Sun%NULL%3,                   Zhuoer%Sun%NULL%0,                   Tuanjie%Liu%NULL%1,                   Xiong%Ni%NULL%1,                   Xuanfeng%Deng%NULL%1,                   Yanpu%Jia%NULL%2,                   Zhilei%Shang%NULL%2,                   Yaoguang%Zhou%NULL%2,                   Weizhi%Liu%13024141970@163.com%3,                   Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                   N.%Hadjamu%NULL%2,                   N.%Hadjamu%NULL%0,                   G.%Willmund%NULL%1,                   S.%Dolff%NULL%1,                   N.%Vonderlin%NULL%1,                   R.%Wakili%NULL%1,                   J.%Vogel%NULL%1,                   T.%Rassaf%NULL%1,                   J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                   Riyu%Pan%NULL%1,                   Xiaoyang%Wan%NULL%1,                   Yilin%Tan%NULL%1,                   Linkang%Xu%NULL%1,                   Roger S.%McIntyre%NULL%3,                   Faith N.%Choo%NULL%1,                   Bach%Tran%NULL%3,                   Roger%Ho%NULL%3,                   Vijay K.%Sharma%NULL%2,                   Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                   Jithin Thomas%Parel%NULL%2,                   Jithin Thomas%Parel%NULL%0,                   Neeraj%Raizada%NULL%2,                   Neeraj%Raizada%NULL%0,                   Shiv Kumar%Sarin%NULL%1,                   Abdallah M.%Samy%NULL%2,                   Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                   Rene%Stefitz%NULL%1,                   Kerstin%Gaisbachgrabner%NULL%1,                   Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                   Tao%Hu%NULL%1,                   Baodi%Hu%NULL%1,                   Chunhan%Jin%NULL%1,                   Gang%Wang%NULL%1,                   Chao%Xie%NULL%1,                   Sen%Chen%NULL%1,                   Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                   Fengyi%Hao%NULL%1,                   Roger S.%McIntyre%NULL%0,                   Li%Jiang%NULL%2,                   Xiaojiang%Jiang%NULL%2,                   Ling%Zhang%NULL%2,                   Xinling%Zhao%NULL%2,                   Yiran%Zou%NULL%2,                   Yirong%Hu%NULL%2,                   Xi%Luo%NULL%2,                   Zhisong%Zhang%NULL%2,                   Andre%Lai%NULL%1,                   Roger%Ho%NULL%0,                   Bach%Tran%NULL%0,                   Cyrus%Ho%NULL%0,                   Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                   Wenning%Fu%NULL%2,                   Xiaoran%Liu%NULL%2,                   Zhiqian%Luo%NULL%2,                   Rixing%Wang%NULL%2,                   Ning%Zhou%NULL%2,                   Shijiao%Yan%NULL%3,                   Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                   Mark L%Williams%NULL%1,                   Benjamin C%Amick%NULL%1,                   Teresa J.%Hudson%NULL%1,                   Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                   Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                   Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                   Necdet%Sut%necdetsut@yahoo.com%2,                   Necdet%Sut%necdetsut@yahoo.com%0,                   Selma%Akdogan%drslma.akdogan@gmail.com%2,                   Selma%Akdogan%drslma.akdogan@gmail.com%0,                   Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                   Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                   Valentina%Socci%NULL%3,                   Dalila%Talevi%NULL%1,                   Sonia%Mensi%NULL%1,                   Cinzia%Niolu%NULL%1,                   Francesca%Pacitti%NULL%3,                   Antinisca%Di Marco%NULL%3,                   Alessandro%Rossi%NULL%3,                   Alberto%Siracusano%NULL%3,                   Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                   Valentina%Socci%NULL%0,                   Francesca%Pacitti%NULL%0,                   Giorgio%Di Lorenzo%NULL%0,                   Antinisca%Di Marco%NULL%0,                   Alberto%Siracusano%NULL%0,                   Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                   Marianna%Purgato%NULL%1,                   Chiara%Bove%NULL%1,                   David%MacTaggart%NULL%1,                   Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                   Wei%Chen%NULL%2,                   Saiduo%Liu%NULL%2,                   Paul M.%Thompson%NULL%2,                   Long Jiang%Zhang%NULL%2,                   Fei%Xia%NULL%3,                   Fang%Cheng%NULL%3,                   Ailing%Hong%NULL%2,                   Wesley%Surento%NULL%2,                   Song%Luo%NULL%2,                   Zhi Yuan%Sun%NULL%2,                   Chang Sheng%Zhou%NULL%2,                   Lingjiang%Li%NULL%2,                   Xiangao%Jiang%NULL%2,                   Guang Ming%Lu%NULL%2,                    R.%Qi%null%2,                    W.% Chen%null%2,                    S.% Liu%null%2,                    P. M.% Thompson%null%2,                    L. J.% Zhang%null%2,                    F.% Xia%null%2,                    F.% Cheng%null%2,                    A.% Hong%null%2,                    W.% Surento%null%2,                    S.% Luo%null%2,                    Z. Y.% Sun%null%2,                    C. S.% Zhou%null%2,                    L.% Li%null%2,                    X.% Jiang%null%2,                    G. M. % Lu%null%2,                  R.%Qi%null%1,                  W.% Chen%null%1,                  S.% Liu%null%1,                  P. M.% Thompson%null%1,                  L. J.% Zhang%null%1,                  F.% Xia%null%1,                  F.% Cheng%null%1,                  A.% Hong%null%1,                  W.% Surento%null%1,                  S.% Luo%null%1,                  Z. Y.% Sun%null%1,                  C. S.% Zhou%null%1,                  L.% Li%null%1,                  X.% Jiang%null%1,                  G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                   Yutong%Zhang%NULL%2,                   Yutong%Zhang%NULL%0,                   Xiaoqin%Luo%NULL%1,                   Xinli%Li%NULL%1,                   Yeshan%Li%NULL%1,                   Shuchang%Liu%NULL%1,                   Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                   Beatriz%Talavera-Velasco%NULL%2,                   Beatriz%Talavera-Velasco%NULL%0,                   Yolanda%García-Albuerne%NULL%1,                   Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                   Fan%Zhang%NULL%1,                   Cun%Wei%NULL%1,                   Yanpu%Jia%NULL%0,                   Zhilei%Shang%NULL%0,                   Luna%Sun%NULL%1,                   Lili%Wu%NULL%1,                   Zhuoer%Sun%NULL%0,                   Yaoguang%Zhou%NULL%0,                   Yan%Wang%NULL%1,                   Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                   Emily%Zhang%NULL%1,                   Ga Tin Fifi%Wong%NULL%1,                   Sunah%Hyun%NULL%1,                   Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                   Yue%Wang%NULL%1,                   Jingwen%Jiang%NULL%1,                   Unnur A.%Valdimarsdóttir%NULL%1,                   Katja%Fall%NULL%2,                   Katja%Fall%NULL%0,                   Fang%Fang%NULL%4,                   Fang%Fang%NULL%0,                   Huan%Song%NULL%1,                   Donghao%Lu%NULL%1,                   Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                  Chiang%E. S.%coreGivesNoEmail%1,                  Fernandez%R.%coreGivesNoEmail%1,                  Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                  Ibrahim%H.%coreGivesNoEmail%1,                  Lee%B.%coreGivesNoEmail%1,                  Shi%L.%coreGivesNoEmail%1,                  Sun%N.%coreGivesNoEmail%1,                  Tsay%S.\u2010F.%coreGivesNoEmail%1,                  World%Health Organisation%coreGivesNoEmail%2,                  World%Health Organisation%coreGivesNoEmail%0,                  Xiaoyue%Xu%coreGivesNoEmail%1,                  Xiuchuan%Li%coreGivesNoEmail%1,                  Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                   Peixin%Lu%NULL%1,                   Lianting%Hu%NULL%1,                   Tianhui%Huang%NULL%1,                   Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                  Holly%Wei%coreGivesNoEmail%1,                  Hong%Xu%coreGivesNoEmail%1,                  Lili%Wei%coreGivesNoEmail%1,                  Lu%H%coreGivesNoEmail%1,                  Min%Leng%coreGivesNoEmail%1,                  Shi%Ti JC%coreGivesNoEmail%1,                  Shuyun%Xing%coreGivesNoEmail%1,                  Weathers%F%coreGivesNoEmail%1,                  Wenwen%Zhang%coreGivesNoEmail%1,                  Xiaohui%Shi%coreGivesNoEmail%1,                  Xiaoying%Zhang%coreGivesNoEmail%1,                  Yang%T%coreGivesNoEmail%1,                  Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                   Anh Kim%Dang%NULL%1,                   Jayson%Toweh%NULL%1,                   Quang Nhat%Nguyen%NULL%1,                   Huong Thi%Le%NULL%1,                   Toan Thi Thanh%Do%NULL%1,                   Hanh Bich Thi%Phan%NULL%1,                   Thao Thanh%Nguyen%NULL%1,                   Quan Thi%Pham%NULL%1,                   Nhung Kim Thi%Ta%NULL%1,                   Quynh Thi%Nguyen%NULL%1,                   Anh Ngoc%Nguyen%NULL%1,                   Quan%Van Duong%NULL%1,                   Men Thi%Hoang%NULL%1,                   Hai Quang%Pham%NULL%1,                   Linh Gia%Vu%NULL%1,                   Bach Xuan%Tran%NULL%1,                   Carl A.%Latkin%NULL%1,                   Cyrus S. H.%Ho%NULL%1,                   Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                   S.%Joo%NULL%1,                   P.-A.%Couette%NULL%1,                   S.%de Jaegher%NULL%1,                   F.%Joly%NULL%1,                   X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                   Simeng%Ma%NULL%2,                   Ying%Wang%NULL%4,                   Zhongxiang%Cai%NULL%2,                   Jianbo%Hu%NULL%2,                   Ning%Wei%NULL%2,                   Jiang%Wu%NULL%3,                   Hui%Du%NULL%2,                   Tingting%Chen%NULL%2,                   Ruiting%Li%NULL%2,                   Huawei%Tan%NULL%2,                   Lijun%Kang%NULL%2,                   Lihua%Yao%NULL%2,                   Manli%Huang%NULL%2,                   Huafen%Wang%NULL%2,                   Gaohua%Wang%NULL%3,                   Zhongchun%Liu%NULL%3,                   Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                   Mark%Shevlin%NULL%1,                   Jamie%Murphy%NULL%1,                   Orla%McBride%NULL%1,                   Menachem%Ben‐Ezra%NULL%2,                   Menachem%Ben‐Ezra%NULL%0,                   Richard P.%Bentall%NULL%1,                   Frédérique%Vallières%NULL%1,                   Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                   Stephanie%Manasse%NULL%2,                   Stephanie%Manasse%NULL%0,                   Rebecca A.%Krukowski%NULL%2,                   Rebecca A.%Krukowski%NULL%0,                   Kathryn%Ross%NULL%2,                   Kathryn%Ross%NULL%0,                   Rebecca%Shakour%NULL%2,                   Rebecca%Shakour%NULL%0,                   Darci R.%Miller%NULL%1,                   Dominick J.%Lemas%NULL%1,                   Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                   Xing Lin%Feng%NULL%1,                   Xiao Hua%Wang%NULL%2,                   Xiao Hua%Wang%NULL%0,                   Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                   Berta%Ausín%NULL%1,                   Miguel Ángel%Castellanos%NULL%1,                   Jesús%Saiz%NULL%1,                   Aída%López-Gómez%NULL%1,                   Carolina%Ugidos%NULL%1,                   Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                   Reyna Jazmín%Martínez Arriaga%NULL%2,                   Reyna Jazmín%Martínez Arriaga%NULL%0,                   Martha Alicia%Hernández-Gonzalez%NULL%2,                   Martha Alicia%Hernández-Gonzalez%NULL%0,                   José María%De la Roca-Chiapas%NULL%2,                   José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                   Francesca%Favieri%NULL%2,                   Francesca%Favieri%NULL%0,                   Renata%Tambelli%NULL%2,                   Renata%Tambelli%NULL%0,                   Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                   Farah%Ghrissi%NULL%1,                   Bouthaina%Abbassi%NULL%1,                   Wissal%Cherif%NULL%1,                   Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                   Enayat M.%Soltan%enayatsoltan@gmail.com%2,                   Enayat M.%Soltan%enayatsoltan@gmail.com%0,                   Hend M.%Salama%hind_mikhail@yahoo.com%2,                   Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                   Charles B%Malpas%NULL%2,                   Charles B%Malpas%NULL%0,                   Aidan JC%Burrell%NULL%1,                   Caroline%Gurvich%NULL%1,                   Leo%Chen%NULL%1,                   Jayashri%Kulkarni%NULL%1,                   Toby%Winton-Brown%NULL%2,                   Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,           Annunziata%Romeo%xref no email%1,           Agata%Benfante%xref no email%1,           Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                   Regino%Piñeiro-Lamas%NULL%1,                   César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                   Yasmeen%Byrnes%NULL%2,                   Yasmeen%Byrnes%NULL%0,                   Changgee%Chang%NULL%2,                   Aman%Prasad%NULL%1,                   Kevin%Chorath%NULL%2,                   Kevin%Chorath%NULL%0,                   Seerat K.%Poonia%NULL%1,                   Carolyn M.%Jenks%NULL%1,                   Andrés M.%Bur%NULL%1,                   Punam%Thakkar%NULL%2,                   Punam%Thakkar%NULL%0,                   Evan M.%Graboyes%NULL%2,                   Evan M.%Graboyes%NULL%0,                   Rahul%Seth%NULL%2,                   Rahul%Seth%NULL%0,                   Samuel%Trosman%NULL%1,                   Anni%Wong%NULL%2,                   Anni%Wong%NULL%0,                   Benjamin M.%Laitman%NULL%1,                   Brianna N.%Harris%NULL%1,                   Janki%Shah%NULL%2,                   Janki%Shah%NULL%0,                   Vanessa%Stubbs%NULL%1,                   Garret%Choby%NULL%1,                   Qi%Long%NULL%2,                   Christopher H.%Rassekh%NULL%1,                   Erica%Thaler%NULL%1,                   Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                   Antonio%Bertelli%NULL%1,                   Antonio%Gonçalves%NULL%1,                   Emily%Getzen%NULL%1,                   Changgee%Chang%NULL%0,                   Qi%Long%NULL%0,                   Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                   Benjamin%Becker%NULL%2,                   Qian%Yu%NULL%2,                   Peter%Willeit%NULL%2,                   Can%Jiao%NULL%2,                   Liuyue%Huang%NULL%2,                   M. Mahhub%Hossain%NULL%2,                   Igor%Grabovac%NULL%2,                   Albert%Yeung%NULL%2,                   Jingyuan%Lin%NULL%2,                   Nicola%Veronese%NULL%2,                   Jian%Wang%NULL%3,                   Xinqi%Zhou%NULL%2,                   Scott R.%Doig%NULL%2,                   Xiaofeng%Liu%NULL%2,                   Andre F.%Carvalho%NULL%2,                   Lin%Yang%NULL%4,                   Tao%Xiao%NULL%2,                   Liye%Zou%NULL%2,                   Paolo%Fusar-Poli%NULL%2,                   Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                   Jinghao Nicholas%Ngiam%NULL%1,                   Benjamin Yong-Qiang%Tan%NULL%2,                   Benjamin Yong-Qiang%Tan%NULL%0,                   Sai-Meng%Tham%NULL%1,                   Celine Yan-Shan%Tan%NULL%1,                   Mingxue%Jing%NULL%1,                   Renarebecca%Sagayanathan%NULL%1,                   Jin Tao%Chen%NULL%1,                   Lily Y. H.%Wong%NULL%1,                   Aftab%Ahmad%NULL%1,                   Faheem Ahmed%Khan%NULL%1,                   Maznah%Marmin%NULL%1,                   Fadhlina Binte%Hassan%NULL%1,                   Tai Mei-Ling%Sharon%NULL%1,                   Chin Han%Lim%NULL%1,                   Mohamad Iqbal Bin%Mohaini%NULL%1,                   Rivan%Danuaji%NULL%1,                   Thang H.%Nguyen%NULL%1,                   Georgios%Tsivgoulis%NULL%1,                   Sotirios%Tsiodras%NULL%1,                   Paraskevi C.%Fragkou%NULL%1,                   Dimitra%Dimopoulou%NULL%2,                   Dimitra%Dimopoulou%NULL%0,                   Arvind K.%Sharma%NULL%1,                   Kenam%Shah%NULL%1,                   Bhargesh%Patel%NULL%1,                   Suktara%Sharma%NULL%1,                   R. N.%Komalkumar%NULL%1,                   R. V.%Meenakshi%NULL%1,                   Shikha%Talati%NULL%1,                   Hock Luen%Teoh%NULL%1,                   Cyrus S.%Ho%NULL%1,                   Roger C.%Ho%NULL%0,                   Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                   Qin%Cui%NULL%1,                   Zhongchun%Liu%NULL%0,                   Juanjuan%Li%NULL%1,                   Xuan%Gong%NULL%1,                   Jingfang%Liu%NULL%1,                   Zhiying%Wan%NULL%1,                   Xiaoping%Yuan%NULL%1,                   Xiaofen%Li%NULL%1,                   Chuang%Chen%NULL%1,                   Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                  Apostolos%Blekas%coreGivesNoEmail%1,                  Eleni%Parlapani%coreGivesNoEmail%1,                  Ioannis%Diakogiannis%coreGivesNoEmail%1,                  Maria%Athanasiadou%coreGivesNoEmail%1,                  Marina%Skoupra%coreGivesNoEmail%1,                  Markos%Syngelakis%coreGivesNoEmail%1,                  Panteleimon%Voitsidis%coreGivesNoEmail%1,                  Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                   Zheng Feei%Ma%NULL%0,                   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                   Wanqiu%Tan%NULL%1,                   Li%Jiang%NULL%0,                   Ling%Zhang%NULL%0,                   Xinling%Zhao%NULL%0,                   Yiran%Zou%NULL%0,                   Yirong%Hu%NULL%0,                   Xi%Luo%NULL%0,                   Xiaojiang%Jiang%NULL%0,                   Roger S.%McIntyre%NULL%0,                   Bach%Tran%NULL%0,                   Jiaqian%Sun%NULL%1,                   Zhisong%Zhang%NULL%0,                   Roger%Ho%NULL%0,                   Cyrus%Ho%NULL%0,                   Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                   Hui%Ren%NULL%1,                   Ruilin%Cao%NULL%1,                   Yueyang%Hu%NULL%1,                   Zeying%Qin%NULL%1,                   Chuanen%Li%NULL%1,                   Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -4753,7 +4939,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>1183</v>
+        <v>1245</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4811,7 +4997,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1184</v>
+        <v>1246</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -4840,7 +5026,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1185</v>
+        <v>1247</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -4869,7 +5055,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1186</v>
+        <v>1248</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -4898,7 +5084,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1187</v>
+        <v>1249</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -4927,7 +5113,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4956,7 +5142,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1189</v>
+        <v>1251</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -4985,7 +5171,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1190</v>
+        <v>1252</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -5014,7 +5200,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1191</v>
+        <v>1253</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -5043,7 +5229,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1192</v>
+        <v>1254</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -5072,7 +5258,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1193</v>
+        <v>1255</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -5101,7 +5287,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1194</v>
+        <v>1256</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -5130,7 +5316,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1195</v>
+        <v>1257</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -5159,7 +5345,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1196</v>
+        <v>1258</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -5188,7 +5374,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1197</v>
+        <v>1259</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -5217,7 +5403,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1198</v>
+        <v>1260</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5246,7 +5432,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1199</v>
+        <v>1261</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -5275,7 +5461,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1200</v>
+        <v>1262</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -5304,7 +5490,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1201</v>
+        <v>1263</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -5333,7 +5519,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1202</v>
+        <v>1264</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -5362,7 +5548,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1203</v>
+        <v>1265</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -5391,7 +5577,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1204</v>
+        <v>1266</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -5420,7 +5606,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1205</v>
+        <v>1267</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -5449,7 +5635,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1206</v>
+        <v>1268</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -5478,7 +5664,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1207</v>
+        <v>1269</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -5507,7 +5693,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1208</v>
+        <v>1270</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -5536,7 +5722,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1209</v>
+        <v>1271</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -5565,7 +5751,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1210</v>
+        <v>1272</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -5594,7 +5780,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1211</v>
+        <v>1273</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -5623,7 +5809,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1212</v>
+        <v>1274</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -5652,7 +5838,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1213</v>
+        <v>1275</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -5681,7 +5867,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1214</v>
+        <v>1276</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -5710,7 +5896,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1215</v>
+        <v>1277</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -5739,7 +5925,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1216</v>
+        <v>1278</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -5768,7 +5954,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1217</v>
+        <v>1279</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -5797,7 +5983,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1218</v>
+        <v>1280</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -5855,7 +6041,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -5884,7 +6070,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1220</v>
+        <v>1282</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -5942,7 +6128,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1221</v>
+        <v>1283</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -5971,7 +6157,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1222</v>
+        <v>1284</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -6000,7 +6186,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1223</v>
+        <v>1285</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -6029,7 +6215,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1224</v>
+        <v>1286</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -6058,7 +6244,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1225</v>
+        <v>1287</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -6087,7 +6273,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1226</v>
+        <v>1288</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -6116,7 +6302,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1227</v>
+        <v>1289</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -6145,7 +6331,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1228</v>
+        <v>1290</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -6174,7 +6360,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1229</v>
+        <v>1291</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -6203,7 +6389,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1230</v>
+        <v>1292</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -6232,7 +6418,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1231</v>
+        <v>1293</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -6261,7 +6447,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1232</v>
+        <v>1294</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -6290,7 +6476,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1233</v>
+        <v>1295</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -6319,7 +6505,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1234</v>
+        <v>1296</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -6348,7 +6534,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1235</v>
+        <v>1297</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -6377,7 +6563,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1236</v>
+        <v>1298</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -6406,7 +6592,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1237</v>
+        <v>1299</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -6435,7 +6621,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1238</v>
+        <v>1300</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -6464,7 +6650,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1239</v>
+        <v>1301</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -6493,7 +6679,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1240</v>
+        <v>1302</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -6522,7 +6708,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1241</v>
+        <v>1303</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -6551,7 +6737,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1242</v>
+        <v>1304</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -6580,7 +6766,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1243</v>
+        <v>1305</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -6609,7 +6795,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1244</v>
+        <v>1306</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7463" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7925" uniqueCount="1373">
   <si>
     <t>Doi</t>
   </si>
@@ -4572,6 +4572,204 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                   Hui%Ren%NULL%1,                   Ruilin%Cao%NULL%1,                   Yueyang%Hu%NULL%1,                   Zeying%Qin%NULL%1,                   Chuanen%Li%NULL%1,                   Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                    Roy F.%Baumeister%NULL%1,                    Jennifer C.%Veilleux%NULL%1,                    Caixia%Chen%NULL%1,                    Wenjun%Liu%NULL%1,                    Yongjie%Yue%NULL%1,                    Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                    Xiaopeng%Hu%NULL%1,                    Ivo Otte%Ekumi%NULL%1,                    Jianchun%Wang%NULL%1,                    Yawen%An%NULL%1,                    Zhiwen%Li%NULL%1,                    Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                    Wen%Li%NULL%2,                    Yuan%Yang%NULL%4,                    Yuan%Yang%NULL%0,                    Yu%Wang%NULL%2,                    Qinge%Zhang%NULL%1,                    Teris%Cheung%NULL%2,                    Xinjuan%Wu%NULL%2,                    Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                    Cherica A.%Tee%NULL%1,                    Joseph P.%Anlacan%NULL%1,                    Katrina Joy G.%Aligam%NULL%1,                    Patrick Wincy C.%Reyes%NULL%1,                    Vipat%Kuruchittham%NULL%1,                    Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                    Xiao-You%Su%suxiaoyou@hotmail.com%1,                    Yu%Jiang%jiangyu@pumc.edu.cn%2,                    Yu%Jiang%jiangyu@pumc.edu.cn%0,                    Wen-Jun%Wang%wwjun1973@163.com%1,                    Xiao-Fen%Gu%357539328@qq.com%1,                    Li%Ma%mali_lele@sina.com%1,                    Jing%Li%lijingwcph@scu.edu.cn%0,                    Shao-Kai%Zhang%shaokaizhang@126.com%1,                    Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                    Ran%Ren%renran99@163.com%1,                    Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                    You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                    Helena%Garrido-Hernansaiz%NULL%1,                    Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                    Xiangfen%Su%suxiangfengfy@163.com%1,                    Shuzeng%Zhang%NULL%2,                    Shuzeng%Zhang%NULL%0,                    Wenjie%Guan%NULL%1,                    Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                    Rong-Ning%Chen%NULL%1,                    Li-Li%Liu%NULL%1,                    Xue-Guo%Li%NULL%1,                    Jian-Bin%Chen%NULL%1,                    Si-Yao%Tang%NULL%1,                    Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,            Jinfeng%Miao%xref no email%2,            Hui%Wang%xref no email%2,            Shabei%Xu%xref no email%2,            Wenzhe%Sun%xref no email%2,            Yebin%Fan%xref no email%2,            Chenyan%Zhang%xref no email%2,            Suiqiang%Zhu%xref no email%2,            Zhou%Zhu%xref no email%2,            Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                    Elisa%Pedroli%NULL%1,                    Guido E.%D'Aniello%NULL%1,                    Chiara%Stramba Badiale%NULL%1,                    Giada%Pietrabissa%NULL%1,                    Chiara%Manna%NULL%1,                    Marco%Stramba Badiale%NULL%1,                    Giuseppe%Riva%NULL%1,                    Gianluca%Castelnuovo%NULL%1,                    Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                    Qing-xian%Li%NULL%1,                    Heng%Zhang%NULL%1,                    Jia-yong%Zhu%NULL%1,                    Xu%Yang%NULL%1,                    Yu-hang%Wu%NULL%1,                    Jie%Xiong%NULL%1,                    Fu%Li%NULL%1,                    Hua%Wang%whzkwlh@126.com%0,                    Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                    Charlotte%Coste%NULL%1,                    Rocio%Sanchez%NULL%1,                    Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                    Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                    Saleh A.%Alrashed%NULL%1,                    Ali A.%Alzunaydi%NULL%1,                    Ahmed S.%Almohimeed%NULL%1,                    Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                    Hui%Shi%NULL%1,                    Zhengkui%Liu%NULL%1,                    Songxu%Peng%gwxypsx@163.com%2,                    Songxu%Peng%gwxypsx@163.com%0,                    Ruoxi%Wang%NULL%2,                    Ruoxi%Wang%NULL%0,                    Ling%Qi%NULL%1,                    Zezhi%Li%NULL%1,                    Jiezhi%Yang%NULL%1,                    Yali%Ren%NULL%1,                    Xiuli%Song%NULL%1,                    Lingyun%Zeng%NULL%1,                    Wei%Qian%NULL%1,                    Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                   Khazaie%H.%coreGivesNoEmail%1,                   Li%J.%coreGivesNoEmail%1,                   Xiaohui%Li%coreGivesNoEmail%1,                   Xing%Tan%coreGivesNoEmail%1,                   Yuanyuan%An%coreGivesNoEmail%1,                   Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                    Zheng Feei%Ma%NULL%4,                    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                    Zhuoer%Sun%NULL%3,                    Zhuoer%Sun%NULL%0,                    Tuanjie%Liu%NULL%1,                    Xiong%Ni%NULL%1,                    Xuanfeng%Deng%NULL%1,                    Yanpu%Jia%NULL%2,                    Zhilei%Shang%NULL%2,                    Yaoguang%Zhou%NULL%2,                    Weizhi%Liu%13024141970@163.com%3,                    Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                    N.%Hadjamu%NULL%2,                    N.%Hadjamu%NULL%0,                    G.%Willmund%NULL%1,                    S.%Dolff%NULL%1,                    N.%Vonderlin%NULL%1,                    R.%Wakili%NULL%1,                    J.%Vogel%NULL%1,                    T.%Rassaf%NULL%1,                    J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                    Riyu%Pan%NULL%1,                    Xiaoyang%Wan%NULL%1,                    Yilin%Tan%NULL%1,                    Linkang%Xu%NULL%1,                    Roger S.%McIntyre%NULL%3,                    Faith N.%Choo%NULL%1,                    Bach%Tran%NULL%3,                    Roger%Ho%NULL%3,                    Vijay K.%Sharma%NULL%2,                    Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                    Jithin Thomas%Parel%NULL%2,                    Jithin Thomas%Parel%NULL%0,                    Neeraj%Raizada%NULL%2,                    Neeraj%Raizada%NULL%0,                    Shiv Kumar%Sarin%NULL%1,                    Abdallah M.%Samy%NULL%2,                    Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                    Rene%Stefitz%NULL%1,                    Kerstin%Gaisbachgrabner%NULL%1,                    Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                    Tao%Hu%NULL%1,                    Baodi%Hu%NULL%1,                    Chunhan%Jin%NULL%1,                    Gang%Wang%NULL%1,                    Chao%Xie%NULL%1,                    Sen%Chen%NULL%1,                    Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                    Fengyi%Hao%NULL%1,                    Roger S.%McIntyre%NULL%0,                    Li%Jiang%NULL%2,                    Xiaojiang%Jiang%NULL%2,                    Ling%Zhang%NULL%2,                    Xinling%Zhao%NULL%2,                    Yiran%Zou%NULL%2,                    Yirong%Hu%NULL%2,                    Xi%Luo%NULL%2,                    Zhisong%Zhang%NULL%2,                    Andre%Lai%NULL%1,                    Roger%Ho%NULL%0,                    Bach%Tran%NULL%0,                    Cyrus%Ho%NULL%0,                    Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                    Wenning%Fu%NULL%2,                    Xiaoran%Liu%NULL%2,                    Zhiqian%Luo%NULL%2,                    Rixing%Wang%NULL%2,                    Ning%Zhou%NULL%2,                    Shijiao%Yan%NULL%3,                    Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                    Mark L%Williams%NULL%1,                    Benjamin C%Amick%NULL%1,                    Teresa J.%Hudson%NULL%1,                    Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                    Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                    Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                    Necdet%Sut%necdetsut@yahoo.com%2,                    Necdet%Sut%necdetsut@yahoo.com%0,                    Selma%Akdogan%drslma.akdogan@gmail.com%2,                    Selma%Akdogan%drslma.akdogan@gmail.com%0,                    Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                    Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                    Valentina%Socci%NULL%3,                    Dalila%Talevi%NULL%1,                    Sonia%Mensi%NULL%1,                    Cinzia%Niolu%NULL%1,                    Francesca%Pacitti%NULL%3,                    Antinisca%Di Marco%NULL%3,                    Alessandro%Rossi%NULL%3,                    Alberto%Siracusano%NULL%3,                    Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                    Valentina%Socci%NULL%0,                    Francesca%Pacitti%NULL%0,                    Giorgio%Di Lorenzo%NULL%0,                    Antinisca%Di Marco%NULL%0,                    Alberto%Siracusano%NULL%0,                    Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                    Marianna%Purgato%NULL%1,                    Chiara%Bove%NULL%1,                    David%MacTaggart%NULL%1,                    Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                    Wei%Chen%NULL%2,                    Saiduo%Liu%NULL%2,                    Paul M.%Thompson%NULL%2,                    Long Jiang%Zhang%NULL%2,                    Fei%Xia%NULL%3,                    Fang%Cheng%NULL%3,                    Ailing%Hong%NULL%2,                    Wesley%Surento%NULL%2,                    Song%Luo%NULL%2,                    Zhi Yuan%Sun%NULL%2,                    Chang Sheng%Zhou%NULL%2,                    Lingjiang%Li%NULL%2,                    Xiangao%Jiang%NULL%2,                    Guang Ming%Lu%NULL%2,                     R.%Qi%null%2,                     W.% Chen%null%2,                     S.% Liu%null%2,                     P. M.% Thompson%null%2,                     L. J.% Zhang%null%2,                     F.% Xia%null%2,                     F.% Cheng%null%2,                     A.% Hong%null%2,                     W.% Surento%null%2,                     S.% Luo%null%2,                     Z. Y.% Sun%null%2,                     C. S.% Zhou%null%2,                     L.% Li%null%2,                     X.% Jiang%null%2,                     G. M. % Lu%null%2,                   R.%Qi%null%1,                   W.% Chen%null%1,                   S.% Liu%null%1,                   P. M.% Thompson%null%1,                   L. J.% Zhang%null%1,                   F.% Xia%null%1,                   F.% Cheng%null%1,                   A.% Hong%null%1,                   W.% Surento%null%1,                   S.% Luo%null%1,                   Z. Y.% Sun%null%1,                   C. S.% Zhou%null%1,                   L.% Li%null%1,                   X.% Jiang%null%1,                   G. M. % Lu%null%1]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                    Yutong%Zhang%NULL%2,                    Yutong%Zhang%NULL%0,                    Xiaoqin%Luo%NULL%1,                    Xinli%Li%NULL%1,                    Yeshan%Li%NULL%1,                    Shuchang%Liu%NULL%1,                    Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                    Beatriz%Talavera-Velasco%NULL%2,                    Beatriz%Talavera-Velasco%NULL%0,                    Yolanda%García-Albuerne%NULL%1,                    Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                    Fan%Zhang%NULL%1,                    Cun%Wei%NULL%1,                    Yanpu%Jia%NULL%0,                    Zhilei%Shang%NULL%0,                    Luna%Sun%NULL%1,                    Lili%Wu%NULL%1,                    Zhuoer%Sun%NULL%0,                    Yaoguang%Zhou%NULL%0,                    Yan%Wang%NULL%1,                    Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                    Emily%Zhang%NULL%1,                    Ga Tin Fifi%Wong%NULL%1,                    Sunah%Hyun%NULL%1,                    Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                    Yue%Wang%NULL%1,                    Jingwen%Jiang%NULL%1,                    Unnur A.%Valdimarsdóttir%NULL%1,                    Katja%Fall%NULL%2,                    Katja%Fall%NULL%0,                    Fang%Fang%NULL%4,                    Fang%Fang%NULL%0,                    Huan%Song%NULL%1,                    Donghao%Lu%NULL%1,                    Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                   Chiang%E. S.%coreGivesNoEmail%1,                   Fernandez%R.%coreGivesNoEmail%1,                   Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                   Ibrahim%H.%coreGivesNoEmail%1,                   Lee%B.%coreGivesNoEmail%1,                   Shi%L.%coreGivesNoEmail%1,                   Sun%N.%coreGivesNoEmail%1,                   Tsay%S.\u2010F.%coreGivesNoEmail%1,                   World%Health Organisation%coreGivesNoEmail%2,                   World%Health Organisation%coreGivesNoEmail%0,                   Xiaoyue%Xu%coreGivesNoEmail%1,                   Xiuchuan%Li%coreGivesNoEmail%1,                   Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                    Peixin%Lu%NULL%1,                    Lianting%Hu%NULL%1,                    Tianhui%Huang%NULL%1,                    Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                   Holly%Wei%coreGivesNoEmail%1,                   Hong%Xu%coreGivesNoEmail%1,                   Lili%Wei%coreGivesNoEmail%1,                   Lu%H%coreGivesNoEmail%1,                   Min%Leng%coreGivesNoEmail%1,                   Shi%Ti JC%coreGivesNoEmail%1,                   Shuyun%Xing%coreGivesNoEmail%1,                   Weathers%F%coreGivesNoEmail%1,                   Wenwen%Zhang%coreGivesNoEmail%1,                   Xiaohui%Shi%coreGivesNoEmail%1,                   Xiaoying%Zhang%coreGivesNoEmail%1,                   Yang%T%coreGivesNoEmail%1,                   Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                    Anh Kim%Dang%NULL%1,                    Jayson%Toweh%NULL%1,                    Quang Nhat%Nguyen%NULL%1,                    Huong Thi%Le%NULL%1,                    Toan Thi Thanh%Do%NULL%1,                    Hanh Bich Thi%Phan%NULL%1,                    Thao Thanh%Nguyen%NULL%1,                    Quan Thi%Pham%NULL%1,                    Nhung Kim Thi%Ta%NULL%1,                    Quynh Thi%Nguyen%NULL%1,                    Anh Ngoc%Nguyen%NULL%1,                    Quan%Van Duong%NULL%1,                    Men Thi%Hoang%NULL%1,                    Hai Quang%Pham%NULL%1,                    Linh Gia%Vu%NULL%1,                    Bach Xuan%Tran%NULL%1,                    Carl A.%Latkin%NULL%1,                    Cyrus S. H.%Ho%NULL%1,                    Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                    S.%Joo%NULL%1,                    P.-A.%Couette%NULL%1,                    S.%de Jaegher%NULL%1,                    F.%Joly%NULL%1,                    X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                    Simeng%Ma%NULL%2,                    Ying%Wang%NULL%4,                    Zhongxiang%Cai%NULL%2,                    Jianbo%Hu%NULL%2,                    Ning%Wei%NULL%2,                    Jiang%Wu%NULL%3,                    Hui%Du%NULL%2,                    Tingting%Chen%NULL%2,                    Ruiting%Li%NULL%2,                    Huawei%Tan%NULL%2,                    Lijun%Kang%NULL%2,                    Lihua%Yao%NULL%2,                    Manli%Huang%NULL%2,                    Huafen%Wang%NULL%2,                    Gaohua%Wang%NULL%3,                    Zhongchun%Liu%NULL%3,                    Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                    Mark%Shevlin%NULL%1,                    Jamie%Murphy%NULL%1,                    Orla%McBride%NULL%1,                    Menachem%Ben‐Ezra%NULL%2,                    Menachem%Ben‐Ezra%NULL%0,                    Richard P.%Bentall%NULL%1,                    Frédérique%Vallières%NULL%1,                    Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                    Stephanie%Manasse%NULL%2,                    Stephanie%Manasse%NULL%0,                    Rebecca A.%Krukowski%NULL%2,                    Rebecca A.%Krukowski%NULL%0,                    Kathryn%Ross%NULL%2,                    Kathryn%Ross%NULL%0,                    Rebecca%Shakour%NULL%2,                    Rebecca%Shakour%NULL%0,                    Darci R.%Miller%NULL%1,                    Dominick J.%Lemas%NULL%1,                    Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                    Xing Lin%Feng%NULL%1,                    Xiao Hua%Wang%NULL%2,                    Xiao Hua%Wang%NULL%0,                    Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                    Berta%Ausín%NULL%1,                    Miguel Ángel%Castellanos%NULL%1,                    Jesús%Saiz%NULL%1,                    Aída%López-Gómez%NULL%1,                    Carolina%Ugidos%NULL%1,                    Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                    Reyna Jazmín%Martínez Arriaga%NULL%2,                    Reyna Jazmín%Martínez Arriaga%NULL%0,                    Martha Alicia%Hernández-Gonzalez%NULL%2,                    Martha Alicia%Hernández-Gonzalez%NULL%0,                    José María%De la Roca-Chiapas%NULL%2,                    José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                    Francesca%Favieri%NULL%2,                    Francesca%Favieri%NULL%0,                    Renata%Tambelli%NULL%2,                    Renata%Tambelli%NULL%0,                    Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                    Farah%Ghrissi%NULL%1,                    Bouthaina%Abbassi%NULL%1,                    Wissal%Cherif%NULL%1,                    Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                    Enayat M.%Soltan%enayatsoltan@gmail.com%2,                    Enayat M.%Soltan%enayatsoltan@gmail.com%0,                    Hend M.%Salama%hind_mikhail@yahoo.com%2,                    Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                    Charles B%Malpas%NULL%2,                    Charles B%Malpas%NULL%0,                    Aidan JC%Burrell%NULL%1,                    Caroline%Gurvich%NULL%1,                    Leo%Chen%NULL%1,                    Jayashri%Kulkarni%NULL%1,                    Toby%Winton-Brown%NULL%2,                    Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,            Annunziata%Romeo%xref no email%1,            Agata%Benfante%xref no email%1,            Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                    Regino%Piñeiro-Lamas%NULL%1,                    César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                    Yasmeen%Byrnes%NULL%2,                    Yasmeen%Byrnes%NULL%0,                    Changgee%Chang%NULL%2,                    Aman%Prasad%NULL%1,                    Kevin%Chorath%NULL%2,                    Kevin%Chorath%NULL%0,                    Seerat K.%Poonia%NULL%1,                    Carolyn M.%Jenks%NULL%1,                    Andrés M.%Bur%NULL%1,                    Punam%Thakkar%NULL%2,                    Punam%Thakkar%NULL%0,                    Evan M.%Graboyes%NULL%2,                    Evan M.%Graboyes%NULL%0,                    Rahul%Seth%NULL%2,                    Rahul%Seth%NULL%0,                    Samuel%Trosman%NULL%1,                    Anni%Wong%NULL%2,                    Anni%Wong%NULL%0,                    Benjamin M.%Laitman%NULL%1,                    Brianna N.%Harris%NULL%1,                    Janki%Shah%NULL%2,                    Janki%Shah%NULL%0,                    Vanessa%Stubbs%NULL%1,                    Garret%Choby%NULL%1,                    Qi%Long%NULL%2,                    Christopher H.%Rassekh%NULL%1,                    Erica%Thaler%NULL%1,                    Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                    Antonio%Bertelli%NULL%1,                    Antonio%Gonçalves%NULL%1,                    Emily%Getzen%NULL%1,                    Changgee%Chang%NULL%0,                    Qi%Long%NULL%0,                    Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                    Benjamin%Becker%NULL%2,                    Qian%Yu%NULL%2,                    Peter%Willeit%NULL%2,                    Can%Jiao%NULL%2,                    Liuyue%Huang%NULL%2,                    M. Mahhub%Hossain%NULL%2,                    Igor%Grabovac%NULL%2,                    Albert%Yeung%NULL%2,                    Jingyuan%Lin%NULL%2,                    Nicola%Veronese%NULL%2,                    Jian%Wang%NULL%3,                    Xinqi%Zhou%NULL%2,                    Scott R.%Doig%NULL%2,                    Xiaofeng%Liu%NULL%2,                    Andre F.%Carvalho%NULL%2,                    Lin%Yang%NULL%4,                    Tao%Xiao%NULL%2,                    Liye%Zou%NULL%2,                    Paolo%Fusar-Poli%NULL%2,                    Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                    Jinghao Nicholas%Ngiam%NULL%1,                    Benjamin Yong-Qiang%Tan%NULL%2,                    Benjamin Yong-Qiang%Tan%NULL%0,                    Sai-Meng%Tham%NULL%1,                    Celine Yan-Shan%Tan%NULL%1,                    Mingxue%Jing%NULL%1,                    Renarebecca%Sagayanathan%NULL%1,                    Jin Tao%Chen%NULL%1,                    Lily Y. H.%Wong%NULL%1,                    Aftab%Ahmad%NULL%1,                    Faheem Ahmed%Khan%NULL%1,                    Maznah%Marmin%NULL%1,                    Fadhlina Binte%Hassan%NULL%1,                    Tai Mei-Ling%Sharon%NULL%1,                    Chin Han%Lim%NULL%1,                    Mohamad Iqbal Bin%Mohaini%NULL%1,                    Rivan%Danuaji%NULL%1,                    Thang H.%Nguyen%NULL%1,                    Georgios%Tsivgoulis%NULL%1,                    Sotirios%Tsiodras%NULL%1,                    Paraskevi C.%Fragkou%NULL%1,                    Dimitra%Dimopoulou%NULL%2,                    Dimitra%Dimopoulou%NULL%0,                    Arvind K.%Sharma%NULL%1,                    Kenam%Shah%NULL%1,                    Bhargesh%Patel%NULL%1,                    Suktara%Sharma%NULL%1,                    R. N.%Komalkumar%NULL%1,                    R. V.%Meenakshi%NULL%1,                    Shikha%Talati%NULL%1,                    Hock Luen%Teoh%NULL%1,                    Cyrus S.%Ho%NULL%1,                    Roger C.%Ho%NULL%0,                    Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                    Qin%Cui%NULL%1,                    Zhongchun%Liu%NULL%0,                    Juanjuan%Li%NULL%1,                    Xuan%Gong%NULL%1,                    Jingfang%Liu%NULL%1,                    Zhiying%Wan%NULL%1,                    Xiaoping%Yuan%NULL%1,                    Xiaofen%Li%NULL%1,                    Chuang%Chen%NULL%1,                    Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                   Apostolos%Blekas%coreGivesNoEmail%1,                   Eleni%Parlapani%coreGivesNoEmail%1,                   Ioannis%Diakogiannis%coreGivesNoEmail%1,                   Maria%Athanasiadou%coreGivesNoEmail%1,                   Marina%Skoupra%coreGivesNoEmail%1,                   Markos%Syngelakis%coreGivesNoEmail%1,                   Panteleimon%Voitsidis%coreGivesNoEmail%1,                   Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                    Zheng Feei%Ma%NULL%0,                    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                    Wanqiu%Tan%NULL%1,                    Li%Jiang%NULL%0,                    Ling%Zhang%NULL%0,                    Xinling%Zhao%NULL%0,                    Yiran%Zou%NULL%0,                    Yirong%Hu%NULL%0,                    Xi%Luo%NULL%0,                    Xiaojiang%Jiang%NULL%0,                    Roger S.%McIntyre%NULL%0,                    Bach%Tran%NULL%0,                    Jiaqian%Sun%NULL%1,                    Zhisong%Zhang%NULL%0,                    Roger%Ho%NULL%0,                    Cyrus%Ho%NULL%0,                    Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                    Hui%Ren%NULL%1,                    Ruilin%Cao%NULL%1,                    Yueyang%Hu%NULL%1,                    Zeying%Qin%NULL%1,                    Chuanen%Li%NULL%1,                    Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -4939,7 +5137,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>1245</v>
+        <v>1307</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -4951,7 +5149,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4980,7 +5178,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4997,7 +5195,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1246</v>
+        <v>1309</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -5009,7 +5207,7 @@
         <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5026,7 +5224,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1247</v>
+        <v>1310</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -5038,7 +5236,7 @@
         <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5055,7 +5253,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1248</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -5067,7 +5265,7 @@
         <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5084,7 +5282,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1249</v>
+        <v>1313</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -5096,7 +5294,7 @@
         <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5113,7 +5311,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1250</v>
+        <v>1315</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5125,7 +5323,7 @@
         <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5142,7 +5340,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1251</v>
+        <v>1316</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -5154,7 +5352,7 @@
         <v>115</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5171,7 +5369,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1252</v>
+        <v>1317</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -5183,7 +5381,7 @@
         <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5200,7 +5398,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1253</v>
+        <v>1318</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -5212,7 +5410,7 @@
         <v>625</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5229,7 +5427,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1254</v>
+        <v>1320</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -5241,7 +5439,7 @@
         <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5258,7 +5456,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1255</v>
+        <v>1321</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -5270,7 +5468,7 @@
         <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5287,7 +5485,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1256</v>
+        <v>1322</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -5299,7 +5497,7 @@
         <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5316,7 +5514,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1257</v>
+        <v>1323</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -5328,7 +5526,7 @@
         <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5345,7 +5543,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1258</v>
+        <v>1324</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -5357,7 +5555,7 @@
         <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5374,7 +5572,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1259</v>
+        <v>1325</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -5386,7 +5584,7 @@
         <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5403,7 +5601,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1260</v>
+        <v>1326</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5415,7 +5613,7 @@
         <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5432,7 +5630,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1261</v>
+        <v>1327</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -5444,7 +5642,7 @@
         <v>145</v>
       </c>
       <c r="I19" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5461,7 +5659,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1262</v>
+        <v>1328</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -5473,7 +5671,7 @@
         <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5490,7 +5688,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1263</v>
+        <v>1329</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -5502,7 +5700,7 @@
         <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5519,7 +5717,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1264</v>
+        <v>1330</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -5531,7 +5729,7 @@
         <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5548,7 +5746,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1265</v>
+        <v>1331</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -5560,7 +5758,7 @@
         <v>160</v>
       </c>
       <c r="I23" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5577,7 +5775,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1266</v>
+        <v>1332</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -5589,7 +5787,7 @@
         <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5606,7 +5804,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1267</v>
+        <v>1333</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -5618,7 +5816,7 @@
         <v>168</v>
       </c>
       <c r="I25" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5635,7 +5833,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1268</v>
+        <v>1334</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -5647,7 +5845,7 @@
         <v>172</v>
       </c>
       <c r="I26" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5664,7 +5862,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1269</v>
+        <v>1335</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -5676,7 +5874,7 @@
         <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5693,7 +5891,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1270</v>
+        <v>1336</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -5705,7 +5903,7 @@
         <v>180</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5722,7 +5920,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1271</v>
+        <v>1337</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -5734,7 +5932,7 @@
         <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5751,7 +5949,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1272</v>
+        <v>1338</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -5763,7 +5961,7 @@
         <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5780,7 +5978,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1273</v>
+        <v>1339</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -5792,7 +5990,7 @@
         <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5809,7 +6007,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1274</v>
+        <v>1340</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -5821,7 +6019,7 @@
         <v>196</v>
       </c>
       <c r="I32" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5838,7 +6036,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -5850,7 +6048,7 @@
         <v>199</v>
       </c>
       <c r="I33" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5867,7 +6065,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1276</v>
+        <v>1342</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -5879,7 +6077,7 @@
         <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5896,7 +6094,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1277</v>
+        <v>1343</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -5908,7 +6106,7 @@
         <v>206</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5925,7 +6123,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1278</v>
+        <v>1344</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -5937,7 +6135,7 @@
         <v>210</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -5954,7 +6152,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1279</v>
+        <v>1345</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -5966,7 +6164,7 @@
         <v>214</v>
       </c>
       <c r="I37" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -5983,7 +6181,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1280</v>
+        <v>1346</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -5995,7 +6193,7 @@
         <v>218</v>
       </c>
       <c r="I38" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6024,7 +6222,7 @@
         <v>120</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -6041,7 +6239,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1281</v>
+        <v>1347</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -6053,7 +6251,7 @@
         <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -6070,7 +6268,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1282</v>
+        <v>1348</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -6082,7 +6280,7 @@
         <v>91</v>
       </c>
       <c r="I41" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -6111,7 +6309,7 @@
         <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -6128,7 +6326,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1283</v>
+        <v>1349</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -6140,7 +6338,7 @@
         <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -6157,7 +6355,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1284</v>
+        <v>1350</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -6169,7 +6367,7 @@
         <v>230</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -6186,7 +6384,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1285</v>
+        <v>1351</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -6198,7 +6396,7 @@
         <v>234</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -6215,7 +6413,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1286</v>
+        <v>1352</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -6227,7 +6425,7 @@
         <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -6244,7 +6442,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1287</v>
+        <v>1353</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -6256,7 +6454,7 @@
         <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -6273,7 +6471,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1288</v>
+        <v>1354</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -6285,7 +6483,7 @@
         <v>246</v>
       </c>
       <c r="I48" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6302,7 +6500,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1289</v>
+        <v>1355</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -6314,7 +6512,7 @@
         <v>250</v>
       </c>
       <c r="I49" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -6331,7 +6529,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1290</v>
+        <v>1356</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -6343,7 +6541,7 @@
         <v>254</v>
       </c>
       <c r="I50" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6360,7 +6558,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1291</v>
+        <v>1357</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -6372,7 +6570,7 @@
         <v>246</v>
       </c>
       <c r="I51" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6389,7 +6587,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1292</v>
+        <v>1358</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -6401,7 +6599,7 @@
         <v>242</v>
       </c>
       <c r="I52" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6418,7 +6616,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1293</v>
+        <v>1359</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -6430,7 +6628,7 @@
         <v>263</v>
       </c>
       <c r="I53" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6447,7 +6645,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1294</v>
+        <v>1360</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -6459,7 +6657,7 @@
         <v>120</v>
       </c>
       <c r="I54" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6476,7 +6674,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1295</v>
+        <v>1361</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -6488,7 +6686,7 @@
         <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6505,7 +6703,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1296</v>
+        <v>1362</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -6517,7 +6715,7 @@
         <v>670</v>
       </c>
       <c r="I56" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6534,7 +6732,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1297</v>
+        <v>1363</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -6546,7 +6744,7 @@
         <v>273</v>
       </c>
       <c r="I57" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6563,7 +6761,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1298</v>
+        <v>1364</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -6575,7 +6773,7 @@
         <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6592,7 +6790,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1299</v>
+        <v>1365</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -6604,7 +6802,7 @@
         <v>120</v>
       </c>
       <c r="I59" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -6621,7 +6819,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1300</v>
+        <v>1366</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -6633,7 +6831,7 @@
         <v>283</v>
       </c>
       <c r="I60" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -6650,7 +6848,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1301</v>
+        <v>1367</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -6662,7 +6860,7 @@
         <v>287</v>
       </c>
       <c r="I61" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -6679,7 +6877,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1302</v>
+        <v>1368</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -6691,7 +6889,7 @@
         <v>291</v>
       </c>
       <c r="I62" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -6708,7 +6906,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1303</v>
+        <v>1369</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -6720,7 +6918,7 @@
         <v>120</v>
       </c>
       <c r="I63" t="s">
-        <v>97</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -6737,7 +6935,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1304</v>
+        <v>1370</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -6749,7 +6947,7 @@
         <v>120</v>
       </c>
       <c r="I64" t="s">
-        <v>310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -6766,7 +6964,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1305</v>
+        <v>1371</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -6778,7 +6976,7 @@
         <v>298</v>
       </c>
       <c r="I65" t="s">
-        <v>309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -6795,7 +6993,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1306</v>
+        <v>1372</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>
@@ -6807,7 +7005,7 @@
         <v>120</v>
       </c>
       <c r="I66" t="s">
-        <v>311</v>
+        <v>1314</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7925" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8387" uniqueCount="1435">
   <si>
     <t>Doi</t>
   </si>
@@ -4770,6 +4770,192 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                    Hui%Ren%NULL%1,                    Ruilin%Cao%NULL%1,                    Yueyang%Hu%NULL%1,                    Zeying%Qin%NULL%1,                    Chuanen%Li%NULL%1,                    Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                     Roy F.%Baumeister%NULL%1,                     Jennifer C.%Veilleux%NULL%1,                     Caixia%Chen%NULL%1,                     Wenjun%Liu%NULL%1,                     Yongjie%Yue%NULL%1,                     Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                     Xiaopeng%Hu%NULL%1,                     Ivo Otte%Ekumi%NULL%1,                     Jianchun%Wang%NULL%1,                     Yawen%An%NULL%1,                     Zhiwen%Li%NULL%1,                     Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                     Wen%Li%NULL%2,                     Yuan%Yang%NULL%4,                     Yuan%Yang%NULL%0,                     Yu%Wang%NULL%2,                     Qinge%Zhang%NULL%1,                     Teris%Cheung%NULL%2,                     Xinjuan%Wu%NULL%2,                     Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                     Cherica A.%Tee%NULL%1,                     Joseph P.%Anlacan%NULL%1,                     Katrina Joy G.%Aligam%NULL%1,                     Patrick Wincy C.%Reyes%NULL%1,                     Vipat%Kuruchittham%NULL%1,                     Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                     Xiao-You%Su%suxiaoyou@hotmail.com%1,                     Yu%Jiang%jiangyu@pumc.edu.cn%2,                     Yu%Jiang%jiangyu@pumc.edu.cn%0,                     Wen-Jun%Wang%wwjun1973@163.com%1,                     Xiao-Fen%Gu%357539328@qq.com%1,                     Li%Ma%mali_lele@sina.com%1,                     Jing%Li%lijingwcph@scu.edu.cn%0,                     Shao-Kai%Zhang%shaokaizhang@126.com%1,                     Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                     Ran%Ren%renran99@163.com%1,                     Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                     You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                     Helena%Garrido-Hernansaiz%NULL%1,                     Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                     Xiangfen%Su%suxiangfengfy@163.com%1,                     Shuzeng%Zhang%NULL%2,                     Shuzeng%Zhang%NULL%0,                     Wenjie%Guan%NULL%1,                     Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                     Rong-Ning%Chen%NULL%1,                     Li-Li%Liu%NULL%1,                     Xue-Guo%Li%NULL%1,                     Jian-Bin%Chen%NULL%1,                     Si-Yao%Tang%NULL%1,                     Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%2,             Jinfeng%Miao%xref no email%2,             Hui%Wang%xref no email%2,             Shabei%Xu%xref no email%2,             Wenzhe%Sun%xref no email%2,             Yebin%Fan%xref no email%2,             Chenyan%Zhang%xref no email%2,             Suiqiang%Zhu%xref no email%2,             Zhou%Zhu%xref no email%2,             Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                     Elisa%Pedroli%NULL%1,                     Guido E.%D'Aniello%NULL%1,                     Chiara%Stramba Badiale%NULL%1,                     Giada%Pietrabissa%NULL%1,                     Chiara%Manna%NULL%1,                     Marco%Stramba Badiale%NULL%1,                     Giuseppe%Riva%NULL%1,                     Gianluca%Castelnuovo%NULL%1,                     Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                     Qing-xian%Li%NULL%1,                     Heng%Zhang%NULL%1,                     Jia-yong%Zhu%NULL%1,                     Xu%Yang%NULL%1,                     Yu-hang%Wu%NULL%1,                     Jie%Xiong%NULL%1,                     Fu%Li%NULL%1,                     Hua%Wang%whzkwlh@126.com%0,                     Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                     Charlotte%Coste%NULL%1,                     Rocio%Sanchez%NULL%1,                     Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                     Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                     Saleh A.%Alrashed%NULL%1,                     Ali A.%Alzunaydi%NULL%1,                     Ahmed S.%Almohimeed%NULL%1,                     Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                     Hui%Shi%NULL%1,                     Zhengkui%Liu%NULL%1,                     Songxu%Peng%gwxypsx@163.com%2,                     Songxu%Peng%gwxypsx@163.com%0,                     Ruoxi%Wang%NULL%2,                     Ruoxi%Wang%NULL%0,                     Ling%Qi%NULL%1,                     Zezhi%Li%NULL%1,                     Jiezhi%Yang%NULL%1,                     Yali%Ren%NULL%1,                     Xiuli%Song%NULL%1,                     Lingyun%Zeng%NULL%1,                     Wei%Qian%NULL%1,                     Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                    Khazaie%H.%coreGivesNoEmail%1,                    Li%J.%coreGivesNoEmail%1,                    Xiaohui%Li%coreGivesNoEmail%1,                    Xing%Tan%coreGivesNoEmail%1,                    Yuanyuan%An%coreGivesNoEmail%1,                    Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                     Zheng Feei%Ma%NULL%4,                     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                     Zhuoer%Sun%NULL%3,                     Zhuoer%Sun%NULL%0,                     Tuanjie%Liu%NULL%1,                     Xiong%Ni%NULL%1,                     Xuanfeng%Deng%NULL%1,                     Yanpu%Jia%NULL%2,                     Zhilei%Shang%NULL%2,                     Yaoguang%Zhou%NULL%2,                     Weizhi%Liu%13024141970@163.com%3,                     Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                     N.%Hadjamu%NULL%2,                     N.%Hadjamu%NULL%0,                     G.%Willmund%NULL%1,                     S.%Dolff%NULL%1,                     N.%Vonderlin%NULL%1,                     R.%Wakili%NULL%1,                     J.%Vogel%NULL%1,                     T.%Rassaf%NULL%1,                     J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                     Riyu%Pan%NULL%1,                     Xiaoyang%Wan%NULL%1,                     Yilin%Tan%NULL%1,                     Linkang%Xu%NULL%1,                     Roger S.%McIntyre%NULL%3,                     Faith N.%Choo%NULL%1,                     Bach%Tran%NULL%3,                     Roger%Ho%NULL%3,                     Vijay K.%Sharma%NULL%2,                     Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                     Jithin Thomas%Parel%NULL%2,                     Jithin Thomas%Parel%NULL%0,                     Neeraj%Raizada%NULL%2,                     Neeraj%Raizada%NULL%0,                     Shiv Kumar%Sarin%NULL%1,                     Abdallah M.%Samy%NULL%2,                     Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                     Rene%Stefitz%NULL%1,                     Kerstin%Gaisbachgrabner%NULL%1,                     Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                     Tao%Hu%NULL%1,                     Baodi%Hu%NULL%1,                     Chunhan%Jin%NULL%1,                     Gang%Wang%NULL%1,                     Chao%Xie%NULL%1,                     Sen%Chen%NULL%1,                     Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                     Fengyi%Hao%NULL%1,                     Roger S.%McIntyre%NULL%0,                     Li%Jiang%NULL%2,                     Xiaojiang%Jiang%NULL%2,                     Ling%Zhang%NULL%2,                     Xinling%Zhao%NULL%2,                     Yiran%Zou%NULL%2,                     Yirong%Hu%NULL%2,                     Xi%Luo%NULL%2,                     Zhisong%Zhang%NULL%2,                     Andre%Lai%NULL%1,                     Roger%Ho%NULL%0,                     Bach%Tran%NULL%0,                     Cyrus%Ho%NULL%0,                     Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                     Wenning%Fu%NULL%2,                     Xiaoran%Liu%NULL%2,                     Zhiqian%Luo%NULL%2,                     Rixing%Wang%NULL%2,                     Ning%Zhou%NULL%2,                     Shijiao%Yan%NULL%3,                     Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                     Mark L%Williams%NULL%1,                     Benjamin C%Amick%NULL%1,                     Teresa J.%Hudson%NULL%1,                     Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                     Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                     Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                     Necdet%Sut%necdetsut@yahoo.com%2,                     Necdet%Sut%necdetsut@yahoo.com%0,                     Selma%Akdogan%drslma.akdogan@gmail.com%2,                     Selma%Akdogan%drslma.akdogan@gmail.com%0,                     Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                     Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                     Valentina%Socci%NULL%3,                     Dalila%Talevi%NULL%1,                     Sonia%Mensi%NULL%1,                     Cinzia%Niolu%NULL%1,                     Francesca%Pacitti%NULL%3,                     Antinisca%Di Marco%NULL%3,                     Alessandro%Rossi%NULL%3,                     Alberto%Siracusano%NULL%3,                     Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                     Valentina%Socci%NULL%0,                     Francesca%Pacitti%NULL%0,                     Giorgio%Di Lorenzo%NULL%0,                     Antinisca%Di Marco%NULL%0,                     Alberto%Siracusano%NULL%0,                     Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                     Marianna%Purgato%NULL%1,                     Chiara%Bove%NULL%1,                     David%MacTaggart%NULL%1,                     Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                     Wei%Chen%NULL%2,                     Saiduo%Liu%NULL%2,                     Paul M.%Thompson%NULL%2,                     Long Jiang%Zhang%NULL%2,                     Fei%Xia%NULL%3,                     Fang%Cheng%NULL%3,                     Ailing%Hong%NULL%2,                     Wesley%Surento%NULL%2,                     Song%Luo%NULL%2,                     Zhi Yuan%Sun%NULL%2,                     Chang Sheng%Zhou%NULL%2,                     Lingjiang%Li%NULL%2,                     Xiangao%Jiang%NULL%2,                     Guang Ming%Lu%NULL%2,                      R.%Qi%null%2,                      W.% Chen%null%2,                      S.% Liu%null%2,                      P. M.% Thompson%null%2,                      L. J.% Zhang%null%2,                      F.% Xia%null%2,                      F.% Cheng%null%2,                      A.% Hong%null%2,                      W.% Surento%null%2,                      S.% Luo%null%2,                      Z. Y.% Sun%null%2,                      C. S.% Zhou%null%2,                      L.% Li%null%2,                      X.% Jiang%null%2,                      G. M. % Lu%null%2,                    R.%Qi%null%1,                    W.% Chen%null%1,                    S.% Liu%null%1,                    P. M.% Thompson%null%1,                    L. J.% Zhang%null%1,                    F.% Xia%null%1,                    F.% Cheng%null%1,                    A.% Hong%null%1,                    W.% Surento%null%1,                    S.% Luo%null%1,                    Z. Y.% Sun%null%1,                    C. S.% Zhou%null%1,                    L.% Li%null%1,                    X.% Jiang%null%1,                    G. M. % Lu%null%1,  R.%Qi%null%2,  W.% Chen%null%2,  S.% Liu%null%2,  P. M.% Thompson%null%2,  L. J.% Zhang%null%2,  F.% Xia%null%2,  F.% Cheng%null%2,  A.% Hong%null%2,  W.% Surento%null%2,  S.% Luo%null%2,  Z. Y.% Sun%null%2,  C. S.% Zhou%null%2,  L.% Li%null%2,  X.% Jiang%null%2,  G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                     Yutong%Zhang%NULL%2,                     Yutong%Zhang%NULL%0,                     Xiaoqin%Luo%NULL%1,                     Xinli%Li%NULL%1,                     Yeshan%Li%NULL%1,                     Shuchang%Liu%NULL%1,                     Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                     Beatriz%Talavera-Velasco%NULL%2,                     Beatriz%Talavera-Velasco%NULL%0,                     Yolanda%García-Albuerne%NULL%1,                     Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                     Fan%Zhang%NULL%1,                     Cun%Wei%NULL%1,                     Yanpu%Jia%NULL%0,                     Zhilei%Shang%NULL%0,                     Luna%Sun%NULL%1,                     Lili%Wu%NULL%1,                     Zhuoer%Sun%NULL%0,                     Yaoguang%Zhou%NULL%0,                     Yan%Wang%NULL%1,                     Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                     Emily%Zhang%NULL%1,                     Ga Tin Fifi%Wong%NULL%1,                     Sunah%Hyun%NULL%1,                     Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                     Yue%Wang%NULL%1,                     Jingwen%Jiang%NULL%1,                     Unnur A.%Valdimarsdóttir%NULL%1,                     Katja%Fall%NULL%2,                     Katja%Fall%NULL%0,                     Fang%Fang%NULL%4,                     Fang%Fang%NULL%0,                     Huan%Song%NULL%1,                     Donghao%Lu%NULL%1,                     Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                    Chiang%E. S.%coreGivesNoEmail%1,                    Fernandez%R.%coreGivesNoEmail%1,                    Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                    Ibrahim%H.%coreGivesNoEmail%1,                    Lee%B.%coreGivesNoEmail%1,                    Shi%L.%coreGivesNoEmail%1,                    Sun%N.%coreGivesNoEmail%1,                    Tsay%S.\u2010F.%coreGivesNoEmail%1,                    World%Health Organisation%coreGivesNoEmail%2,                    World%Health Organisation%coreGivesNoEmail%0,                    Xiaoyue%Xu%coreGivesNoEmail%1,                    Xiuchuan%Li%coreGivesNoEmail%1,                    Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                     Peixin%Lu%NULL%1,                     Lianting%Hu%NULL%1,                     Tianhui%Huang%NULL%1,                     Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                    Holly%Wei%coreGivesNoEmail%1,                    Hong%Xu%coreGivesNoEmail%1,                    Lili%Wei%coreGivesNoEmail%1,                    Lu%H%coreGivesNoEmail%1,                    Min%Leng%coreGivesNoEmail%1,                    Shi%Ti JC%coreGivesNoEmail%1,                    Shuyun%Xing%coreGivesNoEmail%1,                    Weathers%F%coreGivesNoEmail%1,                    Wenwen%Zhang%coreGivesNoEmail%1,                    Xiaohui%Shi%coreGivesNoEmail%1,                    Xiaoying%Zhang%coreGivesNoEmail%1,                    Yang%T%coreGivesNoEmail%1,                    Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                     Anh Kim%Dang%NULL%1,                     Jayson%Toweh%NULL%1,                     Quang Nhat%Nguyen%NULL%1,                     Huong Thi%Le%NULL%1,                     Toan Thi Thanh%Do%NULL%1,                     Hanh Bich Thi%Phan%NULL%1,                     Thao Thanh%Nguyen%NULL%1,                     Quan Thi%Pham%NULL%1,                     Nhung Kim Thi%Ta%NULL%1,                     Quynh Thi%Nguyen%NULL%1,                     Anh Ngoc%Nguyen%NULL%1,                     Quan%Van Duong%NULL%1,                     Men Thi%Hoang%NULL%1,                     Hai Quang%Pham%NULL%1,                     Linh Gia%Vu%NULL%1,                     Bach Xuan%Tran%NULL%1,                     Carl A.%Latkin%NULL%1,                     Cyrus S. H.%Ho%NULL%1,                     Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                     S.%Joo%NULL%1,                     P.-A.%Couette%NULL%1,                     S.%de Jaegher%NULL%1,                     F.%Joly%NULL%1,                     X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                     Simeng%Ma%NULL%2,                     Ying%Wang%NULL%4,                     Zhongxiang%Cai%NULL%2,                     Jianbo%Hu%NULL%2,                     Ning%Wei%NULL%2,                     Jiang%Wu%NULL%3,                     Hui%Du%NULL%2,                     Tingting%Chen%NULL%2,                     Ruiting%Li%NULL%2,                     Huawei%Tan%NULL%2,                     Lijun%Kang%NULL%2,                     Lihua%Yao%NULL%2,                     Manli%Huang%NULL%2,                     Huafen%Wang%NULL%2,                     Gaohua%Wang%NULL%3,                     Zhongchun%Liu%NULL%3,                     Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                     Mark%Shevlin%NULL%1,                     Jamie%Murphy%NULL%1,                     Orla%McBride%NULL%1,                     Menachem%Ben‐Ezra%NULL%2,                     Menachem%Ben‐Ezra%NULL%0,                     Richard P.%Bentall%NULL%1,                     Frédérique%Vallières%NULL%1,                     Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                     Stephanie%Manasse%NULL%2,                     Stephanie%Manasse%NULL%0,                     Rebecca A.%Krukowski%NULL%2,                     Rebecca A.%Krukowski%NULL%0,                     Kathryn%Ross%NULL%2,                     Kathryn%Ross%NULL%0,                     Rebecca%Shakour%NULL%2,                     Rebecca%Shakour%NULL%0,                     Darci R.%Miller%NULL%1,                     Dominick J.%Lemas%NULL%1,                     Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                     Xing Lin%Feng%NULL%1,                     Xiao Hua%Wang%NULL%2,                     Xiao Hua%Wang%NULL%0,                     Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                     Berta%Ausín%NULL%1,                     Miguel Ángel%Castellanos%NULL%1,                     Jesús%Saiz%NULL%1,                     Aída%López-Gómez%NULL%1,                     Carolina%Ugidos%NULL%1,                     Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                     Reyna Jazmín%Martínez Arriaga%NULL%2,                     Reyna Jazmín%Martínez Arriaga%NULL%0,                     Martha Alicia%Hernández-Gonzalez%NULL%2,                     Martha Alicia%Hernández-Gonzalez%NULL%0,                     José María%De la Roca-Chiapas%NULL%2,                     José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                     Francesca%Favieri%NULL%2,                     Francesca%Favieri%NULL%0,                     Renata%Tambelli%NULL%2,                     Renata%Tambelli%NULL%0,                     Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                     Farah%Ghrissi%NULL%1,                     Bouthaina%Abbassi%NULL%1,                     Wissal%Cherif%NULL%1,                     Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                     Enayat M.%Soltan%enayatsoltan@gmail.com%2,                     Enayat M.%Soltan%enayatsoltan@gmail.com%0,                     Hend M.%Salama%hind_mikhail@yahoo.com%2,                     Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                     Charles B%Malpas%NULL%2,                     Charles B%Malpas%NULL%0,                     Aidan JC%Burrell%NULL%1,                     Caroline%Gurvich%NULL%1,                     Leo%Chen%NULL%1,                     Jayashri%Kulkarni%NULL%1,                     Toby%Winton-Brown%NULL%2,                     Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%1,             Annunziata%Romeo%xref no email%1,             Agata%Benfante%xref no email%1,             Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                     Regino%Piñeiro-Lamas%NULL%1,                     César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                     Yasmeen%Byrnes%NULL%2,                     Yasmeen%Byrnes%NULL%0,                     Changgee%Chang%NULL%2,                     Aman%Prasad%NULL%1,                     Kevin%Chorath%NULL%2,                     Kevin%Chorath%NULL%0,                     Seerat K.%Poonia%NULL%1,                     Carolyn M.%Jenks%NULL%1,                     Andrés M.%Bur%NULL%1,                     Punam%Thakkar%NULL%2,                     Punam%Thakkar%NULL%0,                     Evan M.%Graboyes%NULL%2,                     Evan M.%Graboyes%NULL%0,                     Rahul%Seth%NULL%2,                     Rahul%Seth%NULL%0,                     Samuel%Trosman%NULL%1,                     Anni%Wong%NULL%2,                     Anni%Wong%NULL%0,                     Benjamin M.%Laitman%NULL%1,                     Brianna N.%Harris%NULL%1,                     Janki%Shah%NULL%2,                     Janki%Shah%NULL%0,                     Vanessa%Stubbs%NULL%1,                     Garret%Choby%NULL%1,                     Qi%Long%NULL%2,                     Christopher H.%Rassekh%NULL%1,                     Erica%Thaler%NULL%1,                     Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                     Antonio%Bertelli%NULL%1,                     Antonio%Gonçalves%NULL%1,                     Emily%Getzen%NULL%1,                     Changgee%Chang%NULL%0,                     Qi%Long%NULL%0,                     Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                     Benjamin%Becker%NULL%2,                     Qian%Yu%NULL%2,                     Peter%Willeit%NULL%2,                     Can%Jiao%NULL%2,                     Liuyue%Huang%NULL%2,                     M. Mahhub%Hossain%NULL%2,                     Igor%Grabovac%NULL%2,                     Albert%Yeung%NULL%2,                     Jingyuan%Lin%NULL%2,                     Nicola%Veronese%NULL%2,                     Jian%Wang%NULL%3,                     Xinqi%Zhou%NULL%2,                     Scott R.%Doig%NULL%2,                     Xiaofeng%Liu%NULL%2,                     Andre F.%Carvalho%NULL%2,                     Lin%Yang%NULL%4,                     Tao%Xiao%NULL%2,                     Liye%Zou%NULL%2,                     Paolo%Fusar-Poli%NULL%2,                     Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                     Jinghao Nicholas%Ngiam%NULL%1,                     Benjamin Yong-Qiang%Tan%NULL%2,                     Benjamin Yong-Qiang%Tan%NULL%0,                     Sai-Meng%Tham%NULL%1,                     Celine Yan-Shan%Tan%NULL%1,                     Mingxue%Jing%NULL%1,                     Renarebecca%Sagayanathan%NULL%1,                     Jin Tao%Chen%NULL%1,                     Lily Y. H.%Wong%NULL%1,                     Aftab%Ahmad%NULL%1,                     Faheem Ahmed%Khan%NULL%1,                     Maznah%Marmin%NULL%1,                     Fadhlina Binte%Hassan%NULL%1,                     Tai Mei-Ling%Sharon%NULL%1,                     Chin Han%Lim%NULL%1,                     Mohamad Iqbal Bin%Mohaini%NULL%1,                     Rivan%Danuaji%NULL%1,                     Thang H.%Nguyen%NULL%1,                     Georgios%Tsivgoulis%NULL%1,                     Sotirios%Tsiodras%NULL%1,                     Paraskevi C.%Fragkou%NULL%1,                     Dimitra%Dimopoulou%NULL%2,                     Dimitra%Dimopoulou%NULL%0,                     Arvind K.%Sharma%NULL%1,                     Kenam%Shah%NULL%1,                     Bhargesh%Patel%NULL%1,                     Suktara%Sharma%NULL%1,                     R. N.%Komalkumar%NULL%1,                     R. V.%Meenakshi%NULL%1,                     Shikha%Talati%NULL%1,                     Hock Luen%Teoh%NULL%1,                     Cyrus S.%Ho%NULL%1,                     Roger C.%Ho%NULL%0,                     Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                     Qin%Cui%NULL%1,                     Zhongchun%Liu%NULL%0,                     Juanjuan%Li%NULL%1,                     Xuan%Gong%NULL%1,                     Jingfang%Liu%NULL%1,                     Zhiying%Wan%NULL%1,                     Xiaoping%Yuan%NULL%1,                     Xiaofen%Li%NULL%1,                     Chuang%Chen%NULL%1,                     Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                    Apostolos%Blekas%coreGivesNoEmail%1,                    Eleni%Parlapani%coreGivesNoEmail%1,                    Ioannis%Diakogiannis%coreGivesNoEmail%1,                    Maria%Athanasiadou%coreGivesNoEmail%1,                    Marina%Skoupra%coreGivesNoEmail%1,                    Markos%Syngelakis%coreGivesNoEmail%1,                    Panteleimon%Voitsidis%coreGivesNoEmail%1,                    Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                     Zheng Feei%Ma%NULL%0,                     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                     Wanqiu%Tan%NULL%1,                     Li%Jiang%NULL%0,                     Ling%Zhang%NULL%0,                     Xinling%Zhao%NULL%0,                     Yiran%Zou%NULL%0,                     Yirong%Hu%NULL%0,                     Xi%Luo%NULL%0,                     Xiaojiang%Jiang%NULL%0,                     Roger S.%McIntyre%NULL%0,                     Bach%Tran%NULL%0,                     Jiaqian%Sun%NULL%1,                     Zhisong%Zhang%NULL%0,                     Roger%Ho%NULL%0,                     Cyrus%Ho%NULL%0,                     Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                     Hui%Ren%NULL%1,                     Ruilin%Cao%NULL%1,                     Yueyang%Hu%NULL%1,                     Zeying%Qin%NULL%1,                     Chuanen%Li%NULL%1,                     Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -5137,7 +5323,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>1307</v>
+        <v>1373</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -5195,7 +5381,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1309</v>
+        <v>1374</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -5224,7 +5410,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1310</v>
+        <v>1375</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -5253,7 +5439,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1312</v>
+        <v>1376</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -5282,7 +5468,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1313</v>
+        <v>1377</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -5311,7 +5497,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1315</v>
+        <v>1378</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5340,7 +5526,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1316</v>
+        <v>1379</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -5369,7 +5555,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1317</v>
+        <v>1380</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -5398,7 +5584,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1318</v>
+        <v>1381</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -5427,7 +5613,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1320</v>
+        <v>1382</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -5456,7 +5642,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1321</v>
+        <v>1383</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -5485,7 +5671,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1322</v>
+        <v>1384</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -5514,7 +5700,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1323</v>
+        <v>1385</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -5543,7 +5729,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1324</v>
+        <v>1386</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -5572,7 +5758,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1325</v>
+        <v>1387</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -5601,7 +5787,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1326</v>
+        <v>1388</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5630,7 +5816,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1327</v>
+        <v>1389</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -5659,7 +5845,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1328</v>
+        <v>1390</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -5688,7 +5874,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1329</v>
+        <v>1391</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -5717,7 +5903,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1330</v>
+        <v>1392</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -5746,7 +5932,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1331</v>
+        <v>1393</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -5775,7 +5961,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1332</v>
+        <v>1394</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -5804,7 +5990,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1333</v>
+        <v>1395</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -5833,7 +6019,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1334</v>
+        <v>1396</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -5862,7 +6048,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1335</v>
+        <v>1397</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -5891,7 +6077,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1336</v>
+        <v>1398</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -5920,7 +6106,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1337</v>
+        <v>1399</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -5949,7 +6135,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1338</v>
+        <v>1400</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -5978,7 +6164,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1339</v>
+        <v>1401</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -6007,7 +6193,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1340</v>
+        <v>1402</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -6036,7 +6222,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1341</v>
+        <v>1403</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -6065,7 +6251,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1342</v>
+        <v>1404</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -6094,7 +6280,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1343</v>
+        <v>1405</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -6123,7 +6309,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -6152,7 +6338,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1345</v>
+        <v>1407</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -6181,7 +6367,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1346</v>
+        <v>1408</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -6239,7 +6425,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1347</v>
+        <v>1409</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -6268,7 +6454,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1348</v>
+        <v>1410</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -6326,7 +6512,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1349</v>
+        <v>1411</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -6355,7 +6541,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1350</v>
+        <v>1412</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -6384,7 +6570,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1351</v>
+        <v>1413</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -6413,7 +6599,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1352</v>
+        <v>1414</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -6442,7 +6628,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1353</v>
+        <v>1415</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -6471,7 +6657,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1354</v>
+        <v>1416</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -6500,7 +6686,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1355</v>
+        <v>1417</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -6529,7 +6715,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1356</v>
+        <v>1418</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -6558,7 +6744,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1357</v>
+        <v>1419</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -6587,7 +6773,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1358</v>
+        <v>1420</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -6616,7 +6802,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1359</v>
+        <v>1421</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -6645,7 +6831,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1360</v>
+        <v>1422</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -6674,7 +6860,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1361</v>
+        <v>1423</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -6703,7 +6889,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1362</v>
+        <v>1424</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -6732,7 +6918,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1363</v>
+        <v>1425</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -6761,7 +6947,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1364</v>
+        <v>1426</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -6790,7 +6976,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1365</v>
+        <v>1427</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -6819,7 +7005,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1366</v>
+        <v>1428</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -6848,7 +7034,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1367</v>
+        <v>1429</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -6877,7 +7063,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1368</v>
+        <v>1430</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -6906,7 +7092,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1369</v>
+        <v>1431</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -6935,7 +7121,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1370</v>
+        <v>1432</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -6964,7 +7150,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1371</v>
+        <v>1433</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -6993,7 +7179,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1372</v>
+        <v>1434</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8387" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11027" uniqueCount="1742">
   <si>
     <t>Doi</t>
   </si>
@@ -4956,6 +4956,927 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                     Hui%Ren%NULL%1,                     Ruilin%Cao%NULL%1,                     Yueyang%Hu%NULL%1,                     Zeying%Qin%NULL%1,                     Chuanen%Li%NULL%1,                     Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                      Roy F.%Baumeister%NULL%1,                      Jennifer C.%Veilleux%NULL%1,                      Caixia%Chen%NULL%1,                      Wenjun%Liu%NULL%1,                      Yongjie%Yue%NULL%1,                      Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                      Xiaopeng%Hu%NULL%1,                      Ivo Otte%Ekumi%NULL%1,                      Jianchun%Wang%NULL%1,                      Yawen%An%NULL%1,                      Zhiwen%Li%NULL%1,                      Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                      Wen%Li%NULL%2,                      Yuan%Yang%NULL%4,                      Yuan%Yang%NULL%0,                      Yu%Wang%NULL%2,                      Qinge%Zhang%NULL%1,                      Teris%Cheung%NULL%2,                      Xinjuan%Wu%NULL%2,                      Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                      Cherica A.%Tee%NULL%1,                      Joseph P.%Anlacan%NULL%1,                      Katrina Joy G.%Aligam%NULL%1,                      Patrick Wincy C.%Reyes%NULL%1,                      Vipat%Kuruchittham%NULL%1,                      Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                      Xiao-You%Su%suxiaoyou@hotmail.com%1,                      Yu%Jiang%jiangyu@pumc.edu.cn%2,                      Yu%Jiang%jiangyu@pumc.edu.cn%0,                      Wen-Jun%Wang%wwjun1973@163.com%1,                      Xiao-Fen%Gu%357539328@qq.com%1,                      Li%Ma%mali_lele@sina.com%1,                      Jing%Li%lijingwcph@scu.edu.cn%0,                      Shao-Kai%Zhang%shaokaizhang@126.com%1,                      Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                      Ran%Ren%renran99@163.com%1,                      Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                      You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                      Helena%Garrido-Hernansaiz%NULL%1,                      Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                      Xiangfen%Su%suxiangfengfy@163.com%1,                      Shuzeng%Zhang%NULL%2,                      Shuzeng%Zhang%NULL%0,                      Wenjie%Guan%NULL%1,                      Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                      Rong-Ning%Chen%NULL%1,                      Li-Li%Liu%NULL%1,                      Xue-Guo%Li%NULL%1,                      Jian-Bin%Chen%NULL%1,                      Si-Yao%Tang%NULL%1,                      Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guo%Li%xref no email%0, Jinfeng%Miao%xref no email%2, Hui%Wang%xref no email%2, Shabei%Xu%xref no email%2, Wenzhe%Sun%xref no email%2, Yebin%Fan%xref no email%2, Chenyan%Zhang%xref no email%2, Suiqiang%Zhu%xref no email%2, Zhou%Zhu%xref no email%2, Wei%Wang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>PUBLISHER: BMJ</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                      Elisa%Pedroli%NULL%1,                      Guido E.%D'Aniello%NULL%1,                      Chiara%Stramba Badiale%NULL%1,                      Giada%Pietrabissa%NULL%1,                      Chiara%Manna%NULL%1,                      Marco%Stramba Badiale%NULL%1,                      Giuseppe%Riva%NULL%1,                      Gianluca%Castelnuovo%NULL%1,                      Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                      Qing-xian%Li%NULL%1,                      Heng%Zhang%NULL%1,                      Jia-yong%Zhu%NULL%1,                      Xu%Yang%NULL%1,                      Yu-hang%Wu%NULL%1,                      Jie%Xiong%NULL%1,                      Fu%Li%NULL%1,                      Hua%Wang%whzkwlh@126.com%0,                      Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                      Charlotte%Coste%NULL%1,                      Rocio%Sanchez%NULL%1,                      Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                      Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                      Saleh A.%Alrashed%NULL%1,                      Ali A.%Alzunaydi%NULL%1,                      Ahmed S.%Almohimeed%NULL%1,                      Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                      Hui%Shi%NULL%1,                      Zhengkui%Liu%NULL%1,                      Songxu%Peng%gwxypsx@163.com%2,                      Songxu%Peng%gwxypsx@163.com%0,                      Ruoxi%Wang%NULL%2,                      Ruoxi%Wang%NULL%0,                      Ling%Qi%NULL%1,                      Zezhi%Li%NULL%1,                      Jiezhi%Yang%NULL%1,                      Yali%Ren%NULL%1,                      Xiuli%Song%NULL%1,                      Lingyun%Zeng%NULL%1,                      Wei%Qian%NULL%1,                      Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                     Khazaie%H.%coreGivesNoEmail%1,                     Li%J.%coreGivesNoEmail%1,                     Xiaohui%Li%coreGivesNoEmail%1,                     Xing%Tan%coreGivesNoEmail%1,                     Yuanyuan%An%coreGivesNoEmail%1,                     Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                      Zheng Feei%Ma%NULL%4,                      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                      Zhuoer%Sun%NULL%3,                      Zhuoer%Sun%NULL%0,                      Tuanjie%Liu%NULL%1,                      Xiong%Ni%NULL%1,                      Xuanfeng%Deng%NULL%1,                      Yanpu%Jia%NULL%2,                      Zhilei%Shang%NULL%2,                      Yaoguang%Zhou%NULL%2,                      Weizhi%Liu%13024141970@163.com%3,                      Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                      N.%Hadjamu%NULL%2,                      N.%Hadjamu%NULL%0,                      G.%Willmund%NULL%1,                      S.%Dolff%NULL%1,                      N.%Vonderlin%NULL%1,                      R.%Wakili%NULL%1,                      J.%Vogel%NULL%1,                      T.%Rassaf%NULL%1,                      J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                      Riyu%Pan%NULL%1,                      Xiaoyang%Wan%NULL%1,                      Yilin%Tan%NULL%1,                      Linkang%Xu%NULL%1,                      Roger S.%McIntyre%NULL%3,                      Faith N.%Choo%NULL%1,                      Bach%Tran%NULL%3,                      Roger%Ho%NULL%3,                      Vijay K.%Sharma%NULL%2,                      Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                      Jithin Thomas%Parel%NULL%2,                      Jithin Thomas%Parel%NULL%0,                      Neeraj%Raizada%NULL%2,                      Neeraj%Raizada%NULL%0,                      Shiv Kumar%Sarin%NULL%1,                      Abdallah M.%Samy%NULL%2,                      Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                      Rene%Stefitz%NULL%1,                      Kerstin%Gaisbachgrabner%NULL%1,                      Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                      Tao%Hu%NULL%1,                      Baodi%Hu%NULL%1,                      Chunhan%Jin%NULL%1,                      Gang%Wang%NULL%1,                      Chao%Xie%NULL%1,                      Sen%Chen%NULL%1,                      Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                      Fengyi%Hao%NULL%1,                      Roger S.%McIntyre%NULL%0,                      Li%Jiang%NULL%2,                      Xiaojiang%Jiang%NULL%2,                      Ling%Zhang%NULL%2,                      Xinling%Zhao%NULL%2,                      Yiran%Zou%NULL%2,                      Yirong%Hu%NULL%2,                      Xi%Luo%NULL%2,                      Zhisong%Zhang%NULL%2,                      Andre%Lai%NULL%1,                      Roger%Ho%NULL%0,                      Bach%Tran%NULL%0,                      Cyrus%Ho%NULL%0,                      Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                      Wenning%Fu%NULL%2,                      Xiaoran%Liu%NULL%2,                      Zhiqian%Luo%NULL%2,                      Rixing%Wang%NULL%2,                      Ning%Zhou%NULL%2,                      Shijiao%Yan%NULL%3,                      Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                      Mark L%Williams%NULL%1,                      Benjamin C%Amick%NULL%1,                      Teresa J.%Hudson%NULL%1,                      Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                      Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                      Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                      Necdet%Sut%necdetsut@yahoo.com%2,                      Necdet%Sut%necdetsut@yahoo.com%0,                      Selma%Akdogan%drslma.akdogan@gmail.com%2,                      Selma%Akdogan%drslma.akdogan@gmail.com%0,                      Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                      Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                      Valentina%Socci%NULL%3,                      Dalila%Talevi%NULL%1,                      Sonia%Mensi%NULL%1,                      Cinzia%Niolu%NULL%1,                      Francesca%Pacitti%NULL%3,                      Antinisca%Di Marco%NULL%3,                      Alessandro%Rossi%NULL%3,                      Alberto%Siracusano%NULL%3,                      Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                      Valentina%Socci%NULL%0,                      Francesca%Pacitti%NULL%0,                      Giorgio%Di Lorenzo%NULL%0,                      Antinisca%Di Marco%NULL%0,                      Alberto%Siracusano%NULL%0,                      Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                      Marianna%Purgato%NULL%1,                      Chiara%Bove%NULL%1,                      David%MacTaggart%NULL%1,                      Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                      Wei%Chen%NULL%2,                      Saiduo%Liu%NULL%2,                      Paul M.%Thompson%NULL%2,                      Long Jiang%Zhang%NULL%2,                      Fei%Xia%NULL%3,                      Fang%Cheng%NULL%3,                      Ailing%Hong%NULL%2,                      Wesley%Surento%NULL%2,                      Song%Luo%NULL%2,                      Zhi Yuan%Sun%NULL%2,                      Chang Sheng%Zhou%NULL%2,                      Lingjiang%Li%NULL%2,                      Xiangao%Jiang%NULL%2,                      Guang Ming%Lu%NULL%2,                       R.%Qi%null%2,                       W.% Chen%null%2,                       S.% Liu%null%2,                       P. M.% Thompson%null%2,                       L. J.% Zhang%null%2,                       F.% Xia%null%2,                       F.% Cheng%null%2,                       A.% Hong%null%2,                       W.% Surento%null%2,                       S.% Luo%null%2,                       Z. Y.% Sun%null%2,                       C. S.% Zhou%null%2,                       L.% Li%null%2,                       X.% Jiang%null%2,                       G. M. % Lu%null%2,                     R.%Qi%null%1,                     W.% Chen%null%1,                     S.% Liu%null%1,                     P. M.% Thompson%null%1,                     L. J.% Zhang%null%1,                     F.% Xia%null%1,                     F.% Cheng%null%1,                     A.% Hong%null%1,                     W.% Surento%null%1,                     S.% Luo%null%1,                     Z. Y.% Sun%null%1,                     C. S.% Zhou%null%1,                     L.% Li%null%1,                     X.% Jiang%null%1,                     G. M. % Lu%null%1,   R.%Qi%null%2,   W.% Chen%null%2,   S.% Liu%null%2,   P. M.% Thompson%null%2,   L. J.% Zhang%null%2,   F.% Xia%null%2,   F.% Cheng%null%2,   A.% Hong%null%2,   W.% Surento%null%2,   S.% Luo%null%2,   Z. Y.% Sun%null%2,   C. S.% Zhou%null%2,   L.% Li%null%2,   X.% Jiang%null%2,   G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                      Yutong%Zhang%NULL%2,                      Yutong%Zhang%NULL%0,                      Xiaoqin%Luo%NULL%1,                      Xinli%Li%NULL%1,                      Yeshan%Li%NULL%1,                      Shuchang%Liu%NULL%1,                      Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                      Beatriz%Talavera-Velasco%NULL%2,                      Beatriz%Talavera-Velasco%NULL%0,                      Yolanda%García-Albuerne%NULL%1,                      Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                      Fan%Zhang%NULL%1,                      Cun%Wei%NULL%1,                      Yanpu%Jia%NULL%0,                      Zhilei%Shang%NULL%0,                      Luna%Sun%NULL%1,                      Lili%Wu%NULL%1,                      Zhuoer%Sun%NULL%0,                      Yaoguang%Zhou%NULL%0,                      Yan%Wang%NULL%1,                      Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                      Emily%Zhang%NULL%1,                      Ga Tin Fifi%Wong%NULL%1,                      Sunah%Hyun%NULL%1,                      Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                      Yue%Wang%NULL%1,                      Jingwen%Jiang%NULL%1,                      Unnur A.%Valdimarsdóttir%NULL%1,                      Katja%Fall%NULL%2,                      Katja%Fall%NULL%0,                      Fang%Fang%NULL%4,                      Fang%Fang%NULL%0,                      Huan%Song%NULL%1,                      Donghao%Lu%NULL%1,                      Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                     Chiang%E. S.%coreGivesNoEmail%1,                     Fernandez%R.%coreGivesNoEmail%1,                     Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                     Ibrahim%H.%coreGivesNoEmail%1,                     Lee%B.%coreGivesNoEmail%1,                     Shi%L.%coreGivesNoEmail%1,                     Sun%N.%coreGivesNoEmail%1,                     Tsay%S.\u2010F.%coreGivesNoEmail%1,                     World%Health Organisation%coreGivesNoEmail%2,                     World%Health Organisation%coreGivesNoEmail%0,                     Xiaoyue%Xu%coreGivesNoEmail%1,                     Xiuchuan%Li%coreGivesNoEmail%1,                     Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                      Peixin%Lu%NULL%1,                      Lianting%Hu%NULL%1,                      Tianhui%Huang%NULL%1,                      Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                     Holly%Wei%coreGivesNoEmail%1,                     Hong%Xu%coreGivesNoEmail%1,                     Lili%Wei%coreGivesNoEmail%1,                     Lu%H%coreGivesNoEmail%1,                     Min%Leng%coreGivesNoEmail%1,                     Shi%Ti JC%coreGivesNoEmail%1,                     Shuyun%Xing%coreGivesNoEmail%1,                     Weathers%F%coreGivesNoEmail%1,                     Wenwen%Zhang%coreGivesNoEmail%1,                     Xiaohui%Shi%coreGivesNoEmail%1,                     Xiaoying%Zhang%coreGivesNoEmail%1,                     Yang%T%coreGivesNoEmail%1,                     Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                      Anh Kim%Dang%NULL%1,                      Jayson%Toweh%NULL%1,                      Quang Nhat%Nguyen%NULL%1,                      Huong Thi%Le%NULL%1,                      Toan Thi Thanh%Do%NULL%1,                      Hanh Bich Thi%Phan%NULL%1,                      Thao Thanh%Nguyen%NULL%1,                      Quan Thi%Pham%NULL%1,                      Nhung Kim Thi%Ta%NULL%1,                      Quynh Thi%Nguyen%NULL%1,                      Anh Ngoc%Nguyen%NULL%1,                      Quan%Van Duong%NULL%1,                      Men Thi%Hoang%NULL%1,                      Hai Quang%Pham%NULL%1,                      Linh Gia%Vu%NULL%1,                      Bach Xuan%Tran%NULL%1,                      Carl A.%Latkin%NULL%1,                      Cyrus S. H.%Ho%NULL%1,                      Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                      S.%Joo%NULL%1,                      P.-A.%Couette%NULL%1,                      S.%de Jaegher%NULL%1,                      F.%Joly%NULL%1,                      X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                      Simeng%Ma%NULL%2,                      Ying%Wang%NULL%4,                      Zhongxiang%Cai%NULL%2,                      Jianbo%Hu%NULL%2,                      Ning%Wei%NULL%2,                      Jiang%Wu%NULL%3,                      Hui%Du%NULL%2,                      Tingting%Chen%NULL%2,                      Ruiting%Li%NULL%2,                      Huawei%Tan%NULL%2,                      Lijun%Kang%NULL%2,                      Lihua%Yao%NULL%2,                      Manli%Huang%NULL%2,                      Huafen%Wang%NULL%2,                      Gaohua%Wang%NULL%3,                      Zhongchun%Liu%NULL%3,                      Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                      Mark%Shevlin%NULL%1,                      Jamie%Murphy%NULL%1,                      Orla%McBride%NULL%1,                      Menachem%Ben‐Ezra%NULL%2,                      Menachem%Ben‐Ezra%NULL%0,                      Richard P.%Bentall%NULL%1,                      Frédérique%Vallières%NULL%1,                      Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                      Stephanie%Manasse%NULL%2,                      Stephanie%Manasse%NULL%0,                      Rebecca A.%Krukowski%NULL%2,                      Rebecca A.%Krukowski%NULL%0,                      Kathryn%Ross%NULL%2,                      Kathryn%Ross%NULL%0,                      Rebecca%Shakour%NULL%2,                      Rebecca%Shakour%NULL%0,                      Darci R.%Miller%NULL%1,                      Dominick J.%Lemas%NULL%1,                      Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                      Xing Lin%Feng%NULL%1,                      Xiao Hua%Wang%NULL%2,                      Xiao Hua%Wang%NULL%0,                      Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                      Berta%Ausín%NULL%1,                      Miguel Ángel%Castellanos%NULL%1,                      Jesús%Saiz%NULL%1,                      Aída%López-Gómez%NULL%1,                      Carolina%Ugidos%NULL%1,                      Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                      Reyna Jazmín%Martínez Arriaga%NULL%2,                      Reyna Jazmín%Martínez Arriaga%NULL%0,                      Martha Alicia%Hernández-Gonzalez%NULL%2,                      Martha Alicia%Hernández-Gonzalez%NULL%0,                      José María%De la Roca-Chiapas%NULL%2,                      José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                      Francesca%Favieri%NULL%2,                      Francesca%Favieri%NULL%0,                      Renata%Tambelli%NULL%2,                      Renata%Tambelli%NULL%0,                      Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                      Farah%Ghrissi%NULL%1,                      Bouthaina%Abbassi%NULL%1,                      Wissal%Cherif%NULL%1,                      Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                      Enayat M.%Soltan%enayatsoltan@gmail.com%2,                      Enayat M.%Soltan%enayatsoltan@gmail.com%0,                      Hend M.%Salama%hind_mikhail@yahoo.com%2,                      Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                      Charles B%Malpas%NULL%2,                      Charles B%Malpas%NULL%0,                      Aidan JC%Burrell%NULL%1,                      Caroline%Gurvich%NULL%1,                      Leo%Chen%NULL%1,                      Jayashri%Kulkarni%NULL%1,                      Toby%Winton-Brown%NULL%2,                      Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marialaura%Di Tella%xref no email%0, Annunziata%Romeo%xref no email%1, Agata%Benfante%xref no email%1, Lorys%Castelli%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                      Regino%Piñeiro-Lamas%NULL%1,                      César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                      Yasmeen%Byrnes%NULL%2,                      Yasmeen%Byrnes%NULL%0,                      Changgee%Chang%NULL%2,                      Aman%Prasad%NULL%1,                      Kevin%Chorath%NULL%2,                      Kevin%Chorath%NULL%0,                      Seerat K.%Poonia%NULL%1,                      Carolyn M.%Jenks%NULL%1,                      Andrés M.%Bur%NULL%1,                      Punam%Thakkar%NULL%2,                      Punam%Thakkar%NULL%0,                      Evan M.%Graboyes%NULL%2,                      Evan M.%Graboyes%NULL%0,                      Rahul%Seth%NULL%2,                      Rahul%Seth%NULL%0,                      Samuel%Trosman%NULL%1,                      Anni%Wong%NULL%2,                      Anni%Wong%NULL%0,                      Benjamin M.%Laitman%NULL%1,                      Brianna N.%Harris%NULL%1,                      Janki%Shah%NULL%2,                      Janki%Shah%NULL%0,                      Vanessa%Stubbs%NULL%1,                      Garret%Choby%NULL%1,                      Qi%Long%NULL%2,                      Christopher H.%Rassekh%NULL%1,                      Erica%Thaler%NULL%1,                      Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                      Antonio%Bertelli%NULL%1,                      Antonio%Gonçalves%NULL%1,                      Emily%Getzen%NULL%1,                      Changgee%Chang%NULL%0,                      Qi%Long%NULL%0,                      Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                      Benjamin%Becker%NULL%2,                      Qian%Yu%NULL%2,                      Peter%Willeit%NULL%2,                      Can%Jiao%NULL%2,                      Liuyue%Huang%NULL%2,                      M. Mahhub%Hossain%NULL%2,                      Igor%Grabovac%NULL%2,                      Albert%Yeung%NULL%2,                      Jingyuan%Lin%NULL%2,                      Nicola%Veronese%NULL%2,                      Jian%Wang%NULL%3,                      Xinqi%Zhou%NULL%2,                      Scott R.%Doig%NULL%2,                      Xiaofeng%Liu%NULL%2,                      Andre F.%Carvalho%NULL%2,                      Lin%Yang%NULL%4,                      Tao%Xiao%NULL%2,                      Liye%Zou%NULL%2,                      Paolo%Fusar-Poli%NULL%2,                      Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                      Jinghao Nicholas%Ngiam%NULL%1,                      Benjamin Yong-Qiang%Tan%NULL%2,                      Benjamin Yong-Qiang%Tan%NULL%0,                      Sai-Meng%Tham%NULL%1,                      Celine Yan-Shan%Tan%NULL%1,                      Mingxue%Jing%NULL%1,                      Renarebecca%Sagayanathan%NULL%1,                      Jin Tao%Chen%NULL%1,                      Lily Y. H.%Wong%NULL%1,                      Aftab%Ahmad%NULL%1,                      Faheem Ahmed%Khan%NULL%1,                      Maznah%Marmin%NULL%1,                      Fadhlina Binte%Hassan%NULL%1,                      Tai Mei-Ling%Sharon%NULL%1,                      Chin Han%Lim%NULL%1,                      Mohamad Iqbal Bin%Mohaini%NULL%1,                      Rivan%Danuaji%NULL%1,                      Thang H.%Nguyen%NULL%1,                      Georgios%Tsivgoulis%NULL%1,                      Sotirios%Tsiodras%NULL%1,                      Paraskevi C.%Fragkou%NULL%1,                      Dimitra%Dimopoulou%NULL%2,                      Dimitra%Dimopoulou%NULL%0,                      Arvind K.%Sharma%NULL%1,                      Kenam%Shah%NULL%1,                      Bhargesh%Patel%NULL%1,                      Suktara%Sharma%NULL%1,                      R. N.%Komalkumar%NULL%1,                      R. V.%Meenakshi%NULL%1,                      Shikha%Talati%NULL%1,                      Hock Luen%Teoh%NULL%1,                      Cyrus S.%Ho%NULL%1,                      Roger C.%Ho%NULL%0,                      Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                      Qin%Cui%NULL%1,                      Zhongchun%Liu%NULL%0,                      Juanjuan%Li%NULL%1,                      Xuan%Gong%NULL%1,                      Jingfang%Liu%NULL%1,                      Zhiying%Wan%NULL%1,                      Xiaoping%Yuan%NULL%1,                      Xiaofen%Li%NULL%1,                      Chuang%Chen%NULL%1,                      Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                     Apostolos%Blekas%coreGivesNoEmail%1,                     Eleni%Parlapani%coreGivesNoEmail%1,                     Ioannis%Diakogiannis%coreGivesNoEmail%1,                     Maria%Athanasiadou%coreGivesNoEmail%1,                     Marina%Skoupra%coreGivesNoEmail%1,                     Markos%Syngelakis%coreGivesNoEmail%1,                     Panteleimon%Voitsidis%coreGivesNoEmail%1,                     Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                      Zheng Feei%Ma%NULL%0,                      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                      Wanqiu%Tan%NULL%1,                      Li%Jiang%NULL%0,                      Ling%Zhang%NULL%0,                      Xinling%Zhao%NULL%0,                      Yiran%Zou%NULL%0,                      Yirong%Hu%NULL%0,                      Xi%Luo%NULL%0,                      Xiaojiang%Jiang%NULL%0,                      Roger S.%McIntyre%NULL%0,                      Bach%Tran%NULL%0,                      Jiaqian%Sun%NULL%1,                      Zhisong%Zhang%NULL%0,                      Roger%Ho%NULL%0,                      Cyrus%Ho%NULL%0,                      Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                      Hui%Ren%NULL%1,                      Ruilin%Cao%NULL%1,                      Yueyang%Hu%NULL%1,                      Zeying%Qin%NULL%1,                      Chuanen%Li%NULL%1,                      Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                       Roy F.%Baumeister%NULL%1,                       Jennifer C.%Veilleux%NULL%1,                       Caixia%Chen%NULL%1,                       Wenjun%Liu%NULL%1,                       Yongjie%Yue%NULL%1,                       Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                       Xiaopeng%Hu%NULL%1,                       Ivo Otte%Ekumi%NULL%1,                       Jianchun%Wang%NULL%1,                       Yawen%An%NULL%1,                       Zhiwen%Li%NULL%1,                       Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                       Wen%Li%NULL%2,                       Yuan%Yang%NULL%4,                       Yuan%Yang%NULL%0,                       Yu%Wang%NULL%2,                       Qinge%Zhang%NULL%1,                       Teris%Cheung%NULL%2,                       Xinjuan%Wu%NULL%2,                       Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                       Cherica A.%Tee%NULL%1,                       Joseph P.%Anlacan%NULL%1,                       Katrina Joy G.%Aligam%NULL%1,                       Patrick Wincy C.%Reyes%NULL%1,                       Vipat%Kuruchittham%NULL%1,                       Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                       Xiao-You%Su%suxiaoyou@hotmail.com%1,                       Yu%Jiang%jiangyu@pumc.edu.cn%2,                       Yu%Jiang%jiangyu@pumc.edu.cn%0,                       Wen-Jun%Wang%wwjun1973@163.com%1,                       Xiao-Fen%Gu%357539328@qq.com%1,                       Li%Ma%mali_lele@sina.com%1,                       Jing%Li%lijingwcph@scu.edu.cn%0,                       Shao-Kai%Zhang%shaokaizhang@126.com%1,                       Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                       Ran%Ren%renran99@163.com%1,                       Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                       You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                       Helena%Garrido-Hernansaiz%NULL%1,                       Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                       Xiangfen%Su%suxiangfengfy@163.com%1,                       Shuzeng%Zhang%NULL%2,                       Shuzeng%Zhang%NULL%0,                       Wenjie%Guan%NULL%1,                       Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                       Rong-Ning%Chen%NULL%1,                       Li-Li%Liu%NULL%1,                       Xue-Guo%Li%NULL%1,                       Jian-Bin%Chen%NULL%1,                       Si-Yao%Tang%NULL%1,                       Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                       Elisa%Pedroli%NULL%1,                       Guido E.%D'Aniello%NULL%1,                       Chiara%Stramba Badiale%NULL%1,                       Giada%Pietrabissa%NULL%1,                       Chiara%Manna%NULL%1,                       Marco%Stramba Badiale%NULL%1,                       Giuseppe%Riva%NULL%1,                       Gianluca%Castelnuovo%NULL%1,                       Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                       Qing-xian%Li%NULL%1,                       Heng%Zhang%NULL%1,                       Jia-yong%Zhu%NULL%1,                       Xu%Yang%NULL%1,                       Yu-hang%Wu%NULL%1,                       Jie%Xiong%NULL%1,                       Fu%Li%NULL%1,                       Hua%Wang%whzkwlh@126.com%0,                       Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                       Charlotte%Coste%NULL%1,                       Rocio%Sanchez%NULL%1,                       Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                       Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                       Saleh A.%Alrashed%NULL%1,                       Ali A.%Alzunaydi%NULL%1,                       Ahmed S.%Almohimeed%NULL%1,                       Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                       Hui%Shi%NULL%1,                       Zhengkui%Liu%NULL%1,                       Songxu%Peng%gwxypsx@163.com%2,                       Songxu%Peng%gwxypsx@163.com%0,                       Ruoxi%Wang%NULL%2,                       Ruoxi%Wang%NULL%0,                       Ling%Qi%NULL%1,                       Zezhi%Li%NULL%1,                       Jiezhi%Yang%NULL%1,                       Yali%Ren%NULL%1,                       Xiuli%Song%NULL%1,                       Lingyun%Zeng%NULL%1,                       Wei%Qian%NULL%1,                       Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                      Khazaie%H.%coreGivesNoEmail%1,                      Li%J.%coreGivesNoEmail%1,                      Xiaohui%Li%coreGivesNoEmail%1,                      Xing%Tan%coreGivesNoEmail%1,                      Yuanyuan%An%coreGivesNoEmail%1,                      Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                       Zheng Feei%Ma%NULL%4,                       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                       Zhuoer%Sun%NULL%3,                       Zhuoer%Sun%NULL%0,                       Tuanjie%Liu%NULL%1,                       Xiong%Ni%NULL%1,                       Xuanfeng%Deng%NULL%1,                       Yanpu%Jia%NULL%2,                       Zhilei%Shang%NULL%2,                       Yaoguang%Zhou%NULL%2,                       Weizhi%Liu%13024141970@163.com%3,                       Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                       N.%Hadjamu%NULL%2,                       N.%Hadjamu%NULL%0,                       G.%Willmund%NULL%1,                       S.%Dolff%NULL%1,                       N.%Vonderlin%NULL%1,                       R.%Wakili%NULL%1,                       J.%Vogel%NULL%1,                       T.%Rassaf%NULL%1,                       J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                       Riyu%Pan%NULL%1,                       Xiaoyang%Wan%NULL%1,                       Yilin%Tan%NULL%1,                       Linkang%Xu%NULL%1,                       Roger S.%McIntyre%NULL%3,                       Faith N.%Choo%NULL%1,                       Bach%Tran%NULL%3,                       Roger%Ho%NULL%3,                       Vijay K.%Sharma%NULL%2,                       Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                       Jithin Thomas%Parel%NULL%2,                       Jithin Thomas%Parel%NULL%0,                       Neeraj%Raizada%NULL%2,                       Neeraj%Raizada%NULL%0,                       Shiv Kumar%Sarin%NULL%1,                       Abdallah M.%Samy%NULL%2,                       Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                       Rene%Stefitz%NULL%1,                       Kerstin%Gaisbachgrabner%NULL%1,                       Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                       Tao%Hu%NULL%1,                       Baodi%Hu%NULL%1,                       Chunhan%Jin%NULL%1,                       Gang%Wang%NULL%1,                       Chao%Xie%NULL%1,                       Sen%Chen%NULL%1,                       Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                       Fengyi%Hao%NULL%1,                       Roger S.%McIntyre%NULL%0,                       Li%Jiang%NULL%2,                       Xiaojiang%Jiang%NULL%2,                       Ling%Zhang%NULL%2,                       Xinling%Zhao%NULL%2,                       Yiran%Zou%NULL%2,                       Yirong%Hu%NULL%2,                       Xi%Luo%NULL%2,                       Zhisong%Zhang%NULL%2,                       Andre%Lai%NULL%1,                       Roger%Ho%NULL%0,                       Bach%Tran%NULL%0,                       Cyrus%Ho%NULL%0,                       Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                       Wenning%Fu%NULL%2,                       Xiaoran%Liu%NULL%2,                       Zhiqian%Luo%NULL%2,                       Rixing%Wang%NULL%2,                       Ning%Zhou%NULL%2,                       Shijiao%Yan%NULL%3,                       Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                       Mark L%Williams%NULL%1,                       Benjamin C%Amick%NULL%1,                       Teresa J.%Hudson%NULL%1,                       Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                       Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                       Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                       Necdet%Sut%necdetsut@yahoo.com%2,                       Necdet%Sut%necdetsut@yahoo.com%0,                       Selma%Akdogan%drslma.akdogan@gmail.com%2,                       Selma%Akdogan%drslma.akdogan@gmail.com%0,                       Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                       Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                       Valentina%Socci%NULL%3,                       Dalila%Talevi%NULL%1,                       Sonia%Mensi%NULL%1,                       Cinzia%Niolu%NULL%1,                       Francesca%Pacitti%NULL%3,                       Antinisca%Di Marco%NULL%3,                       Alessandro%Rossi%NULL%3,                       Alberto%Siracusano%NULL%3,                       Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                       Valentina%Socci%NULL%0,                       Francesca%Pacitti%NULL%0,                       Giorgio%Di Lorenzo%NULL%0,                       Antinisca%Di Marco%NULL%0,                       Alberto%Siracusano%NULL%0,                       Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                       Marianna%Purgato%NULL%1,                       Chiara%Bove%NULL%1,                       David%MacTaggart%NULL%1,                       Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                       Wei%Chen%NULL%2,                       Saiduo%Liu%NULL%2,                       Paul M.%Thompson%NULL%2,                       Long Jiang%Zhang%NULL%2,                       Fei%Xia%NULL%3,                       Fang%Cheng%NULL%3,                       Ailing%Hong%NULL%2,                       Wesley%Surento%NULL%2,                       Song%Luo%NULL%2,                       Zhi Yuan%Sun%NULL%2,                       Chang Sheng%Zhou%NULL%2,                       Lingjiang%Li%NULL%2,                       Xiangao%Jiang%NULL%2,                       Guang Ming%Lu%NULL%2,                        R.%Qi%null%2,                        W.% Chen%null%2,                        S.% Liu%null%2,                        P. M.% Thompson%null%2,                        L. J.% Zhang%null%2,                        F.% Xia%null%2,                        F.% Cheng%null%2,                        A.% Hong%null%2,                        W.% Surento%null%2,                        S.% Luo%null%2,                        Z. Y.% Sun%null%2,                        C. S.% Zhou%null%2,                        L.% Li%null%2,                        X.% Jiang%null%2,                        G. M. % Lu%null%2,                      R.%Qi%null%1,                      W.% Chen%null%1,                      S.% Liu%null%1,                      P. M.% Thompson%null%1,                      L. J.% Zhang%null%1,                      F.% Xia%null%1,                      F.% Cheng%null%1,                      A.% Hong%null%1,                      W.% Surento%null%1,                      S.% Luo%null%1,                      Z. Y.% Sun%null%1,                      C. S.% Zhou%null%1,                      L.% Li%null%1,                      X.% Jiang%null%1,                      G. M. % Lu%null%1,    R.%Qi%null%2,    W.% Chen%null%2,    S.% Liu%null%2,    P. M.% Thompson%null%2,    L. J.% Zhang%null%2,    F.% Xia%null%2,    F.% Cheng%null%2,    A.% Hong%null%2,    W.% Surento%null%2,    S.% Luo%null%2,    Z. Y.% Sun%null%2,    C. S.% Zhou%null%2,    L.% Li%null%2,    X.% Jiang%null%2,    G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                       Yutong%Zhang%NULL%2,                       Yutong%Zhang%NULL%0,                       Xiaoqin%Luo%NULL%1,                       Xinli%Li%NULL%1,                       Yeshan%Li%NULL%1,                       Shuchang%Liu%NULL%1,                       Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                       Beatriz%Talavera-Velasco%NULL%2,                       Beatriz%Talavera-Velasco%NULL%0,                       Yolanda%García-Albuerne%NULL%1,                       Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                       Fan%Zhang%NULL%1,                       Cun%Wei%NULL%1,                       Yanpu%Jia%NULL%0,                       Zhilei%Shang%NULL%0,                       Luna%Sun%NULL%1,                       Lili%Wu%NULL%1,                       Zhuoer%Sun%NULL%0,                       Yaoguang%Zhou%NULL%0,                       Yan%Wang%NULL%1,                       Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                       Emily%Zhang%NULL%1,                       Ga Tin Fifi%Wong%NULL%1,                       Sunah%Hyun%NULL%1,                       Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                       Yue%Wang%NULL%1,                       Jingwen%Jiang%NULL%1,                       Unnur A.%Valdimarsdóttir%NULL%1,                       Katja%Fall%NULL%2,                       Katja%Fall%NULL%0,                       Fang%Fang%NULL%4,                       Fang%Fang%NULL%0,                       Huan%Song%NULL%1,                       Donghao%Lu%NULL%1,                       Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                      Chiang%E. S.%coreGivesNoEmail%1,                      Fernandez%R.%coreGivesNoEmail%1,                      Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                      Ibrahim%H.%coreGivesNoEmail%1,                      Lee%B.%coreGivesNoEmail%1,                      Shi%L.%coreGivesNoEmail%1,                      Sun%N.%coreGivesNoEmail%1,                      Tsay%S.\u2010F.%coreGivesNoEmail%1,                      World%Health Organisation%coreGivesNoEmail%2,                      World%Health Organisation%coreGivesNoEmail%0,                      Xiaoyue%Xu%coreGivesNoEmail%1,                      Xiuchuan%Li%coreGivesNoEmail%1,                      Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                       Peixin%Lu%NULL%1,                       Lianting%Hu%NULL%1,                       Tianhui%Huang%NULL%1,                       Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                      Holly%Wei%coreGivesNoEmail%1,                      Hong%Xu%coreGivesNoEmail%1,                      Lili%Wei%coreGivesNoEmail%1,                      Lu%H%coreGivesNoEmail%1,                      Min%Leng%coreGivesNoEmail%1,                      Shi%Ti JC%coreGivesNoEmail%1,                      Shuyun%Xing%coreGivesNoEmail%1,                      Weathers%F%coreGivesNoEmail%1,                      Wenwen%Zhang%coreGivesNoEmail%1,                      Xiaohui%Shi%coreGivesNoEmail%1,                      Xiaoying%Zhang%coreGivesNoEmail%1,                      Yang%T%coreGivesNoEmail%1,                      Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                       Anh Kim%Dang%NULL%1,                       Jayson%Toweh%NULL%1,                       Quang Nhat%Nguyen%NULL%1,                       Huong Thi%Le%NULL%1,                       Toan Thi Thanh%Do%NULL%1,                       Hanh Bich Thi%Phan%NULL%1,                       Thao Thanh%Nguyen%NULL%1,                       Quan Thi%Pham%NULL%1,                       Nhung Kim Thi%Ta%NULL%1,                       Quynh Thi%Nguyen%NULL%1,                       Anh Ngoc%Nguyen%NULL%1,                       Quan%Van Duong%NULL%1,                       Men Thi%Hoang%NULL%1,                       Hai Quang%Pham%NULL%1,                       Linh Gia%Vu%NULL%1,                       Bach Xuan%Tran%NULL%1,                       Carl A.%Latkin%NULL%1,                       Cyrus S. H.%Ho%NULL%1,                       Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                       S.%Joo%NULL%1,                       P.-A.%Couette%NULL%1,                       S.%de Jaegher%NULL%1,                       F.%Joly%NULL%1,                       X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                       Simeng%Ma%NULL%2,                       Ying%Wang%NULL%4,                       Zhongxiang%Cai%NULL%2,                       Jianbo%Hu%NULL%2,                       Ning%Wei%NULL%2,                       Jiang%Wu%NULL%3,                       Hui%Du%NULL%2,                       Tingting%Chen%NULL%2,                       Ruiting%Li%NULL%2,                       Huawei%Tan%NULL%2,                       Lijun%Kang%NULL%2,                       Lihua%Yao%NULL%2,                       Manli%Huang%NULL%2,                       Huafen%Wang%NULL%2,                       Gaohua%Wang%NULL%3,                       Zhongchun%Liu%NULL%3,                       Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                       Mark%Shevlin%NULL%1,                       Jamie%Murphy%NULL%1,                       Orla%McBride%NULL%1,                       Menachem%Ben‐Ezra%NULL%2,                       Menachem%Ben‐Ezra%NULL%0,                       Richard P.%Bentall%NULL%1,                       Frédérique%Vallières%NULL%1,                       Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                       Stephanie%Manasse%NULL%2,                       Stephanie%Manasse%NULL%0,                       Rebecca A.%Krukowski%NULL%2,                       Rebecca A.%Krukowski%NULL%0,                       Kathryn%Ross%NULL%2,                       Kathryn%Ross%NULL%0,                       Rebecca%Shakour%NULL%2,                       Rebecca%Shakour%NULL%0,                       Darci R.%Miller%NULL%1,                       Dominick J.%Lemas%NULL%1,                       Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                       Xing Lin%Feng%NULL%1,                       Xiao Hua%Wang%NULL%2,                       Xiao Hua%Wang%NULL%0,                       Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                       Berta%Ausín%NULL%1,                       Miguel Ángel%Castellanos%NULL%1,                       Jesús%Saiz%NULL%1,                       Aída%López-Gómez%NULL%1,                       Carolina%Ugidos%NULL%1,                       Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                       Reyna Jazmín%Martínez Arriaga%NULL%2,                       Reyna Jazmín%Martínez Arriaga%NULL%0,                       Martha Alicia%Hernández-Gonzalez%NULL%2,                       Martha Alicia%Hernández-Gonzalez%NULL%0,                       José María%De la Roca-Chiapas%NULL%2,                       José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                       Francesca%Favieri%NULL%2,                       Francesca%Favieri%NULL%0,                       Renata%Tambelli%NULL%2,                       Renata%Tambelli%NULL%0,                       Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                       Farah%Ghrissi%NULL%1,                       Bouthaina%Abbassi%NULL%1,                       Wissal%Cherif%NULL%1,                       Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                       Enayat M.%Soltan%enayatsoltan@gmail.com%2,                       Enayat M.%Soltan%enayatsoltan@gmail.com%0,                       Hend M.%Salama%hind_mikhail@yahoo.com%2,                       Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                       Charles B%Malpas%NULL%2,                       Charles B%Malpas%NULL%0,                       Aidan JC%Burrell%NULL%1,                       Caroline%Gurvich%NULL%1,                       Leo%Chen%NULL%1,                       Jayashri%Kulkarni%NULL%1,                       Toby%Winton-Brown%NULL%2,                       Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                       Regino%Piñeiro-Lamas%NULL%1,                       César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                       Yasmeen%Byrnes%NULL%2,                       Yasmeen%Byrnes%NULL%0,                       Changgee%Chang%NULL%2,                       Aman%Prasad%NULL%1,                       Kevin%Chorath%NULL%2,                       Kevin%Chorath%NULL%0,                       Seerat K.%Poonia%NULL%1,                       Carolyn M.%Jenks%NULL%1,                       Andrés M.%Bur%NULL%1,                       Punam%Thakkar%NULL%2,                       Punam%Thakkar%NULL%0,                       Evan M.%Graboyes%NULL%2,                       Evan M.%Graboyes%NULL%0,                       Rahul%Seth%NULL%2,                       Rahul%Seth%NULL%0,                       Samuel%Trosman%NULL%1,                       Anni%Wong%NULL%2,                       Anni%Wong%NULL%0,                       Benjamin M.%Laitman%NULL%1,                       Brianna N.%Harris%NULL%1,                       Janki%Shah%NULL%2,                       Janki%Shah%NULL%0,                       Vanessa%Stubbs%NULL%1,                       Garret%Choby%NULL%1,                       Qi%Long%NULL%2,                       Christopher H.%Rassekh%NULL%1,                       Erica%Thaler%NULL%1,                       Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                       Antonio%Bertelli%NULL%1,                       Antonio%Gonçalves%NULL%1,                       Emily%Getzen%NULL%1,                       Changgee%Chang%NULL%0,                       Qi%Long%NULL%0,                       Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                       Benjamin%Becker%NULL%2,                       Qian%Yu%NULL%2,                       Peter%Willeit%NULL%2,                       Can%Jiao%NULL%2,                       Liuyue%Huang%NULL%2,                       M. Mahhub%Hossain%NULL%2,                       Igor%Grabovac%NULL%2,                       Albert%Yeung%NULL%2,                       Jingyuan%Lin%NULL%2,                       Nicola%Veronese%NULL%2,                       Jian%Wang%NULL%3,                       Xinqi%Zhou%NULL%2,                       Scott R.%Doig%NULL%2,                       Xiaofeng%Liu%NULL%2,                       Andre F.%Carvalho%NULL%2,                       Lin%Yang%NULL%4,                       Tao%Xiao%NULL%2,                       Liye%Zou%NULL%2,                       Paolo%Fusar-Poli%NULL%2,                       Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                       Jinghao Nicholas%Ngiam%NULL%1,                       Benjamin Yong-Qiang%Tan%NULL%2,                       Benjamin Yong-Qiang%Tan%NULL%0,                       Sai-Meng%Tham%NULL%1,                       Celine Yan-Shan%Tan%NULL%1,                       Mingxue%Jing%NULL%1,                       Renarebecca%Sagayanathan%NULL%1,                       Jin Tao%Chen%NULL%1,                       Lily Y. H.%Wong%NULL%1,                       Aftab%Ahmad%NULL%1,                       Faheem Ahmed%Khan%NULL%1,                       Maznah%Marmin%NULL%1,                       Fadhlina Binte%Hassan%NULL%1,                       Tai Mei-Ling%Sharon%NULL%1,                       Chin Han%Lim%NULL%1,                       Mohamad Iqbal Bin%Mohaini%NULL%1,                       Rivan%Danuaji%NULL%1,                       Thang H.%Nguyen%NULL%1,                       Georgios%Tsivgoulis%NULL%1,                       Sotirios%Tsiodras%NULL%1,                       Paraskevi C.%Fragkou%NULL%1,                       Dimitra%Dimopoulou%NULL%2,                       Dimitra%Dimopoulou%NULL%0,                       Arvind K.%Sharma%NULL%1,                       Kenam%Shah%NULL%1,                       Bhargesh%Patel%NULL%1,                       Suktara%Sharma%NULL%1,                       R. N.%Komalkumar%NULL%1,                       R. V.%Meenakshi%NULL%1,                       Shikha%Talati%NULL%1,                       Hock Luen%Teoh%NULL%1,                       Cyrus S.%Ho%NULL%1,                       Roger C.%Ho%NULL%0,                       Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                       Qin%Cui%NULL%1,                       Zhongchun%Liu%NULL%0,                       Juanjuan%Li%NULL%1,                       Xuan%Gong%NULL%1,                       Jingfang%Liu%NULL%1,                       Zhiying%Wan%NULL%1,                       Xiaoping%Yuan%NULL%1,                       Xiaofen%Li%NULL%1,                       Chuang%Chen%NULL%1,                       Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                      Apostolos%Blekas%coreGivesNoEmail%1,                      Eleni%Parlapani%coreGivesNoEmail%1,                      Ioannis%Diakogiannis%coreGivesNoEmail%1,                      Maria%Athanasiadou%coreGivesNoEmail%1,                      Marina%Skoupra%coreGivesNoEmail%1,                      Markos%Syngelakis%coreGivesNoEmail%1,                      Panteleimon%Voitsidis%coreGivesNoEmail%1,                      Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                       Zheng Feei%Ma%NULL%0,                       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                       Wanqiu%Tan%NULL%1,                       Li%Jiang%NULL%0,                       Ling%Zhang%NULL%0,                       Xinling%Zhao%NULL%0,                       Yiran%Zou%NULL%0,                       Yirong%Hu%NULL%0,                       Xi%Luo%NULL%0,                       Xiaojiang%Jiang%NULL%0,                       Roger S.%McIntyre%NULL%0,                       Bach%Tran%NULL%0,                       Jiaqian%Sun%NULL%1,                       Zhisong%Zhang%NULL%0,                       Roger%Ho%NULL%0,                       Cyrus%Ho%NULL%0,                       Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                       Hui%Ren%NULL%1,                       Ruilin%Cao%NULL%1,                       Yueyang%Hu%NULL%1,                       Zeying%Qin%NULL%1,                       Chuanen%Li%NULL%1,                       Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                        Roy F.%Baumeister%NULL%1,                        Jennifer C.%Veilleux%NULL%1,                        Caixia%Chen%NULL%1,                        Wenjun%Liu%NULL%1,                        Yongjie%Yue%NULL%1,                        Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                        Xiaopeng%Hu%NULL%1,                        Ivo Otte%Ekumi%NULL%1,                        Jianchun%Wang%NULL%1,                        Yawen%An%NULL%1,                        Zhiwen%Li%NULL%1,                        Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                        Wen%Li%NULL%2,                        Yuan%Yang%NULL%4,                        Yuan%Yang%NULL%0,                        Yu%Wang%NULL%2,                        Qinge%Zhang%NULL%1,                        Teris%Cheung%NULL%2,                        Xinjuan%Wu%NULL%2,                        Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                        Cherica A.%Tee%NULL%1,                        Joseph P.%Anlacan%NULL%1,                        Katrina Joy G.%Aligam%NULL%1,                        Patrick Wincy C.%Reyes%NULL%1,                        Vipat%Kuruchittham%NULL%1,                        Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                        Xiao-You%Su%suxiaoyou@hotmail.com%1,                        Yu%Jiang%jiangyu@pumc.edu.cn%2,                        Yu%Jiang%jiangyu@pumc.edu.cn%0,                        Wen-Jun%Wang%wwjun1973@163.com%1,                        Xiao-Fen%Gu%357539328@qq.com%1,                        Li%Ma%mali_lele@sina.com%1,                        Jing%Li%lijingwcph@scu.edu.cn%0,                        Shao-Kai%Zhang%shaokaizhang@126.com%1,                        Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                        Ran%Ren%renran99@163.com%1,                        Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                        You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                        Helena%Garrido-Hernansaiz%NULL%1,                        Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                        Xiangfen%Su%suxiangfengfy@163.com%1,                        Shuzeng%Zhang%NULL%2,                        Shuzeng%Zhang%NULL%0,                        Wenjie%Guan%NULL%1,                        Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                        Rong-Ning%Chen%NULL%1,                        Li-Li%Liu%NULL%1,                        Xue-Guo%Li%NULL%1,                        Jian-Bin%Chen%NULL%1,                        Si-Yao%Tang%NULL%1,                        Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                        Elisa%Pedroli%NULL%1,                        Guido E.%D'Aniello%NULL%1,                        Chiara%Stramba Badiale%NULL%1,                        Giada%Pietrabissa%NULL%1,                        Chiara%Manna%NULL%1,                        Marco%Stramba Badiale%NULL%1,                        Giuseppe%Riva%NULL%1,                        Gianluca%Castelnuovo%NULL%1,                        Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                        Qing-xian%Li%NULL%1,                        Heng%Zhang%NULL%1,                        Jia-yong%Zhu%NULL%1,                        Xu%Yang%NULL%1,                        Yu-hang%Wu%NULL%1,                        Jie%Xiong%NULL%1,                        Fu%Li%NULL%1,                        Hua%Wang%whzkwlh@126.com%0,                        Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                        Charlotte%Coste%NULL%1,                        Rocio%Sanchez%NULL%1,                        Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                        Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                        Saleh A.%Alrashed%NULL%1,                        Ali A.%Alzunaydi%NULL%1,                        Ahmed S.%Almohimeed%NULL%1,                        Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                        Hui%Shi%NULL%1,                        Zhengkui%Liu%NULL%1,                        Songxu%Peng%gwxypsx@163.com%2,                        Songxu%Peng%gwxypsx@163.com%0,                        Ruoxi%Wang%NULL%2,                        Ruoxi%Wang%NULL%0,                        Ling%Qi%NULL%1,                        Zezhi%Li%NULL%1,                        Jiezhi%Yang%NULL%1,                        Yali%Ren%NULL%1,                        Xiuli%Song%NULL%1,                        Lingyun%Zeng%NULL%1,                        Wei%Qian%NULL%1,                        Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                       Khazaie%H.%coreGivesNoEmail%1,                       Li%J.%coreGivesNoEmail%1,                       Xiaohui%Li%coreGivesNoEmail%1,                       Xing%Tan%coreGivesNoEmail%1,                       Yuanyuan%An%coreGivesNoEmail%1,                       Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                        Zheng Feei%Ma%NULL%4,                        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                        Zhuoer%Sun%NULL%3,                        Zhuoer%Sun%NULL%0,                        Tuanjie%Liu%NULL%1,                        Xiong%Ni%NULL%1,                        Xuanfeng%Deng%NULL%1,                        Yanpu%Jia%NULL%2,                        Zhilei%Shang%NULL%2,                        Yaoguang%Zhou%NULL%2,                        Weizhi%Liu%13024141970@163.com%3,                        Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                        N.%Hadjamu%NULL%2,                        N.%Hadjamu%NULL%0,                        G.%Willmund%NULL%1,                        S.%Dolff%NULL%1,                        N.%Vonderlin%NULL%1,                        R.%Wakili%NULL%1,                        J.%Vogel%NULL%1,                        T.%Rassaf%NULL%1,                        J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                        Riyu%Pan%NULL%1,                        Xiaoyang%Wan%NULL%1,                        Yilin%Tan%NULL%1,                        Linkang%Xu%NULL%1,                        Roger S.%McIntyre%NULL%3,                        Faith N.%Choo%NULL%1,                        Bach%Tran%NULL%3,                        Roger%Ho%NULL%3,                        Vijay K.%Sharma%NULL%2,                        Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                        Jithin Thomas%Parel%NULL%2,                        Jithin Thomas%Parel%NULL%0,                        Neeraj%Raizada%NULL%2,                        Neeraj%Raizada%NULL%0,                        Shiv Kumar%Sarin%NULL%1,                        Abdallah M.%Samy%NULL%2,                        Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                        Rene%Stefitz%NULL%1,                        Kerstin%Gaisbachgrabner%NULL%1,                        Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                        Tao%Hu%NULL%1,                        Baodi%Hu%NULL%1,                        Chunhan%Jin%NULL%1,                        Gang%Wang%NULL%1,                        Chao%Xie%NULL%1,                        Sen%Chen%NULL%1,                        Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                        Fengyi%Hao%NULL%1,                        Roger S.%McIntyre%NULL%0,                        Li%Jiang%NULL%2,                        Xiaojiang%Jiang%NULL%2,                        Ling%Zhang%NULL%2,                        Xinling%Zhao%NULL%2,                        Yiran%Zou%NULL%2,                        Yirong%Hu%NULL%2,                        Xi%Luo%NULL%2,                        Zhisong%Zhang%NULL%2,                        Andre%Lai%NULL%1,                        Roger%Ho%NULL%0,                        Bach%Tran%NULL%0,                        Cyrus%Ho%NULL%0,                        Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                        Wenning%Fu%NULL%2,                        Xiaoran%Liu%NULL%2,                        Zhiqian%Luo%NULL%2,                        Rixing%Wang%NULL%2,                        Ning%Zhou%NULL%2,                        Shijiao%Yan%NULL%3,                        Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                        Mark L%Williams%NULL%1,                        Benjamin C%Amick%NULL%1,                        Teresa J.%Hudson%NULL%1,                        Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                        Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                        Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                        Necdet%Sut%necdetsut@yahoo.com%2,                        Necdet%Sut%necdetsut@yahoo.com%0,                        Selma%Akdogan%drslma.akdogan@gmail.com%2,                        Selma%Akdogan%drslma.akdogan@gmail.com%0,                        Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                        Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                        Valentina%Socci%NULL%3,                        Dalila%Talevi%NULL%1,                        Sonia%Mensi%NULL%1,                        Cinzia%Niolu%NULL%1,                        Francesca%Pacitti%NULL%3,                        Antinisca%Di Marco%NULL%3,                        Alessandro%Rossi%NULL%3,                        Alberto%Siracusano%NULL%3,                        Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                        Valentina%Socci%NULL%0,                        Francesca%Pacitti%NULL%0,                        Giorgio%Di Lorenzo%NULL%0,                        Antinisca%Di Marco%NULL%0,                        Alberto%Siracusano%NULL%0,                        Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                        Marianna%Purgato%NULL%1,                        Chiara%Bove%NULL%1,                        David%MacTaggart%NULL%1,                        Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                        Wei%Chen%NULL%2,                        Saiduo%Liu%NULL%2,                        Paul M.%Thompson%NULL%2,                        Long Jiang%Zhang%NULL%2,                        Fei%Xia%NULL%3,                        Fang%Cheng%NULL%3,                        Ailing%Hong%NULL%2,                        Wesley%Surento%NULL%2,                        Song%Luo%NULL%2,                        Zhi Yuan%Sun%NULL%2,                        Chang Sheng%Zhou%NULL%2,                        Lingjiang%Li%NULL%2,                        Xiangao%Jiang%NULL%2,                        Guang Ming%Lu%NULL%2,                         R.%Qi%null%2,                         W.% Chen%null%2,                         S.% Liu%null%2,                         P. M.% Thompson%null%2,                         L. J.% Zhang%null%2,                         F.% Xia%null%2,                         F.% Cheng%null%2,                         A.% Hong%null%2,                         W.% Surento%null%2,                         S.% Luo%null%2,                         Z. Y.% Sun%null%2,                         C. S.% Zhou%null%2,                         L.% Li%null%2,                         X.% Jiang%null%2,                         G. M. % Lu%null%2,                       R.%Qi%null%1,                       W.% Chen%null%1,                       S.% Liu%null%1,                       P. M.% Thompson%null%1,                       L. J.% Zhang%null%1,                       F.% Xia%null%1,                       F.% Cheng%null%1,                       A.% Hong%null%1,                       W.% Surento%null%1,                       S.% Luo%null%1,                       Z. Y.% Sun%null%1,                       C. S.% Zhou%null%1,                       L.% Li%null%1,                       X.% Jiang%null%1,                       G. M. % Lu%null%1,     R.%Qi%null%2,     W.% Chen%null%2,     S.% Liu%null%2,     P. M.% Thompson%null%2,     L. J.% Zhang%null%2,     F.% Xia%null%2,     F.% Cheng%null%2,     A.% Hong%null%2,     W.% Surento%null%2,     S.% Luo%null%2,     Z. Y.% Sun%null%2,     C. S.% Zhou%null%2,     L.% Li%null%2,     X.% Jiang%null%2,     G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                        Yutong%Zhang%NULL%2,                        Yutong%Zhang%NULL%0,                        Xiaoqin%Luo%NULL%1,                        Xinli%Li%NULL%1,                        Yeshan%Li%NULL%1,                        Shuchang%Liu%NULL%1,                        Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                        Beatriz%Talavera-Velasco%NULL%2,                        Beatriz%Talavera-Velasco%NULL%0,                        Yolanda%García-Albuerne%NULL%1,                        Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                        Fan%Zhang%NULL%1,                        Cun%Wei%NULL%1,                        Yanpu%Jia%NULL%0,                        Zhilei%Shang%NULL%0,                        Luna%Sun%NULL%1,                        Lili%Wu%NULL%1,                        Zhuoer%Sun%NULL%0,                        Yaoguang%Zhou%NULL%0,                        Yan%Wang%NULL%1,                        Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                        Emily%Zhang%NULL%1,                        Ga Tin Fifi%Wong%NULL%1,                        Sunah%Hyun%NULL%1,                        Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                        Yue%Wang%NULL%1,                        Jingwen%Jiang%NULL%1,                        Unnur A.%Valdimarsdóttir%NULL%1,                        Katja%Fall%NULL%2,                        Katja%Fall%NULL%0,                        Fang%Fang%NULL%4,                        Fang%Fang%NULL%0,                        Huan%Song%NULL%1,                        Donghao%Lu%NULL%1,                        Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                       Chiang%E. S.%coreGivesNoEmail%1,                       Fernandez%R.%coreGivesNoEmail%1,                       Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                       Ibrahim%H.%coreGivesNoEmail%1,                       Lee%B.%coreGivesNoEmail%1,                       Shi%L.%coreGivesNoEmail%1,                       Sun%N.%coreGivesNoEmail%1,                       Tsay%S.\u2010F.%coreGivesNoEmail%1,                       World%Health Organisation%coreGivesNoEmail%2,                       World%Health Organisation%coreGivesNoEmail%0,                       Xiaoyue%Xu%coreGivesNoEmail%1,                       Xiuchuan%Li%coreGivesNoEmail%1,                       Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                        Peixin%Lu%NULL%1,                        Lianting%Hu%NULL%1,                        Tianhui%Huang%NULL%1,                        Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                       Holly%Wei%coreGivesNoEmail%1,                       Hong%Xu%coreGivesNoEmail%1,                       Lili%Wei%coreGivesNoEmail%1,                       Lu%H%coreGivesNoEmail%1,                       Min%Leng%coreGivesNoEmail%1,                       Shi%Ti JC%coreGivesNoEmail%1,                       Shuyun%Xing%coreGivesNoEmail%1,                       Weathers%F%coreGivesNoEmail%1,                       Wenwen%Zhang%coreGivesNoEmail%1,                       Xiaohui%Shi%coreGivesNoEmail%1,                       Xiaoying%Zhang%coreGivesNoEmail%1,                       Yang%T%coreGivesNoEmail%1,                       Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                        Anh Kim%Dang%NULL%1,                        Jayson%Toweh%NULL%1,                        Quang Nhat%Nguyen%NULL%1,                        Huong Thi%Le%NULL%1,                        Toan Thi Thanh%Do%NULL%1,                        Hanh Bich Thi%Phan%NULL%1,                        Thao Thanh%Nguyen%NULL%1,                        Quan Thi%Pham%NULL%1,                        Nhung Kim Thi%Ta%NULL%1,                        Quynh Thi%Nguyen%NULL%1,                        Anh Ngoc%Nguyen%NULL%1,                        Quan%Van Duong%NULL%1,                        Men Thi%Hoang%NULL%1,                        Hai Quang%Pham%NULL%1,                        Linh Gia%Vu%NULL%1,                        Bach Xuan%Tran%NULL%1,                        Carl A.%Latkin%NULL%1,                        Cyrus S. H.%Ho%NULL%1,                        Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                        S.%Joo%NULL%1,                        P.-A.%Couette%NULL%1,                        S.%de Jaegher%NULL%1,                        F.%Joly%NULL%1,                        X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                        Simeng%Ma%NULL%2,                        Ying%Wang%NULL%4,                        Zhongxiang%Cai%NULL%2,                        Jianbo%Hu%NULL%2,                        Ning%Wei%NULL%2,                        Jiang%Wu%NULL%3,                        Hui%Du%NULL%2,                        Tingting%Chen%NULL%2,                        Ruiting%Li%NULL%2,                        Huawei%Tan%NULL%2,                        Lijun%Kang%NULL%2,                        Lihua%Yao%NULL%2,                        Manli%Huang%NULL%2,                        Huafen%Wang%NULL%2,                        Gaohua%Wang%NULL%3,                        Zhongchun%Liu%NULL%3,                        Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                        Mark%Shevlin%NULL%1,                        Jamie%Murphy%NULL%1,                        Orla%McBride%NULL%1,                        Menachem%Ben‐Ezra%NULL%2,                        Menachem%Ben‐Ezra%NULL%0,                        Richard P.%Bentall%NULL%1,                        Frédérique%Vallières%NULL%1,                        Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                        Stephanie%Manasse%NULL%2,                        Stephanie%Manasse%NULL%0,                        Rebecca A.%Krukowski%NULL%2,                        Rebecca A.%Krukowski%NULL%0,                        Kathryn%Ross%NULL%2,                        Kathryn%Ross%NULL%0,                        Rebecca%Shakour%NULL%2,                        Rebecca%Shakour%NULL%0,                        Darci R.%Miller%NULL%1,                        Dominick J.%Lemas%NULL%1,                        Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                        Xing Lin%Feng%NULL%1,                        Xiao Hua%Wang%NULL%2,                        Xiao Hua%Wang%NULL%0,                        Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                        Berta%Ausín%NULL%1,                        Miguel Ángel%Castellanos%NULL%1,                        Jesús%Saiz%NULL%1,                        Aída%López-Gómez%NULL%1,                        Carolina%Ugidos%NULL%1,                        Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                        Reyna Jazmín%Martínez Arriaga%NULL%2,                        Reyna Jazmín%Martínez Arriaga%NULL%0,                        Martha Alicia%Hernández-Gonzalez%NULL%2,                        Martha Alicia%Hernández-Gonzalez%NULL%0,                        José María%De la Roca-Chiapas%NULL%2,                        José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                        Francesca%Favieri%NULL%2,                        Francesca%Favieri%NULL%0,                        Renata%Tambelli%NULL%2,                        Renata%Tambelli%NULL%0,                        Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                        Farah%Ghrissi%NULL%1,                        Bouthaina%Abbassi%NULL%1,                        Wissal%Cherif%NULL%1,                        Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                        Enayat M.%Soltan%enayatsoltan@gmail.com%2,                        Enayat M.%Soltan%enayatsoltan@gmail.com%0,                        Hend M.%Salama%hind_mikhail@yahoo.com%2,                        Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                        Charles B%Malpas%NULL%2,                        Charles B%Malpas%NULL%0,                        Aidan JC%Burrell%NULL%1,                        Caroline%Gurvich%NULL%1,                        Leo%Chen%NULL%1,                        Jayashri%Kulkarni%NULL%1,                        Toby%Winton-Brown%NULL%2,                        Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                        Regino%Piñeiro-Lamas%NULL%1,                        César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                        Yasmeen%Byrnes%NULL%2,                        Yasmeen%Byrnes%NULL%0,                        Changgee%Chang%NULL%2,                        Aman%Prasad%NULL%1,                        Kevin%Chorath%NULL%2,                        Kevin%Chorath%NULL%0,                        Seerat K.%Poonia%NULL%1,                        Carolyn M.%Jenks%NULL%1,                        Andrés M.%Bur%NULL%1,                        Punam%Thakkar%NULL%2,                        Punam%Thakkar%NULL%0,                        Evan M.%Graboyes%NULL%2,                        Evan M.%Graboyes%NULL%0,                        Rahul%Seth%NULL%2,                        Rahul%Seth%NULL%0,                        Samuel%Trosman%NULL%1,                        Anni%Wong%NULL%2,                        Anni%Wong%NULL%0,                        Benjamin M.%Laitman%NULL%1,                        Brianna N.%Harris%NULL%1,                        Janki%Shah%NULL%2,                        Janki%Shah%NULL%0,                        Vanessa%Stubbs%NULL%1,                        Garret%Choby%NULL%1,                        Qi%Long%NULL%2,                        Christopher H.%Rassekh%NULL%1,                        Erica%Thaler%NULL%1,                        Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                        Antonio%Bertelli%NULL%1,                        Antonio%Gonçalves%NULL%1,                        Emily%Getzen%NULL%1,                        Changgee%Chang%NULL%0,                        Qi%Long%NULL%0,                        Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                        Benjamin%Becker%NULL%2,                        Qian%Yu%NULL%2,                        Peter%Willeit%NULL%2,                        Can%Jiao%NULL%2,                        Liuyue%Huang%NULL%2,                        M. Mahhub%Hossain%NULL%2,                        Igor%Grabovac%NULL%2,                        Albert%Yeung%NULL%2,                        Jingyuan%Lin%NULL%2,                        Nicola%Veronese%NULL%2,                        Jian%Wang%NULL%3,                        Xinqi%Zhou%NULL%2,                        Scott R.%Doig%NULL%2,                        Xiaofeng%Liu%NULL%2,                        Andre F.%Carvalho%NULL%2,                        Lin%Yang%NULL%4,                        Tao%Xiao%NULL%2,                        Liye%Zou%NULL%2,                        Paolo%Fusar-Poli%NULL%2,                        Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                        Jinghao Nicholas%Ngiam%NULL%1,                        Benjamin Yong-Qiang%Tan%NULL%2,                        Benjamin Yong-Qiang%Tan%NULL%0,                        Sai-Meng%Tham%NULL%1,                        Celine Yan-Shan%Tan%NULL%1,                        Mingxue%Jing%NULL%1,                        Renarebecca%Sagayanathan%NULL%1,                        Jin Tao%Chen%NULL%1,                        Lily Y. H.%Wong%NULL%1,                        Aftab%Ahmad%NULL%1,                        Faheem Ahmed%Khan%NULL%1,                        Maznah%Marmin%NULL%1,                        Fadhlina Binte%Hassan%NULL%1,                        Tai Mei-Ling%Sharon%NULL%1,                        Chin Han%Lim%NULL%1,                        Mohamad Iqbal Bin%Mohaini%NULL%1,                        Rivan%Danuaji%NULL%1,                        Thang H.%Nguyen%NULL%1,                        Georgios%Tsivgoulis%NULL%1,                        Sotirios%Tsiodras%NULL%1,                        Paraskevi C.%Fragkou%NULL%1,                        Dimitra%Dimopoulou%NULL%2,                        Dimitra%Dimopoulou%NULL%0,                        Arvind K.%Sharma%NULL%1,                        Kenam%Shah%NULL%1,                        Bhargesh%Patel%NULL%1,                        Suktara%Sharma%NULL%1,                        R. N.%Komalkumar%NULL%1,                        R. V.%Meenakshi%NULL%1,                        Shikha%Talati%NULL%1,                        Hock Luen%Teoh%NULL%1,                        Cyrus S.%Ho%NULL%1,                        Roger C.%Ho%NULL%0,                        Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                        Qin%Cui%NULL%1,                        Zhongchun%Liu%NULL%0,                        Juanjuan%Li%NULL%1,                        Xuan%Gong%NULL%1,                        Jingfang%Liu%NULL%1,                        Zhiying%Wan%NULL%1,                        Xiaoping%Yuan%NULL%1,                        Xiaofen%Li%NULL%1,                        Chuang%Chen%NULL%1,                        Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                       Apostolos%Blekas%coreGivesNoEmail%1,                       Eleni%Parlapani%coreGivesNoEmail%1,                       Ioannis%Diakogiannis%coreGivesNoEmail%1,                       Maria%Athanasiadou%coreGivesNoEmail%1,                       Marina%Skoupra%coreGivesNoEmail%1,                       Markos%Syngelakis%coreGivesNoEmail%1,                       Panteleimon%Voitsidis%coreGivesNoEmail%1,                       Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                        Zheng Feei%Ma%NULL%0,                        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                        Wanqiu%Tan%NULL%1,                        Li%Jiang%NULL%0,                        Ling%Zhang%NULL%0,                        Xinling%Zhao%NULL%0,                        Yiran%Zou%NULL%0,                        Yirong%Hu%NULL%0,                        Xi%Luo%NULL%0,                        Xiaojiang%Jiang%NULL%0,                        Roger S.%McIntyre%NULL%0,                        Bach%Tran%NULL%0,                        Jiaqian%Sun%NULL%1,                        Zhisong%Zhang%NULL%0,                        Roger%Ho%NULL%0,                        Cyrus%Ho%NULL%0,                        Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                        Hui%Ren%NULL%1,                        Ruilin%Cao%NULL%1,                        Yueyang%Hu%NULL%1,                        Zeying%Qin%NULL%1,                        Chuanen%Li%NULL%1,                        Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                         Roy F.%Baumeister%NULL%1,                         Jennifer C.%Veilleux%NULL%1,                         Caixia%Chen%NULL%1,                         Wenjun%Liu%NULL%1,                         Yongjie%Yue%NULL%1,                         Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                         Xiaopeng%Hu%NULL%1,                         Ivo Otte%Ekumi%NULL%1,                         Jianchun%Wang%NULL%1,                         Yawen%An%NULL%1,                         Zhiwen%Li%NULL%1,                         Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                         Wen%Li%NULL%2,                         Yuan%Yang%NULL%4,                         Yuan%Yang%NULL%0,                         Yu%Wang%NULL%2,                         Qinge%Zhang%NULL%1,                         Teris%Cheung%NULL%2,                         Xinjuan%Wu%NULL%2,                         Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                         Cherica A.%Tee%NULL%1,                         Joseph P.%Anlacan%NULL%1,                         Katrina Joy G.%Aligam%NULL%1,                         Patrick Wincy C.%Reyes%NULL%1,                         Vipat%Kuruchittham%NULL%1,                         Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                         Xiao-You%Su%suxiaoyou@hotmail.com%1,                         Yu%Jiang%jiangyu@pumc.edu.cn%2,                         Yu%Jiang%jiangyu@pumc.edu.cn%0,                         Wen-Jun%Wang%wwjun1973@163.com%1,                         Xiao-Fen%Gu%357539328@qq.com%1,                         Li%Ma%mali_lele@sina.com%1,                         Jing%Li%lijingwcph@scu.edu.cn%0,                         Shao-Kai%Zhang%shaokaizhang@126.com%1,                         Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                         Ran%Ren%renran99@163.com%1,                         Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                         You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                         Helena%Garrido-Hernansaiz%NULL%1,                         Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                         Xiangfen%Su%suxiangfengfy@163.com%1,                         Shuzeng%Zhang%NULL%2,                         Shuzeng%Zhang%NULL%0,                         Wenjie%Guan%NULL%1,                         Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                         Rong-Ning%Chen%NULL%1,                         Li-Li%Liu%NULL%1,                         Xue-Guo%Li%NULL%1,                         Jian-Bin%Chen%NULL%1,                         Si-Yao%Tang%NULL%1,                         Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                         Elisa%Pedroli%NULL%1,                         Guido E.%D'Aniello%NULL%1,                         Chiara%Stramba Badiale%NULL%1,                         Giada%Pietrabissa%NULL%1,                         Chiara%Manna%NULL%1,                         Marco%Stramba Badiale%NULL%1,                         Giuseppe%Riva%NULL%1,                         Gianluca%Castelnuovo%NULL%1,                         Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                         Qing-xian%Li%NULL%1,                         Heng%Zhang%NULL%1,                         Jia-yong%Zhu%NULL%1,                         Xu%Yang%NULL%1,                         Yu-hang%Wu%NULL%1,                         Jie%Xiong%NULL%1,                         Fu%Li%NULL%1,                         Hua%Wang%whzkwlh@126.com%0,                         Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                         Charlotte%Coste%NULL%1,                         Rocio%Sanchez%NULL%1,                         Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                         Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                         Saleh A.%Alrashed%NULL%1,                         Ali A.%Alzunaydi%NULL%1,                         Ahmed S.%Almohimeed%NULL%1,                         Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                         Hui%Shi%NULL%1,                         Zhengkui%Liu%NULL%1,                         Songxu%Peng%gwxypsx@163.com%2,                         Songxu%Peng%gwxypsx@163.com%0,                         Ruoxi%Wang%NULL%2,                         Ruoxi%Wang%NULL%0,                         Ling%Qi%NULL%1,                         Zezhi%Li%NULL%1,                         Jiezhi%Yang%NULL%1,                         Yali%Ren%NULL%1,                         Xiuli%Song%NULL%1,                         Lingyun%Zeng%NULL%1,                         Wei%Qian%NULL%1,                         Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                        Khazaie%H.%coreGivesNoEmail%1,                        Li%J.%coreGivesNoEmail%1,                        Xiaohui%Li%coreGivesNoEmail%1,                        Xing%Tan%coreGivesNoEmail%1,                        Yuanyuan%An%coreGivesNoEmail%1,                        Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                         Zheng Feei%Ma%NULL%4,                         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                         Zhuoer%Sun%NULL%3,                         Zhuoer%Sun%NULL%0,                         Tuanjie%Liu%NULL%1,                         Xiong%Ni%NULL%1,                         Xuanfeng%Deng%NULL%1,                         Yanpu%Jia%NULL%2,                         Zhilei%Shang%NULL%2,                         Yaoguang%Zhou%NULL%2,                         Weizhi%Liu%13024141970@163.com%3,                         Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                         N.%Hadjamu%NULL%2,                         N.%Hadjamu%NULL%0,                         G.%Willmund%NULL%1,                         S.%Dolff%NULL%1,                         N.%Vonderlin%NULL%1,                         R.%Wakili%NULL%1,                         J.%Vogel%NULL%1,                         T.%Rassaf%NULL%1,                         J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                         Riyu%Pan%NULL%1,                         Xiaoyang%Wan%NULL%1,                         Yilin%Tan%NULL%1,                         Linkang%Xu%NULL%1,                         Roger S.%McIntyre%NULL%3,                         Faith N.%Choo%NULL%1,                         Bach%Tran%NULL%3,                         Roger%Ho%NULL%3,                         Vijay K.%Sharma%NULL%2,                         Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                         Jithin Thomas%Parel%NULL%2,                         Jithin Thomas%Parel%NULL%0,                         Neeraj%Raizada%NULL%2,                         Neeraj%Raizada%NULL%0,                         Shiv Kumar%Sarin%NULL%1,                         Abdallah M.%Samy%NULL%2,                         Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                         Rene%Stefitz%NULL%1,                         Kerstin%Gaisbachgrabner%NULL%1,                         Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                         Tao%Hu%NULL%1,                         Baodi%Hu%NULL%1,                         Chunhan%Jin%NULL%1,                         Gang%Wang%NULL%1,                         Chao%Xie%NULL%1,                         Sen%Chen%NULL%1,                         Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                         Fengyi%Hao%NULL%1,                         Roger S.%McIntyre%NULL%0,                         Li%Jiang%NULL%2,                         Xiaojiang%Jiang%NULL%2,                         Ling%Zhang%NULL%2,                         Xinling%Zhao%NULL%2,                         Yiran%Zou%NULL%2,                         Yirong%Hu%NULL%2,                         Xi%Luo%NULL%2,                         Zhisong%Zhang%NULL%2,                         Andre%Lai%NULL%1,                         Roger%Ho%NULL%0,                         Bach%Tran%NULL%0,                         Cyrus%Ho%NULL%0,                         Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                         Wenning%Fu%NULL%2,                         Xiaoran%Liu%NULL%2,                         Zhiqian%Luo%NULL%2,                         Rixing%Wang%NULL%2,                         Ning%Zhou%NULL%2,                         Shijiao%Yan%NULL%3,                         Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                         Mark L%Williams%NULL%1,                         Benjamin C%Amick%NULL%1,                         Teresa J.%Hudson%NULL%1,                         Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                         Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                         Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                         Necdet%Sut%necdetsut@yahoo.com%2,                         Necdet%Sut%necdetsut@yahoo.com%0,                         Selma%Akdogan%drslma.akdogan@gmail.com%2,                         Selma%Akdogan%drslma.akdogan@gmail.com%0,                         Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                         Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                         Valentina%Socci%NULL%3,                         Dalila%Talevi%NULL%1,                         Sonia%Mensi%NULL%1,                         Cinzia%Niolu%NULL%1,                         Francesca%Pacitti%NULL%3,                         Antinisca%Di Marco%NULL%3,                         Alessandro%Rossi%NULL%3,                         Alberto%Siracusano%NULL%3,                         Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                         Valentina%Socci%NULL%0,                         Francesca%Pacitti%NULL%0,                         Giorgio%Di Lorenzo%NULL%0,                         Antinisca%Di Marco%NULL%0,                         Alberto%Siracusano%NULL%0,                         Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                         Marianna%Purgato%NULL%1,                         Chiara%Bove%NULL%1,                         David%MacTaggart%NULL%1,                         Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                         Wei%Chen%NULL%2,                         Saiduo%Liu%NULL%2,                         Paul M.%Thompson%NULL%2,                         Long Jiang%Zhang%NULL%2,                         Fei%Xia%NULL%3,                         Fang%Cheng%NULL%3,                         Ailing%Hong%NULL%2,                         Wesley%Surento%NULL%2,                         Song%Luo%NULL%2,                         Zhi Yuan%Sun%NULL%2,                         Chang Sheng%Zhou%NULL%2,                         Lingjiang%Li%NULL%2,                         Xiangao%Jiang%NULL%2,                         Guang Ming%Lu%NULL%2,                          R.%Qi%null%2,                          W.% Chen%null%2,                          S.% Liu%null%2,                          P. M.% Thompson%null%2,                          L. J.% Zhang%null%2,                          F.% Xia%null%2,                          F.% Cheng%null%2,                          A.% Hong%null%2,                          W.% Surento%null%2,                          S.% Luo%null%2,                          Z. Y.% Sun%null%2,                          C. S.% Zhou%null%2,                          L.% Li%null%2,                          X.% Jiang%null%2,                          G. M. % Lu%null%2,                        R.%Qi%null%1,                        W.% Chen%null%1,                        S.% Liu%null%1,                        P. M.% Thompson%null%1,                        L. J.% Zhang%null%1,                        F.% Xia%null%1,                        F.% Cheng%null%1,                        A.% Hong%null%1,                        W.% Surento%null%1,                        S.% Luo%null%1,                        Z. Y.% Sun%null%1,                        C. S.% Zhou%null%1,                        L.% Li%null%1,                        X.% Jiang%null%1,                        G. M. % Lu%null%1,      R.%Qi%null%2,      W.% Chen%null%2,      S.% Liu%null%2,      P. M.% Thompson%null%2,      L. J.% Zhang%null%2,      F.% Xia%null%2,      F.% Cheng%null%2,      A.% Hong%null%2,      W.% Surento%null%2,      S.% Luo%null%2,      Z. Y.% Sun%null%2,      C. S.% Zhou%null%2,      L.% Li%null%2,      X.% Jiang%null%2,      G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                         Yutong%Zhang%NULL%2,                         Yutong%Zhang%NULL%0,                         Xiaoqin%Luo%NULL%1,                         Xinli%Li%NULL%1,                         Yeshan%Li%NULL%1,                         Shuchang%Liu%NULL%1,                         Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                         Beatriz%Talavera-Velasco%NULL%2,                         Beatriz%Talavera-Velasco%NULL%0,                         Yolanda%García-Albuerne%NULL%1,                         Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                         Fan%Zhang%NULL%1,                         Cun%Wei%NULL%1,                         Yanpu%Jia%NULL%0,                         Zhilei%Shang%NULL%0,                         Luna%Sun%NULL%1,                         Lili%Wu%NULL%1,                         Zhuoer%Sun%NULL%0,                         Yaoguang%Zhou%NULL%0,                         Yan%Wang%NULL%1,                         Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                         Emily%Zhang%NULL%1,                         Ga Tin Fifi%Wong%NULL%1,                         Sunah%Hyun%NULL%1,                         Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                         Yue%Wang%NULL%1,                         Jingwen%Jiang%NULL%1,                         Unnur A.%Valdimarsdóttir%NULL%1,                         Katja%Fall%NULL%2,                         Katja%Fall%NULL%0,                         Fang%Fang%NULL%4,                         Fang%Fang%NULL%0,                         Huan%Song%NULL%1,                         Donghao%Lu%NULL%1,                         Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                        Chiang%E. S.%coreGivesNoEmail%1,                        Fernandez%R.%coreGivesNoEmail%1,                        Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                        Ibrahim%H.%coreGivesNoEmail%1,                        Lee%B.%coreGivesNoEmail%1,                        Shi%L.%coreGivesNoEmail%1,                        Sun%N.%coreGivesNoEmail%1,                        Tsay%S.\u2010F.%coreGivesNoEmail%1,                        World%Health Organisation%coreGivesNoEmail%2,                        World%Health Organisation%coreGivesNoEmail%0,                        Xiaoyue%Xu%coreGivesNoEmail%1,                        Xiuchuan%Li%coreGivesNoEmail%1,                        Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                         Peixin%Lu%NULL%1,                         Lianting%Hu%NULL%1,                         Tianhui%Huang%NULL%1,                         Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                        Holly%Wei%coreGivesNoEmail%1,                        Hong%Xu%coreGivesNoEmail%1,                        Lili%Wei%coreGivesNoEmail%1,                        Lu%H%coreGivesNoEmail%1,                        Min%Leng%coreGivesNoEmail%1,                        Shi%Ti JC%coreGivesNoEmail%1,                        Shuyun%Xing%coreGivesNoEmail%1,                        Weathers%F%coreGivesNoEmail%1,                        Wenwen%Zhang%coreGivesNoEmail%1,                        Xiaohui%Shi%coreGivesNoEmail%1,                        Xiaoying%Zhang%coreGivesNoEmail%1,                        Yang%T%coreGivesNoEmail%1,                        Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                         Anh Kim%Dang%NULL%1,                         Jayson%Toweh%NULL%1,                         Quang Nhat%Nguyen%NULL%1,                         Huong Thi%Le%NULL%1,                         Toan Thi Thanh%Do%NULL%1,                         Hanh Bich Thi%Phan%NULL%1,                         Thao Thanh%Nguyen%NULL%1,                         Quan Thi%Pham%NULL%1,                         Nhung Kim Thi%Ta%NULL%1,                         Quynh Thi%Nguyen%NULL%1,                         Anh Ngoc%Nguyen%NULL%1,                         Quan%Van Duong%NULL%1,                         Men Thi%Hoang%NULL%1,                         Hai Quang%Pham%NULL%1,                         Linh Gia%Vu%NULL%1,                         Bach Xuan%Tran%NULL%1,                         Carl A.%Latkin%NULL%1,                         Cyrus S. H.%Ho%NULL%1,                         Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                         S.%Joo%NULL%1,                         P.-A.%Couette%NULL%1,                         S.%de Jaegher%NULL%1,                         F.%Joly%NULL%1,                         X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                         Simeng%Ma%NULL%2,                         Ying%Wang%NULL%4,                         Zhongxiang%Cai%NULL%2,                         Jianbo%Hu%NULL%2,                         Ning%Wei%NULL%2,                         Jiang%Wu%NULL%3,                         Hui%Du%NULL%2,                         Tingting%Chen%NULL%2,                         Ruiting%Li%NULL%2,                         Huawei%Tan%NULL%2,                         Lijun%Kang%NULL%2,                         Lihua%Yao%NULL%2,                         Manli%Huang%NULL%2,                         Huafen%Wang%NULL%2,                         Gaohua%Wang%NULL%3,                         Zhongchun%Liu%NULL%3,                         Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                         Mark%Shevlin%NULL%1,                         Jamie%Murphy%NULL%1,                         Orla%McBride%NULL%1,                         Menachem%Ben‐Ezra%NULL%2,                         Menachem%Ben‐Ezra%NULL%0,                         Richard P.%Bentall%NULL%1,                         Frédérique%Vallières%NULL%1,                         Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                         Stephanie%Manasse%NULL%2,                         Stephanie%Manasse%NULL%0,                         Rebecca A.%Krukowski%NULL%2,                         Rebecca A.%Krukowski%NULL%0,                         Kathryn%Ross%NULL%2,                         Kathryn%Ross%NULL%0,                         Rebecca%Shakour%NULL%2,                         Rebecca%Shakour%NULL%0,                         Darci R.%Miller%NULL%1,                         Dominick J.%Lemas%NULL%1,                         Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                         Xing Lin%Feng%NULL%1,                         Xiao Hua%Wang%NULL%2,                         Xiao Hua%Wang%NULL%0,                         Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                         Berta%Ausín%NULL%1,                         Miguel Ángel%Castellanos%NULL%1,                         Jesús%Saiz%NULL%1,                         Aída%López-Gómez%NULL%1,                         Carolina%Ugidos%NULL%1,                         Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                         Reyna Jazmín%Martínez Arriaga%NULL%2,                         Reyna Jazmín%Martínez Arriaga%NULL%0,                         Martha Alicia%Hernández-Gonzalez%NULL%2,                         Martha Alicia%Hernández-Gonzalez%NULL%0,                         José María%De la Roca-Chiapas%NULL%2,                         José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                         Francesca%Favieri%NULL%2,                         Francesca%Favieri%NULL%0,                         Renata%Tambelli%NULL%2,                         Renata%Tambelli%NULL%0,                         Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                         Farah%Ghrissi%NULL%1,                         Bouthaina%Abbassi%NULL%1,                         Wissal%Cherif%NULL%1,                         Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                         Enayat M.%Soltan%enayatsoltan@gmail.com%2,                         Enayat M.%Soltan%enayatsoltan@gmail.com%0,                         Hend M.%Salama%hind_mikhail@yahoo.com%2,                         Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                         Charles B%Malpas%NULL%2,                         Charles B%Malpas%NULL%0,                         Aidan JC%Burrell%NULL%1,                         Caroline%Gurvich%NULL%1,                         Leo%Chen%NULL%1,                         Jayashri%Kulkarni%NULL%1,                         Toby%Winton-Brown%NULL%2,                         Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                         Regino%Piñeiro-Lamas%NULL%1,                         César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                         Yasmeen%Byrnes%NULL%2,                         Yasmeen%Byrnes%NULL%0,                         Changgee%Chang%NULL%2,                         Aman%Prasad%NULL%1,                         Kevin%Chorath%NULL%2,                         Kevin%Chorath%NULL%0,                         Seerat K.%Poonia%NULL%1,                         Carolyn M.%Jenks%NULL%1,                         Andrés M.%Bur%NULL%1,                         Punam%Thakkar%NULL%2,                         Punam%Thakkar%NULL%0,                         Evan M.%Graboyes%NULL%2,                         Evan M.%Graboyes%NULL%0,                         Rahul%Seth%NULL%2,                         Rahul%Seth%NULL%0,                         Samuel%Trosman%NULL%1,                         Anni%Wong%NULL%2,                         Anni%Wong%NULL%0,                         Benjamin M.%Laitman%NULL%1,                         Brianna N.%Harris%NULL%1,                         Janki%Shah%NULL%2,                         Janki%Shah%NULL%0,                         Vanessa%Stubbs%NULL%1,                         Garret%Choby%NULL%1,                         Qi%Long%NULL%2,                         Christopher H.%Rassekh%NULL%1,                         Erica%Thaler%NULL%1,                         Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                         Antonio%Bertelli%NULL%1,                         Antonio%Gonçalves%NULL%1,                         Emily%Getzen%NULL%1,                         Changgee%Chang%NULL%0,                         Qi%Long%NULL%0,                         Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                         Benjamin%Becker%NULL%2,                         Qian%Yu%NULL%2,                         Peter%Willeit%NULL%2,                         Can%Jiao%NULL%2,                         Liuyue%Huang%NULL%2,                         M. Mahhub%Hossain%NULL%2,                         Igor%Grabovac%NULL%2,                         Albert%Yeung%NULL%2,                         Jingyuan%Lin%NULL%2,                         Nicola%Veronese%NULL%2,                         Jian%Wang%NULL%3,                         Xinqi%Zhou%NULL%2,                         Scott R.%Doig%NULL%2,                         Xiaofeng%Liu%NULL%2,                         Andre F.%Carvalho%NULL%2,                         Lin%Yang%NULL%4,                         Tao%Xiao%NULL%2,                         Liye%Zou%NULL%2,                         Paolo%Fusar-Poli%NULL%2,                         Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                         Jinghao Nicholas%Ngiam%NULL%1,                         Benjamin Yong-Qiang%Tan%NULL%2,                         Benjamin Yong-Qiang%Tan%NULL%0,                         Sai-Meng%Tham%NULL%1,                         Celine Yan-Shan%Tan%NULL%1,                         Mingxue%Jing%NULL%1,                         Renarebecca%Sagayanathan%NULL%1,                         Jin Tao%Chen%NULL%1,                         Lily Y. H.%Wong%NULL%1,                         Aftab%Ahmad%NULL%1,                         Faheem Ahmed%Khan%NULL%1,                         Maznah%Marmin%NULL%1,                         Fadhlina Binte%Hassan%NULL%1,                         Tai Mei-Ling%Sharon%NULL%1,                         Chin Han%Lim%NULL%1,                         Mohamad Iqbal Bin%Mohaini%NULL%1,                         Rivan%Danuaji%NULL%1,                         Thang H.%Nguyen%NULL%1,                         Georgios%Tsivgoulis%NULL%1,                         Sotirios%Tsiodras%NULL%1,                         Paraskevi C.%Fragkou%NULL%1,                         Dimitra%Dimopoulou%NULL%2,                         Dimitra%Dimopoulou%NULL%0,                         Arvind K.%Sharma%NULL%1,                         Kenam%Shah%NULL%1,                         Bhargesh%Patel%NULL%1,                         Suktara%Sharma%NULL%1,                         R. N.%Komalkumar%NULL%1,                         R. V.%Meenakshi%NULL%1,                         Shikha%Talati%NULL%1,                         Hock Luen%Teoh%NULL%1,                         Cyrus S.%Ho%NULL%1,                         Roger C.%Ho%NULL%0,                         Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                         Qin%Cui%NULL%1,                         Zhongchun%Liu%NULL%0,                         Juanjuan%Li%NULL%1,                         Xuan%Gong%NULL%1,                         Jingfang%Liu%NULL%1,                         Zhiying%Wan%NULL%1,                         Xiaoping%Yuan%NULL%1,                         Xiaofen%Li%NULL%1,                         Chuang%Chen%NULL%1,                         Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                        Apostolos%Blekas%coreGivesNoEmail%1,                        Eleni%Parlapani%coreGivesNoEmail%1,                        Ioannis%Diakogiannis%coreGivesNoEmail%1,                        Maria%Athanasiadou%coreGivesNoEmail%1,                        Marina%Skoupra%coreGivesNoEmail%1,                        Markos%Syngelakis%coreGivesNoEmail%1,                        Panteleimon%Voitsidis%coreGivesNoEmail%1,                        Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                         Zheng Feei%Ma%NULL%0,                         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                         Wanqiu%Tan%NULL%1,                         Li%Jiang%NULL%0,                         Ling%Zhang%NULL%0,                         Xinling%Zhao%NULL%0,                         Yiran%Zou%NULL%0,                         Yirong%Hu%NULL%0,                         Xi%Luo%NULL%0,                         Xiaojiang%Jiang%NULL%0,                         Roger S.%McIntyre%NULL%0,                         Bach%Tran%NULL%0,                         Jiaqian%Sun%NULL%1,                         Zhisong%Zhang%NULL%0,                         Roger%Ho%NULL%0,                         Cyrus%Ho%NULL%0,                         Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                         Hui%Ren%NULL%1,                         Ruilin%Cao%NULL%1,                         Yueyang%Hu%NULL%1,                         Zeying%Qin%NULL%1,                         Chuanen%Li%NULL%1,                         Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                          Roy F.%Baumeister%NULL%1,                          Jennifer C.%Veilleux%NULL%1,                          Caixia%Chen%NULL%1,                          Wenjun%Liu%NULL%1,                          Yongjie%Yue%NULL%1,                          Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                          Xiaopeng%Hu%NULL%1,                          Ivo Otte%Ekumi%NULL%1,                          Jianchun%Wang%NULL%1,                          Yawen%An%NULL%1,                          Zhiwen%Li%NULL%1,                          Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                          Wen%Li%NULL%2,                          Yuan%Yang%NULL%4,                          Yuan%Yang%NULL%0,                          Yu%Wang%NULL%2,                          Qinge%Zhang%NULL%1,                          Teris%Cheung%NULL%2,                          Xinjuan%Wu%NULL%2,                          Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                          Cherica A.%Tee%NULL%1,                          Joseph P.%Anlacan%NULL%1,                          Katrina Joy G.%Aligam%NULL%1,                          Patrick Wincy C.%Reyes%NULL%1,                          Vipat%Kuruchittham%NULL%1,                          Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                          Xiao-You%Su%suxiaoyou@hotmail.com%1,                          Yu%Jiang%jiangyu@pumc.edu.cn%2,                          Yu%Jiang%jiangyu@pumc.edu.cn%0,                          Wen-Jun%Wang%wwjun1973@163.com%1,                          Xiao-Fen%Gu%357539328@qq.com%1,                          Li%Ma%mali_lele@sina.com%1,                          Jing%Li%lijingwcph@scu.edu.cn%0,                          Shao-Kai%Zhang%shaokaizhang@126.com%1,                          Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                          Ran%Ren%renran99@163.com%1,                          Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                          You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                          Helena%Garrido-Hernansaiz%NULL%1,                          Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                          Xiangfen%Su%suxiangfengfy@163.com%1,                          Shuzeng%Zhang%NULL%2,                          Shuzeng%Zhang%NULL%0,                          Wenjie%Guan%NULL%1,                          Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                          Rong-Ning%Chen%NULL%1,                          Li-Li%Liu%NULL%1,                          Xue-Guo%Li%NULL%1,                          Jian-Bin%Chen%NULL%1,                          Si-Yao%Tang%NULL%1,                          Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                          Elisa%Pedroli%NULL%1,                          Guido E.%D'Aniello%NULL%1,                          Chiara%Stramba Badiale%NULL%1,                          Giada%Pietrabissa%NULL%1,                          Chiara%Manna%NULL%1,                          Marco%Stramba Badiale%NULL%1,                          Giuseppe%Riva%NULL%1,                          Gianluca%Castelnuovo%NULL%1,                          Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                          Qing-xian%Li%NULL%1,                          Heng%Zhang%NULL%1,                          Jia-yong%Zhu%NULL%1,                          Xu%Yang%NULL%1,                          Yu-hang%Wu%NULL%1,                          Jie%Xiong%NULL%1,                          Fu%Li%NULL%1,                          Hua%Wang%whzkwlh@126.com%0,                          Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                          Charlotte%Coste%NULL%1,                          Rocio%Sanchez%NULL%1,                          Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                          Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                          Saleh A.%Alrashed%NULL%1,                          Ali A.%Alzunaydi%NULL%1,                          Ahmed S.%Almohimeed%NULL%1,                          Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                          Hui%Shi%NULL%1,                          Zhengkui%Liu%NULL%1,                          Songxu%Peng%gwxypsx@163.com%2,                          Songxu%Peng%gwxypsx@163.com%0,                          Ruoxi%Wang%NULL%2,                          Ruoxi%Wang%NULL%0,                          Ling%Qi%NULL%1,                          Zezhi%Li%NULL%1,                          Jiezhi%Yang%NULL%1,                          Yali%Ren%NULL%1,                          Xiuli%Song%NULL%1,                          Lingyun%Zeng%NULL%1,                          Wei%Qian%NULL%1,                          Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                         Khazaie%H.%coreGivesNoEmail%1,                         Li%J.%coreGivesNoEmail%1,                         Xiaohui%Li%coreGivesNoEmail%1,                         Xing%Tan%coreGivesNoEmail%1,                         Yuanyuan%An%coreGivesNoEmail%1,                         Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                          Zheng Feei%Ma%NULL%4,                          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                          Zhuoer%Sun%NULL%3,                          Zhuoer%Sun%NULL%0,                          Tuanjie%Liu%NULL%1,                          Xiong%Ni%NULL%1,                          Xuanfeng%Deng%NULL%1,                          Yanpu%Jia%NULL%2,                          Zhilei%Shang%NULL%2,                          Yaoguang%Zhou%NULL%2,                          Weizhi%Liu%13024141970@163.com%3,                          Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                          N.%Hadjamu%NULL%2,                          N.%Hadjamu%NULL%0,                          G.%Willmund%NULL%1,                          S.%Dolff%NULL%1,                          N.%Vonderlin%NULL%1,                          R.%Wakili%NULL%1,                          J.%Vogel%NULL%1,                          T.%Rassaf%NULL%1,                          J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                          Riyu%Pan%NULL%1,                          Xiaoyang%Wan%NULL%1,                          Yilin%Tan%NULL%1,                          Linkang%Xu%NULL%1,                          Roger S.%McIntyre%NULL%3,                          Faith N.%Choo%NULL%1,                          Bach%Tran%NULL%3,                          Roger%Ho%NULL%3,                          Vijay K.%Sharma%NULL%2,                          Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                          Jithin Thomas%Parel%NULL%2,                          Jithin Thomas%Parel%NULL%0,                          Neeraj%Raizada%NULL%2,                          Neeraj%Raizada%NULL%0,                          Shiv Kumar%Sarin%NULL%1,                          Abdallah M.%Samy%NULL%2,                          Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                          Rene%Stefitz%NULL%1,                          Kerstin%Gaisbachgrabner%NULL%1,                          Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                          Tao%Hu%NULL%1,                          Baodi%Hu%NULL%1,                          Chunhan%Jin%NULL%1,                          Gang%Wang%NULL%1,                          Chao%Xie%NULL%1,                          Sen%Chen%NULL%1,                          Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                          Fengyi%Hao%NULL%1,                          Roger S.%McIntyre%NULL%0,                          Li%Jiang%NULL%2,                          Xiaojiang%Jiang%NULL%2,                          Ling%Zhang%NULL%2,                          Xinling%Zhao%NULL%2,                          Yiran%Zou%NULL%2,                          Yirong%Hu%NULL%2,                          Xi%Luo%NULL%2,                          Zhisong%Zhang%NULL%2,                          Andre%Lai%NULL%1,                          Roger%Ho%NULL%0,                          Bach%Tran%NULL%0,                          Cyrus%Ho%NULL%0,                          Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                          Wenning%Fu%NULL%2,                          Xiaoran%Liu%NULL%2,                          Zhiqian%Luo%NULL%2,                          Rixing%Wang%NULL%2,                          Ning%Zhou%NULL%2,                          Shijiao%Yan%NULL%3,                          Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                          Mark L%Williams%NULL%1,                          Benjamin C%Amick%NULL%1,                          Teresa J.%Hudson%NULL%1,                          Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                          Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                          Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                          Necdet%Sut%necdetsut@yahoo.com%2,                          Necdet%Sut%necdetsut@yahoo.com%0,                          Selma%Akdogan%drslma.akdogan@gmail.com%2,                          Selma%Akdogan%drslma.akdogan@gmail.com%0,                          Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                          Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                          Valentina%Socci%NULL%3,                          Dalila%Talevi%NULL%1,                          Sonia%Mensi%NULL%1,                          Cinzia%Niolu%NULL%1,                          Francesca%Pacitti%NULL%3,                          Antinisca%Di Marco%NULL%3,                          Alessandro%Rossi%NULL%3,                          Alberto%Siracusano%NULL%3,                          Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                          Valentina%Socci%NULL%0,                          Francesca%Pacitti%NULL%0,                          Giorgio%Di Lorenzo%NULL%0,                          Antinisca%Di Marco%NULL%0,                          Alberto%Siracusano%NULL%0,                          Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                          Marianna%Purgato%NULL%1,                          Chiara%Bove%NULL%1,                          David%MacTaggart%NULL%1,                          Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                          Wei%Chen%NULL%2,                          Saiduo%Liu%NULL%2,                          Paul M.%Thompson%NULL%2,                          Long Jiang%Zhang%NULL%2,                          Fei%Xia%NULL%3,                          Fang%Cheng%NULL%3,                          Ailing%Hong%NULL%2,                          Wesley%Surento%NULL%2,                          Song%Luo%NULL%2,                          Zhi Yuan%Sun%NULL%2,                          Chang Sheng%Zhou%NULL%2,                          Lingjiang%Li%NULL%2,                          Xiangao%Jiang%NULL%2,                          Guang Ming%Lu%NULL%2,                           R.%Qi%null%2,                           W.% Chen%null%2,                           S.% Liu%null%2,                           P. M.% Thompson%null%2,                           L. J.% Zhang%null%2,                           F.% Xia%null%2,                           F.% Cheng%null%2,                           A.% Hong%null%2,                           W.% Surento%null%2,                           S.% Luo%null%2,                           Z. Y.% Sun%null%2,                           C. S.% Zhou%null%2,                           L.% Li%null%2,                           X.% Jiang%null%2,                           G. M. % Lu%null%2,                         R.%Qi%null%1,                         W.% Chen%null%1,                         S.% Liu%null%1,                         P. M.% Thompson%null%1,                         L. J.% Zhang%null%1,                         F.% Xia%null%1,                         F.% Cheng%null%1,                         A.% Hong%null%1,                         W.% Surento%null%1,                         S.% Luo%null%1,                         Z. Y.% Sun%null%1,                         C. S.% Zhou%null%1,                         L.% Li%null%1,                         X.% Jiang%null%1,                         G. M. % Lu%null%1,       R.%Qi%null%2,       W.% Chen%null%2,       S.% Liu%null%2,       P. M.% Thompson%null%2,       L. J.% Zhang%null%2,       F.% Xia%null%2,       F.% Cheng%null%2,       A.% Hong%null%2,       W.% Surento%null%2,       S.% Luo%null%2,       Z. Y.% Sun%null%2,       C. S.% Zhou%null%2,       L.% Li%null%2,       X.% Jiang%null%2,       G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                          Yutong%Zhang%NULL%2,                          Yutong%Zhang%NULL%0,                          Xiaoqin%Luo%NULL%1,                          Xinli%Li%NULL%1,                          Yeshan%Li%NULL%1,                          Shuchang%Liu%NULL%1,                          Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                          Beatriz%Talavera-Velasco%NULL%2,                          Beatriz%Talavera-Velasco%NULL%0,                          Yolanda%García-Albuerne%NULL%1,                          Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                          Fan%Zhang%NULL%1,                          Cun%Wei%NULL%1,                          Yanpu%Jia%NULL%0,                          Zhilei%Shang%NULL%0,                          Luna%Sun%NULL%1,                          Lili%Wu%NULL%1,                          Zhuoer%Sun%NULL%0,                          Yaoguang%Zhou%NULL%0,                          Yan%Wang%NULL%1,                          Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                          Emily%Zhang%NULL%1,                          Ga Tin Fifi%Wong%NULL%1,                          Sunah%Hyun%NULL%1,                          Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                          Yue%Wang%NULL%1,                          Jingwen%Jiang%NULL%1,                          Unnur A.%Valdimarsdóttir%NULL%1,                          Katja%Fall%NULL%2,                          Katja%Fall%NULL%0,                          Fang%Fang%NULL%4,                          Fang%Fang%NULL%0,                          Huan%Song%NULL%1,                          Donghao%Lu%NULL%1,                          Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                         Chiang%E. S.%coreGivesNoEmail%1,                         Fernandez%R.%coreGivesNoEmail%1,                         Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                         Ibrahim%H.%coreGivesNoEmail%1,                         Lee%B.%coreGivesNoEmail%1,                         Shi%L.%coreGivesNoEmail%1,                         Sun%N.%coreGivesNoEmail%1,                         Tsay%S.\u2010F.%coreGivesNoEmail%1,                         World%Health Organisation%coreGivesNoEmail%2,                         World%Health Organisation%coreGivesNoEmail%0,                         Xiaoyue%Xu%coreGivesNoEmail%1,                         Xiuchuan%Li%coreGivesNoEmail%1,                         Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                          Peixin%Lu%NULL%1,                          Lianting%Hu%NULL%1,                          Tianhui%Huang%NULL%1,                          Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                         Holly%Wei%coreGivesNoEmail%1,                         Hong%Xu%coreGivesNoEmail%1,                         Lili%Wei%coreGivesNoEmail%1,                         Lu%H%coreGivesNoEmail%1,                         Min%Leng%coreGivesNoEmail%1,                         Shi%Ti JC%coreGivesNoEmail%1,                         Shuyun%Xing%coreGivesNoEmail%1,                         Weathers%F%coreGivesNoEmail%1,                         Wenwen%Zhang%coreGivesNoEmail%1,                         Xiaohui%Shi%coreGivesNoEmail%1,                         Xiaoying%Zhang%coreGivesNoEmail%1,                         Yang%T%coreGivesNoEmail%1,                         Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                          Anh Kim%Dang%NULL%1,                          Jayson%Toweh%NULL%1,                          Quang Nhat%Nguyen%NULL%1,                          Huong Thi%Le%NULL%1,                          Toan Thi Thanh%Do%NULL%1,                          Hanh Bich Thi%Phan%NULL%1,                          Thao Thanh%Nguyen%NULL%1,                          Quan Thi%Pham%NULL%1,                          Nhung Kim Thi%Ta%NULL%1,                          Quynh Thi%Nguyen%NULL%1,                          Anh Ngoc%Nguyen%NULL%1,                          Quan%Van Duong%NULL%1,                          Men Thi%Hoang%NULL%1,                          Hai Quang%Pham%NULL%1,                          Linh Gia%Vu%NULL%1,                          Bach Xuan%Tran%NULL%1,                          Carl A.%Latkin%NULL%1,                          Cyrus S. H.%Ho%NULL%1,                          Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                          S.%Joo%NULL%1,                          P.-A.%Couette%NULL%1,                          S.%de Jaegher%NULL%1,                          F.%Joly%NULL%1,                          X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                          Simeng%Ma%NULL%2,                          Ying%Wang%NULL%4,                          Zhongxiang%Cai%NULL%2,                          Jianbo%Hu%NULL%2,                          Ning%Wei%NULL%2,                          Jiang%Wu%NULL%3,                          Hui%Du%NULL%2,                          Tingting%Chen%NULL%2,                          Ruiting%Li%NULL%2,                          Huawei%Tan%NULL%2,                          Lijun%Kang%NULL%2,                          Lihua%Yao%NULL%2,                          Manli%Huang%NULL%2,                          Huafen%Wang%NULL%2,                          Gaohua%Wang%NULL%3,                          Zhongchun%Liu%NULL%3,                          Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                          Mark%Shevlin%NULL%1,                          Jamie%Murphy%NULL%1,                          Orla%McBride%NULL%1,                          Menachem%Ben‐Ezra%NULL%2,                          Menachem%Ben‐Ezra%NULL%0,                          Richard P.%Bentall%NULL%1,                          Frédérique%Vallières%NULL%1,                          Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                          Stephanie%Manasse%NULL%2,                          Stephanie%Manasse%NULL%0,                          Rebecca A.%Krukowski%NULL%2,                          Rebecca A.%Krukowski%NULL%0,                          Kathryn%Ross%NULL%2,                          Kathryn%Ross%NULL%0,                          Rebecca%Shakour%NULL%2,                          Rebecca%Shakour%NULL%0,                          Darci R.%Miller%NULL%1,                          Dominick J.%Lemas%NULL%1,                          Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                          Xing Lin%Feng%NULL%1,                          Xiao Hua%Wang%NULL%2,                          Xiao Hua%Wang%NULL%0,                          Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                          Berta%Ausín%NULL%1,                          Miguel Ángel%Castellanos%NULL%1,                          Jesús%Saiz%NULL%1,                          Aída%López-Gómez%NULL%1,                          Carolina%Ugidos%NULL%1,                          Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                          Reyna Jazmín%Martínez Arriaga%NULL%2,                          Reyna Jazmín%Martínez Arriaga%NULL%0,                          Martha Alicia%Hernández-Gonzalez%NULL%2,                          Martha Alicia%Hernández-Gonzalez%NULL%0,                          José María%De la Roca-Chiapas%NULL%2,                          José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                          Francesca%Favieri%NULL%2,                          Francesca%Favieri%NULL%0,                          Renata%Tambelli%NULL%2,                          Renata%Tambelli%NULL%0,                          Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                          Farah%Ghrissi%NULL%1,                          Bouthaina%Abbassi%NULL%1,                          Wissal%Cherif%NULL%1,                          Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                          Enayat M.%Soltan%enayatsoltan@gmail.com%2,                          Enayat M.%Soltan%enayatsoltan@gmail.com%0,                          Hend M.%Salama%hind_mikhail@yahoo.com%2,                          Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                          Charles B%Malpas%NULL%2,                          Charles B%Malpas%NULL%0,                          Aidan JC%Burrell%NULL%1,                          Caroline%Gurvich%NULL%1,                          Leo%Chen%NULL%1,                          Jayashri%Kulkarni%NULL%1,                          Toby%Winton-Brown%NULL%2,                          Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                          Regino%Piñeiro-Lamas%NULL%1,                          César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                          Yasmeen%Byrnes%NULL%2,                          Yasmeen%Byrnes%NULL%0,                          Changgee%Chang%NULL%2,                          Aman%Prasad%NULL%1,                          Kevin%Chorath%NULL%2,                          Kevin%Chorath%NULL%0,                          Seerat K.%Poonia%NULL%1,                          Carolyn M.%Jenks%NULL%1,                          Andrés M.%Bur%NULL%1,                          Punam%Thakkar%NULL%2,                          Punam%Thakkar%NULL%0,                          Evan M.%Graboyes%NULL%2,                          Evan M.%Graboyes%NULL%0,                          Rahul%Seth%NULL%2,                          Rahul%Seth%NULL%0,                          Samuel%Trosman%NULL%1,                          Anni%Wong%NULL%2,                          Anni%Wong%NULL%0,                          Benjamin M.%Laitman%NULL%1,                          Brianna N.%Harris%NULL%1,                          Janki%Shah%NULL%2,                          Janki%Shah%NULL%0,                          Vanessa%Stubbs%NULL%1,                          Garret%Choby%NULL%1,                          Qi%Long%NULL%2,                          Christopher H.%Rassekh%NULL%1,                          Erica%Thaler%NULL%1,                          Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                          Antonio%Bertelli%NULL%1,                          Antonio%Gonçalves%NULL%1,                          Emily%Getzen%NULL%1,                          Changgee%Chang%NULL%0,                          Qi%Long%NULL%0,                          Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                          Benjamin%Becker%NULL%2,                          Qian%Yu%NULL%2,                          Peter%Willeit%NULL%2,                          Can%Jiao%NULL%2,                          Liuyue%Huang%NULL%2,                          M. Mahhub%Hossain%NULL%2,                          Igor%Grabovac%NULL%2,                          Albert%Yeung%NULL%2,                          Jingyuan%Lin%NULL%2,                          Nicola%Veronese%NULL%2,                          Jian%Wang%NULL%3,                          Xinqi%Zhou%NULL%2,                          Scott R.%Doig%NULL%2,                          Xiaofeng%Liu%NULL%2,                          Andre F.%Carvalho%NULL%2,                          Lin%Yang%NULL%4,                          Tao%Xiao%NULL%2,                          Liye%Zou%NULL%2,                          Paolo%Fusar-Poli%NULL%2,                          Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                          Jinghao Nicholas%Ngiam%NULL%1,                          Benjamin Yong-Qiang%Tan%NULL%2,                          Benjamin Yong-Qiang%Tan%NULL%0,                          Sai-Meng%Tham%NULL%1,                          Celine Yan-Shan%Tan%NULL%1,                          Mingxue%Jing%NULL%1,                          Renarebecca%Sagayanathan%NULL%1,                          Jin Tao%Chen%NULL%1,                          Lily Y. H.%Wong%NULL%1,                          Aftab%Ahmad%NULL%1,                          Faheem Ahmed%Khan%NULL%1,                          Maznah%Marmin%NULL%1,                          Fadhlina Binte%Hassan%NULL%1,                          Tai Mei-Ling%Sharon%NULL%1,                          Chin Han%Lim%NULL%1,                          Mohamad Iqbal Bin%Mohaini%NULL%1,                          Rivan%Danuaji%NULL%1,                          Thang H.%Nguyen%NULL%1,                          Georgios%Tsivgoulis%NULL%1,                          Sotirios%Tsiodras%NULL%1,                          Paraskevi C.%Fragkou%NULL%1,                          Dimitra%Dimopoulou%NULL%2,                          Dimitra%Dimopoulou%NULL%0,                          Arvind K.%Sharma%NULL%1,                          Kenam%Shah%NULL%1,                          Bhargesh%Patel%NULL%1,                          Suktara%Sharma%NULL%1,                          R. N.%Komalkumar%NULL%1,                          R. V.%Meenakshi%NULL%1,                          Shikha%Talati%NULL%1,                          Hock Luen%Teoh%NULL%1,                          Cyrus S.%Ho%NULL%1,                          Roger C.%Ho%NULL%0,                          Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                          Qin%Cui%NULL%1,                          Zhongchun%Liu%NULL%0,                          Juanjuan%Li%NULL%1,                          Xuan%Gong%NULL%1,                          Jingfang%Liu%NULL%1,                          Zhiying%Wan%NULL%1,                          Xiaoping%Yuan%NULL%1,                          Xiaofen%Li%NULL%1,                          Chuang%Chen%NULL%1,                          Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                         Apostolos%Blekas%coreGivesNoEmail%1,                         Eleni%Parlapani%coreGivesNoEmail%1,                         Ioannis%Diakogiannis%coreGivesNoEmail%1,                         Maria%Athanasiadou%coreGivesNoEmail%1,                         Marina%Skoupra%coreGivesNoEmail%1,                         Markos%Syngelakis%coreGivesNoEmail%1,                         Panteleimon%Voitsidis%coreGivesNoEmail%1,                         Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                          Zheng Feei%Ma%NULL%0,                          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                          Wanqiu%Tan%NULL%1,                          Li%Jiang%NULL%0,                          Ling%Zhang%NULL%0,                          Xinling%Zhao%NULL%0,                          Yiran%Zou%NULL%0,                          Yirong%Hu%NULL%0,                          Xi%Luo%NULL%0,                          Xiaojiang%Jiang%NULL%0,                          Roger S.%McIntyre%NULL%0,                          Bach%Tran%NULL%0,                          Jiaqian%Sun%NULL%1,                          Zhisong%Zhang%NULL%0,                          Roger%Ho%NULL%0,                          Cyrus%Ho%NULL%0,                          Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                          Hui%Ren%NULL%1,                          Ruilin%Cao%NULL%1,                          Yueyang%Hu%NULL%1,                          Zeying%Qin%NULL%1,                          Chuanen%Li%NULL%1,                          Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -5308,6 +6229,9 @@
       <c r="I1" t="s">
         <v>308</v>
       </c>
+      <c r="J1" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5323,7 +6247,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>1373</v>
+        <v>1682</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -5336,6 +6260,9 @@
       </c>
       <c r="I2" t="s">
         <v>1308</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5366,6 +6293,9 @@
       <c r="I3" t="s">
         <v>1308</v>
       </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5381,7 +6311,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1374</v>
+        <v>1683</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -5394,6 +6324,9 @@
       </c>
       <c r="I4" t="s">
         <v>1308</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5410,7 +6343,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1375</v>
+        <v>1684</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -5423,6 +6356,9 @@
       </c>
       <c r="I5" t="s">
         <v>1311</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5439,7 +6375,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1376</v>
+        <v>1685</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -5452,6 +6388,9 @@
       </c>
       <c r="I6" t="s">
         <v>1308</v>
+      </c>
+      <c r="J6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5468,7 +6407,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1377</v>
+        <v>1686</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -5481,6 +6420,9 @@
       </c>
       <c r="I7" t="s">
         <v>1314</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5497,7 +6439,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1378</v>
+        <v>1687</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5510,6 +6452,9 @@
       </c>
       <c r="I8" t="s">
         <v>1311</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5526,7 +6471,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1379</v>
+        <v>1688</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -5539,6 +6484,9 @@
       </c>
       <c r="I9" t="s">
         <v>1311</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5555,7 +6503,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1380</v>
+        <v>1689</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -5568,6 +6516,9 @@
       </c>
       <c r="I10" t="s">
         <v>1311</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5584,7 +6535,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>1381</v>
+        <v>876</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -5593,10 +6544,13 @@
         <v>624</v>
       </c>
       <c r="H11" t="s">
-        <v>625</v>
+        <v>1445</v>
       </c>
       <c r="I11" t="s">
-        <v>1319</v>
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5613,7 +6567,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1382</v>
+        <v>1690</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -5626,6 +6580,9 @@
       </c>
       <c r="I12" t="s">
         <v>1311</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5642,7 +6599,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1383</v>
+        <v>1691</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -5655,6 +6612,9 @@
       </c>
       <c r="I13" t="s">
         <v>1314</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5671,7 +6631,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1384</v>
+        <v>1692</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -5684,6 +6644,9 @@
       </c>
       <c r="I14" t="s">
         <v>1308</v>
+      </c>
+      <c r="J14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -5700,7 +6663,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1385</v>
+        <v>1693</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -5713,6 +6676,9 @@
       </c>
       <c r="I15" t="s">
         <v>1308</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -5729,7 +6695,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1386</v>
+        <v>1694</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -5742,6 +6708,9 @@
       </c>
       <c r="I16" t="s">
         <v>1308</v>
+      </c>
+      <c r="J16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5758,7 +6727,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1387</v>
+        <v>1695</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -5771,6 +6740,9 @@
       </c>
       <c r="I17" t="s">
         <v>1314</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5787,7 +6759,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1388</v>
+        <v>1696</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5800,6 +6772,9 @@
       </c>
       <c r="I18" t="s">
         <v>1319</v>
+      </c>
+      <c r="J18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5816,7 +6791,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1389</v>
+        <v>1697</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -5829,6 +6804,9 @@
       </c>
       <c r="I19" t="s">
         <v>1311</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5845,7 +6823,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1390</v>
+        <v>1698</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -5858,6 +6836,9 @@
       </c>
       <c r="I20" t="s">
         <v>1311</v>
+      </c>
+      <c r="J20" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5874,7 +6855,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1391</v>
+        <v>1699</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -5887,6 +6868,9 @@
       </c>
       <c r="I21" t="s">
         <v>1311</v>
+      </c>
+      <c r="J21" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5903,7 +6887,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1392</v>
+        <v>1700</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -5916,6 +6900,9 @@
       </c>
       <c r="I22" t="s">
         <v>1308</v>
+      </c>
+      <c r="J22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5932,7 +6919,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1393</v>
+        <v>1701</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -5945,6 +6932,9 @@
       </c>
       <c r="I23" t="s">
         <v>1311</v>
+      </c>
+      <c r="J23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5961,7 +6951,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1394</v>
+        <v>1702</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -5974,6 +6964,9 @@
       </c>
       <c r="I24" t="s">
         <v>1314</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5990,7 +6983,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1395</v>
+        <v>1703</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -6003,6 +6996,9 @@
       </c>
       <c r="I25" t="s">
         <v>1308</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6019,7 +7015,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1396</v>
+        <v>1704</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -6032,6 +7028,9 @@
       </c>
       <c r="I26" t="s">
         <v>1308</v>
+      </c>
+      <c r="J26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -6048,7 +7047,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1397</v>
+        <v>1705</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -6061,6 +7060,9 @@
       </c>
       <c r="I27" t="s">
         <v>1308</v>
+      </c>
+      <c r="J27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -6077,7 +7079,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1398</v>
+        <v>1706</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -6090,6 +7092,9 @@
       </c>
       <c r="I28" t="s">
         <v>1308</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -6106,7 +7111,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1399</v>
+        <v>1707</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -6119,6 +7124,9 @@
       </c>
       <c r="I29" t="s">
         <v>1314</v>
+      </c>
+      <c r="J29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6135,7 +7143,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1400</v>
+        <v>1708</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -6148,6 +7156,9 @@
       </c>
       <c r="I30" t="s">
         <v>1311</v>
+      </c>
+      <c r="J30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -6164,7 +7175,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1401</v>
+        <v>1709</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -6177,6 +7188,9 @@
       </c>
       <c r="I31" t="s">
         <v>1311</v>
+      </c>
+      <c r="J31" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6193,7 +7207,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1402</v>
+        <v>1710</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -6206,6 +7220,9 @@
       </c>
       <c r="I32" t="s">
         <v>1311</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -6222,7 +7239,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1403</v>
+        <v>1711</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -6235,6 +7252,9 @@
       </c>
       <c r="I33" t="s">
         <v>1311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -6251,7 +7271,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1404</v>
+        <v>1712</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -6264,6 +7284,9 @@
       </c>
       <c r="I34" t="s">
         <v>1311</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -6280,7 +7303,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1405</v>
+        <v>1713</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -6293,6 +7316,9 @@
       </c>
       <c r="I35" t="s">
         <v>1311</v>
+      </c>
+      <c r="J35" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -6309,7 +7335,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1406</v>
+        <v>1714</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -6322,6 +7348,9 @@
       </c>
       <c r="I36" t="s">
         <v>1308</v>
+      </c>
+      <c r="J36" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -6338,7 +7367,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1407</v>
+        <v>1715</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -6351,6 +7380,9 @@
       </c>
       <c r="I37" t="s">
         <v>1308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -6367,7 +7399,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1408</v>
+        <v>1716</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -6380,6 +7412,9 @@
       </c>
       <c r="I38" t="s">
         <v>1311</v>
+      </c>
+      <c r="J38" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6410,6 +7445,9 @@
       <c r="I39" t="s">
         <v>1319</v>
       </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -6425,7 +7463,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1409</v>
+        <v>1717</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -6438,6 +7476,9 @@
       </c>
       <c r="I40" t="s">
         <v>1319</v>
+      </c>
+      <c r="J40" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -6454,7 +7495,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1410</v>
+        <v>1718</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -6467,6 +7508,9 @@
       </c>
       <c r="I41" t="s">
         <v>1311</v>
+      </c>
+      <c r="J41" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -6497,6 +7541,9 @@
       <c r="I42" t="s">
         <v>1311</v>
       </c>
+      <c r="J42" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
@@ -6512,7 +7559,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1411</v>
+        <v>1719</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -6525,6 +7572,9 @@
       </c>
       <c r="I43" t="s">
         <v>1319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -6541,7 +7591,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1412</v>
+        <v>1720</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -6554,6 +7604,9 @@
       </c>
       <c r="I44" t="s">
         <v>1311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -6570,7 +7623,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1413</v>
+        <v>1721</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -6583,6 +7636,9 @@
       </c>
       <c r="I45" t="s">
         <v>1308</v>
+      </c>
+      <c r="J45" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -6599,7 +7655,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1414</v>
+        <v>1722</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -6612,6 +7668,9 @@
       </c>
       <c r="I46" t="s">
         <v>1311</v>
+      </c>
+      <c r="J46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -6628,7 +7687,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1415</v>
+        <v>1723</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -6641,6 +7700,9 @@
       </c>
       <c r="I47" t="s">
         <v>1311</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -6657,7 +7719,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1416</v>
+        <v>1724</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -6670,6 +7732,9 @@
       </c>
       <c r="I48" t="s">
         <v>1311</v>
+      </c>
+      <c r="J48" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -6686,7 +7751,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1417</v>
+        <v>1725</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -6699,6 +7764,9 @@
       </c>
       <c r="I49" t="s">
         <v>1311</v>
+      </c>
+      <c r="J49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -6715,7 +7783,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1418</v>
+        <v>1726</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -6728,6 +7796,9 @@
       </c>
       <c r="I50" t="s">
         <v>1308</v>
+      </c>
+      <c r="J50" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6744,7 +7815,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1419</v>
+        <v>1727</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -6757,6 +7828,9 @@
       </c>
       <c r="I51" t="s">
         <v>1311</v>
+      </c>
+      <c r="J51" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6773,7 +7847,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1420</v>
+        <v>1728</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -6786,6 +7860,9 @@
       </c>
       <c r="I52" t="s">
         <v>1311</v>
+      </c>
+      <c r="J52" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6802,7 +7879,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1421</v>
+        <v>1729</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -6815,6 +7892,9 @@
       </c>
       <c r="I53" t="s">
         <v>1308</v>
+      </c>
+      <c r="J53" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6831,7 +7911,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1422</v>
+        <v>1730</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -6844,6 +7924,9 @@
       </c>
       <c r="I54" t="s">
         <v>1314</v>
+      </c>
+      <c r="J54" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6860,7 +7943,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1423</v>
+        <v>1731</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -6873,6 +7956,9 @@
       </c>
       <c r="I55" t="s">
         <v>1311</v>
+      </c>
+      <c r="J55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6889,7 +7975,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>1424</v>
+        <v>923</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -6898,10 +7984,13 @@
         <v>624</v>
       </c>
       <c r="H56" t="s">
-        <v>670</v>
+        <v>1490</v>
       </c>
       <c r="I56" t="s">
-        <v>1319</v>
+        <v>97</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6918,7 +8007,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1425</v>
+        <v>1732</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -6931,6 +8020,9 @@
       </c>
       <c r="I57" t="s">
         <v>1311</v>
+      </c>
+      <c r="J57" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6947,7 +8039,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1426</v>
+        <v>1733</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -6960,6 +8052,9 @@
       </c>
       <c r="I58" t="s">
         <v>1311</v>
+      </c>
+      <c r="J58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6976,7 +8071,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1427</v>
+        <v>1734</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -6989,6 +8084,9 @@
       </c>
       <c r="I59" t="s">
         <v>1308</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -7005,7 +8103,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1428</v>
+        <v>1735</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -7018,6 +8116,9 @@
       </c>
       <c r="I60" t="s">
         <v>1311</v>
+      </c>
+      <c r="J60" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -7034,7 +8135,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1429</v>
+        <v>1736</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -7047,6 +8148,9 @@
       </c>
       <c r="I61" t="s">
         <v>1311</v>
+      </c>
+      <c r="J61" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -7063,7 +8167,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1430</v>
+        <v>1737</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -7076,6 +8180,9 @@
       </c>
       <c r="I62" t="s">
         <v>1308</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -7092,7 +8199,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1431</v>
+        <v>1738</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -7105,6 +8212,9 @@
       </c>
       <c r="I63" t="s">
         <v>1319</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -7121,7 +8231,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1432</v>
+        <v>1739</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -7134,6 +8244,9 @@
       </c>
       <c r="I64" t="s">
         <v>1311</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -7150,7 +8263,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1433</v>
+        <v>1740</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -7163,6 +8276,9 @@
       </c>
       <c r="I65" t="s">
         <v>1308</v>
+      </c>
+      <c r="J65" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -7179,7 +8295,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1434</v>
+        <v>1741</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>
@@ -7192,6 +8308,9 @@
       </c>
       <c r="I66" t="s">
         <v>1314</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/46.xlsx
+++ b/Covid_19_Dataset_and_References/References/46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11027" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12083" uniqueCount="1862">
   <si>
     <t>Doi</t>
   </si>
@@ -5877,6 +5877,366 @@
   </si>
   <si>
     <t>[Leilei%Liang%NULL%1,                          Hui%Ren%NULL%1,                          Ruilin%Cao%NULL%1,                          Yueyang%Hu%NULL%1,                          Zeying%Qin%NULL%1,                          Chuanen%Li%NULL%1,                          Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                           Roy F.%Baumeister%NULL%1,                           Jennifer C.%Veilleux%NULL%1,                           Caixia%Chen%NULL%1,                           Wenjun%Liu%NULL%1,                           Yongjie%Yue%NULL%1,                           Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                           Xiaopeng%Hu%NULL%1,                           Ivo Otte%Ekumi%NULL%1,                           Jianchun%Wang%NULL%1,                           Yawen%An%NULL%1,                           Zhiwen%Li%NULL%1,                           Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                           Wen%Li%NULL%2,                           Yuan%Yang%NULL%4,                           Yuan%Yang%NULL%0,                           Yu%Wang%NULL%2,                           Qinge%Zhang%NULL%1,                           Teris%Cheung%NULL%2,                           Xinjuan%Wu%NULL%2,                           Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                           Cherica A.%Tee%NULL%1,                           Joseph P.%Anlacan%NULL%1,                           Katrina Joy G.%Aligam%NULL%1,                           Patrick Wincy C.%Reyes%NULL%1,                           Vipat%Kuruchittham%NULL%1,                           Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                           Xiao-You%Su%suxiaoyou@hotmail.com%1,                           Yu%Jiang%jiangyu@pumc.edu.cn%2,                           Yu%Jiang%jiangyu@pumc.edu.cn%0,                           Wen-Jun%Wang%wwjun1973@163.com%1,                           Xiao-Fen%Gu%357539328@qq.com%1,                           Li%Ma%mali_lele@sina.com%1,                           Jing%Li%lijingwcph@scu.edu.cn%0,                           Shao-Kai%Zhang%shaokaizhang@126.com%1,                           Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                           Ran%Ren%renran99@163.com%1,                           Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                           You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                           Helena%Garrido-Hernansaiz%NULL%1,                           Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                           Xiangfen%Su%suxiangfengfy@163.com%1,                           Shuzeng%Zhang%NULL%2,                           Shuzeng%Zhang%NULL%0,                           Wenjie%Guan%NULL%1,                           Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                           Rong-Ning%Chen%NULL%1,                           Li-Li%Liu%NULL%1,                           Xue-Guo%Li%NULL%1,                           Jian-Bin%Chen%NULL%1,                           Si-Yao%Tang%NULL%1,                           Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                           Elisa%Pedroli%NULL%1,                           Guido E.%D'Aniello%NULL%1,                           Chiara%Stramba Badiale%NULL%1,                           Giada%Pietrabissa%NULL%1,                           Chiara%Manna%NULL%1,                           Marco%Stramba Badiale%NULL%1,                           Giuseppe%Riva%NULL%1,                           Gianluca%Castelnuovo%NULL%1,                           Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                           Qing-xian%Li%NULL%1,                           Heng%Zhang%NULL%1,                           Jia-yong%Zhu%NULL%1,                           Xu%Yang%NULL%1,                           Yu-hang%Wu%NULL%1,                           Jie%Xiong%NULL%1,                           Fu%Li%NULL%1,                           Hua%Wang%whzkwlh@126.com%0,                           Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                           Charlotte%Coste%NULL%1,                           Rocio%Sanchez%NULL%1,                           Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                           Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                           Saleh A.%Alrashed%NULL%1,                           Ali A.%Alzunaydi%NULL%1,                           Ahmed S.%Almohimeed%NULL%1,                           Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                           Hui%Shi%NULL%1,                           Zhengkui%Liu%NULL%1,                           Songxu%Peng%gwxypsx@163.com%2,                           Songxu%Peng%gwxypsx@163.com%0,                           Ruoxi%Wang%NULL%2,                           Ruoxi%Wang%NULL%0,                           Ling%Qi%NULL%1,                           Zezhi%Li%NULL%1,                           Jiezhi%Yang%NULL%1,                           Yali%Ren%NULL%1,                           Xiuli%Song%NULL%1,                           Lingyun%Zeng%NULL%1,                           Wei%Qian%NULL%1,                           Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                          Khazaie%H.%coreGivesNoEmail%1,                          Li%J.%coreGivesNoEmail%1,                          Xiaohui%Li%coreGivesNoEmail%1,                          Xing%Tan%coreGivesNoEmail%1,                          Yuanyuan%An%coreGivesNoEmail%1,                          Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                           Zheng Feei%Ma%NULL%4,                           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                           Zhuoer%Sun%NULL%3,                           Zhuoer%Sun%NULL%0,                           Tuanjie%Liu%NULL%1,                           Xiong%Ni%NULL%1,                           Xuanfeng%Deng%NULL%1,                           Yanpu%Jia%NULL%2,                           Zhilei%Shang%NULL%2,                           Yaoguang%Zhou%NULL%2,                           Weizhi%Liu%13024141970@163.com%3,                           Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                           N.%Hadjamu%NULL%2,                           N.%Hadjamu%NULL%0,                           G.%Willmund%NULL%1,                           S.%Dolff%NULL%1,                           N.%Vonderlin%NULL%1,                           R.%Wakili%NULL%1,                           J.%Vogel%NULL%1,                           T.%Rassaf%NULL%1,                           J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                           Riyu%Pan%NULL%1,                           Xiaoyang%Wan%NULL%1,                           Yilin%Tan%NULL%1,                           Linkang%Xu%NULL%1,                           Roger S.%McIntyre%NULL%3,                           Faith N.%Choo%NULL%1,                           Bach%Tran%NULL%3,                           Roger%Ho%NULL%3,                           Vijay K.%Sharma%NULL%2,                           Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                           Jithin Thomas%Parel%NULL%2,                           Jithin Thomas%Parel%NULL%0,                           Neeraj%Raizada%NULL%2,                           Neeraj%Raizada%NULL%0,                           Shiv Kumar%Sarin%NULL%1,                           Abdallah M.%Samy%NULL%2,                           Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                           Rene%Stefitz%NULL%1,                           Kerstin%Gaisbachgrabner%NULL%1,                           Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                           Tao%Hu%NULL%1,                           Baodi%Hu%NULL%1,                           Chunhan%Jin%NULL%1,                           Gang%Wang%NULL%1,                           Chao%Xie%NULL%1,                           Sen%Chen%NULL%1,                           Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                           Fengyi%Hao%NULL%1,                           Roger S.%McIntyre%NULL%0,                           Li%Jiang%NULL%2,                           Xiaojiang%Jiang%NULL%2,                           Ling%Zhang%NULL%2,                           Xinling%Zhao%NULL%2,                           Yiran%Zou%NULL%2,                           Yirong%Hu%NULL%2,                           Xi%Luo%NULL%2,                           Zhisong%Zhang%NULL%2,                           Andre%Lai%NULL%1,                           Roger%Ho%NULL%0,                           Bach%Tran%NULL%0,                           Cyrus%Ho%NULL%0,                           Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                           Wenning%Fu%NULL%2,                           Xiaoran%Liu%NULL%2,                           Zhiqian%Luo%NULL%2,                           Rixing%Wang%NULL%2,                           Ning%Zhou%NULL%2,                           Shijiao%Yan%NULL%3,                           Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                           Mark L%Williams%NULL%1,                           Benjamin C%Amick%NULL%1,                           Teresa J.%Hudson%NULL%1,                           Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                           Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                           Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                           Necdet%Sut%necdetsut@yahoo.com%2,                           Necdet%Sut%necdetsut@yahoo.com%0,                           Selma%Akdogan%drslma.akdogan@gmail.com%2,                           Selma%Akdogan%drslma.akdogan@gmail.com%0,                           Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                           Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                           Valentina%Socci%NULL%3,                           Dalila%Talevi%NULL%1,                           Sonia%Mensi%NULL%1,                           Cinzia%Niolu%NULL%1,                           Francesca%Pacitti%NULL%3,                           Antinisca%Di Marco%NULL%3,                           Alessandro%Rossi%NULL%3,                           Alberto%Siracusano%NULL%3,                           Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                           Valentina%Socci%NULL%0,                           Francesca%Pacitti%NULL%0,                           Giorgio%Di Lorenzo%NULL%0,                           Antinisca%Di Marco%NULL%0,                           Alberto%Siracusano%NULL%0,                           Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                           Marianna%Purgato%NULL%1,                           Chiara%Bove%NULL%1,                           David%MacTaggart%NULL%1,                           Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                           Wei%Chen%NULL%2,                           Saiduo%Liu%NULL%2,                           Paul M.%Thompson%NULL%2,                           Long Jiang%Zhang%NULL%2,                           Fei%Xia%NULL%3,                           Fang%Cheng%NULL%3,                           Ailing%Hong%NULL%2,                           Wesley%Surento%NULL%2,                           Song%Luo%NULL%2,                           Zhi Yuan%Sun%NULL%2,                           Chang Sheng%Zhou%NULL%2,                           Lingjiang%Li%NULL%2,                           Xiangao%Jiang%NULL%2,                           Guang Ming%Lu%NULL%2,                            R.%Qi%null%2,                            W.% Chen%null%2,                            S.% Liu%null%2,                            P. M.% Thompson%null%2,                            L. J.% Zhang%null%2,                            F.% Xia%null%2,                            F.% Cheng%null%2,                            A.% Hong%null%2,                            W.% Surento%null%2,                            S.% Luo%null%2,                            Z. Y.% Sun%null%2,                            C. S.% Zhou%null%2,                            L.% Li%null%2,                            X.% Jiang%null%2,                            G. M. % Lu%null%2,                          R.%Qi%null%1,                          W.% Chen%null%1,                          S.% Liu%null%1,                          P. M.% Thompson%null%1,                          L. J.% Zhang%null%1,                          F.% Xia%null%1,                          F.% Cheng%null%1,                          A.% Hong%null%1,                          W.% Surento%null%1,                          S.% Luo%null%1,                          Z. Y.% Sun%null%1,                          C. S.% Zhou%null%1,                          L.% Li%null%1,                          X.% Jiang%null%1,                          G. M. % Lu%null%1,        R.%Qi%null%2,        W.% Chen%null%2,        S.% Liu%null%2,        P. M.% Thompson%null%2,        L. J.% Zhang%null%2,        F.% Xia%null%2,        F.% Cheng%null%2,        A.% Hong%null%2,        W.% Surento%null%2,        S.% Luo%null%2,        Z. Y.% Sun%null%2,        C. S.% Zhou%null%2,        L.% Li%null%2,        X.% Jiang%null%2,        G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                           Yutong%Zhang%NULL%2,                           Yutong%Zhang%NULL%0,                           Xiaoqin%Luo%NULL%1,                           Xinli%Li%NULL%1,                           Yeshan%Li%NULL%1,                           Shuchang%Liu%NULL%1,                           Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                           Beatriz%Talavera-Velasco%NULL%2,                           Beatriz%Talavera-Velasco%NULL%0,                           Yolanda%García-Albuerne%NULL%1,                           Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                           Fan%Zhang%NULL%1,                           Cun%Wei%NULL%1,                           Yanpu%Jia%NULL%0,                           Zhilei%Shang%NULL%0,                           Luna%Sun%NULL%1,                           Lili%Wu%NULL%1,                           Zhuoer%Sun%NULL%0,                           Yaoguang%Zhou%NULL%0,                           Yan%Wang%NULL%1,                           Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                           Emily%Zhang%NULL%1,                           Ga Tin Fifi%Wong%NULL%1,                           Sunah%Hyun%NULL%1,                           Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                           Yue%Wang%NULL%1,                           Jingwen%Jiang%NULL%1,                           Unnur A.%Valdimarsdóttir%NULL%1,                           Katja%Fall%NULL%2,                           Katja%Fall%NULL%0,                           Fang%Fang%NULL%4,                           Fang%Fang%NULL%0,                           Huan%Song%NULL%1,                           Donghao%Lu%NULL%1,                           Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                          Chiang%E. S.%coreGivesNoEmail%1,                          Fernandez%R.%coreGivesNoEmail%1,                          Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                          Ibrahim%H.%coreGivesNoEmail%1,                          Lee%B.%coreGivesNoEmail%1,                          Shi%L.%coreGivesNoEmail%1,                          Sun%N.%coreGivesNoEmail%1,                          Tsay%S.\u2010F.%coreGivesNoEmail%1,                          World%Health Organisation%coreGivesNoEmail%2,                          World%Health Organisation%coreGivesNoEmail%0,                          Xiaoyue%Xu%coreGivesNoEmail%1,                          Xiuchuan%Li%coreGivesNoEmail%1,                          Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                           Peixin%Lu%NULL%1,                           Lianting%Hu%NULL%1,                           Tianhui%Huang%NULL%1,                           Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                          Holly%Wei%coreGivesNoEmail%1,                          Hong%Xu%coreGivesNoEmail%1,                          Lili%Wei%coreGivesNoEmail%1,                          Lu%H%coreGivesNoEmail%1,                          Min%Leng%coreGivesNoEmail%1,                          Shi%Ti JC%coreGivesNoEmail%1,                          Shuyun%Xing%coreGivesNoEmail%1,                          Weathers%F%coreGivesNoEmail%1,                          Wenwen%Zhang%coreGivesNoEmail%1,                          Xiaohui%Shi%coreGivesNoEmail%1,                          Xiaoying%Zhang%coreGivesNoEmail%1,                          Yang%T%coreGivesNoEmail%1,                          Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                           Anh Kim%Dang%NULL%1,                           Jayson%Toweh%NULL%1,                           Quang Nhat%Nguyen%NULL%1,                           Huong Thi%Le%NULL%1,                           Toan Thi Thanh%Do%NULL%1,                           Hanh Bich Thi%Phan%NULL%1,                           Thao Thanh%Nguyen%NULL%1,                           Quan Thi%Pham%NULL%1,                           Nhung Kim Thi%Ta%NULL%1,                           Quynh Thi%Nguyen%NULL%1,                           Anh Ngoc%Nguyen%NULL%1,                           Quan%Van Duong%NULL%1,                           Men Thi%Hoang%NULL%1,                           Hai Quang%Pham%NULL%1,                           Linh Gia%Vu%NULL%1,                           Bach Xuan%Tran%NULL%1,                           Carl A.%Latkin%NULL%1,                           Cyrus S. H.%Ho%NULL%1,                           Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                           S.%Joo%NULL%1,                           P.-A.%Couette%NULL%1,                           S.%de Jaegher%NULL%1,                           F.%Joly%NULL%1,                           X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                           Simeng%Ma%NULL%2,                           Ying%Wang%NULL%4,                           Zhongxiang%Cai%NULL%2,                           Jianbo%Hu%NULL%2,                           Ning%Wei%NULL%2,                           Jiang%Wu%NULL%3,                           Hui%Du%NULL%2,                           Tingting%Chen%NULL%2,                           Ruiting%Li%NULL%2,                           Huawei%Tan%NULL%2,                           Lijun%Kang%NULL%2,                           Lihua%Yao%NULL%2,                           Manli%Huang%NULL%2,                           Huafen%Wang%NULL%2,                           Gaohua%Wang%NULL%3,                           Zhongchun%Liu%NULL%3,                           Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                           Mark%Shevlin%NULL%1,                           Jamie%Murphy%NULL%1,                           Orla%McBride%NULL%1,                           Menachem%Ben‐Ezra%NULL%2,                           Menachem%Ben‐Ezra%NULL%0,                           Richard P.%Bentall%NULL%1,                           Frédérique%Vallières%NULL%1,                           Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                           Stephanie%Manasse%NULL%2,                           Stephanie%Manasse%NULL%0,                           Rebecca A.%Krukowski%NULL%2,                           Rebecca A.%Krukowski%NULL%0,                           Kathryn%Ross%NULL%2,                           Kathryn%Ross%NULL%0,                           Rebecca%Shakour%NULL%2,                           Rebecca%Shakour%NULL%0,                           Darci R.%Miller%NULL%1,                           Dominick J.%Lemas%NULL%1,                           Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                           Xing Lin%Feng%NULL%1,                           Xiao Hua%Wang%NULL%2,                           Xiao Hua%Wang%NULL%0,                           Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                           Berta%Ausín%NULL%1,                           Miguel Ángel%Castellanos%NULL%1,                           Jesús%Saiz%NULL%1,                           Aída%López-Gómez%NULL%1,                           Carolina%Ugidos%NULL%1,                           Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                           Reyna Jazmín%Martínez Arriaga%NULL%2,                           Reyna Jazmín%Martínez Arriaga%NULL%0,                           Martha Alicia%Hernández-Gonzalez%NULL%2,                           Martha Alicia%Hernández-Gonzalez%NULL%0,                           José María%De la Roca-Chiapas%NULL%2,                           José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                           Francesca%Favieri%NULL%2,                           Francesca%Favieri%NULL%0,                           Renata%Tambelli%NULL%2,                           Renata%Tambelli%NULL%0,                           Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                           Farah%Ghrissi%NULL%1,                           Bouthaina%Abbassi%NULL%1,                           Wissal%Cherif%NULL%1,                           Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                           Enayat M.%Soltan%enayatsoltan@gmail.com%2,                           Enayat M.%Soltan%enayatsoltan@gmail.com%0,                           Hend M.%Salama%hind_mikhail@yahoo.com%2,                           Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                           Charles B%Malpas%NULL%2,                           Charles B%Malpas%NULL%0,                           Aidan JC%Burrell%NULL%1,                           Caroline%Gurvich%NULL%1,                           Leo%Chen%NULL%1,                           Jayashri%Kulkarni%NULL%1,                           Toby%Winton-Brown%NULL%2,                           Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                           Regino%Piñeiro-Lamas%NULL%1,                           César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                           Yasmeen%Byrnes%NULL%2,                           Yasmeen%Byrnes%NULL%0,                           Changgee%Chang%NULL%2,                           Aman%Prasad%NULL%1,                           Kevin%Chorath%NULL%2,                           Kevin%Chorath%NULL%0,                           Seerat K.%Poonia%NULL%1,                           Carolyn M.%Jenks%NULL%1,                           Andrés M.%Bur%NULL%1,                           Punam%Thakkar%NULL%2,                           Punam%Thakkar%NULL%0,                           Evan M.%Graboyes%NULL%2,                           Evan M.%Graboyes%NULL%0,                           Rahul%Seth%NULL%2,                           Rahul%Seth%NULL%0,                           Samuel%Trosman%NULL%1,                           Anni%Wong%NULL%2,                           Anni%Wong%NULL%0,                           Benjamin M.%Laitman%NULL%1,                           Brianna N.%Harris%NULL%1,                           Janki%Shah%NULL%2,                           Janki%Shah%NULL%0,                           Vanessa%Stubbs%NULL%1,                           Garret%Choby%NULL%1,                           Qi%Long%NULL%2,                           Christopher H.%Rassekh%NULL%1,                           Erica%Thaler%NULL%1,                           Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                           Antonio%Bertelli%NULL%1,                           Antonio%Gonçalves%NULL%1,                           Emily%Getzen%NULL%1,                           Changgee%Chang%NULL%0,                           Qi%Long%NULL%0,                           Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                           Benjamin%Becker%NULL%2,                           Qian%Yu%NULL%2,                           Peter%Willeit%NULL%2,                           Can%Jiao%NULL%2,                           Liuyue%Huang%NULL%2,                           M. Mahhub%Hossain%NULL%2,                           Igor%Grabovac%NULL%2,                           Albert%Yeung%NULL%2,                           Jingyuan%Lin%NULL%2,                           Nicola%Veronese%NULL%2,                           Jian%Wang%NULL%3,                           Xinqi%Zhou%NULL%2,                           Scott R.%Doig%NULL%2,                           Xiaofeng%Liu%NULL%2,                           Andre F.%Carvalho%NULL%2,                           Lin%Yang%NULL%4,                           Tao%Xiao%NULL%2,                           Liye%Zou%NULL%2,                           Paolo%Fusar-Poli%NULL%2,                           Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                           Jinghao Nicholas%Ngiam%NULL%1,                           Benjamin Yong-Qiang%Tan%NULL%2,                           Benjamin Yong-Qiang%Tan%NULL%0,                           Sai-Meng%Tham%NULL%1,                           Celine Yan-Shan%Tan%NULL%1,                           Mingxue%Jing%NULL%1,                           Renarebecca%Sagayanathan%NULL%1,                           Jin Tao%Chen%NULL%1,                           Lily Y. H.%Wong%NULL%1,                           Aftab%Ahmad%NULL%1,                           Faheem Ahmed%Khan%NULL%1,                           Maznah%Marmin%NULL%1,                           Fadhlina Binte%Hassan%NULL%1,                           Tai Mei-Ling%Sharon%NULL%1,                           Chin Han%Lim%NULL%1,                           Mohamad Iqbal Bin%Mohaini%NULL%1,                           Rivan%Danuaji%NULL%1,                           Thang H.%Nguyen%NULL%1,                           Georgios%Tsivgoulis%NULL%1,                           Sotirios%Tsiodras%NULL%1,                           Paraskevi C.%Fragkou%NULL%1,                           Dimitra%Dimopoulou%NULL%2,                           Dimitra%Dimopoulou%NULL%0,                           Arvind K.%Sharma%NULL%1,                           Kenam%Shah%NULL%1,                           Bhargesh%Patel%NULL%1,                           Suktara%Sharma%NULL%1,                           R. N.%Komalkumar%NULL%1,                           R. V.%Meenakshi%NULL%1,                           Shikha%Talati%NULL%1,                           Hock Luen%Teoh%NULL%1,                           Cyrus S.%Ho%NULL%1,                           Roger C.%Ho%NULL%0,                           Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                           Qin%Cui%NULL%1,                           Zhongchun%Liu%NULL%0,                           Juanjuan%Li%NULL%1,                           Xuan%Gong%NULL%1,                           Jingfang%Liu%NULL%1,                           Zhiying%Wan%NULL%1,                           Xiaoping%Yuan%NULL%1,                           Xiaofen%Li%NULL%1,                           Chuang%Chen%NULL%1,                           Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                          Apostolos%Blekas%coreGivesNoEmail%1,                          Eleni%Parlapani%coreGivesNoEmail%1,                          Ioannis%Diakogiannis%coreGivesNoEmail%1,                          Maria%Athanasiadou%coreGivesNoEmail%1,                          Marina%Skoupra%coreGivesNoEmail%1,                          Markos%Syngelakis%coreGivesNoEmail%1,                          Panteleimon%Voitsidis%coreGivesNoEmail%1,                          Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                           Zheng Feei%Ma%NULL%0,                           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                           Wanqiu%Tan%NULL%1,                           Li%Jiang%NULL%0,                           Ling%Zhang%NULL%0,                           Xinling%Zhao%NULL%0,                           Yiran%Zou%NULL%0,                           Yirong%Hu%NULL%0,                           Xi%Luo%NULL%0,                           Xiaojiang%Jiang%NULL%0,                           Roger S.%McIntyre%NULL%0,                           Bach%Tran%NULL%0,                           Jiaqian%Sun%NULL%1,                           Zhisong%Zhang%NULL%0,                           Roger%Ho%NULL%0,                           Cyrus%Ho%NULL%0,                           Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                           Hui%Ren%NULL%1,                           Ruilin%Cao%NULL%1,                           Yueyang%Hu%NULL%1,                           Zeying%Qin%NULL%1,                           Chuanen%Li%NULL%1,                           Songli%Mei%meisongli@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Liu%NULL%1,                            Roy F.%Baumeister%NULL%1,                            Jennifer C.%Veilleux%NULL%1,                            Caixia%Chen%NULL%1,                            Wenjun%Liu%NULL%1,                            Yongjie%Yue%NULL%1,                            Shi%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xin%Cai%NULL%1,                            Xiaopeng%Hu%NULL%1,                            Ivo Otte%Ekumi%NULL%1,                            Jianchun%Wang%NULL%1,                            Yawen%An%NULL%1,                            Zhiwen%Li%NULL%1,                            Bo%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai-Xin%Bo%NULL%0,                            Wen%Li%NULL%2,                            Yuan%Yang%NULL%4,                            Yuan%Yang%NULL%0,                            Yu%Wang%NULL%2,                            Qinge%Zhang%NULL%1,                            Teris%Cheung%NULL%2,                            Xinjuan%Wu%NULL%2,                            Yu-Tao%Xiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael L.%Tee%NULL%1,                            Cherica A.%Tee%NULL%1,                            Joseph P.%Anlacan%NULL%1,                            Katrina Joy G.%Aligam%NULL%1,                            Patrick Wincy C.%Reyes%NULL%1,                            Vipat%Kuruchittham%NULL%1,                            Roger C.%Ho%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ming-Yu%Si%myu_si@163.com%1,                            Xiao-You%Su%suxiaoyou@hotmail.com%1,                            Yu%Jiang%jiangyu@pumc.edu.cn%2,                            Yu%Jiang%jiangyu@pumc.edu.cn%0,                            Wen-Jun%Wang%wwjun1973@163.com%1,                            Xiao-Fen%Gu%357539328@qq.com%1,                            Li%Ma%mali_lele@sina.com%1,                            Jing%Li%lijingwcph@scu.edu.cn%0,                            Shao-Kai%Zhang%shaokaizhang@126.com%1,                            Ze-Fang%Ren%renzef@mail.sysu.edu.cn%1,                            Ran%Ren%renran99@163.com%1,                            Yuan-Li%Liu%liuyuanli_pumc@163.com%1,                            You-Lin%Qiao%qiaoy@cicams.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Rocío%Rodríguez-Rey%NULL%1,                            Helena%Garrido-Hernansaiz%NULL%1,                            Silvia%Collado%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anliu%Nie%NULL%1,                            Xiangfen%Su%suxiangfengfy@163.com%1,                            Shuzeng%Zhang%NULL%2,                            Shuzeng%Zhang%NULL%0,                            Wenjie%Guan%NULL%1,                            Jianfeng%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shun-Wei%Liang%NULL%1,                            Rong-Ning%Chen%NULL%1,                            Li-Li%Liu%NULL%1,                            Xue-Guo%Li%NULL%1,                            Jian-Bin%Chen%NULL%1,                            Si-Yao%Tang%NULL%1,                            Jing-Bo%Zhao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emanuele Maria%Giusti%NULL%2,                            Elisa%Pedroli%NULL%1,                            Guido E.%D'Aniello%NULL%1,                            Chiara%Stramba Badiale%NULL%1,                            Giada%Pietrabissa%NULL%1,                            Chiara%Manna%NULL%1,                            Marco%Stramba Badiale%NULL%1,                            Giuseppe%Riva%NULL%1,                            Gianluca%Castelnuovo%NULL%1,                            Enrico%Molinari%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Biao%Chen%NULL%1,                            Qing-xian%Li%NULL%1,                            Heng%Zhang%NULL%1,                            Jia-yong%Zhu%NULL%1,                            Xu%Yang%NULL%1,                            Yu-hang%Wu%NULL%1,                            Jie%Xiong%NULL%1,                            Fu%Li%NULL%1,                            Hua%Wang%whzkwlh@126.com%0,                            Zhi-tao%Chen%chenzhitao830201@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Anaëlle%Caillet%NULL%1,                            Charlotte%Coste%NULL%1,                            Rocio%Sanchez%NULL%1,                            Bernard%Allaouchiche%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mariapaola%Barbato%Mariapaola.Barbato@zu.ac.ae%1,                            Justin%Thomas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abdulmajeed A.%Alkhamees%NULL%1,                            Saleh A.%Alrashed%NULL%1,                            Ali A.%Alzunaydi%NULL%1,                            Ahmed S.%Almohimeed%NULL%1,                            Moath S.%Aljohani%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongjie%Zhou%NULL%1,                            Hui%Shi%NULL%1,                            Zhengkui%Liu%NULL%1,                            Songxu%Peng%gwxypsx@163.com%2,                            Songxu%Peng%gwxypsx@163.com%0,                            Ruoxi%Wang%NULL%2,                            Ruoxi%Wang%NULL%0,                            Ling%Qi%NULL%1,                            Zezhi%Li%NULL%1,                            Jiezhi%Yang%NULL%1,                            Yali%Ren%NULL%1,                            Xiuli%Song%NULL%1,                            Lingyun%Zeng%NULL%1,                            Wei%Qian%NULL%1,                            Xiangyang%Zhang%zhangxy@psych.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chang%J.%coreGivesNoEmail%1,                           Khazaie%H.%coreGivesNoEmail%1,                           Li%J.%coreGivesNoEmail%1,                           Xiaohui%Li%coreGivesNoEmail%1,                           Xing%Tan%coreGivesNoEmail%1,                           Yuanyuan%An%coreGivesNoEmail%1,                           Yuqing%Zhao%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                            Zheng Feei%Ma%NULL%4,                            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qianlan%Yin%NULL%1,                            Zhuoer%Sun%NULL%3,                            Zhuoer%Sun%NULL%0,                            Tuanjie%Liu%NULL%1,                            Xiong%Ni%NULL%1,                            Xuanfeng%Deng%NULL%1,                            Yanpu%Jia%NULL%2,                            Zhilei%Shang%NULL%2,                            Yaoguang%Zhou%NULL%2,                            Weizhi%Liu%13024141970@163.com%3,                            Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[U.%Wesemann%NULL%1,                            N.%Hadjamu%NULL%2,                            N.%Hadjamu%NULL%0,                            G.%Willmund%NULL%1,                            S.%Dolff%NULL%1,                            N.%Vonderlin%NULL%1,                            R.%Wakili%NULL%1,                            J.%Vogel%NULL%1,                            T.%Rassaf%NULL%1,                            J.%Siebermair%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                            Riyu%Pan%NULL%1,                            Xiaoyang%Wan%NULL%1,                            Yilin%Tan%NULL%1,                            Linkang%Xu%NULL%1,                            Roger S.%McIntyre%NULL%3,                            Faith N.%Choo%NULL%1,                            Bach%Tran%NULL%3,                            Roger%Ho%NULL%3,                            Vijay K.%Sharma%NULL%2,                            Cyrus%Ho%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Mohit%Varshney%NULL%1,                            Jithin Thomas%Parel%NULL%2,                            Jithin Thomas%Parel%NULL%0,                            Neeraj%Raizada%NULL%2,                            Neeraj%Raizada%NULL%0,                            Shiv Kumar%Sarin%NULL%1,                            Abdallah M.%Samy%NULL%2,                            Abdallah M.%Samy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Claudia%Traunmüller%claudia.traunmueller@uni-graz.at%1,                            Rene%Stefitz%NULL%1,                            Kerstin%Gaisbachgrabner%NULL%1,                            Andreas%Schwerdtfeger%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanjie%Tang%NULL%1,                            Tao%Hu%NULL%1,                            Baodi%Hu%NULL%1,                            Chunhan%Jin%NULL%1,                            Gang%Wang%NULL%1,                            Chao%Xie%NULL%1,                            Sen%Chen%NULL%1,                            Jiuping%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanqiu%Tan%NULL%1,                            Fengyi%Hao%NULL%1,                            Roger S.%McIntyre%NULL%0,                            Li%Jiang%NULL%2,                            Xiaojiang%Jiang%NULL%2,                            Ling%Zhang%NULL%2,                            Xinling%Zhao%NULL%2,                            Yiran%Zou%NULL%2,                            Yirong%Hu%NULL%2,                            Xi%Luo%NULL%2,                            Zhisong%Zhang%NULL%2,                            Andre%Lai%NULL%1,                            Roger%Ho%NULL%0,                            Bach%Tran%NULL%0,                            Cyrus%Ho%NULL%0,                            Wilson%Tam%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xingyue%Song%NULL%3,                            Wenning%Fu%NULL%2,                            Xiaoran%Liu%NULL%2,                            Zhiqian%Luo%NULL%2,                            Rixing%Wang%NULL%2,                            Ning%Zhou%NULL%2,                            Shijiao%Yan%NULL%3,                            Chuanzhu%Lv%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Allen C.%Sherman%NULL%1,                            Mark L%Williams%NULL%1,                            Benjamin C%Amick%NULL%1,                            Teresa J.%Hudson%NULL%1,                            Erick L%Messias%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Emire%Seyahi%eseyahi@yahoo.com%1,                            Burc Cagri%Poyraz%bcpoyraz@yahoo.com%2,                            Burc Cagri%Poyraz%bcpoyraz@yahoo.com%0,                            Necdet%Sut%necdetsut@yahoo.com%2,                            Necdet%Sut%necdetsut@yahoo.com%0,                            Selma%Akdogan%drslma.akdogan@gmail.com%2,                            Selma%Akdogan%drslma.akdogan@gmail.com%0,                            Vedat%Hamuryudan%vhamuryudan@yahoo.com%2,                            Vedat%Hamuryudan%vhamuryudan@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%3,                            Valentina%Socci%NULL%3,                            Dalila%Talevi%NULL%1,                            Sonia%Mensi%NULL%1,                            Cinzia%Niolu%NULL%1,                            Francesca%Pacitti%NULL%3,                            Antinisca%Di Marco%NULL%3,                            Alessandro%Rossi%NULL%3,                            Alberto%Siracusano%NULL%3,                            Giorgio%Di Lorenzo%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Rodolfo%Rossi%NULL%0,                            Valentina%Socci%NULL%0,                            Francesca%Pacitti%NULL%0,                            Giorgio%Di Lorenzo%NULL%0,                            Antinisca%Di Marco%NULL%0,                            Alberto%Siracusano%NULL%0,                            Alessandro%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marianna%Riello%NULL%1,                            Marianna%Purgato%NULL%1,                            Chiara%Bove%NULL%1,                            David%MacTaggart%NULL%1,                            Elena%Rusconi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rongfeng%Qi%NULL%2,                            Wei%Chen%NULL%2,                            Saiduo%Liu%NULL%2,                            Paul M.%Thompson%NULL%2,                            Long Jiang%Zhang%NULL%2,                            Fei%Xia%NULL%3,                            Fang%Cheng%NULL%3,                            Ailing%Hong%NULL%2,                            Wesley%Surento%NULL%2,                            Song%Luo%NULL%2,                            Zhi Yuan%Sun%NULL%2,                            Chang Sheng%Zhou%NULL%2,                            Lingjiang%Li%NULL%2,                            Xiangao%Jiang%NULL%2,                            Guang Ming%Lu%NULL%2,                             R.%Qi%null%2,                             W.% Chen%null%2,                             S.% Liu%null%2,                             P. M.% Thompson%null%2,                             L. J.% Zhang%null%2,                             F.% Xia%null%2,                             F.% Cheng%null%2,                             A.% Hong%null%2,                             W.% Surento%null%2,                             S.% Luo%null%2,                             Z. Y.% Sun%null%2,                             C. S.% Zhou%null%2,                             L.% Li%null%2,                             X.% Jiang%null%2,                             G. M. % Lu%null%2,                           R.%Qi%null%1,                           W.% Chen%null%1,                           S.% Liu%null%1,                           P. M.% Thompson%null%1,                           L. J.% Zhang%null%1,                           F.% Xia%null%1,                           F.% Cheng%null%1,                           A.% Hong%null%1,                           W.% Surento%null%1,                           S.% Luo%null%1,                           Z. Y.% Sun%null%1,                           C. S.% Zhou%null%1,                           L.% Li%null%1,                           X.% Jiang%null%1,                           G. M. % Lu%null%1,         R.%Qi%null%2,         W.% Chen%null%2,         S.% Liu%null%2,         P. M.% Thompson%null%2,         L. J.% Zhang%null%2,         F.% Xia%null%2,         F.% Cheng%null%2,         A.% Hong%null%2,         W.% Surento%null%2,         S.% Luo%null%2,         Z. Y.% Sun%null%2,         C. S.% Zhou%null%2,         L.% Li%null%2,         X.% Jiang%null%2,         G. M. % Lu%null%2]</t>
+  </si>
+  <si>
+    <t>[Zheng Feei%Ma%NULL%1,                            Yutong%Zhang%NULL%2,                            Yutong%Zhang%NULL%0,                            Xiaoqin%Luo%NULL%1,                            Xinli%Li%NULL%1,                            Yeshan%Li%NULL%1,                            Shuchang%Liu%NULL%1,                            Yingfei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lourdes%Luceño-Moreno%NULL%1,                            Beatriz%Talavera-Velasco%NULL%2,                            Beatriz%Talavera-Velasco%NULL%0,                            Yolanda%García-Albuerne%NULL%1,                            Jesús%Martín-García%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nianqi%Liu%NULL%0,                            Fan%Zhang%NULL%1,                            Cun%Wei%NULL%1,                            Yanpu%Jia%NULL%0,                            Zhilei%Shang%NULL%0,                            Luna%Sun%NULL%1,                            Lili%Wu%NULL%1,                            Zhuoer%Sun%NULL%0,                            Yaoguang%Zhou%NULL%0,                            Yan%Wang%NULL%1,                            Weizhi%Liu%13024141970@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Cindy H.%Liu%chliu@bwh.harvard.edu%1,                            Emily%Zhang%NULL%1,                            Ga Tin Fifi%Wong%NULL%1,                            Sunah%Hyun%NULL%1,                            Hyeouk “Chris”%Hahm%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Li%NULL%1,                            Yue%Wang%NULL%1,                            Jingwen%Jiang%NULL%1,                            Unnur A.%Valdimarsdóttir%NULL%1,                            Katja%Fall%NULL%2,                            Katja%Fall%NULL%0,                            Fang%Fang%NULL%4,                            Fang%Fang%NULL%0,                            Huan%Song%NULL%1,                            Donghao%Lu%NULL%1,                            Wei%Zhang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bisson%J. I.%coreGivesNoEmail%1,                           Chiang%E. S.%coreGivesNoEmail%1,                           Fernandez%R.%coreGivesNoEmail%1,                           Gonz\u00e1lez%V. B. A.%coreGivesNoEmail%1,                           Ibrahim%H.%coreGivesNoEmail%1,                           Lee%B.%coreGivesNoEmail%1,                           Shi%L.%coreGivesNoEmail%1,                           Sun%N.%coreGivesNoEmail%1,                           Tsay%S.\u2010F.%coreGivesNoEmail%1,                           World%Health Organisation%coreGivesNoEmail%2,                           World%Health Organisation%coreGivesNoEmail%0,                           Xiaoyue%Xu%coreGivesNoEmail%1,                           Xiuchuan%Li%coreGivesNoEmail%1,                           Ying%Zhou%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Xin%Li%NULL%1,                            Peixin%Lu%NULL%1,                            Lianting%Hu%NULL%1,                            Tianhui%Huang%NULL%1,                            Long%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guorong%Cao%coreGivesNoEmail%1,                           Holly%Wei%coreGivesNoEmail%1,                           Hong%Xu%coreGivesNoEmail%1,                           Lili%Wei%coreGivesNoEmail%1,                           Lu%H%coreGivesNoEmail%1,                           Min%Leng%coreGivesNoEmail%1,                           Shi%Ti JC%coreGivesNoEmail%1,                           Shuyun%Xing%coreGivesNoEmail%1,                           Weathers%F%coreGivesNoEmail%1,                           Wenwen%Zhang%coreGivesNoEmail%1,                           Xiaohui%Shi%coreGivesNoEmail%1,                           Xiaoying%Zhang%coreGivesNoEmail%1,                           Yang%T%coreGivesNoEmail%1,                           Yuling%Wei%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xuan Thi Thanh%Le%NULL%1,                            Anh Kim%Dang%NULL%1,                            Jayson%Toweh%NULL%1,                            Quang Nhat%Nguyen%NULL%1,                            Huong Thi%Le%NULL%1,                            Toan Thi Thanh%Do%NULL%1,                            Hanh Bich Thi%Phan%NULL%1,                            Thao Thanh%Nguyen%NULL%1,                            Quan Thi%Pham%NULL%1,                            Nhung Kim Thi%Ta%NULL%1,                            Quynh Thi%Nguyen%NULL%1,                            Anh Ngoc%Nguyen%NULL%1,                            Quan%Van Duong%NULL%1,                            Men Thi%Hoang%NULL%1,                            Hai Quang%Pham%NULL%1,                            Linh Gia%Vu%NULL%1,                            Bach Xuan%Tran%NULL%1,                            Carl A.%Latkin%NULL%1,                            Cyrus S. H.%Ho%NULL%1,                            Roger C. M.%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Lange%NULL%1,                            S.%Joo%NULL%1,                            P.-A.%Couette%NULL%1,                            S.%de Jaegher%NULL%1,                            F.%Joly%NULL%1,                            X.%Humbert%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                            Simeng%Ma%NULL%2,                            Ying%Wang%NULL%4,                            Zhongxiang%Cai%NULL%2,                            Jianbo%Hu%NULL%2,                            Ning%Wei%NULL%2,                            Jiang%Wu%NULL%3,                            Hui%Du%NULL%2,                            Tingting%Chen%NULL%2,                            Ruiting%Li%NULL%2,                            Huawei%Tan%NULL%2,                            Lijun%Kang%NULL%2,                            Lihua%Yao%NULL%2,                            Manli%Huang%NULL%2,                            Huafen%Wang%NULL%2,                            Gaohua%Wang%NULL%3,                            Zhongchun%Liu%NULL%3,                            Shaohua%Hu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Thanos%Karatzias%t.karatzias@napier.ac.uk%1,                            Mark%Shevlin%NULL%1,                            Jamie%Murphy%NULL%1,                            Orla%McBride%NULL%1,                            Menachem%Ben‐Ezra%NULL%2,                            Menachem%Ben‐Ezra%NULL%0,                            Richard P.%Bentall%NULL%1,                            Frédérique%Vallières%NULL%1,                            Philip%Hyland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle I.%Cardel%mcardel@ufl.edu%1,                            Stephanie%Manasse%NULL%2,                            Stephanie%Manasse%NULL%0,                            Rebecca A.%Krukowski%NULL%2,                            Rebecca A.%Krukowski%NULL%0,                            Kathryn%Ross%NULL%2,                            Kathryn%Ross%NULL%0,                            Rebecca%Shakour%NULL%2,                            Rebecca%Shakour%NULL%0,                            Darci R.%Miller%NULL%1,                            Dominick J.%Lemas%NULL%1,                            Young‐Rock%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Guo%NULL%1,                            Xing Lin%Feng%NULL%1,                            Xiao Hua%Wang%NULL%2,                            Xiao Hua%Wang%NULL%0,                            Marinus H.%van IJzendoorn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%2,                            Berta%Ausín%NULL%1,                            Miguel Ángel%Castellanos%NULL%1,                            Jesús%Saiz%NULL%1,                            Aída%López-Gómez%NULL%1,                            Carolina%Ugidos%NULL%1,                            Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leivy Patricia%González Ramírez%NULL%1,                            Reyna Jazmín%Martínez Arriaga%NULL%2,                            Reyna Jazmín%Martínez Arriaga%NULL%0,                            Martha Alicia%Hernández-Gonzalez%NULL%2,                            Martha Alicia%Hernández-Gonzalez%NULL%0,                            José María%De la Roca-Chiapas%NULL%2,                            José María%De la Roca-Chiapas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Forte%NULL%1,                            Francesca%Favieri%NULL%2,                            Francesca%Favieri%NULL%0,                            Renata%Tambelli%NULL%2,                            Renata%Tambelli%NULL%0,                            Maria%Casagrande%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feten%Fekih-Romdhane%feten.fekih@gmail.com%1,                            Farah%Ghrissi%NULL%1,                            Bouthaina%Abbassi%NULL%1,                            Wissal%Cherif%NULL%1,                            Majda%Cheour%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Safaa M.%El-Zoghby%safaaelzoghby86@hotmail.com%1,                            Enayat M.%Soltan%enayatsoltan@gmail.com%2,                            Enayat M.%Soltan%enayatsoltan@gmail.com%0,                            Hend M.%Salama%hind_mikhail@yahoo.com%2,                            Hend M.%Salama%hind_mikhail@yahoo.com%0]</t>
+  </si>
+  <si>
+    <t>[Hannah%Dobson%NULL%1,                            Charles B%Malpas%NULL%2,                            Charles B%Malpas%NULL%0,                            Aidan JC%Burrell%NULL%1,                            Caroline%Gurvich%NULL%1,                            Leo%Chen%NULL%1,                            Jayashri%Kulkarni%NULL%1,                            Toby%Winton-Brown%NULL%2,                            Toby%Winton-Brown%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nadia Yanet%Cortés-Álvarez%NULL%1,                            Regino%Piñeiro-Lamas%NULL%1,                            César Rubén%Vuelvas-Olmos%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%2,                            Yasmeen%Byrnes%NULL%2,                            Yasmeen%Byrnes%NULL%0,                            Changgee%Chang%NULL%2,                            Aman%Prasad%NULL%1,                            Kevin%Chorath%NULL%2,                            Kevin%Chorath%NULL%0,                            Seerat K.%Poonia%NULL%1,                            Carolyn M.%Jenks%NULL%1,                            Andrés M.%Bur%NULL%1,                            Punam%Thakkar%NULL%2,                            Punam%Thakkar%NULL%0,                            Evan M.%Graboyes%NULL%2,                            Evan M.%Graboyes%NULL%0,                            Rahul%Seth%NULL%2,                            Rahul%Seth%NULL%0,                            Samuel%Trosman%NULL%1,                            Anni%Wong%NULL%2,                            Anni%Wong%NULL%0,                            Benjamin M.%Laitman%NULL%1,                            Brianna N.%Harris%NULL%1,                            Janki%Shah%NULL%2,                            Janki%Shah%NULL%0,                            Vanessa%Stubbs%NULL%1,                            Garret%Choby%NULL%1,                            Qi%Long%NULL%2,                            Christopher H.%Rassekh%NULL%1,                            Erica%Thaler%NULL%1,                            Karthik%Rajasekaran%karthik.rajasekaran@pennmedicine.upenn.edu%2]</t>
+  </si>
+  <si>
+    <t>[Alyssa M.%Civantos%NULL%0,                            Antonio%Bertelli%NULL%1,                            Antonio%Gonçalves%NULL%1,                            Emily%Getzen%NULL%1,                            Changgee%Chang%NULL%0,                            Qi%Long%NULL%0,                            Karthik%Rajasekaran%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xinli%Chi%NULL%2,                            Benjamin%Becker%NULL%2,                            Qian%Yu%NULL%2,                            Peter%Willeit%NULL%2,                            Can%Jiao%NULL%2,                            Liuyue%Huang%NULL%2,                            M. Mahhub%Hossain%NULL%2,                            Igor%Grabovac%NULL%2,                            Albert%Yeung%NULL%2,                            Jingyuan%Lin%NULL%2,                            Nicola%Veronese%NULL%2,                            Jian%Wang%NULL%3,                            Xinqi%Zhou%NULL%2,                            Scott R.%Doig%NULL%2,                            Xiaofeng%Liu%NULL%2,                            Andre F.%Carvalho%NULL%2,                            Lin%Yang%NULL%4,                            Tao%Xiao%NULL%2,                            Liye%Zou%NULL%2,                            Paolo%Fusar-Poli%NULL%2,                            Marco%Solmi%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nicholas W. S.%Chew%NULL%1,                            Jinghao Nicholas%Ngiam%NULL%1,                            Benjamin Yong-Qiang%Tan%NULL%2,                            Benjamin Yong-Qiang%Tan%NULL%0,                            Sai-Meng%Tham%NULL%1,                            Celine Yan-Shan%Tan%NULL%1,                            Mingxue%Jing%NULL%1,                            Renarebecca%Sagayanathan%NULL%1,                            Jin Tao%Chen%NULL%1,                            Lily Y. H.%Wong%NULL%1,                            Aftab%Ahmad%NULL%1,                            Faheem Ahmed%Khan%NULL%1,                            Maznah%Marmin%NULL%1,                            Fadhlina Binte%Hassan%NULL%1,                            Tai Mei-Ling%Sharon%NULL%1,                            Chin Han%Lim%NULL%1,                            Mohamad Iqbal Bin%Mohaini%NULL%1,                            Rivan%Danuaji%NULL%1,                            Thang H.%Nguyen%NULL%1,                            Georgios%Tsivgoulis%NULL%1,                            Sotirios%Tsiodras%NULL%1,                            Paraskevi C.%Fragkou%NULL%1,                            Dimitra%Dimopoulou%NULL%2,                            Dimitra%Dimopoulou%NULL%0,                            Arvind K.%Sharma%NULL%1,                            Kenam%Shah%NULL%1,                            Bhargesh%Patel%NULL%1,                            Suktara%Sharma%NULL%1,                            R. N.%Komalkumar%NULL%1,                            R. V.%Meenakshi%NULL%1,                            Shikha%Talati%NULL%1,                            Hock Luen%Teoh%NULL%1,                            Cyrus S.%Ho%NULL%1,                            Roger C.%Ho%NULL%0,                            Vijay K.%Sharma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhongxiang%Cai%NULL%1,                            Qin%Cui%NULL%1,                            Zhongchun%Liu%NULL%0,                            Juanjuan%Li%NULL%1,                            Xuan%Gong%NULL%1,                            Jingfang%Liu%NULL%1,                            Zhiying%Wan%NULL%1,                            Xiaoping%Yuan%NULL%1,                            Xiaofen%Li%NULL%1,                            Chuang%Chen%NULL%1,                            Gaohua%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aliki%F. Chatzigeorgiou%coreGivesNoEmail%1,                           Apostolos%Blekas%coreGivesNoEmail%1,                           Eleni%Parlapani%coreGivesNoEmail%1,                           Ioannis%Diakogiannis%coreGivesNoEmail%1,                           Maria%Athanasiadou%coreGivesNoEmail%1,                           Marina%Skoupra%coreGivesNoEmail%1,                           Markos%Syngelakis%coreGivesNoEmail%1,                           Panteleimon%Voitsidis%coreGivesNoEmail%1,                           Vasiliki%Holeva%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                            Zheng Feei%Ma%NULL%0,                            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fengyi%Hao%NULL%1,                            Wanqiu%Tan%NULL%1,                            Li%Jiang%NULL%0,                            Ling%Zhang%NULL%0,                            Xinling%Zhao%NULL%0,                            Yiran%Zou%NULL%0,                            Yirong%Hu%NULL%0,                            Xi%Luo%NULL%0,                            Xiaojiang%Jiang%NULL%0,                            Roger S.%McIntyre%NULL%0,                            Bach%Tran%NULL%0,                            Jiaqian%Sun%NULL%1,                            Zhisong%Zhang%NULL%0,                            Roger%Ho%NULL%0,                            Cyrus%Ho%NULL%0,                            Wilson%Tam%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Leilei%Liang%NULL%1,                            Hui%Ren%NULL%1,                            Ruilin%Cao%NULL%1,                            Yueyang%Hu%NULL%1,                            Zeying%Qin%NULL%1,                            Chuanen%Li%NULL%1,                            Songli%Mei%meisongli@sina.com%1]</t>
   </si>
 </sst>
 </file>
@@ -6247,7 +6607,7 @@
         <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>1682</v>
+        <v>1802</v>
       </c>
       <c r="F2" t="s">
         <v>84</v>
@@ -6311,7 +6671,7 @@
         <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>1683</v>
+        <v>1803</v>
       </c>
       <c r="F4" t="s">
         <v>94</v>
@@ -6343,7 +6703,7 @@
         <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>1684</v>
+        <v>1804</v>
       </c>
       <c r="F5" t="s">
         <v>98</v>
@@ -6375,7 +6735,7 @@
         <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>1685</v>
+        <v>1805</v>
       </c>
       <c r="F6" t="s">
         <v>102</v>
@@ -6407,7 +6767,7 @@
         <v>871</v>
       </c>
       <c r="E7" t="s">
-        <v>1686</v>
+        <v>1806</v>
       </c>
       <c r="F7" t="s">
         <v>106</v>
@@ -6439,7 +6799,7 @@
         <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>1687</v>
+        <v>1807</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -6471,7 +6831,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1688</v>
+        <v>1808</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -6503,7 +6863,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>1689</v>
+        <v>1809</v>
       </c>
       <c r="F10" t="s">
         <v>118</v>
@@ -6535,7 +6895,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>876</v>
+        <v>1005</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -6567,7 +6927,7 @@
         <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>1690</v>
+        <v>1810</v>
       </c>
       <c r="F12" t="s">
         <v>123</v>
@@ -6599,7 +6959,7 @@
         <v>878</v>
       </c>
       <c r="E13" t="s">
-        <v>1691</v>
+        <v>1811</v>
       </c>
       <c r="F13" t="s">
         <v>127</v>
@@ -6631,7 +6991,7 @@
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>1692</v>
+        <v>1812</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -6663,7 +7023,7 @@
         <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>1693</v>
+        <v>1813</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
@@ -6695,7 +7055,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>1694</v>
+        <v>1814</v>
       </c>
       <c r="F16" t="s">
         <v>137</v>
@@ -6727,7 +7087,7 @@
         <v>883</v>
       </c>
       <c r="E17" t="s">
-        <v>1695</v>
+        <v>1815</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -6759,7 +7119,7 @@
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>1696</v>
+        <v>1816</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -6791,7 +7151,7 @@
         <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>1697</v>
+        <v>1817</v>
       </c>
       <c r="F19" t="s">
         <v>144</v>
@@ -6823,7 +7183,7 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>1698</v>
+        <v>1818</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
@@ -6855,7 +7215,7 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>1699</v>
+        <v>1819</v>
       </c>
       <c r="F21" t="s">
         <v>151</v>
@@ -6887,7 +7247,7 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>1700</v>
+        <v>1820</v>
       </c>
       <c r="F22" t="s">
         <v>155</v>
@@ -6919,7 +7279,7 @@
         <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>1701</v>
+        <v>1821</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
@@ -6951,7 +7311,7 @@
         <v>891</v>
       </c>
       <c r="E24" t="s">
-        <v>1702</v>
+        <v>1822</v>
       </c>
       <c r="F24" t="s">
         <v>163</v>
@@ -6983,7 +7343,7 @@
         <v>166</v>
       </c>
       <c r="E25" t="s">
-        <v>1703</v>
+        <v>1823</v>
       </c>
       <c r="F25" t="s">
         <v>167</v>
@@ -7015,7 +7375,7 @@
         <v>170</v>
       </c>
       <c r="E26" t="s">
-        <v>1704</v>
+        <v>1824</v>
       </c>
       <c r="F26" t="s">
         <v>171</v>
@@ -7047,7 +7407,7 @@
         <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>1705</v>
+        <v>1825</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -7079,7 +7439,7 @@
         <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>1706</v>
+        <v>1826</v>
       </c>
       <c r="F28" t="s">
         <v>179</v>
@@ -7111,7 +7471,7 @@
         <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>1707</v>
+        <v>1827</v>
       </c>
       <c r="F29" t="s">
         <v>183</v>
@@ -7143,7 +7503,7 @@
         <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>1708</v>
+        <v>1828</v>
       </c>
       <c r="F30" t="s">
         <v>187</v>
@@ -7175,7 +7535,7 @@
         <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>1709</v>
+        <v>1829</v>
       </c>
       <c r="F31" t="s">
         <v>191</v>
@@ -7207,7 +7567,7 @@
         <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>1710</v>
+        <v>1830</v>
       </c>
       <c r="F32" t="s">
         <v>195</v>
@@ -7239,7 +7599,7 @@
         <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>1711</v>
+        <v>1831</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -7271,7 +7631,7 @@
         <v>201</v>
       </c>
       <c r="E34" t="s">
-        <v>1712</v>
+        <v>1832</v>
       </c>
       <c r="F34" t="s">
         <v>202</v>
@@ -7303,7 +7663,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>1713</v>
+        <v>1833</v>
       </c>
       <c r="F35" t="s">
         <v>205</v>
@@ -7335,7 +7695,7 @@
         <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>1714</v>
+        <v>1834</v>
       </c>
       <c r="F36" t="s">
         <v>209</v>
@@ -7367,7 +7727,7 @@
         <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>1715</v>
+        <v>1835</v>
       </c>
       <c r="F37" t="s">
         <v>213</v>
@@ -7399,7 +7759,7 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>1716</v>
+        <v>1836</v>
       </c>
       <c r="F38" t="s">
         <v>217</v>
@@ -7463,7 +7823,7 @@
         <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>1717</v>
+        <v>1837</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -7495,7 +7855,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>1718</v>
+        <v>1838</v>
       </c>
       <c r="F41" t="s">
         <v>221</v>
@@ -7559,7 +7919,7 @@
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>1719</v>
+        <v>1839</v>
       </c>
       <c r="F43" t="s">
         <v>45</v>
@@ -7591,7 +7951,7 @@
         <v>228</v>
       </c>
       <c r="E44" t="s">
-        <v>1720</v>
+        <v>1840</v>
       </c>
       <c r="F44" t="s">
         <v>229</v>
@@ -7623,7 +7983,7 @@
         <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>1721</v>
+        <v>1841</v>
       </c>
       <c r="F45" t="s">
         <v>233</v>
@@ -7655,7 +8015,7 @@
         <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>1722</v>
+        <v>1842</v>
       </c>
       <c r="F46" t="s">
         <v>237</v>
@@ -7687,7 +8047,7 @@
         <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>1723</v>
+        <v>1843</v>
       </c>
       <c r="F47" t="s">
         <v>241</v>
@@ -7719,7 +8079,7 @@
         <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>1724</v>
+        <v>1844</v>
       </c>
       <c r="F48" t="s">
         <v>245</v>
@@ -7751,7 +8111,7 @@
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>1725</v>
+        <v>1845</v>
       </c>
       <c r="F49" t="s">
         <v>249</v>
@@ -7783,7 +8143,7 @@
         <v>252</v>
       </c>
       <c r="E50" t="s">
-        <v>1726</v>
+        <v>1846</v>
       </c>
       <c r="F50" t="s">
         <v>253</v>
@@ -7815,7 +8175,7 @@
         <v>256</v>
       </c>
       <c r="E51" t="s">
-        <v>1727</v>
+        <v>1847</v>
       </c>
       <c r="F51" t="s">
         <v>257</v>
@@ -7847,7 +8207,7 @@
         <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>1728</v>
+        <v>1848</v>
       </c>
       <c r="F52" t="s">
         <v>260</v>
@@ -7879,7 +8239,7 @@
         <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>1729</v>
+        <v>1849</v>
       </c>
       <c r="F53" t="s">
         <v>262</v>
@@ -7911,7 +8271,7 @@
         <v>920</v>
       </c>
       <c r="E54" t="s">
-        <v>1730</v>
+        <v>1850</v>
       </c>
       <c r="F54" t="s">
         <v>266</v>
@@ -7943,7 +8303,7 @@
         <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>1731</v>
+        <v>1851</v>
       </c>
       <c r="F55" t="s">
         <v>269</v>
@@ -7975,7 +8335,7 @@
         <v>75</v>
       </c>
       <c r="E56" t="s">
-        <v>923</v>
+        <v>1048</v>
       </c>
       <c r="F56" t="s">
         <v>59</v>
@@ -8007,7 +8367,7 @@
         <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>1732</v>
+        <v>1852</v>
       </c>
       <c r="F57" t="s">
         <v>272</v>
@@ -8039,7 +8399,7 @@
         <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>1733</v>
+        <v>1853</v>
       </c>
       <c r="F58" t="s">
         <v>276</v>
@@ -8071,7 +8431,7 @@
         <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>1734</v>
+        <v>1854</v>
       </c>
       <c r="F59" t="s">
         <v>279</v>
@@ -8103,7 +8463,7 @@
         <v>281</v>
       </c>
       <c r="E60" t="s">
-        <v>1735</v>
+        <v>1855</v>
       </c>
       <c r="F60" t="s">
         <v>282</v>
@@ -8135,7 +8495,7 @@
         <v>285</v>
       </c>
       <c r="E61" t="s">
-        <v>1736</v>
+        <v>1856</v>
       </c>
       <c r="F61" t="s">
         <v>286</v>
@@ -8167,7 +8527,7 @@
         <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>1737</v>
+        <v>1857</v>
       </c>
       <c r="F62" t="s">
         <v>290</v>
@@ -8199,7 +8559,7 @@
         <v>75</v>
       </c>
       <c r="E63" t="s">
-        <v>1738</v>
+        <v>1858</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -8231,7 +8591,7 @@
         <v>293</v>
       </c>
       <c r="E64" t="s">
-        <v>1739</v>
+        <v>1859</v>
       </c>
       <c r="F64" t="s">
         <v>294</v>
@@ -8263,7 +8623,7 @@
         <v>296</v>
       </c>
       <c r="E65" t="s">
-        <v>1740</v>
+        <v>1860</v>
       </c>
       <c r="F65" t="s">
         <v>297</v>
@@ -8295,7 +8655,7 @@
         <v>933</v>
       </c>
       <c r="E66" t="s">
-        <v>1741</v>
+        <v>1861</v>
       </c>
       <c r="F66" t="s">
         <v>301</v>
